--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1448B528-A055-426F-9E38-A1380FE9D5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C324D1B2-BCF6-42D3-A9DD-BE7F783B4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C324D1B2-BCF6-42D3-A9DD-BE7F783B4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E626C8-1F0C-47E4-9D66-8BBD90DA16DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="653">
   <si>
     <t>CONTA</t>
   </si>
@@ -55,24 +55,30 @@
     <t>PEDRO</t>
   </si>
   <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
     <t>004463586</t>
   </si>
   <si>
     <t>MARCIA</t>
   </si>
   <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
     <t>004454365</t>
   </si>
   <si>
@@ -91,6 +97,12 @@
     <t>ANA</t>
   </si>
   <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
     <t>005046790</t>
   </si>
   <si>
@@ -157,6 +169,12 @@
     <t>BENEDITO</t>
   </si>
   <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
     <t>001761119</t>
   </si>
   <si>
@@ -307,6 +325,9 @@
     <t>VIOMAR</t>
   </si>
   <si>
+    <t>002687737</t>
+  </si>
+  <si>
     <t>004981655</t>
   </si>
   <si>
@@ -346,9 +367,6 @@
     <t>004444380</t>
   </si>
   <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
     <t>004474776</t>
   </si>
   <si>
@@ -613,9 +631,6 @@
     <t>EULER</t>
   </si>
   <si>
-    <t>002687737</t>
-  </si>
-  <si>
     <t>004958539</t>
   </si>
   <si>
@@ -1075,9 +1090,6 @@
     <t>004846293</t>
   </si>
   <si>
-    <t>000772433</t>
-  </si>
-  <si>
     <t>004405234</t>
   </si>
   <si>
@@ -1549,12 +1561,6 @@
     <t>004335251</t>
   </si>
   <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
     <t>004215217</t>
   </si>
   <si>
@@ -1573,12 +1579,6 @@
     <t>004208447</t>
   </si>
   <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
     <t>004398174</t>
   </si>
   <si>
@@ -1715,6 +1715,9 @@
   </si>
   <si>
     <t>002828327</t>
+  </si>
+  <si>
+    <t>002277249</t>
   </si>
   <si>
     <t>004482090</t>
@@ -2341,11 +2344,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C406"/>
+  <dimension ref="A1:C407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2412,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>49424.49</v>
+        <v>32123.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2423,7 +2424,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>32123.8</v>
+        <v>28048.91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2445,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>13567.35</v>
+        <v>20424.490000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2456,7 +2457,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>12248.54</v>
+        <v>13567.35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2467,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>12085.71</v>
+        <v>12248.54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2478,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>9964.4</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2489,7 +2490,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>7849.45</v>
+        <v>10057.41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2500,7 +2501,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>5883.13</v>
+        <v>9964.4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2508,43 +2509,43 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>5108.05</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>4917.0600000000004</v>
+        <v>5883.13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>3962.96</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>3022.16</v>
+        <v>4917.0600000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2555,7 +2556,7 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>2691.13</v>
+        <v>3962.96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2566,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>2501.4</v>
+        <v>3022.16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2577,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>2438.4499999999998</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2588,7 +2589,7 @@
         <v>42</v>
       </c>
       <c r="C22">
-        <v>2300</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2599,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="C23">
-        <v>2248.11</v>
+        <v>2438.4499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2610,7 +2611,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>2073.7199999999998</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2621,7 +2622,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>1865.9</v>
+        <v>2248.11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2632,7 +2633,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1768.73</v>
+        <v>2113.1999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2643,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1744.22</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2654,7 +2655,7 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>1544.52</v>
+        <v>1865.9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2662,43 +2663,43 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>1416.45</v>
+        <v>1768.73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>1406.22</v>
+        <v>1744.22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>1272.2</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>1241.52</v>
+        <v>1416.45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2709,7 +2710,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>1239.45</v>
+        <v>1406.22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2720,7 +2721,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>1198.42</v>
+        <v>1272.2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2731,7 +2732,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>1129.29</v>
+        <v>1241.52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2742,7 +2743,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>1125.31</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2753,7 +2754,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>1051.0899999999999</v>
+        <v>1198.42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2764,7 +2765,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>999.12</v>
+        <v>1129.29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2775,7 +2776,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>991.44</v>
+        <v>1125.31</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2786,7 +2787,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>986.98</v>
+        <v>1051.0899999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2797,7 +2798,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>984.55</v>
+        <v>999.12</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2808,7 +2809,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>972.3</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2819,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>944.11</v>
+        <v>986.98</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2830,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>938.8</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2841,7 +2842,7 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>891.04</v>
+        <v>972.3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2852,7 +2853,7 @@
         <v>89</v>
       </c>
       <c r="C46">
-        <v>885.52</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2863,7 +2864,7 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <v>885.13</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2871,43 +2872,43 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>884.96</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49">
-        <v>884.67</v>
+        <v>885.52</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>867.93</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>867.16</v>
+        <v>884.96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2918,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>864.35</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2926,65 +2927,65 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>845.19</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
-        <v>104</v>
-      </c>
       <c r="C54">
-        <v>833.03</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
       <c r="C55">
-        <v>820.67</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
       <c r="C56">
-        <v>810.41</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
-        <v>110</v>
-      </c>
       <c r="C57">
-        <v>803.76</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
       <c r="C58">
-        <v>802.88</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2995,7 +2996,7 @@
         <v>113</v>
       </c>
       <c r="C59">
-        <v>802.18</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3003,87 +3004,87 @@
         <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>798.23</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
       <c r="C61">
-        <v>787.45</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>775.83</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
       <c r="C63">
-        <v>768.88</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
         <v>121</v>
       </c>
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
       <c r="C64">
-        <v>761.35</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
       <c r="C65">
-        <v>747.96</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>740.54</v>
+        <v>775.83</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
       <c r="C67">
-        <v>739.7</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3091,54 +3092,54 @@
         <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C68">
-        <v>739.38</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69">
-        <v>732.94</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C70">
-        <v>723.26</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>715.28</v>
+        <v>739.7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="C72">
-        <v>714.2</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3146,21 +3147,21 @@
         <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C73">
-        <v>710.16</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C74">
-        <v>703</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3168,164 +3169,164 @@
         <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>685.96</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
-        <v>140</v>
-      </c>
       <c r="C76">
-        <v>655.11</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C77">
-        <v>651</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78">
-        <v>645.16999999999996</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79">
-        <v>636.76</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80">
-        <v>622.63</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81">
-        <v>608.66999999999996</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82">
-        <v>596.41999999999996</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83">
-        <v>579.26</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84">
-        <v>579.20000000000005</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85">
-        <v>570.97</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86">
-        <v>560.45000000000005</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
         <v>160</v>
       </c>
       <c r="C87">
-        <v>556.30999999999995</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
         <v>162</v>
       </c>
-      <c r="B88" t="s">
-        <v>163</v>
-      </c>
       <c r="C88">
-        <v>553.23</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" t="s">
         <v>164</v>
       </c>
-      <c r="B89" t="s">
-        <v>144</v>
-      </c>
       <c r="C89">
-        <v>542.62</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3333,21 +3334,21 @@
         <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="C90">
-        <v>536.41999999999996</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
         <v>166</v>
       </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
       <c r="C91">
-        <v>534.49</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3358,7 +3359,7 @@
         <v>169</v>
       </c>
       <c r="C92">
-        <v>532.78</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3366,10 +3367,10 @@
         <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="C93">
-        <v>531.54</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3377,76 +3378,76 @@
         <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C94">
-        <v>528.38</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
         <v>173</v>
       </c>
-      <c r="B95" t="s">
-        <v>174</v>
-      </c>
       <c r="C95">
-        <v>521.74</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" t="s">
         <v>175</v>
       </c>
-      <c r="B96" t="s">
-        <v>176</v>
-      </c>
       <c r="C96">
-        <v>520.05999999999995</v>
+        <v>532.78</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97">
-        <v>510.92</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" t="s">
         <v>178</v>
       </c>
-      <c r="B98" t="s">
-        <v>179</v>
-      </c>
       <c r="C98">
-        <v>509.7</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
         <v>180</v>
       </c>
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
       <c r="C99">
-        <v>486.29</v>
+        <v>521.74</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
         <v>182</v>
       </c>
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
       <c r="C100">
-        <v>483.71</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3454,32 +3455,32 @@
         <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>482.71</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" t="s">
         <v>185</v>
       </c>
-      <c r="B102" t="s">
-        <v>186</v>
-      </c>
       <c r="C102">
-        <v>468.72</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
         <v>187</v>
       </c>
-      <c r="B103" t="s">
-        <v>152</v>
-      </c>
       <c r="C103">
-        <v>468.65</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3487,10 +3488,10 @@
         <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C104">
-        <v>465.88</v>
+        <v>483.71</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3498,32 +3499,32 @@
         <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="C105">
-        <v>465.38</v>
+        <v>482.71</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106">
-        <v>463.52</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C107">
-        <v>462.44</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3531,10 +3532,10 @@
         <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C108">
-        <v>459.98</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3542,21 +3543,21 @@
         <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="C109">
-        <v>453.33</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" t="s">
         <v>197</v>
       </c>
-      <c r="B110" t="s">
-        <v>50</v>
-      </c>
       <c r="C110">
-        <v>452.41</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3564,43 +3565,43 @@
         <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="C111">
-        <v>451.86</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C112">
-        <v>447.24</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C113">
-        <v>446.15</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="C114">
-        <v>441.76</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3608,21 +3609,21 @@
         <v>204</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="C115">
-        <v>429.52</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
         <v>206</v>
       </c>
-      <c r="B116" t="s">
-        <v>65</v>
-      </c>
       <c r="C116">
-        <v>418</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3630,32 +3631,32 @@
         <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C117">
-        <v>415.42</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C118">
-        <v>409.89</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="C119">
-        <v>409.11</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3663,10 +3664,10 @@
         <v>212</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C120">
-        <v>407.94</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3674,43 +3675,43 @@
         <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="C121">
-        <v>404.34</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C122">
-        <v>400.5</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C123">
-        <v>400</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="C124">
-        <v>396.98</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3721,7 +3722,7 @@
         <v>220</v>
       </c>
       <c r="C125">
-        <v>392.89</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3729,32 +3730,32 @@
         <v>221</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="C126">
-        <v>392.83</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" t="s">
         <v>223</v>
       </c>
-      <c r="B127" t="s">
-        <v>224</v>
-      </c>
       <c r="C127">
-        <v>380.46</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" t="s">
         <v>225</v>
       </c>
-      <c r="B128" t="s">
-        <v>22</v>
-      </c>
       <c r="C128">
-        <v>378.28</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3765,7 +3766,7 @@
         <v>227</v>
       </c>
       <c r="C129">
-        <v>376.72</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3773,21 +3774,21 @@
         <v>228</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="C130">
-        <v>375.22</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="C131">
-        <v>374.97</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3798,7 +3799,7 @@
         <v>232</v>
       </c>
       <c r="C132">
-        <v>369.5</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3806,21 +3807,21 @@
         <v>233</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="C133">
-        <v>367.11</v>
+        <v>375.22</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" t="s">
         <v>235</v>
       </c>
-      <c r="B134" t="s">
-        <v>10</v>
-      </c>
       <c r="C134">
-        <v>347.34</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3831,7 +3832,7 @@
         <v>237</v>
       </c>
       <c r="C135">
-        <v>346.77</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3842,7 +3843,7 @@
         <v>239</v>
       </c>
       <c r="C136">
-        <v>345.51</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3850,21 +3851,21 @@
         <v>240</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="C137">
-        <v>344.66</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>241</v>
+      </c>
+      <c r="B138" t="s">
         <v>242</v>
       </c>
-      <c r="B138" t="s">
-        <v>89</v>
-      </c>
       <c r="C138">
-        <v>344.22</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3875,7 +3876,7 @@
         <v>244</v>
       </c>
       <c r="C139">
-        <v>341.85</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3886,7 +3887,7 @@
         <v>246</v>
       </c>
       <c r="C140">
-        <v>338.66</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3894,10 +3895,10 @@
         <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="C141">
-        <v>336.01</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3908,7 +3909,7 @@
         <v>249</v>
       </c>
       <c r="C142">
-        <v>333.95</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3919,7 +3920,7 @@
         <v>251</v>
       </c>
       <c r="C143">
-        <v>331.75</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3927,142 +3928,142 @@
         <v>252</v>
       </c>
       <c r="B144" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C144">
-        <v>331.38</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" t="s">
         <v>254</v>
       </c>
-      <c r="B145" t="s">
-        <v>255</v>
-      </c>
       <c r="C145">
-        <v>327.87</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" t="s">
         <v>256</v>
       </c>
-      <c r="B146" t="s">
-        <v>257</v>
-      </c>
       <c r="C146">
-        <v>326.01</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>257</v>
+      </c>
+      <c r="B147" t="s">
         <v>258</v>
       </c>
-      <c r="B147" t="s">
-        <v>259</v>
-      </c>
       <c r="C147">
-        <v>323.66000000000003</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" t="s">
         <v>260</v>
       </c>
-      <c r="B148" t="s">
-        <v>261</v>
-      </c>
       <c r="C148">
-        <v>322.77</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>261</v>
+      </c>
+      <c r="B149" t="s">
         <v>262</v>
       </c>
-      <c r="B149" t="s">
-        <v>263</v>
-      </c>
       <c r="C149">
-        <v>316.35000000000002</v>
+        <v>326.01</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
         <v>264</v>
       </c>
-      <c r="B150" t="s">
-        <v>265</v>
-      </c>
       <c r="C150">
-        <v>310.17</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
         <v>266</v>
       </c>
-      <c r="B151" t="s">
-        <v>267</v>
-      </c>
       <c r="C151">
-        <v>304.47000000000003</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>267</v>
+      </c>
+      <c r="B152" t="s">
         <v>268</v>
       </c>
-      <c r="B152" t="s">
-        <v>269</v>
-      </c>
       <c r="C152">
-        <v>296.88</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
         <v>270</v>
       </c>
-      <c r="B153" t="s">
-        <v>271</v>
-      </c>
       <c r="C153">
-        <v>290.31</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
         <v>272</v>
       </c>
-      <c r="B154" t="s">
-        <v>273</v>
-      </c>
       <c r="C154">
-        <v>285.38</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" t="s">
         <v>274</v>
       </c>
-      <c r="B155" t="s">
-        <v>275</v>
-      </c>
       <c r="C155">
-        <v>284.19</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>275</v>
+      </c>
+      <c r="B156" t="s">
         <v>276</v>
       </c>
-      <c r="B156" t="s">
-        <v>40</v>
-      </c>
       <c r="C156">
-        <v>283.02999999999997</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4073,7 +4074,7 @@
         <v>278</v>
       </c>
       <c r="C157">
-        <v>271.19</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4084,7 +4085,7 @@
         <v>280</v>
       </c>
       <c r="C158">
-        <v>271.16000000000003</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4092,21 +4093,21 @@
         <v>281</v>
       </c>
       <c r="B159" t="s">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="C159">
-        <v>264.52999999999997</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>282</v>
+      </c>
+      <c r="B160" t="s">
         <v>283</v>
       </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
       <c r="C160">
-        <v>260.54000000000002</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4114,32 +4115,32 @@
         <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="C161">
-        <v>256.26</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C162">
-        <v>246.75</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="C163">
-        <v>245.07</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4147,21 +4148,21 @@
         <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="C164">
-        <v>244.73</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" t="s">
         <v>291</v>
       </c>
-      <c r="B165" t="s">
-        <v>57</v>
-      </c>
       <c r="C165">
-        <v>242.8</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4172,7 +4173,7 @@
         <v>293</v>
       </c>
       <c r="C166">
-        <v>241.07</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4183,7 +4184,7 @@
         <v>295</v>
       </c>
       <c r="C167">
-        <v>240.93</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4191,10 +4192,10 @@
         <v>296</v>
       </c>
       <c r="B168" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C168">
-        <v>236.97</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4205,7 +4206,7 @@
         <v>298</v>
       </c>
       <c r="C169">
-        <v>235.24</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4216,7 +4217,7 @@
         <v>300</v>
       </c>
       <c r="C170">
-        <v>234.95</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4224,21 +4225,21 @@
         <v>301</v>
       </c>
       <c r="B171" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="C171">
-        <v>230.16</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" t="s">
         <v>303</v>
       </c>
-      <c r="B172" t="s">
-        <v>69</v>
-      </c>
       <c r="C172">
-        <v>228.4</v>
+        <v>235.24</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4249,7 +4250,7 @@
         <v>305</v>
       </c>
       <c r="C173">
-        <v>221.55</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4257,21 +4258,21 @@
         <v>306</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="C174">
-        <v>219.44</v>
+        <v>230.16</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B175" t="s">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="C175">
-        <v>218.49</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4282,7 +4283,7 @@
         <v>310</v>
       </c>
       <c r="C176">
-        <v>203.87</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4290,10 +4291,10 @@
         <v>311</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="C177">
-        <v>203.61</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4304,7 +4305,7 @@
         <v>313</v>
       </c>
       <c r="C178">
-        <v>199.24</v>
+        <v>218.49</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4312,21 +4313,21 @@
         <v>314</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="C179">
-        <v>197.42</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="C180">
-        <v>192.35</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4337,7 +4338,7 @@
         <v>318</v>
       </c>
       <c r="C181">
-        <v>191.65</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4345,10 +4346,10 @@
         <v>319</v>
       </c>
       <c r="B182" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C182">
-        <v>187.16</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4356,32 +4357,32 @@
         <v>320</v>
       </c>
       <c r="B183" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="C183">
-        <v>186.38</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C184">
-        <v>184.72</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="C185">
-        <v>184.4</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4389,54 +4390,54 @@
         <v>325</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="C186">
-        <v>184.26</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>326</v>
+      </c>
+      <c r="B187" t="s">
         <v>327</v>
       </c>
-      <c r="B187" t="s">
-        <v>328</v>
-      </c>
       <c r="C187">
-        <v>178.9</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>328</v>
+      </c>
+      <c r="B188" t="s">
         <v>329</v>
       </c>
-      <c r="B188" t="s">
-        <v>330</v>
-      </c>
       <c r="C188">
-        <v>178.22</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>330</v>
+      </c>
+      <c r="B189" t="s">
         <v>331</v>
       </c>
-      <c r="B189" t="s">
-        <v>332</v>
-      </c>
       <c r="C189">
-        <v>178.17</v>
+        <v>184.26</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>332</v>
+      </c>
+      <c r="B190" t="s">
         <v>333</v>
       </c>
-      <c r="B190" t="s">
-        <v>160</v>
-      </c>
       <c r="C190">
-        <v>169.78</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4444,32 +4445,32 @@
         <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>65</v>
+        <v>335</v>
       </c>
       <c r="C191">
-        <v>168.19</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B192" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C192">
-        <v>167.87</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>166</v>
       </c>
       <c r="C193">
-        <v>166.94</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4477,10 +4478,10 @@
         <v>339</v>
       </c>
       <c r="B194" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C194">
-        <v>164.31</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4488,65 +4489,65 @@
         <v>340</v>
       </c>
       <c r="B195" t="s">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="C195">
-        <v>162.41999999999999</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="C196">
-        <v>159.78</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B197" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="C197">
-        <v>152.68</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="C198">
-        <v>148.74</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B199" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C199">
-        <v>148.69999999999999</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B200" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="C200">
-        <v>147.41</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4557,7 +4558,7 @@
         <v>349</v>
       </c>
       <c r="C201">
-        <v>146.58000000000001</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4565,10 +4566,10 @@
         <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="C202">
-        <v>139.29</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4576,32 +4577,32 @@
         <v>351</v>
       </c>
       <c r="B203" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="C203">
-        <v>136.35</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C204">
-        <v>134.29</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="C205">
-        <v>129.91999999999999</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4609,32 +4610,32 @@
         <v>356</v>
       </c>
       <c r="B206" t="s">
-        <v>65</v>
+        <v>357</v>
       </c>
       <c r="C206">
-        <v>129.80000000000001</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C207">
-        <v>128.16999999999999</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s">
-        <v>360</v>
+        <v>71</v>
       </c>
       <c r="C208">
-        <v>123.91</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4645,7 +4646,7 @@
         <v>362</v>
       </c>
       <c r="C209">
-        <v>120.91</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4656,7 +4657,7 @@
         <v>364</v>
       </c>
       <c r="C210">
-        <v>120.44</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4667,7 +4668,7 @@
         <v>366</v>
       </c>
       <c r="C211">
-        <v>120.01</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4678,7 +4679,7 @@
         <v>368</v>
       </c>
       <c r="C212">
-        <v>119.46</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4689,7 +4690,7 @@
         <v>370</v>
       </c>
       <c r="C213">
-        <v>119.05</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4697,32 +4698,32 @@
         <v>371</v>
       </c>
       <c r="B214" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="C214">
-        <v>118.62</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C215">
-        <v>117.74</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B216" t="s">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="C216">
-        <v>116.42</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4733,7 +4734,7 @@
         <v>377</v>
       </c>
       <c r="C217">
-        <v>116.06</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4741,76 +4742,76 @@
         <v>378</v>
       </c>
       <c r="B218" t="s">
-        <v>150</v>
+        <v>379</v>
       </c>
       <c r="C218">
-        <v>116.06</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B219" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C219">
-        <v>110.29</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C220">
-        <v>107.6</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B221" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C221">
-        <v>107.14</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B222" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="C222">
-        <v>106.21</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B223" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C223">
-        <v>106.02</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B224" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C224">
-        <v>105.71</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4818,54 +4819,54 @@
         <v>389</v>
       </c>
       <c r="B225" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C225">
-        <v>105.38</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C226">
-        <v>104.99</v>
+        <v>105.71</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="C227">
-        <v>102.96</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C228">
-        <v>102.6</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="C229">
-        <v>101.48</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4873,40 +4874,40 @@
         <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="C230">
-        <v>101.15</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="C231">
-        <v>100</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="C232">
-        <v>100</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="C233">
         <v>100</v>
@@ -4914,10 +4915,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C234">
         <v>100</v>
@@ -4925,10 +4926,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>405</v>
+        <v>276</v>
       </c>
       <c r="C235">
         <v>100</v>
@@ -4961,7 +4962,7 @@
         <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="C238">
         <v>100</v>
@@ -4969,10 +4970,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B239" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C239">
         <v>100</v>
@@ -4980,10 +4981,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B240" t="s">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="C240">
         <v>100</v>
@@ -5016,7 +5017,7 @@
         <v>419</v>
       </c>
       <c r="B243" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="C243">
         <v>100</v>
@@ -5024,10 +5025,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C244">
         <v>100</v>
@@ -5035,10 +5036,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B245" t="s">
-        <v>423</v>
+        <v>63</v>
       </c>
       <c r="C245">
         <v>100</v>
@@ -5052,7 +5053,7 @@
         <v>425</v>
       </c>
       <c r="C246">
-        <v>98.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5060,65 +5061,65 @@
         <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>50</v>
+        <v>427</v>
       </c>
       <c r="C247">
-        <v>97.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B248" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C248">
-        <v>97.03</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B249" t="s">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="C249">
-        <v>96.49</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>422</v>
       </c>
       <c r="C250">
-        <v>96.44</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B251" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
       <c r="C251">
-        <v>95.43</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B252" t="s">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="C252">
-        <v>95.12</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5129,7 +5130,7 @@
         <v>435</v>
       </c>
       <c r="C253">
-        <v>94.34</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5140,7 +5141,7 @@
         <v>437</v>
       </c>
       <c r="C254">
-        <v>94.23</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5148,87 +5149,87 @@
         <v>438</v>
       </c>
       <c r="B255" t="s">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="C255">
-        <v>92.85</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B256" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C256">
-        <v>91.39</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B257" t="s">
-        <v>437</v>
+        <v>87</v>
       </c>
       <c r="C257">
-        <v>89.77</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B258" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C258">
-        <v>89.2</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B259" t="s">
-        <v>230</v>
+        <v>441</v>
       </c>
       <c r="C259">
-        <v>88.17</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B260" t="s">
-        <v>117</v>
+        <v>447</v>
       </c>
       <c r="C260">
-        <v>87.45</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B261" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C261">
-        <v>87.25</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B262" t="s">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="C262">
-        <v>86.45</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5236,43 +5237,43 @@
         <v>450</v>
       </c>
       <c r="B263" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C263">
-        <v>86.38</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B264" t="s">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="C264">
-        <v>85.85</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B265" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C265">
-        <v>85.65</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B266" t="s">
-        <v>455</v>
+        <v>89</v>
       </c>
       <c r="C266">
-        <v>84.2</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5283,7 +5284,7 @@
         <v>457</v>
       </c>
       <c r="C267">
-        <v>83.73</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5294,7 +5295,7 @@
         <v>459</v>
       </c>
       <c r="C268">
-        <v>83.66</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5302,131 +5303,131 @@
         <v>460</v>
       </c>
       <c r="B269" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="C269">
-        <v>83.36</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B270" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C270">
-        <v>83.26</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C271">
-        <v>82.37</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C272">
-        <v>81.87</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B273" t="s">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="C273">
-        <v>81.739999999999995</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B274" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C274">
-        <v>81.13</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B275" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C275">
-        <v>77.87</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B276" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="C276">
-        <v>76.319999999999993</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B277" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="C277">
-        <v>75.86</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B278" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="C278">
-        <v>74.319999999999993</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B279" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C279">
-        <v>73.239999999999995</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B280" t="s">
-        <v>477</v>
+        <v>274</v>
       </c>
       <c r="C280">
-        <v>72.58</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5434,32 +5435,32 @@
         <v>478</v>
       </c>
       <c r="B281" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="C281">
-        <v>72.56</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B282" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C282">
-        <v>71.84</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B283" t="s">
-        <v>482</v>
+        <v>150</v>
       </c>
       <c r="C283">
-        <v>71.569999999999993</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5470,7 +5471,7 @@
         <v>484</v>
       </c>
       <c r="C284">
-        <v>71.31</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5478,76 +5479,76 @@
         <v>485</v>
       </c>
       <c r="B285" t="s">
-        <v>353</v>
+        <v>486</v>
       </c>
       <c r="C285">
-        <v>70.88</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B286" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C286">
-        <v>70.13</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B287" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="C287">
-        <v>69.95</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B288" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="C288">
-        <v>69.84</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B289" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="C289">
-        <v>69.08</v>
+        <v>69.95</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B290" t="s">
-        <v>492</v>
+        <v>429</v>
       </c>
       <c r="C290">
-        <v>68.459999999999994</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B291" t="s">
-        <v>494</v>
+        <v>89</v>
       </c>
       <c r="C291">
-        <v>68.39</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5555,76 +5556,76 @@
         <v>495</v>
       </c>
       <c r="B292" t="s">
-        <v>108</v>
+        <v>496</v>
       </c>
       <c r="C292">
-        <v>66.989999999999995</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B293" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C293">
-        <v>65.83</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B294" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="C294">
-        <v>61.65</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B295" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C295">
-        <v>61.56</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B296" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C296">
-        <v>61.04</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B297" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C297">
-        <v>60.95</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B298" t="s">
-        <v>504</v>
+        <v>264</v>
       </c>
       <c r="C298">
-        <v>60.39</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5635,7 +5636,7 @@
         <v>506</v>
       </c>
       <c r="C299">
-        <v>59.42</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5643,43 +5644,43 @@
         <v>507</v>
       </c>
       <c r="B300" t="s">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="C300">
-        <v>58.37</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B301" t="s">
-        <v>98</v>
+        <v>510</v>
       </c>
       <c r="C301">
-        <v>57.82</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B302" t="s">
-        <v>510</v>
+        <v>166</v>
       </c>
       <c r="C302">
-        <v>57.41</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B303" t="s">
-        <v>512</v>
+        <v>105</v>
       </c>
       <c r="C303">
-        <v>55.66</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5690,7 +5691,7 @@
         <v>514</v>
       </c>
       <c r="C304">
-        <v>52.75</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5698,32 +5699,32 @@
         <v>515</v>
       </c>
       <c r="B305" t="s">
-        <v>85</v>
+        <v>516</v>
       </c>
       <c r="C305">
-        <v>51.32</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B306" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C306">
-        <v>50</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B307" t="s">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="C307">
-        <v>48.91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5742,7 +5743,7 @@
         <v>521</v>
       </c>
       <c r="B309" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C309">
         <v>48.16</v>
@@ -5753,7 +5754,7 @@
         <v>522</v>
       </c>
       <c r="B310" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C310">
         <v>47</v>
@@ -5764,7 +5765,7 @@
         <v>523</v>
       </c>
       <c r="B311" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C311">
         <v>46.92</v>
@@ -5797,7 +5798,7 @@
         <v>526</v>
       </c>
       <c r="B314" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C314">
         <v>43.07</v>
@@ -5808,7 +5809,7 @@
         <v>527</v>
       </c>
       <c r="B315" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C315">
         <v>43</v>
@@ -5830,7 +5831,7 @@
         <v>529</v>
       </c>
       <c r="B317" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C317">
         <v>42.57</v>
@@ -5852,7 +5853,7 @@
         <v>532</v>
       </c>
       <c r="B319" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C319">
         <v>41.74</v>
@@ -5874,7 +5875,7 @@
         <v>535</v>
       </c>
       <c r="B321" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C321">
         <v>40.869999999999997</v>
@@ -5885,7 +5886,7 @@
         <v>536</v>
       </c>
       <c r="B322" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C322">
         <v>40.799999999999997</v>
@@ -5896,7 +5897,7 @@
         <v>537</v>
       </c>
       <c r="B323" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C323">
         <v>39.68</v>
@@ -5918,7 +5919,7 @@
         <v>539</v>
       </c>
       <c r="B325" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C325">
         <v>38.159999999999997</v>
@@ -5929,7 +5930,7 @@
         <v>540</v>
       </c>
       <c r="B326" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C326">
         <v>37.44</v>
@@ -5940,7 +5941,7 @@
         <v>541</v>
       </c>
       <c r="B327" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C327">
         <v>36.81</v>
@@ -5951,7 +5952,7 @@
         <v>542</v>
       </c>
       <c r="B328" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C328">
         <v>36.590000000000003</v>
@@ -5984,7 +5985,7 @@
         <v>547</v>
       </c>
       <c r="B331" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C331">
         <v>33.049999999999997</v>
@@ -6006,7 +6007,7 @@
         <v>550</v>
       </c>
       <c r="B333" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C333">
         <v>32.64</v>
@@ -6017,7 +6018,7 @@
         <v>551</v>
       </c>
       <c r="B334" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C334">
         <v>32.229999999999997</v>
@@ -6028,7 +6029,7 @@
         <v>552</v>
       </c>
       <c r="B335" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C335">
         <v>32.14</v>
@@ -6039,7 +6040,7 @@
         <v>553</v>
       </c>
       <c r="B336" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C336">
         <v>31.82</v>
@@ -6050,7 +6051,7 @@
         <v>554</v>
       </c>
       <c r="B337" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C337">
         <v>31.1</v>
@@ -6061,7 +6062,7 @@
         <v>555</v>
       </c>
       <c r="B338" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C338">
         <v>31.09</v>
@@ -6072,7 +6073,7 @@
         <v>556</v>
       </c>
       <c r="B339" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C339">
         <v>30.32</v>
@@ -6083,7 +6084,7 @@
         <v>557</v>
       </c>
       <c r="B340" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C340">
         <v>29.91</v>
@@ -6094,7 +6095,7 @@
         <v>558</v>
       </c>
       <c r="B341" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C341">
         <v>28.26</v>
@@ -6127,7 +6128,7 @@
         <v>563</v>
       </c>
       <c r="B344" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C344">
         <v>27.11</v>
@@ -6138,7 +6139,7 @@
         <v>564</v>
       </c>
       <c r="B345" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C345">
         <v>26.74</v>
@@ -6149,21 +6150,21 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>566</v>
+        <v>331</v>
       </c>
       <c r="C346">
-        <v>25.41</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
+        <v>566</v>
+      </c>
+      <c r="B347" t="s">
         <v>567</v>
       </c>
-      <c r="B347" t="s">
-        <v>20</v>
-      </c>
       <c r="C347">
-        <v>25.08</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6171,21 +6172,21 @@
         <v>568</v>
       </c>
       <c r="B348" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
       <c r="C348">
-        <v>23.89</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
+        <v>569</v>
+      </c>
+      <c r="B349" t="s">
         <v>570</v>
       </c>
-      <c r="B349" t="s">
-        <v>388</v>
-      </c>
       <c r="C349">
-        <v>23.11</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6193,54 +6194,54 @@
         <v>571</v>
       </c>
       <c r="B350" t="s">
-        <v>572</v>
+        <v>392</v>
       </c>
       <c r="C350">
-        <v>22.3</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
+        <v>572</v>
+      </c>
+      <c r="B351" t="s">
         <v>573</v>
       </c>
-      <c r="B351" t="s">
-        <v>574</v>
-      </c>
       <c r="C351">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>574</v>
+      </c>
+      <c r="B352" t="s">
         <v>575</v>
       </c>
-      <c r="B352" t="s">
-        <v>576</v>
-      </c>
       <c r="C352">
-        <v>21.71</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
+        <v>576</v>
+      </c>
+      <c r="B353" t="s">
         <v>577</v>
       </c>
-      <c r="B353" t="s">
-        <v>578</v>
-      </c>
       <c r="C353">
-        <v>21.27</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>578</v>
+      </c>
+      <c r="B354" t="s">
         <v>579</v>
       </c>
-      <c r="B354" t="s">
-        <v>459</v>
-      </c>
       <c r="C354">
-        <v>20.9</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6248,21 +6249,21 @@
         <v>580</v>
       </c>
       <c r="B355" t="s">
-        <v>581</v>
+        <v>463</v>
       </c>
       <c r="C355">
-        <v>19.38</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>581</v>
+      </c>
+      <c r="B356" t="s">
         <v>582</v>
       </c>
-      <c r="B356" t="s">
-        <v>98</v>
-      </c>
       <c r="C356">
-        <v>19.149999999999999</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6270,10 +6271,10 @@
         <v>583</v>
       </c>
       <c r="B357" t="s">
-        <v>482</v>
+        <v>105</v>
       </c>
       <c r="C357">
-        <v>19.079999999999998</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6281,10 +6282,10 @@
         <v>584</v>
       </c>
       <c r="B358" t="s">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="C358">
-        <v>18.8</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6292,32 +6293,32 @@
         <v>585</v>
       </c>
       <c r="B359" t="s">
-        <v>586</v>
+        <v>182</v>
       </c>
       <c r="C359">
-        <v>17.86</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>586</v>
+      </c>
+      <c r="B360" t="s">
         <v>587</v>
       </c>
-      <c r="B360" t="s">
-        <v>588</v>
-      </c>
       <c r="C360">
-        <v>16.78</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
+        <v>588</v>
+      </c>
+      <c r="B361" t="s">
         <v>589</v>
       </c>
-      <c r="B361" t="s">
-        <v>108</v>
-      </c>
       <c r="C361">
-        <v>16.72</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6325,10 +6326,10 @@
         <v>590</v>
       </c>
       <c r="B362" t="s">
-        <v>409</v>
+        <v>50</v>
       </c>
       <c r="C362">
-        <v>16.54</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6336,10 +6337,10 @@
         <v>591</v>
       </c>
       <c r="B363" t="s">
-        <v>271</v>
+        <v>413</v>
       </c>
       <c r="C363">
-        <v>15.92</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6347,10 +6348,10 @@
         <v>592</v>
       </c>
       <c r="B364" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C364">
-        <v>15.86</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6358,65 +6359,65 @@
         <v>593</v>
       </c>
       <c r="B365" t="s">
-        <v>594</v>
+        <v>295</v>
       </c>
       <c r="C365">
-        <v>15.42</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
+        <v>594</v>
+      </c>
+      <c r="B366" t="s">
         <v>595</v>
       </c>
-      <c r="B366" t="s">
-        <v>596</v>
-      </c>
       <c r="C366">
-        <v>14.67</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
+        <v>596</v>
+      </c>
+      <c r="B367" t="s">
         <v>597</v>
       </c>
-      <c r="B367" t="s">
-        <v>598</v>
-      </c>
       <c r="C367">
-        <v>14.28</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
+        <v>598</v>
+      </c>
+      <c r="B368" t="s">
         <v>599</v>
       </c>
-      <c r="B368" t="s">
-        <v>600</v>
-      </c>
       <c r="C368">
-        <v>13.67</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
+        <v>600</v>
+      </c>
+      <c r="B369" t="s">
         <v>601</v>
       </c>
-      <c r="B369" t="s">
-        <v>602</v>
-      </c>
       <c r="C369">
-        <v>13.63</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>602</v>
+      </c>
+      <c r="B370" t="s">
         <v>603</v>
       </c>
-      <c r="B370" t="s">
-        <v>263</v>
-      </c>
       <c r="C370">
-        <v>13.55</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6424,10 +6425,10 @@
         <v>604</v>
       </c>
       <c r="B371" t="s">
-        <v>588</v>
+        <v>268</v>
       </c>
       <c r="C371">
-        <v>12.88</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6435,10 +6436,10 @@
         <v>605</v>
       </c>
       <c r="B372" t="s">
-        <v>396</v>
+        <v>589</v>
       </c>
       <c r="C372">
-        <v>12.61</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6446,21 +6447,21 @@
         <v>606</v>
       </c>
       <c r="B373" t="s">
-        <v>607</v>
+        <v>400</v>
       </c>
       <c r="C373">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
+        <v>607</v>
+      </c>
+      <c r="B374" t="s">
         <v>608</v>
       </c>
-      <c r="B374" t="s">
-        <v>152</v>
-      </c>
       <c r="C374">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6468,10 +6469,10 @@
         <v>609</v>
       </c>
       <c r="B375" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="C375">
-        <v>11.96</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6479,10 +6480,10 @@
         <v>610</v>
       </c>
       <c r="B376" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C376">
-        <v>11.63</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6490,10 +6491,10 @@
         <v>611</v>
       </c>
       <c r="B377" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="C377">
-        <v>9.85</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6501,10 +6502,10 @@
         <v>612</v>
       </c>
       <c r="B378" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C378">
-        <v>9.77</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6512,32 +6513,32 @@
         <v>613</v>
       </c>
       <c r="B379" t="s">
-        <v>614</v>
+        <v>235</v>
       </c>
       <c r="C379">
-        <v>9.7200000000000006</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
+        <v>614</v>
+      </c>
+      <c r="B380" t="s">
         <v>615</v>
       </c>
-      <c r="B380" t="s">
-        <v>616</v>
-      </c>
       <c r="C380">
-        <v>8.4499999999999993</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
+        <v>616</v>
+      </c>
+      <c r="B381" t="s">
         <v>617</v>
       </c>
-      <c r="B381" t="s">
-        <v>224</v>
-      </c>
       <c r="C381">
-        <v>8.44</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6545,21 +6546,21 @@
         <v>618</v>
       </c>
       <c r="B382" t="s">
-        <v>619</v>
+        <v>229</v>
       </c>
       <c r="C382">
-        <v>7.79</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
+        <v>619</v>
+      </c>
+      <c r="B383" t="s">
         <v>620</v>
       </c>
-      <c r="B383" t="s">
-        <v>465</v>
-      </c>
       <c r="C383">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6567,21 +6568,21 @@
         <v>621</v>
       </c>
       <c r="B384" t="s">
-        <v>622</v>
+        <v>469</v>
       </c>
       <c r="C384">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
+        <v>622</v>
+      </c>
+      <c r="B385" t="s">
         <v>623</v>
       </c>
-      <c r="B385" t="s">
-        <v>122</v>
-      </c>
       <c r="C385">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6589,10 +6590,10 @@
         <v>624</v>
       </c>
       <c r="B386" t="s">
-        <v>534</v>
+        <v>128</v>
       </c>
       <c r="C386">
-        <v>7.51</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6600,43 +6601,43 @@
         <v>625</v>
       </c>
       <c r="B387" t="s">
-        <v>626</v>
+        <v>534</v>
       </c>
       <c r="C387">
-        <v>7.47</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
+        <v>626</v>
+      </c>
+      <c r="B388" t="s">
         <v>627</v>
       </c>
-      <c r="B388" t="s">
-        <v>628</v>
-      </c>
       <c r="C388">
-        <v>6.58</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
+        <v>628</v>
+      </c>
+      <c r="B389" t="s">
         <v>629</v>
       </c>
-      <c r="B389" t="s">
-        <v>630</v>
-      </c>
       <c r="C389">
-        <v>5.56</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
+        <v>630</v>
+      </c>
+      <c r="B390" t="s">
         <v>631</v>
       </c>
-      <c r="B390" t="s">
-        <v>440</v>
-      </c>
       <c r="C390">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6644,10 +6645,10 @@
         <v>632</v>
       </c>
       <c r="B391" t="s">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="C391">
-        <v>4.3600000000000003</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6655,10 +6656,10 @@
         <v>633</v>
       </c>
       <c r="B392" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="C392">
-        <v>2.41</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6666,21 +6667,21 @@
         <v>634</v>
       </c>
       <c r="B393" t="s">
-        <v>635</v>
+        <v>22</v>
       </c>
       <c r="C393">
-        <v>2.3199999999999998</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
+        <v>635</v>
+      </c>
+      <c r="B394" t="s">
         <v>636</v>
       </c>
-      <c r="B394" t="s">
-        <v>433</v>
-      </c>
       <c r="C394">
-        <v>2.13</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6688,21 +6689,21 @@
         <v>637</v>
       </c>
       <c r="B395" t="s">
-        <v>638</v>
+        <v>437</v>
       </c>
       <c r="C395">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
+        <v>638</v>
+      </c>
+      <c r="B396" t="s">
         <v>639</v>
       </c>
-      <c r="B396" t="s">
-        <v>22</v>
-      </c>
       <c r="C396">
-        <v>0.69</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6710,10 +6711,10 @@
         <v>640</v>
       </c>
       <c r="B397" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="C397">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6721,10 +6722,10 @@
         <v>641</v>
       </c>
       <c r="B398" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="C398">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6732,10 +6733,10 @@
         <v>642</v>
       </c>
       <c r="B399" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C399">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6743,7 +6744,7 @@
         <v>643</v>
       </c>
       <c r="B400" t="s">
-        <v>644</v>
+        <v>305</v>
       </c>
       <c r="C400">
         <v>0.55000000000000004</v>
@@ -6751,13 +6752,13 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
+        <v>644</v>
+      </c>
+      <c r="B401" t="s">
         <v>645</v>
       </c>
-      <c r="B401" t="s">
-        <v>364</v>
-      </c>
       <c r="C401">
-        <v>0.03</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6765,7 +6766,7 @@
         <v>646</v>
       </c>
       <c r="B402" t="s">
-        <v>647</v>
+        <v>368</v>
       </c>
       <c r="C402">
         <v>0.03</v>
@@ -6773,13 +6774,13 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
+        <v>647</v>
+      </c>
+      <c r="B403" t="s">
         <v>648</v>
       </c>
-      <c r="B403" t="s">
-        <v>237</v>
-      </c>
       <c r="C403">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6787,15 +6788,26 @@
         <v>649</v>
       </c>
       <c r="B404" t="s">
-        <v>650</v>
+        <v>242</v>
       </c>
       <c r="C404">
         <v>0.01</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
-      <c r="A406" t="s">
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>650</v>
+      </c>
+      <c r="B405" t="s">
         <v>651</v>
+      </c>
+      <c r="C405">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E626C8-1F0C-47E4-9D66-8BBD90DA16DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F871E73-66AA-4993-965D-C8B5D1179DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,6 +61,12 @@
     <t>CINTIA</t>
   </si>
   <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
     <t>004115403</t>
   </si>
   <si>
@@ -157,6 +163,12 @@
     <t>TIAGO</t>
   </si>
   <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
     <t>005121756</t>
   </si>
   <si>
@@ -250,6 +262,12 @@
     <t>HFR</t>
   </si>
   <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
     <t>004587525</t>
   </si>
   <si>
@@ -280,12 +298,6 @@
     <t>HELENA</t>
   </si>
   <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
     <t>004419141</t>
   </si>
   <si>
@@ -721,9 +733,6 @@
     <t>KELLY</t>
   </si>
   <si>
-    <t>000989247</t>
-  </si>
-  <si>
     <t>004329030</t>
   </si>
   <si>
@@ -787,6 +796,12 @@
     <t>ALINE</t>
   </si>
   <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
     <t>005110867</t>
   </si>
   <si>
@@ -1198,9 +1213,6 @@
     <t>004432455</t>
   </si>
   <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>005152037</t>
   </si>
   <si>
@@ -1480,9 +1492,6 @@
     <t>004212476</t>
   </si>
   <si>
-    <t>MARIA</t>
-  </si>
-  <si>
     <t>004228456</t>
   </si>
   <si>
@@ -1735,19 +1744,10 @@
     <t>LEANDRO</t>
   </si>
   <si>
-    <t>000827730</t>
-  </si>
-  <si>
     <t>004265173</t>
   </si>
   <si>
     <t>JULIA</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
   </si>
   <si>
     <t>004499920</t>
@@ -2424,7 +2424,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>28048.91</v>
+        <v>30851.53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>25666.97</v>
+        <v>28048.91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>20424.490000000002</v>
+        <v>25666.97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>13567.35</v>
+        <v>20424.490000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>12248.54</v>
+        <v>13567.35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>12085.71</v>
+        <v>12248.54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>10057.41</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>9964.4</v>
+        <v>10057.41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>7849.45</v>
+        <v>9964.4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>5883.13</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2531,32 +2531,32 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>5108.05</v>
+        <v>5883.13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>4917.0600000000004</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>3962.96</v>
+        <v>4917.0600000000004</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3022.16</v>
+        <v>3962.96</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>2691.13</v>
+        <v>3022.16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>42</v>
       </c>
       <c r="C22">
-        <v>2501.4</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="C23">
-        <v>2438.4499999999998</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>2300</v>
+        <v>2438.4499999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>2248.11</v>
+        <v>2417.21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>2113.1999999999998</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2073.7199999999998</v>
+        <v>2248.11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>1865.9</v>
+        <v>2113.1999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>1768.73</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>1744.22</v>
+        <v>1865.9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>1544.52</v>
+        <v>1768.73</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2696,32 +2696,32 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>1416.45</v>
+        <v>1744.22</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>1406.22</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>1272.2</v>
+        <v>1416.45</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>1241.52</v>
+        <v>1406.22</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>1239.45</v>
+        <v>1272.2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>1198.42</v>
+        <v>1241.52</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1129.29</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1125.31</v>
+        <v>1198.42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1051.0899999999999</v>
+        <v>1129.29</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>999.12</v>
+        <v>1125.31</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>991.44</v>
+        <v>1084.46</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>986.98</v>
+        <v>1051.0899999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>984.55</v>
+        <v>999.12</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>972.3</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>89</v>
       </c>
       <c r="C46">
-        <v>944.11</v>
+        <v>986.98</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <v>938.8</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>93</v>
       </c>
       <c r="C48">
-        <v>891.04</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>95</v>
       </c>
       <c r="C49">
-        <v>885.52</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>97</v>
       </c>
       <c r="C50">
-        <v>885.13</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2905,54 +2905,54 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>884.96</v>
+        <v>885.52</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>884.67</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>872.41</v>
+        <v>884.96</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54">
-        <v>867.93</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>867.16</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>107</v>
       </c>
       <c r="C56">
-        <v>864.35</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>109</v>
       </c>
       <c r="C57">
-        <v>845.19</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>111</v>
       </c>
       <c r="C58">
-        <v>833.03</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>113</v>
       </c>
       <c r="C59">
-        <v>820.67</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3004,54 +3004,54 @@
         <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C60">
-        <v>810.41</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61">
-        <v>803.76</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C62">
-        <v>802.88</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63">
-        <v>802.18</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>798.23</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>123</v>
       </c>
       <c r="C65">
-        <v>787.45</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3070,32 +3070,32 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C66">
-        <v>775.83</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67">
-        <v>768.88</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>761.35</v>
+        <v>775.83</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>130</v>
       </c>
       <c r="C69">
-        <v>747.96</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3114,109 +3114,109 @@
         <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C70">
-        <v>740.54</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C71">
-        <v>739.7</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C72">
-        <v>739.38</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C73">
-        <v>732.94</v>
+        <v>739.7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C74">
-        <v>723.26</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C75">
-        <v>715.28</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C76">
-        <v>714.2</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C77">
-        <v>710.16</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C78">
-        <v>703</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C79">
-        <v>685.96</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>146</v>
       </c>
       <c r="C80">
-        <v>655.11</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>148</v>
       </c>
       <c r="C81">
-        <v>651</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>150</v>
       </c>
       <c r="C82">
-        <v>645.16999999999996</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>152</v>
       </c>
       <c r="C83">
-        <v>636.76</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>154</v>
       </c>
       <c r="C84">
-        <v>622.63</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>156</v>
       </c>
       <c r="C85">
-        <v>608.66999999999996</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>158</v>
       </c>
       <c r="C86">
-        <v>596.41999999999996</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>160</v>
       </c>
       <c r="C87">
-        <v>579.26</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>162</v>
       </c>
       <c r="C88">
-        <v>579.20000000000005</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>164</v>
       </c>
       <c r="C89">
-        <v>570.97</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>166</v>
       </c>
       <c r="C90">
-        <v>560.45000000000005</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3345,65 +3345,65 @@
         <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C91">
-        <v>556.30999999999995</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C92">
-        <v>553.23</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
         <v>170</v>
       </c>
-      <c r="B93" t="s">
-        <v>150</v>
-      </c>
       <c r="C93">
-        <v>542.62</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="C94">
-        <v>536.41999999999996</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C95">
-        <v>534.49</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C96">
-        <v>532.78</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3411,32 +3411,32 @@
         <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C97">
-        <v>531.54</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C98">
-        <v>528.38</v>
+        <v>532.78</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="C99">
-        <v>521.74</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>520.05999999999995</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3455,32 +3455,32 @@
         <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="C101">
-        <v>510.92</v>
+        <v>521.74</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C102">
-        <v>509.7</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="C103">
-        <v>486.29</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3488,32 +3488,32 @@
         <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="C104">
-        <v>483.71</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105">
-        <v>482.71</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="C106">
-        <v>468.72</v>
+        <v>483.71</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3521,54 +3521,54 @@
         <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C107">
-        <v>468.65</v>
+        <v>482.71</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="C108">
-        <v>465.88</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="C109">
-        <v>465.38</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="C110">
-        <v>463.52</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="C111">
-        <v>462.44</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3576,65 +3576,65 @@
         <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C112">
-        <v>459.98</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113">
-        <v>453.33</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>451.86</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C115">
-        <v>447.24</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="C116">
-        <v>446.15</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="C117">
-        <v>441.76</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>210</v>
       </c>
       <c r="C118">
-        <v>429.52</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3653,43 +3653,43 @@
         <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="C119">
-        <v>418</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C120">
-        <v>415.42</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="C121">
-        <v>409.89</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C122">
-        <v>409.11</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3697,65 +3697,65 @@
         <v>217</v>
       </c>
       <c r="B123" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="C123">
-        <v>407.94</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="C124">
-        <v>404.34</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="C125">
-        <v>400.5</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C126">
-        <v>400</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C127">
-        <v>396.98</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="C128">
-        <v>392.89</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>227</v>
       </c>
       <c r="C129">
-        <v>392.83</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>229</v>
       </c>
       <c r="C130">
-        <v>380.46</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3785,1110 +3785,1110 @@
         <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="C131">
-        <v>378.28</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C132">
-        <v>376.72</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C133">
-        <v>375.22</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C134">
-        <v>374.97</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C135">
-        <v>369.5</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C136">
-        <v>367.11</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C137">
-        <v>347.34</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>346.77</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C139">
-        <v>345.51</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C140">
-        <v>344.66</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="C141">
-        <v>344.22</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C142">
-        <v>341.85</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C143">
-        <v>338.66</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C144">
-        <v>336.01</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C145">
-        <v>333.95</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C146">
-        <v>331.75</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C147">
-        <v>331.38</v>
+        <v>333.4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C148">
-        <v>327.87</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C149">
-        <v>326.01</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C150">
-        <v>323.66000000000003</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C151">
-        <v>322.77</v>
+        <v>326.01</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C152">
-        <v>316.35000000000002</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C153">
-        <v>310.17</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C154">
-        <v>304.47000000000003</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C155">
-        <v>296.88</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C156">
-        <v>290.31</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C157">
-        <v>285.38</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C158">
-        <v>284.19</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="C159">
-        <v>283.02999999999997</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C160">
-        <v>271.19</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="C161">
-        <v>271.16000000000003</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C162">
-        <v>264.52999999999997</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="C163">
-        <v>260.54000000000002</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="C164">
-        <v>256.26</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="C165">
-        <v>246.75</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C166">
-        <v>245.07</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C167">
-        <v>244.73</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="C168">
-        <v>242.8</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C169">
-        <v>241.07</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="C170">
-        <v>240.93</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="C171">
-        <v>236.97</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B172" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C172">
-        <v>235.24</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="C173">
-        <v>234.95</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B174" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C174">
-        <v>230.16</v>
+        <v>235.24</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B175" t="s">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="C175">
-        <v>228.4</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C176">
-        <v>221.55</v>
+        <v>230.16</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C177">
-        <v>219.44</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C178">
-        <v>218.49</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="C179">
-        <v>203.87</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="C180">
-        <v>203.61</v>
+        <v>218.49</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B181" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C181">
-        <v>199.24</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C182">
-        <v>197.42</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C183">
-        <v>192.35</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B184" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="C184">
-        <v>191.65</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B185" t="s">
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="C185">
-        <v>187.16</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="C186">
-        <v>186.38</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>173</v>
       </c>
       <c r="C187">
-        <v>184.72</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B188" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="C188">
-        <v>184.4</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C189">
-        <v>184.26</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C190">
-        <v>178.9</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C191">
-        <v>178.22</v>
+        <v>184.26</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B192" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C192">
-        <v>178.17</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="C193">
-        <v>169.78</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B194" t="s">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="C194">
-        <v>168.19</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B195" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="C195">
-        <v>167.87</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B196" t="s">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="C196">
-        <v>166.94</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="C197">
-        <v>164.31</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B198" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="C198">
-        <v>162.41999999999999</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B199" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C199">
-        <v>159.78</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B200" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C200">
-        <v>152.68</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B201" t="s">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="C201">
-        <v>148.74</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="C202">
-        <v>148.69999999999999</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C203">
-        <v>147.41</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="C204">
-        <v>146.58000000000001</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="C205">
-        <v>139.29</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C206">
-        <v>134.29</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B207" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="C207">
-        <v>129.91999999999999</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B208" t="s">
-        <v>71</v>
+        <v>362</v>
       </c>
       <c r="C208">
-        <v>129.80000000000001</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C209">
-        <v>128.16999999999999</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B210" t="s">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="C210">
-        <v>123.91</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C211">
-        <v>120.91</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B212" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C212">
-        <v>120.44</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B213" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C213">
-        <v>120.01</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C214">
-        <v>119.46</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C215">
-        <v>119.05</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B216" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="C216">
-        <v>118.62</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B217" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C217">
-        <v>117.74</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B218" t="s">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="C218">
-        <v>116.42</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B219" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C219">
-        <v>116.06</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B220" t="s">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="C220">
-        <v>116.06</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B221" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C221">
-        <v>110.29</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B222" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C222">
-        <v>107.6</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B223" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C223">
-        <v>107.14</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B224" t="s">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="C224">
-        <v>106.21</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B225" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C225">
-        <v>106.02</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B226" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C226">
-        <v>105.71</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B227" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="C227">
-        <v>105.38</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B228" t="s">
-        <v>395</v>
+        <v>14</v>
       </c>
       <c r="C228">
-        <v>104.99</v>
+        <v>105.71</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B229" t="s">
-        <v>18</v>
+        <v>364</v>
       </c>
       <c r="C229">
-        <v>102.96</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C230">
-        <v>102.6</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="C231">
-        <v>101.48</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4896,40 +4896,40 @@
         <v>401</v>
       </c>
       <c r="B232" t="s">
-        <v>111</v>
+        <v>402</v>
       </c>
       <c r="C232">
-        <v>101.15</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B233" t="s">
-        <v>111</v>
+        <v>404</v>
       </c>
       <c r="C233">
-        <v>100</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B234" t="s">
-        <v>404</v>
+        <v>115</v>
       </c>
       <c r="C234">
-        <v>100</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="C235">
         <v>100</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C236">
         <v>100</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B237" t="s">
-        <v>409</v>
+        <v>281</v>
       </c>
       <c r="C237">
         <v>100</v>
@@ -4984,7 +4984,7 @@
         <v>414</v>
       </c>
       <c r="B240" t="s">
-        <v>95</v>
+        <v>415</v>
       </c>
       <c r="C240">
         <v>100</v>
@@ -4992,10 +4992,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C241">
         <v>100</v>
@@ -5003,10 +5003,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B242" t="s">
-        <v>418</v>
+        <v>99</v>
       </c>
       <c r="C242">
         <v>100</v>
@@ -5039,7 +5039,7 @@
         <v>423</v>
       </c>
       <c r="B245" t="s">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="C245">
         <v>100</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B246" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C246">
         <v>100</v>
@@ -5058,10 +5058,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B247" t="s">
-        <v>427</v>
+        <v>67</v>
       </c>
       <c r="C247">
         <v>100</v>
@@ -5075,7 +5075,7 @@
         <v>429</v>
       </c>
       <c r="C248">
-        <v>98.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5083,65 +5083,65 @@
         <v>430</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>431</v>
       </c>
       <c r="C249">
-        <v>97.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B250" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C250">
-        <v>97.03</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B251" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="C251">
-        <v>96.49</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B252" t="s">
-        <v>242</v>
+        <v>426</v>
       </c>
       <c r="C252">
-        <v>96.44</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B253" t="s">
-        <v>435</v>
+        <v>310</v>
       </c>
       <c r="C253">
-        <v>95.43</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B254" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="C254">
-        <v>95.12</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>439</v>
       </c>
       <c r="C255">
-        <v>94.34</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>441</v>
       </c>
       <c r="C256">
-        <v>94.23</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5171,87 +5171,87 @@
         <v>442</v>
       </c>
       <c r="B257" t="s">
-        <v>87</v>
+        <v>443</v>
       </c>
       <c r="C257">
-        <v>92.85</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B258" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C258">
-        <v>91.39</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B259" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="C259">
-        <v>89.77</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B260" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C260">
-        <v>89.2</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B261" t="s">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="C261">
-        <v>88.17</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B262" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
       <c r="C262">
-        <v>87.45</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B263" t="s">
-        <v>451</v>
+        <v>238</v>
       </c>
       <c r="C263">
-        <v>87.25</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B264" t="s">
-        <v>453</v>
+        <v>127</v>
       </c>
       <c r="C264">
-        <v>86.45</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5259,43 +5259,43 @@
         <v>454</v>
       </c>
       <c r="B265" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C265">
-        <v>86.38</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B266" t="s">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="C266">
-        <v>85.85</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B267" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C267">
-        <v>85.65</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B268" t="s">
-        <v>459</v>
+        <v>93</v>
       </c>
       <c r="C268">
-        <v>84.2</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>461</v>
       </c>
       <c r="C269">
-        <v>83.73</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>463</v>
       </c>
       <c r="C270">
-        <v>83.66</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5325,131 +5325,131 @@
         <v>464</v>
       </c>
       <c r="B271" t="s">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="C271">
-        <v>83.36</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B272" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C272">
-        <v>83.26</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C273">
-        <v>82.37</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B274" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C274">
-        <v>81.87</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B275" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="C275">
-        <v>81.739999999999995</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B276" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C276">
-        <v>81.13</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B277" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C277">
-        <v>77.87</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B278" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="C278">
-        <v>76.319999999999993</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B279" t="s">
-        <v>476</v>
+        <v>357</v>
       </c>
       <c r="C279">
-        <v>75.86</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="C280">
-        <v>74.319999999999993</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B281" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C281">
-        <v>73.239999999999995</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B282" t="s">
-        <v>481</v>
+        <v>279</v>
       </c>
       <c r="C282">
-        <v>72.58</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5457,32 +5457,32 @@
         <v>482</v>
       </c>
       <c r="B283" t="s">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="C283">
-        <v>72.56</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B284" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C284">
-        <v>71.84</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B285" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="C285">
-        <v>71.569999999999993</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>488</v>
       </c>
       <c r="C286">
-        <v>71.31</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5501,10 +5501,10 @@
         <v>489</v>
       </c>
       <c r="B287" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="C287">
-        <v>70.88</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5515,7 +5515,7 @@
         <v>491</v>
       </c>
       <c r="C288">
-        <v>70.13</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5523,10 +5523,10 @@
         <v>492</v>
       </c>
       <c r="B289" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="C289">
-        <v>69.95</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5534,32 +5534,32 @@
         <v>493</v>
       </c>
       <c r="B290" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="C290">
-        <v>69.84</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="C291">
-        <v>69.08</v>
+        <v>69.95</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B292" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="C292">
-        <v>68.459999999999994</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5567,21 +5567,21 @@
         <v>497</v>
       </c>
       <c r="B293" t="s">
-        <v>498</v>
+        <v>93</v>
       </c>
       <c r="C293">
-        <v>68.39</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>498</v>
+      </c>
+      <c r="B294" t="s">
         <v>499</v>
       </c>
-      <c r="B294" t="s">
-        <v>50</v>
-      </c>
       <c r="C294">
-        <v>66.989999999999995</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5589,32 +5589,32 @@
         <v>500</v>
       </c>
       <c r="B295" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C295">
-        <v>65.83</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B296" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="C296">
-        <v>61.65</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B297" t="s">
-        <v>503</v>
+        <v>48</v>
       </c>
       <c r="C297">
-        <v>61.56</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5622,10 +5622,10 @@
         <v>504</v>
       </c>
       <c r="B298" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C298">
-        <v>61.04</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>506</v>
       </c>
       <c r="C299">
-        <v>60.95</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5644,32 +5644,32 @@
         <v>507</v>
       </c>
       <c r="B300" t="s">
-        <v>508</v>
+        <v>269</v>
       </c>
       <c r="C300">
-        <v>60.39</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>508</v>
+      </c>
+      <c r="B301" t="s">
         <v>509</v>
       </c>
-      <c r="B301" t="s">
-        <v>510</v>
-      </c>
       <c r="C301">
-        <v>59.42</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
+        <v>510</v>
+      </c>
+      <c r="B302" t="s">
         <v>511</v>
       </c>
-      <c r="B302" t="s">
-        <v>166</v>
-      </c>
       <c r="C302">
-        <v>58.37</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5677,21 +5677,21 @@
         <v>512</v>
       </c>
       <c r="B303" t="s">
-        <v>105</v>
+        <v>513</v>
       </c>
       <c r="C303">
-        <v>57.82</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B304" t="s">
-        <v>514</v>
+        <v>170</v>
       </c>
       <c r="C304">
-        <v>55.66</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5699,21 +5699,21 @@
         <v>515</v>
       </c>
       <c r="B305" t="s">
-        <v>516</v>
+        <v>109</v>
       </c>
       <c r="C305">
-        <v>52.75</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
+        <v>516</v>
+      </c>
+      <c r="B306" t="s">
         <v>517</v>
       </c>
-      <c r="B306" t="s">
-        <v>91</v>
-      </c>
       <c r="C306">
-        <v>51.32</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5721,21 +5721,21 @@
         <v>518</v>
       </c>
       <c r="B307" t="s">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="C307">
-        <v>50</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B308" t="s">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="C308">
-        <v>48.53</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5743,10 +5743,10 @@
         <v>521</v>
       </c>
       <c r="B309" t="s">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="C309">
-        <v>48.16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5754,98 +5754,98 @@
         <v>522</v>
       </c>
       <c r="B310" t="s">
-        <v>283</v>
+        <v>523</v>
       </c>
       <c r="C310">
-        <v>47</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B311" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="C311">
-        <v>46.92</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B312" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="C312">
-        <v>44.89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="C313">
-        <v>43.86</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B314" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C314">
-        <v>43.07</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B315" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C315">
-        <v>43</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C316">
-        <v>42.7</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B317" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C317">
-        <v>42.57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B318" t="s">
-        <v>531</v>
+        <v>10</v>
       </c>
       <c r="C318">
-        <v>42.42</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5853,10 +5853,10 @@
         <v>532</v>
       </c>
       <c r="B319" t="s">
-        <v>486</v>
+        <v>22</v>
       </c>
       <c r="C319">
-        <v>41.74</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>534</v>
       </c>
       <c r="C320">
-        <v>41.63</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5875,10 +5875,10 @@
         <v>535</v>
       </c>
       <c r="B321" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C321">
-        <v>40.869999999999997</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5886,87 +5886,87 @@
         <v>536</v>
       </c>
       <c r="B322" t="s">
-        <v>258</v>
+        <v>537</v>
       </c>
       <c r="C322">
-        <v>40.799999999999997</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B323" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C323">
-        <v>39.68</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="C324">
-        <v>38.93</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B325" t="s">
-        <v>392</v>
+        <v>265</v>
       </c>
       <c r="C325">
-        <v>38.159999999999997</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B326" t="s">
-        <v>349</v>
+        <v>10</v>
       </c>
       <c r="C326">
-        <v>37.44</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B327" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="C327">
-        <v>36.81</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B328" t="s">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="C328">
-        <v>36.590000000000003</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B329" t="s">
-        <v>544</v>
+        <v>275</v>
       </c>
       <c r="C329">
-        <v>36.36</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5974,21 +5974,21 @@
         <v>545</v>
       </c>
       <c r="B330" t="s">
-        <v>546</v>
+        <v>156</v>
       </c>
       <c r="C330">
-        <v>36.21</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
+        <v>546</v>
+      </c>
+      <c r="B331" t="s">
         <v>547</v>
       </c>
-      <c r="B331" t="s">
-        <v>22</v>
-      </c>
       <c r="C331">
-        <v>33.049999999999997</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>549</v>
       </c>
       <c r="C332">
-        <v>32.909999999999997</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6007,10 +6007,10 @@
         <v>550</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C333">
-        <v>32.64</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6018,98 +6018,98 @@
         <v>551</v>
       </c>
       <c r="B334" t="s">
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="C334">
-        <v>32.229999999999997</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B335" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="C335">
-        <v>32.14</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B336" t="s">
-        <v>274</v>
+        <v>448</v>
       </c>
       <c r="C336">
-        <v>31.82</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B337" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="C337">
-        <v>31.1</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B338" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C338">
-        <v>31.09</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B339" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="C339">
-        <v>30.32</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B340" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C340">
-        <v>29.91</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B341" t="s">
-        <v>486</v>
+        <v>160</v>
       </c>
       <c r="C341">
-        <v>28.26</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B342" t="s">
-        <v>560</v>
+        <v>338</v>
       </c>
       <c r="C342">
-        <v>28.03</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6117,21 +6117,21 @@
         <v>561</v>
       </c>
       <c r="B343" t="s">
-        <v>562</v>
+        <v>48</v>
       </c>
       <c r="C343">
-        <v>27.18</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>562</v>
+      </c>
+      <c r="B344" t="s">
         <v>563</v>
       </c>
-      <c r="B344" t="s">
-        <v>158</v>
-      </c>
       <c r="C344">
-        <v>27.11</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6139,32 +6139,32 @@
         <v>564</v>
       </c>
       <c r="B345" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="C345">
-        <v>26.74</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B346" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="C346">
-        <v>26.25</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B347" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="C347">
-        <v>25.41</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6172,10 +6172,10 @@
         <v>568</v>
       </c>
       <c r="B348" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="C348">
-        <v>25.08</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>570</v>
       </c>
       <c r="C349">
-        <v>23.89</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6194,10 +6194,10 @@
         <v>571</v>
       </c>
       <c r="B350" t="s">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="C350">
-        <v>23.11</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>573</v>
       </c>
       <c r="C351">
-        <v>22.3</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>575</v>
       </c>
       <c r="C352">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6249,7 +6249,7 @@
         <v>580</v>
       </c>
       <c r="B355" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C355">
         <v>20.9</v>
@@ -6271,7 +6271,7 @@
         <v>583</v>
       </c>
       <c r="B357" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C357">
         <v>19.149999999999999</v>
@@ -6282,7 +6282,7 @@
         <v>584</v>
       </c>
       <c r="B358" t="s">
-        <v>486</v>
+        <v>48</v>
       </c>
       <c r="C358">
         <v>19.079999999999998</v>
@@ -6293,7 +6293,7 @@
         <v>585</v>
       </c>
       <c r="B359" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C359">
         <v>18.8</v>
@@ -6326,7 +6326,7 @@
         <v>590</v>
       </c>
       <c r="B362" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C362">
         <v>16.72</v>
@@ -6337,7 +6337,7 @@
         <v>591</v>
       </c>
       <c r="B363" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C363">
         <v>16.54</v>
@@ -6348,7 +6348,7 @@
         <v>592</v>
       </c>
       <c r="B364" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C364">
         <v>15.92</v>
@@ -6359,7 +6359,7 @@
         <v>593</v>
       </c>
       <c r="B365" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C365">
         <v>15.86</v>
@@ -6425,7 +6425,7 @@
         <v>604</v>
       </c>
       <c r="B371" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C371">
         <v>13.55</v>
@@ -6447,7 +6447,7 @@
         <v>606</v>
       </c>
       <c r="B373" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C373">
         <v>12.61</v>
@@ -6469,7 +6469,7 @@
         <v>609</v>
       </c>
       <c r="B375" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C375">
         <v>12.5</v>
@@ -6480,7 +6480,7 @@
         <v>610</v>
       </c>
       <c r="B376" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C376">
         <v>11.96</v>
@@ -6491,7 +6491,7 @@
         <v>611</v>
       </c>
       <c r="B377" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C377">
         <v>11.63</v>
@@ -6502,7 +6502,7 @@
         <v>612</v>
       </c>
       <c r="B378" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C378">
         <v>9.85</v>
@@ -6513,7 +6513,7 @@
         <v>613</v>
       </c>
       <c r="B379" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C379">
         <v>9.77</v>
@@ -6546,7 +6546,7 @@
         <v>618</v>
       </c>
       <c r="B382" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C382">
         <v>8.44</v>
@@ -6568,7 +6568,7 @@
         <v>621</v>
       </c>
       <c r="B384" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C384">
         <v>7.77</v>
@@ -6590,7 +6590,7 @@
         <v>624</v>
       </c>
       <c r="B386" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C386">
         <v>7.6</v>
@@ -6601,7 +6601,7 @@
         <v>625</v>
       </c>
       <c r="B387" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C387">
         <v>7.51</v>
@@ -6645,7 +6645,7 @@
         <v>632</v>
       </c>
       <c r="B391" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C391">
         <v>5.55</v>
@@ -6656,7 +6656,7 @@
         <v>633</v>
       </c>
       <c r="B392" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C392">
         <v>4.3600000000000003</v>
@@ -6667,7 +6667,7 @@
         <v>634</v>
       </c>
       <c r="B393" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C393">
         <v>2.41</v>
@@ -6689,7 +6689,7 @@
         <v>637</v>
       </c>
       <c r="B395" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C395">
         <v>2.13</v>
@@ -6711,7 +6711,7 @@
         <v>640</v>
       </c>
       <c r="B397" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C397">
         <v>0.69</v>
@@ -6722,7 +6722,7 @@
         <v>641</v>
       </c>
       <c r="B398" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C398">
         <v>0.64</v>
@@ -6733,7 +6733,7 @@
         <v>642</v>
       </c>
       <c r="B399" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C399">
         <v>0.59</v>
@@ -6744,7 +6744,7 @@
         <v>643</v>
       </c>
       <c r="B400" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C400">
         <v>0.55000000000000004</v>
@@ -6766,7 +6766,7 @@
         <v>646</v>
       </c>
       <c r="B402" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C402">
         <v>0.03</v>
@@ -6788,7 +6788,7 @@
         <v>649</v>
       </c>
       <c r="B404" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C404">
         <v>0.01</v>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F871E73-66AA-4993-965D-C8B5D1179DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{524478FD-C86B-4071-93D8-3E759256688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="653">
   <si>
     <t>CONTA</t>
   </si>
@@ -43,30 +43,66 @@
     <t>LAILA</t>
   </si>
   <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
     <t>001922009</t>
   </si>
   <si>
     <t>SOFIA</t>
   </si>
   <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
     <t>004482439</t>
   </si>
   <si>
     <t>PEDRO</t>
   </si>
   <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
     <t>004927044</t>
   </si>
   <si>
     <t>CINTIA</t>
   </si>
   <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>004115403</t>
   </si>
   <si>
@@ -85,6 +121,30 @@
     <t>MARCIA</t>
   </si>
   <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
     <t>004454365</t>
   </si>
   <si>
@@ -103,6 +163,9 @@
     <t>ANA</t>
   </si>
   <si>
+    <t>004381359</t>
+  </si>
+  <si>
     <t>001294033</t>
   </si>
   <si>
@@ -127,378 +190,360 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
     <t>004460491</t>
   </si>
   <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>005003629</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
     <t>005020439</t>
   </si>
   <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>005003629</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
     <t>004565146</t>
   </si>
   <si>
@@ -544,6 +589,12 @@
     <t>FABRICIO</t>
   </si>
   <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
     <t>004872395</t>
   </si>
   <si>
@@ -556,12 +607,6 @@
     <t>FAUSTO</t>
   </si>
   <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
     <t>004457389</t>
   </si>
   <si>
@@ -592,6 +637,12 @@
     <t>PHYLIA</t>
   </si>
   <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
     <t>004224011</t>
   </si>
   <si>
@@ -601,12 +652,6 @@
     <t>004956636</t>
   </si>
   <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
     <t>003249855</t>
   </si>
   <si>
@@ -757,9 +802,6 @@
     <t>004948033</t>
   </si>
   <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
     <t>004208733</t>
   </si>
   <si>
@@ -796,12 +838,6 @@
     <t>ALINE</t>
   </si>
   <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
     <t>005110867</t>
   </si>
   <si>
@@ -820,12 +856,6 @@
     <t>FLAVIA</t>
   </si>
   <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
     <t>004451652</t>
   </si>
   <si>
@@ -847,9 +877,6 @@
     <t>004278212</t>
   </si>
   <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
     <t>004491730</t>
   </si>
   <si>
@@ -886,9 +913,6 @@
     <t>005170415</t>
   </si>
   <si>
-    <t>MONICA</t>
-  </si>
-  <si>
     <t>004471893</t>
   </si>
   <si>
@@ -901,9 +925,27 @@
     <t>THAYSA</t>
   </si>
   <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
     <t>004527606</t>
   </si>
   <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
     <t>005061124</t>
   </si>
   <si>
@@ -955,15 +997,15 @@
     <t>FERNANDO</t>
   </si>
   <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
     <t>004381180</t>
   </si>
   <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
     <t>004331477</t>
   </si>
   <si>
@@ -1021,18 +1063,6 @@
     <t>ALESSANDRO</t>
   </si>
   <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
     <t>004530494</t>
   </si>
   <si>
@@ -1066,9 +1096,6 @@
     <t>003836362</t>
   </si>
   <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
     <t>004752534</t>
   </si>
   <si>
@@ -1126,6 +1153,12 @@
     <t>SANDRA</t>
   </si>
   <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
     <t>004403674</t>
   </si>
   <si>
@@ -1291,18 +1324,6 @@
     <t>RENATO</t>
   </si>
   <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
     <t>005040864</t>
   </si>
   <si>
@@ -1333,9 +1354,6 @@
     <t>004563252</t>
   </si>
   <si>
-    <t>004574428</t>
-  </si>
-  <si>
     <t>004339183</t>
   </si>
   <si>
@@ -1366,9 +1384,6 @@
     <t>004216657</t>
   </si>
   <si>
-    <t>JOAO</t>
-  </si>
-  <si>
     <t>004479463</t>
   </si>
   <si>
@@ -1432,9 +1447,6 @@
     <t>005173958</t>
   </si>
   <si>
-    <t>VENIA</t>
-  </si>
-  <si>
     <t>004240292</t>
   </si>
   <si>
@@ -1507,9 +1519,6 @@
     <t>MARILIA</t>
   </si>
   <si>
-    <t>004936634</t>
-  </si>
-  <si>
     <t>004431591</t>
   </si>
   <si>
@@ -1708,12 +1717,6 @@
     <t>004552021</t>
   </si>
   <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
     <t>004994036</t>
   </si>
   <si>
@@ -1943,9 +1946,6 @@
   </si>
   <si>
     <t>004444164</t>
-  </si>
-  <si>
-    <t>004973881</t>
   </si>
   <si>
     <t>004479965</t>
@@ -2344,7 +2344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C407"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>386283.72</v>
+        <v>386283.71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>339347.03</v>
+        <v>339347.04</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>107285.49</v>
+        <v>119988.88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>66090.740000000005</v>
+        <v>107285.49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2413,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>32123.8</v>
+        <v>92561.17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>30851.53</v>
+        <v>92299.13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>28048.91</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>25666.97</v>
+        <v>60257.49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>20424.490000000002</v>
+        <v>48286.94</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>13567.35</v>
+        <v>48009.49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>12248.54</v>
+        <v>42364.22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>12085.71</v>
+        <v>32123.8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>10057.41</v>
+        <v>28048.91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>9964.4</v>
+        <v>25666.97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>7849.45</v>
+        <v>20424.490000000002</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>5883.13</v>
+        <v>20184.259999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2542,142 +2542,142 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>5108.05</v>
+        <v>19811.38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>4917.0600000000004</v>
+        <v>15470.68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>3962.96</v>
+        <v>14999.12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>3022.16</v>
+        <v>13567.35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>2691.13</v>
+        <v>12248.54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>2501.4</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>2438.4499999999998</v>
+        <v>11451.01</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>2417.21</v>
+        <v>10057.41</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>2300</v>
+        <v>9964.4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>2248.11</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>2113.1999999999998</v>
+        <v>5883.13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>2073.7199999999998</v>
+        <v>5113.2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>1865.9</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>1768.73</v>
+        <v>4304.41</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>1744.22</v>
+        <v>3962.96</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>1544.52</v>
+        <v>3022.16</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2718,120 +2718,120 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>1416.45</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>1406.22</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>1272.2</v>
+        <v>2438.4499999999998</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>1241.52</v>
+        <v>2417.21</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38">
-        <v>1239.45</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>1198.42</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40">
-        <v>1129.29</v>
+        <v>1869.95</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>1125.31</v>
+        <v>1865.9</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42">
-        <v>1084.46</v>
+        <v>1744.22</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43">
-        <v>1051.0899999999999</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>999.12</v>
+        <v>1416.45</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2839,98 +2839,98 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>991.44</v>
+        <v>1406.22</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
       <c r="C46">
-        <v>986.98</v>
+        <v>1272.2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
       <c r="C47">
-        <v>984.55</v>
+        <v>1241.52</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
       <c r="C48">
-        <v>944.11</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
       <c r="C49">
-        <v>938.8</v>
+        <v>1198.42</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
       <c r="C50">
-        <v>891.04</v>
+        <v>1129.29</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
       <c r="C51">
-        <v>885.52</v>
+        <v>1125.31</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
       <c r="C52">
-        <v>885.13</v>
+        <v>1084.46</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
         <v>102</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
       <c r="C53">
-        <v>884.96</v>
+        <v>1051.0899999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>104</v>
       </c>
       <c r="C54">
-        <v>884.67</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2949,1077 +2949,1077 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C55">
-        <v>872.41</v>
+        <v>986.98</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56">
-        <v>867.93</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57">
-        <v>867.16</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58">
-        <v>864.35</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59">
-        <v>845.19</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60">
-        <v>833.03</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61">
-        <v>820.67</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C62">
-        <v>810.41</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C63">
-        <v>803.76</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C64">
-        <v>802.88</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>802.18</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C66">
-        <v>798.23</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C67">
-        <v>787.45</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C68">
-        <v>775.83</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C69">
-        <v>768.88</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C70">
-        <v>761.35</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C71">
-        <v>747.96</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>740.54</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C73">
-        <v>739.7</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C74">
-        <v>739.38</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C75">
-        <v>732.94</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C76">
-        <v>723.26</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="C77">
-        <v>715.28</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C78">
-        <v>714.2</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C79">
-        <v>710.16</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C80">
-        <v>703</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C81">
-        <v>685.96</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C82">
-        <v>655.11</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="C83">
-        <v>651</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C84">
-        <v>645.16999999999996</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C85">
-        <v>636.76</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C86">
-        <v>622.63</v>
+        <v>703</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C87">
-        <v>608.66999999999996</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C88">
-        <v>596.41999999999996</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C89">
-        <v>579.26</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C90">
-        <v>579.20000000000005</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C91">
-        <v>570.97</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C92">
-        <v>560.45000000000005</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C93">
-        <v>556.30999999999995</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C94">
-        <v>553.23</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C95">
-        <v>542.62</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C96">
-        <v>536.41999999999996</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C97">
-        <v>534.49</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C98">
-        <v>532.78</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="C99">
-        <v>531.54</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C100">
-        <v>528.38</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C101">
-        <v>521.74</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C102">
-        <v>520.05999999999995</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C103">
-        <v>510.92</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="C104">
-        <v>509.7</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C105">
-        <v>486.29</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C106">
-        <v>483.71</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C107">
-        <v>482.71</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C108">
-        <v>468.72</v>
+        <v>521.74</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C109">
-        <v>468.65</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C110">
-        <v>465.88</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="C111">
-        <v>465.38</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C112">
-        <v>463.52</v>
+        <v>501.4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C113">
-        <v>462.44</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C114">
-        <v>459.98</v>
+        <v>483.71</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C115">
-        <v>453.33</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="C116">
-        <v>451.86</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C117">
-        <v>447.24</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="C118">
-        <v>446.15</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C119">
-        <v>441.76</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C120">
-        <v>429.52</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C121">
-        <v>418</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C122">
-        <v>415.42</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="C123">
-        <v>409.89</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="C124">
-        <v>409.11</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C125">
-        <v>407.94</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C126">
-        <v>404.34</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C127">
-        <v>400.5</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C128">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C129">
-        <v>396.98</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C130">
-        <v>392.89</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C131">
-        <v>392.83</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>380.46</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C133">
-        <v>378.28</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C134">
-        <v>376.72</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="C135">
-        <v>374.97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C136">
-        <v>369.5</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C137">
-        <v>367.11</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="C138">
-        <v>347.34</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C139">
-        <v>346.77</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="C140">
-        <v>345.51</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C141">
-        <v>344.66</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="C142">
-        <v>344.22</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C143">
-        <v>341.85</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C144">
-        <v>338.66</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="C145">
-        <v>336.01</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="C146">
-        <v>333.95</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C147">
-        <v>333.4</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C148">
-        <v>331.75</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="C149">
-        <v>331.38</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C150">
-        <v>327.87</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C151">
-        <v>326.01</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="C152">
-        <v>323.66000000000003</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>271</v>
       </c>
       <c r="C153">
-        <v>322.77</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>273</v>
       </c>
       <c r="C154">
-        <v>316.35000000000002</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>275</v>
       </c>
       <c r="C155">
-        <v>310.17</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>277</v>
       </c>
       <c r="C156">
-        <v>304.47000000000003</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>279</v>
       </c>
       <c r="C157">
-        <v>296.88</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>290.31</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>285.38</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4104,21 +4104,21 @@
         <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C160">
-        <v>284.19</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>285</v>
+      </c>
+      <c r="B161" t="s">
         <v>286</v>
       </c>
-      <c r="B161" t="s">
-        <v>46</v>
-      </c>
       <c r="C161">
-        <v>283.02999999999997</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>288</v>
       </c>
       <c r="C162">
-        <v>271.19</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>290</v>
       </c>
       <c r="C163">
-        <v>271.16000000000003</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>292</v>
       </c>
       <c r="C164">
-        <v>264.52999999999997</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4159,32 +4159,32 @@
         <v>293</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="C165">
-        <v>260.54000000000002</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C166">
-        <v>256.26</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="C167">
-        <v>246.75</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>298</v>
       </c>
       <c r="C168">
-        <v>245.07</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>300</v>
       </c>
       <c r="C169">
-        <v>244.73</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4214,21 +4214,21 @@
         <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="C170">
-        <v>242.8</v>
+        <v>261.81</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="C171">
-        <v>241.07</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>305</v>
       </c>
       <c r="C172">
-        <v>240.93</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4247,21 +4247,21 @@
         <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="C173">
-        <v>236.97</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B174" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="C174">
-        <v>235.24</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>310</v>
       </c>
       <c r="C175">
-        <v>234.95</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4283,7 +4283,7 @@
         <v>312</v>
       </c>
       <c r="C176">
-        <v>230.16</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4291,21 +4291,21 @@
         <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="C177">
-        <v>228.4</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="C178">
-        <v>221.55</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4313,32 +4313,32 @@
         <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="C179">
-        <v>219.44</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B180" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C180">
-        <v>218.49</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B181" t="s">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="C181">
-        <v>203.87</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4346,120 +4346,120 @@
         <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="C182">
-        <v>203.61</v>
+        <v>235.24</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C183">
-        <v>199.24</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B184" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="C184">
-        <v>197.42</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C185">
-        <v>192.35</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C186">
-        <v>191.65</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B187" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="C187">
-        <v>187.16</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="C188">
-        <v>186.38</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C189">
-        <v>184.72</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B190" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="C190">
-        <v>184.4</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C191">
-        <v>184.26</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B192" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="C192">
-        <v>178.9</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4470,7 +4470,7 @@
         <v>340</v>
       </c>
       <c r="C193">
-        <v>178.22</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4481,7 +4481,7 @@
         <v>342</v>
       </c>
       <c r="C194">
-        <v>178.17</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4489,10 +4489,10 @@
         <v>343</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C195">
-        <v>169.78</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4500,10 +4500,10 @@
         <v>344</v>
       </c>
       <c r="B196" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="C196">
-        <v>168.19</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4514,7 +4514,7 @@
         <v>346</v>
       </c>
       <c r="C197">
-        <v>167.87</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4525,7 +4525,7 @@
         <v>348</v>
       </c>
       <c r="C198">
-        <v>166.94</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4533,87 +4533,87 @@
         <v>349</v>
       </c>
       <c r="B199" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="C199">
-        <v>164.31</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B200" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="C200">
-        <v>162.41999999999999</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B201" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C201">
-        <v>159.78</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C202">
-        <v>152.68</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C203">
-        <v>148.74</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B204" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="C204">
-        <v>148.69999999999999</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B205" t="s">
-        <v>357</v>
+        <v>112</v>
       </c>
       <c r="C205">
-        <v>147.41</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B206" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="C206">
-        <v>146.58000000000001</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4621,10 +4621,10 @@
         <v>360</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C207">
-        <v>139.29</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4632,186 +4632,186 @@
         <v>361</v>
       </c>
       <c r="B208" t="s">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="C208">
-        <v>134.29</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>362</v>
+      </c>
+      <c r="B209" t="s">
         <v>363</v>
       </c>
-      <c r="B209" t="s">
-        <v>364</v>
-      </c>
       <c r="C209">
-        <v>129.91999999999999</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C210">
-        <v>129.80000000000001</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>365</v>
+      </c>
+      <c r="B211" t="s">
         <v>366</v>
       </c>
-      <c r="B211" t="s">
-        <v>367</v>
-      </c>
       <c r="C211">
-        <v>128.16999999999999</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>367</v>
+      </c>
+      <c r="B212" t="s">
         <v>368</v>
       </c>
-      <c r="B212" t="s">
-        <v>369</v>
-      </c>
       <c r="C212">
-        <v>123.91</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B213" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="C213">
-        <v>120.91</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B214" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C214">
-        <v>120.44</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B215" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C215">
-        <v>120.01</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B216" t="s">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="C216">
-        <v>119.46</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B217" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C217">
-        <v>119.05</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B218" t="s">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="C218">
-        <v>118.62</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C219">
-        <v>117.74</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B220" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C220">
-        <v>116.42</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B221" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C221">
-        <v>116.06</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B222" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="C222">
-        <v>116.06</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>387</v>
+      </c>
+      <c r="B223" t="s">
         <v>388</v>
       </c>
-      <c r="B223" t="s">
-        <v>389</v>
-      </c>
       <c r="C223">
-        <v>110.29</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>389</v>
+      </c>
+      <c r="B224" t="s">
         <v>390</v>
       </c>
-      <c r="B224" t="s">
-        <v>184</v>
-      </c>
       <c r="C224">
-        <v>107.6</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4819,21 +4819,21 @@
         <v>391</v>
       </c>
       <c r="B225" t="s">
-        <v>392</v>
+        <v>147</v>
       </c>
       <c r="C225">
-        <v>107.14</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>392</v>
+      </c>
+      <c r="B226" t="s">
         <v>393</v>
       </c>
-      <c r="B226" t="s">
-        <v>373</v>
-      </c>
       <c r="C226">
-        <v>106.21</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4844,7 +4844,7 @@
         <v>395</v>
       </c>
       <c r="C227">
-        <v>106.02</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4852,65 +4852,65 @@
         <v>396</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="C228">
-        <v>105.71</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B229" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="C229">
-        <v>105.38</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B230" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C230">
-        <v>104.99</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B231" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="C231">
-        <v>102.96</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B232" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C232">
-        <v>102.6</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B233" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C233">
-        <v>101.48</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4918,32 +4918,32 @@
         <v>405</v>
       </c>
       <c r="B234" t="s">
-        <v>115</v>
+        <v>406</v>
       </c>
       <c r="C234">
-        <v>101.15</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B235" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="C235">
-        <v>100</v>
+        <v>105.71</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B236" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C236">
-        <v>100</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4951,21 +4951,21 @@
         <v>409</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>410</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B238" t="s">
-        <v>411</v>
+        <v>32</v>
       </c>
       <c r="C238">
-        <v>100</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4976,7 +4976,7 @@
         <v>413</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>415</v>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4995,18 +4995,18 @@
         <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>417</v>
+        <v>131</v>
       </c>
       <c r="C241">
-        <v>100</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B242" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C242">
         <v>100</v>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>418</v>
+      </c>
+      <c r="B243" t="s">
         <v>419</v>
-      </c>
-      <c r="B243" t="s">
-        <v>420</v>
       </c>
       <c r="C243">
         <v>100</v>
@@ -5025,10 +5025,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B244" t="s">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="C244">
         <v>100</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B245" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C245">
         <v>100</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B246" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C246">
         <v>100</v>
@@ -5058,10 +5058,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B247" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
       <c r="C247">
         <v>100</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>427</v>
+      </c>
+      <c r="B248" t="s">
         <v>428</v>
-      </c>
-      <c r="B248" t="s">
-        <v>429</v>
       </c>
       <c r="C248">
         <v>100</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>431</v>
+        <v>22</v>
       </c>
       <c r="C249">
         <v>100</v>
@@ -5091,46 +5091,46 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B250" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C250">
-        <v>98.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B251" t="s">
-        <v>60</v>
+        <v>433</v>
       </c>
       <c r="C251">
-        <v>97.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B252" t="s">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>97.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>435</v>
+      </c>
+      <c r="B253" t="s">
         <v>436</v>
       </c>
-      <c r="B253" t="s">
-        <v>310</v>
-      </c>
       <c r="C253">
-        <v>96.49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5138,32 +5138,32 @@
         <v>437</v>
       </c>
       <c r="B254" t="s">
-        <v>245</v>
+        <v>438</v>
       </c>
       <c r="C254">
-        <v>96.44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B255" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C255">
-        <v>95.43</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B256" t="s">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="C256">
-        <v>95.12</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5171,54 +5171,54 @@
         <v>442</v>
       </c>
       <c r="B257" t="s">
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="C257">
-        <v>94.34</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B258" t="s">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="C258">
-        <v>94.23</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B259" t="s">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="C259">
-        <v>92.85</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>446</v>
+      </c>
+      <c r="B260" t="s">
         <v>447</v>
       </c>
-      <c r="B260" t="s">
-        <v>448</v>
-      </c>
       <c r="C260">
-        <v>91.39</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>448</v>
+      </c>
+      <c r="B261" t="s">
         <v>449</v>
       </c>
-      <c r="B261" t="s">
-        <v>445</v>
-      </c>
       <c r="C261">
-        <v>89.77</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>451</v>
       </c>
       <c r="C262">
-        <v>89.2</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5237,10 +5237,10 @@
         <v>452</v>
       </c>
       <c r="B263" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="C263">
-        <v>88.17</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5248,10 +5248,10 @@
         <v>453</v>
       </c>
       <c r="B264" t="s">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="C264">
-        <v>87.45</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5259,373 +5259,373 @@
         <v>454</v>
       </c>
       <c r="B265" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C265">
-        <v>87.25</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>455</v>
+      </c>
+      <c r="B266" t="s">
         <v>456</v>
       </c>
-      <c r="B266" t="s">
-        <v>457</v>
-      </c>
       <c r="C266">
-        <v>86.45</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B267" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="C267">
-        <v>86.38</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B268" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C268">
-        <v>85.85</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>459</v>
+      </c>
+      <c r="B269" t="s">
         <v>460</v>
       </c>
-      <c r="B269" t="s">
-        <v>461</v>
-      </c>
       <c r="C269">
-        <v>85.65</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>461</v>
+      </c>
+      <c r="B270" t="s">
         <v>462</v>
       </c>
-      <c r="B270" t="s">
-        <v>463</v>
-      </c>
       <c r="C270">
-        <v>84.2</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B271" t="s">
-        <v>465</v>
+        <v>327</v>
       </c>
       <c r="C271">
-        <v>83.73</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B272" t="s">
-        <v>467</v>
+        <v>110</v>
       </c>
       <c r="C272">
-        <v>83.66</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B273" t="s">
-        <v>93</v>
+        <v>466</v>
       </c>
       <c r="C273">
-        <v>83.36</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B274" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C274">
-        <v>83.26</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B275" t="s">
-        <v>18</v>
+        <v>470</v>
       </c>
       <c r="C275">
-        <v>82.37</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>471</v>
+      </c>
+      <c r="B276" t="s">
         <v>472</v>
       </c>
-      <c r="B276" t="s">
-        <v>473</v>
-      </c>
       <c r="C276">
-        <v>81.87</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B277" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="C277">
-        <v>81.739999999999995</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B278" t="s">
-        <v>476</v>
+        <v>14</v>
       </c>
       <c r="C278">
-        <v>81.13</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B279" t="s">
-        <v>357</v>
+        <v>30</v>
       </c>
       <c r="C279">
-        <v>77.87</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B280" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="C280">
-        <v>76.319999999999993</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B281" t="s">
-        <v>480</v>
+        <v>302</v>
       </c>
       <c r="C281">
-        <v>75.86</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B282" t="s">
-        <v>279</v>
+        <v>480</v>
       </c>
       <c r="C282">
-        <v>74.319999999999993</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B283" t="s">
-        <v>483</v>
+        <v>366</v>
       </c>
       <c r="C283">
-        <v>73.239999999999995</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B284" t="s">
-        <v>485</v>
+        <v>406</v>
       </c>
       <c r="C284">
-        <v>72.58</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B285" t="s">
-        <v>154</v>
+        <v>484</v>
       </c>
       <c r="C285">
-        <v>72.56</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B286" t="s">
-        <v>488</v>
+        <v>288</v>
       </c>
       <c r="C286">
-        <v>71.84</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B287" t="s">
-        <v>48</v>
+        <v>487</v>
       </c>
       <c r="C287">
-        <v>71.569999999999993</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B288" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C288">
-        <v>71.31</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B289" t="s">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="C289">
-        <v>70.88</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B290" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C290">
-        <v>70.13</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B291" t="s">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="C291">
-        <v>69.95</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B292" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="C292">
-        <v>69.84</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B293" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="C293">
-        <v>69.08</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>497</v>
+      </c>
+      <c r="B294" t="s">
         <v>498</v>
       </c>
-      <c r="B294" t="s">
-        <v>499</v>
-      </c>
       <c r="C294">
-        <v>68.459999999999994</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B295" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="C295">
-        <v>68.39</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B296" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C296">
-        <v>66.989999999999995</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B297" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="C297">
-        <v>65.83</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>503</v>
+      </c>
+      <c r="B298" t="s">
         <v>504</v>
       </c>
-      <c r="B298" t="s">
-        <v>269</v>
-      </c>
       <c r="C298">
-        <v>61.65</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5633,164 +5633,164 @@
         <v>505</v>
       </c>
       <c r="B299" t="s">
-        <v>506</v>
+        <v>57</v>
       </c>
       <c r="C299">
-        <v>61.56</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B300" t="s">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="C300">
-        <v>61.04</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B301" t="s">
-        <v>509</v>
+        <v>279</v>
       </c>
       <c r="C301">
-        <v>60.95</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B302" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C302">
-        <v>60.39</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B303" t="s">
-        <v>513</v>
+        <v>279</v>
       </c>
       <c r="C303">
-        <v>59.42</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B304" t="s">
-        <v>170</v>
+        <v>512</v>
       </c>
       <c r="C304">
-        <v>58.37</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B305" t="s">
-        <v>109</v>
+        <v>514</v>
       </c>
       <c r="C305">
-        <v>57.82</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
+        <v>515</v>
+      </c>
+      <c r="B306" t="s">
         <v>516</v>
       </c>
-      <c r="B306" t="s">
-        <v>517</v>
-      </c>
       <c r="C306">
-        <v>55.66</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B307" t="s">
-        <v>519</v>
+        <v>185</v>
       </c>
       <c r="C307">
-        <v>52.75</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B308" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C308">
-        <v>51.32</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B309" t="s">
-        <v>87</v>
+        <v>520</v>
       </c>
       <c r="C309">
-        <v>50</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
+        <v>521</v>
+      </c>
+      <c r="B310" t="s">
         <v>522</v>
       </c>
-      <c r="B310" t="s">
-        <v>523</v>
-      </c>
       <c r="C310">
-        <v>48.53</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B311" t="s">
-        <v>364</v>
+        <v>112</v>
       </c>
       <c r="C311">
-        <v>48.16</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B312" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="C312">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
+        <v>525</v>
+      </c>
+      <c r="B313" t="s">
         <v>526</v>
       </c>
-      <c r="B313" t="s">
-        <v>402</v>
-      </c>
       <c r="C313">
-        <v>46.92</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5798,10 +5798,10 @@
         <v>527</v>
       </c>
       <c r="B314" t="s">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="C314">
-        <v>44.89</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5809,10 +5809,10 @@
         <v>528</v>
       </c>
       <c r="B315" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C315">
-        <v>43.86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5820,10 +5820,10 @@
         <v>529</v>
       </c>
       <c r="B316" t="s">
-        <v>170</v>
+        <v>413</v>
       </c>
       <c r="C316">
-        <v>43.07</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5831,10 +5831,10 @@
         <v>530</v>
       </c>
       <c r="B317" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C317">
-        <v>43</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5842,10 +5842,10 @@
         <v>531</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C318">
-        <v>42.7</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5853,10 +5853,10 @@
         <v>532</v>
       </c>
       <c r="B319" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="C319">
-        <v>42.57</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5864,65 +5864,65 @@
         <v>533</v>
       </c>
       <c r="B320" t="s">
-        <v>534</v>
+        <v>42</v>
       </c>
       <c r="C320">
-        <v>42.42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B321" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C321">
-        <v>41.74</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B322" t="s">
-        <v>537</v>
+        <v>42</v>
       </c>
       <c r="C322">
-        <v>41.63</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B323" t="s">
-        <v>60</v>
+        <v>537</v>
       </c>
       <c r="C323">
-        <v>40.869999999999997</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B324" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="C324">
-        <v>40.799999999999997</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>539</v>
+      </c>
+      <c r="B325" t="s">
         <v>540</v>
       </c>
-      <c r="B325" t="s">
-        <v>265</v>
-      </c>
       <c r="C325">
-        <v>39.68</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5930,10 +5930,10 @@
         <v>541</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C326">
-        <v>38.93</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5941,10 +5941,10 @@
         <v>542</v>
       </c>
       <c r="B327" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C327">
-        <v>38.159999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5952,10 +5952,10 @@
         <v>543</v>
       </c>
       <c r="B328" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="C328">
-        <v>37.44</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5963,10 +5963,10 @@
         <v>544</v>
       </c>
       <c r="B329" t="s">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="C329">
-        <v>36.81</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5974,10 +5974,10 @@
         <v>545</v>
       </c>
       <c r="B330" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="C330">
-        <v>36.590000000000003</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5985,76 +5985,76 @@
         <v>546</v>
       </c>
       <c r="B331" t="s">
-        <v>547</v>
+        <v>363</v>
       </c>
       <c r="C331">
-        <v>36.36</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B332" t="s">
-        <v>549</v>
+        <v>78</v>
       </c>
       <c r="C332">
-        <v>36.21</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B333" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="C333">
-        <v>33.049999999999997</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B334" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C334">
-        <v>32.909999999999997</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B335" t="s">
-        <v>46</v>
+        <v>552</v>
       </c>
       <c r="C335">
-        <v>32.64</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B336" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="C336">
-        <v>32.229999999999997</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
+        <v>554</v>
+      </c>
+      <c r="B337" t="s">
         <v>555</v>
       </c>
-      <c r="B337" t="s">
-        <v>285</v>
-      </c>
       <c r="C337">
-        <v>32.14</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6062,10 +6062,10 @@
         <v>556</v>
       </c>
       <c r="B338" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="C338">
-        <v>31.82</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6073,10 +6073,10 @@
         <v>557</v>
       </c>
       <c r="B339" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="C339">
-        <v>31.1</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6084,10 +6084,10 @@
         <v>558</v>
       </c>
       <c r="B340" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C340">
-        <v>31.09</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6095,10 +6095,10 @@
         <v>559</v>
       </c>
       <c r="B341" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="C341">
-        <v>30.32</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6106,10 +6106,10 @@
         <v>560</v>
       </c>
       <c r="B342" t="s">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="C342">
-        <v>29.91</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6117,10 +6117,10 @@
         <v>561</v>
       </c>
       <c r="B343" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="C343">
-        <v>28.26</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6128,634 +6128,634 @@
         <v>562</v>
       </c>
       <c r="B344" t="s">
-        <v>563</v>
+        <v>175</v>
       </c>
       <c r="C344">
-        <v>28.03</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B345" t="s">
-        <v>565</v>
+        <v>348</v>
       </c>
       <c r="C345">
-        <v>27.18</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B346" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="C346">
-        <v>27.11</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="C347">
-        <v>26.74</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>336</v>
+        <v>177</v>
       </c>
       <c r="C348">
-        <v>26.25</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="C349">
-        <v>25.41</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B350" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C350">
-        <v>25.08</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B351" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C351">
-        <v>23.89</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B352" t="s">
-        <v>575</v>
+        <v>44</v>
       </c>
       <c r="C352">
-        <v>22.3</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B353" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C353">
-        <v>21.71</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B354" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C354">
-        <v>21.27</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="C355">
-        <v>20.9</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B356" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C356">
-        <v>19.38</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B357" t="s">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="C357">
-        <v>19.149999999999999</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B358" t="s">
-        <v>48</v>
+        <v>583</v>
       </c>
       <c r="C358">
-        <v>19.079999999999998</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B359" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="C359">
-        <v>18.8</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B360" t="s">
-        <v>587</v>
+        <v>72</v>
       </c>
       <c r="C360">
-        <v>17.86</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B361" t="s">
-        <v>589</v>
+        <v>201</v>
       </c>
       <c r="C361">
-        <v>16.78</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B362" t="s">
-        <v>54</v>
+        <v>588</v>
       </c>
       <c r="C362">
-        <v>16.72</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B363" t="s">
-        <v>417</v>
+        <v>590</v>
       </c>
       <c r="C363">
-        <v>16.54</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="C364">
-        <v>15.92</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="C365">
-        <v>15.86</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B366" t="s">
-        <v>595</v>
+        <v>290</v>
       </c>
       <c r="C366">
-        <v>15.42</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B367" t="s">
-        <v>597</v>
+        <v>314</v>
       </c>
       <c r="C367">
-        <v>14.67</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B368" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C368">
-        <v>14.28</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B369" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C369">
-        <v>13.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C370">
-        <v>13.63</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B371" t="s">
-        <v>273</v>
+        <v>602</v>
       </c>
       <c r="C371">
-        <v>13.55</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B372" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="C372">
-        <v>12.88</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="C373">
-        <v>12.61</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B374" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C374">
-        <v>12.6</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B375" t="s">
-        <v>162</v>
+        <v>415</v>
       </c>
       <c r="C375">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B376" t="s">
-        <v>26</v>
+        <v>609</v>
       </c>
       <c r="C376">
-        <v>11.96</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B377" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="C377">
-        <v>11.63</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C378">
-        <v>9.85</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B379" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="C379">
-        <v>9.77</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B380" t="s">
-        <v>615</v>
+        <v>175</v>
       </c>
       <c r="C380">
-        <v>9.7200000000000006</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B381" t="s">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="C381">
-        <v>8.4499999999999993</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B382" t="s">
-        <v>233</v>
+        <v>616</v>
       </c>
       <c r="C382">
-        <v>8.44</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B383" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C383">
-        <v>7.79</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B384" t="s">
-        <v>473</v>
+        <v>248</v>
       </c>
       <c r="C384">
-        <v>7.77</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B385" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C385">
-        <v>7.7</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B386" t="s">
-        <v>132</v>
+        <v>477</v>
       </c>
       <c r="C386">
-        <v>7.6</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B387" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="C387">
-        <v>7.51</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B388" t="s">
-        <v>627</v>
+        <v>147</v>
       </c>
       <c r="C388">
-        <v>7.47</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B389" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="C389">
-        <v>6.58</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B390" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C390">
-        <v>5.56</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B391" t="s">
-        <v>448</v>
+        <v>630</v>
       </c>
       <c r="C391">
-        <v>5.55</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B392" t="s">
-        <v>310</v>
+        <v>632</v>
       </c>
       <c r="C392">
-        <v>4.3600000000000003</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B393" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="C393">
-        <v>2.41</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B394" t="s">
-        <v>636</v>
+        <v>324</v>
       </c>
       <c r="C394">
-        <v>2.3199999999999998</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B395" t="s">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="C395">
-        <v>2.13</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B396" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C396">
-        <v>1.76</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B397" t="s">
-        <v>26</v>
+        <v>447</v>
       </c>
       <c r="C397">
-        <v>0.69</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B398" t="s">
-        <v>348</v>
+        <v>640</v>
       </c>
       <c r="C398">
-        <v>0.64</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B399" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="C399">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B400" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C400">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B401" t="s">
-        <v>645</v>
+        <v>324</v>
       </c>
       <c r="C401">
         <v>0.55000000000000004</v>
@@ -6763,21 +6763,21 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B402" t="s">
-        <v>373</v>
+        <v>645</v>
       </c>
       <c r="C402">
-        <v>0.03</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B403" t="s">
-        <v>648</v>
+        <v>384</v>
       </c>
       <c r="C403">
         <v>0.03</v>
@@ -6785,28 +6785,39 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B404" t="s">
-        <v>245</v>
+        <v>648</v>
       </c>
       <c r="C404">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B405" t="s">
-        <v>651</v>
+        <v>60</v>
       </c>
       <c r="C405">
         <v>0.01</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
-      <c r="A407" t="s">
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>650</v>
+      </c>
+      <c r="B406" t="s">
+        <v>651</v>
+      </c>
+      <c r="C406">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
         <v>652</v>
       </c>
     </row>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{524478FD-C86B-4071-93D8-3E759256688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A8F925-A088-4695-B19E-BCB50E3A44EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="652">
   <si>
     <t>CONTA</t>
   </si>
@@ -43,598 +43,1894 @@
     <t>LAILA</t>
   </si>
   <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>005022526</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>005003629</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
     <t>004387250</t>
   </si>
   <si>
     <t>MONICA</t>
   </si>
   <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>000827730</t>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004432455</t>
   </si>
   <si>
     <t>LUCIANA</t>
   </si>
   <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004855960</t>
+  </si>
+  <si>
+    <t>CLERIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
   </si>
   <si>
     <t>002697806</t>
   </si>
   <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>005003629</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
   </si>
   <si>
     <t>004971448</t>
@@ -643,1306 +1939,7 @@
     <t>CLOVIS</t>
   </si>
   <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>004204255</t>
-  </si>
-  <si>
-    <t>AMADO</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004855960</t>
-  </si>
-  <si>
-    <t>CLERIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
+    <t>005190138</t>
   </si>
   <si>
     <t>004444164</t>
@@ -2344,9 +2341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2391,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>119988.88</v>
+        <v>107285.49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2402,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>107285.49</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2413,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>92561.17</v>
+        <v>32123.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2424,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>92299.13</v>
+        <v>25666.97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2435,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>66090.740000000005</v>
+        <v>19811.38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2446,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>60257.49</v>
+        <v>18923.03</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2457,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>48286.94</v>
+        <v>13567.35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2468,7 +2467,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>48009.49</v>
+        <v>12424.49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2479,7 +2478,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>42364.22</v>
+        <v>12248.54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2490,7 +2489,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>32123.8</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2498,340 +2497,340 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>28048.91</v>
+        <v>11451.01</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
       <c r="C15">
-        <v>25666.97</v>
+        <v>9964.4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
       <c r="C16">
-        <v>20424.490000000002</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>20184.259999999998</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>19811.38</v>
+        <v>4304.41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>15470.68</v>
+        <v>2975.83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>14999.12</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>13567.35</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>12248.54</v>
+        <v>2438.4499999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>12085.71</v>
+        <v>2417.21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>11451.01</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
       <c r="C25">
-        <v>10057.41</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
       <c r="C26">
-        <v>9964.4</v>
+        <v>1869.95</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
       <c r="C27">
-        <v>7849.45</v>
+        <v>1865.9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
       <c r="C28">
-        <v>5883.13</v>
+        <v>1744.22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
       <c r="C29">
-        <v>5113.2</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>5108.05</v>
+        <v>1416.45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
       <c r="C31">
-        <v>4304.41</v>
+        <v>1406.22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
       <c r="C32">
-        <v>3962.96</v>
+        <v>1272.2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
       <c r="C33">
-        <v>3022.16</v>
+        <v>1241.52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
       <c r="C34">
-        <v>2691.13</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
       <c r="C35">
-        <v>2501.4</v>
+        <v>1198.42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
       <c r="C36">
-        <v>2438.4499999999998</v>
+        <v>1129.29</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
       <c r="C37">
-        <v>2417.21</v>
+        <v>1125.31</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
       <c r="C38">
-        <v>2300</v>
+        <v>1051.0899999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
       <c r="C39">
-        <v>2073.7199999999998</v>
+        <v>1012.48</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
       <c r="C40">
-        <v>1869.95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
       <c r="C41">
-        <v>1865.9</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
       <c r="C42">
-        <v>1744.22</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
       <c r="C43">
-        <v>1544.52</v>
+        <v>986.98</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
       <c r="C44">
-        <v>1416.45</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2839,186 +2838,186 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C45">
-        <v>1406.22</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46">
-        <v>1272.2</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47">
-        <v>1241.52</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>1239.45</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49">
-        <v>1198.42</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>1129.29</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>1125.31</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>1084.46</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53">
-        <v>1051.0899999999999</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54">
-        <v>991.44</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55">
-        <v>986.98</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56">
-        <v>984.55</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57">
-        <v>944.11</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58">
-        <v>938.8</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59">
-        <v>930.54</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60">
-        <v>891.04</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>885.13</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3029,7 +3028,7 @@
         <v>120</v>
       </c>
       <c r="C62">
-        <v>884.67</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3037,65 +3036,65 @@
         <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C63">
-        <v>872.41</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64">
-        <v>867.93</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65">
-        <v>867.16</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66">
-        <v>864.35</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67">
-        <v>845.19</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C68">
-        <v>833.03</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3106,7 +3105,7 @@
         <v>133</v>
       </c>
       <c r="C69">
-        <v>820.67</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3114,21 +3113,21 @@
         <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C70">
-        <v>810.41</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C71">
-        <v>803.76</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3136,10 +3135,10 @@
         <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>802.88</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3150,7 +3149,7 @@
         <v>139</v>
       </c>
       <c r="C73">
-        <v>802.18</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3158,65 +3157,65 @@
         <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C74">
-        <v>798.23</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" t="s">
-        <v>143</v>
-      </c>
       <c r="C75">
-        <v>787.45</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="B76" t="s">
-        <v>145</v>
-      </c>
       <c r="C76">
-        <v>768.88</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
       <c r="C77">
-        <v>761.35</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
         <v>148</v>
       </c>
-      <c r="B78" t="s">
-        <v>149</v>
-      </c>
       <c r="C78">
-        <v>747.96</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" t="s">
-        <v>125</v>
-      </c>
       <c r="C79">
-        <v>740.54</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3224,186 +3223,186 @@
         <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C80">
-        <v>739.38</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81">
-        <v>732.94</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="C82">
-        <v>723.26</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C83">
-        <v>715.28</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C84">
-        <v>714.2</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C85">
-        <v>710.16</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C86">
-        <v>703</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C87">
-        <v>685.96</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C88">
-        <v>655.11</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C89">
-        <v>651</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C90">
-        <v>645.16999999999996</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C91">
-        <v>636.76</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C92">
-        <v>622.63</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="C93">
-        <v>608.94000000000005</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C94">
-        <v>608.66999999999996</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95">
-        <v>596.41999999999996</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="C96">
-        <v>579.26</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3414,7 +3413,7 @@
         <v>181</v>
       </c>
       <c r="C97">
-        <v>579.20000000000005</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3425,7 +3424,7 @@
         <v>183</v>
       </c>
       <c r="C98">
-        <v>570.97</v>
+        <v>521.74</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3436,7 +3435,7 @@
         <v>185</v>
       </c>
       <c r="C99">
-        <v>560.45000000000005</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3444,10 +3443,10 @@
         <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="C100">
-        <v>556.30999999999995</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3458,7 +3457,7 @@
         <v>188</v>
       </c>
       <c r="C101">
-        <v>553.23</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3469,7 +3468,7 @@
         <v>190</v>
       </c>
       <c r="C102">
-        <v>544.76</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3477,10 +3476,10 @@
         <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="C103">
-        <v>542.62</v>
+        <v>483.71</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3488,43 +3487,43 @@
         <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="C104">
-        <v>536.41999999999996</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C105">
-        <v>534.49</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C106">
-        <v>531.54</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="C107">
-        <v>528.38</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3532,32 +3531,32 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="C108">
-        <v>521.74</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" t="s">
         <v>200</v>
       </c>
-      <c r="B109" t="s">
-        <v>201</v>
-      </c>
       <c r="C109">
-        <v>520.05999999999995</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" t="s">
         <v>202</v>
       </c>
-      <c r="B110" t="s">
-        <v>46</v>
-      </c>
       <c r="C110">
-        <v>510.92</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3565,76 +3564,76 @@
         <v>203</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C111">
-        <v>509.7</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
         <v>205</v>
       </c>
-      <c r="B112" t="s">
-        <v>206</v>
-      </c>
       <c r="C112">
-        <v>501.4</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="C113">
-        <v>486.29</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C114">
-        <v>483.71</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C115">
-        <v>468.72</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C116">
-        <v>468.65</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" t="s">
         <v>213</v>
       </c>
-      <c r="B117" t="s">
-        <v>84</v>
-      </c>
       <c r="C117">
-        <v>465.88</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3642,10 +3641,10 @@
         <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C118">
-        <v>465.38</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3653,32 +3652,32 @@
         <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C119">
-        <v>463.52</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" t="s">
         <v>217</v>
       </c>
-      <c r="B120" t="s">
-        <v>218</v>
-      </c>
       <c r="C120">
-        <v>462.44</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" t="s">
         <v>219</v>
       </c>
-      <c r="B121" t="s">
-        <v>30</v>
-      </c>
       <c r="C121">
-        <v>459.98</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3689,7 +3688,7 @@
         <v>221</v>
       </c>
       <c r="C122">
-        <v>453.33</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3697,10 +3696,10 @@
         <v>222</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C123">
-        <v>451.86</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3708,21 +3707,21 @@
         <v>223</v>
       </c>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="C124">
-        <v>447.24</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="C125">
-        <v>446.15</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3733,7 +3732,7 @@
         <v>227</v>
       </c>
       <c r="C126">
-        <v>441.76</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3744,7 +3743,7 @@
         <v>229</v>
       </c>
       <c r="C127">
-        <v>429.52</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3752,406 +3751,406 @@
         <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="C128">
-        <v>418</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C129">
-        <v>415.42</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="C130">
-        <v>409.89</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C131">
-        <v>409.11</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="C132">
-        <v>407.94</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="C133">
-        <v>404.34</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C134">
-        <v>400.5</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="C135">
-        <v>400</v>
+        <v>364.22</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>396.98</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="C137">
-        <v>392.89</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C138">
-        <v>392.83</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C139">
-        <v>380.46</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="C140">
-        <v>378.28</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C141">
-        <v>376.72</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C142">
-        <v>374.97</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="C143">
-        <v>369.5</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C144">
-        <v>367.11</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="C145">
-        <v>347.34</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="C146">
-        <v>346.77</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C147">
-        <v>345.51</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C148">
-        <v>344.66</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="C149">
-        <v>344.22</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C150">
-        <v>341.85</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="C151">
-        <v>338.66</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="C152">
-        <v>336.01</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C153">
-        <v>333.95</v>
+        <v>299.13</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C154">
-        <v>331.75</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C155">
-        <v>331.38</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="C156">
-        <v>327.87</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C157">
-        <v>323.66000000000003</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="C158">
-        <v>322.77</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="C159">
-        <v>316.35000000000002</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C160">
-        <v>310.17</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C161">
-        <v>304.47000000000003</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C162">
-        <v>296.88</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C163">
-        <v>290.31</v>
+        <v>261.81</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="C164">
-        <v>285.38</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4162,7 +4161,7 @@
         <v>294</v>
       </c>
       <c r="C165">
-        <v>284.19</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4170,10 +4169,10 @@
         <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C166">
-        <v>283.02999999999997</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4181,21 +4180,21 @@
         <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="C167">
-        <v>271.19</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="C168">
-        <v>271.16000000000003</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4206,7 +4205,7 @@
         <v>300</v>
       </c>
       <c r="C169">
-        <v>264.52999999999997</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4217,7 +4216,7 @@
         <v>302</v>
       </c>
       <c r="C170">
-        <v>261.81</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4225,21 +4224,21 @@
         <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="C171">
-        <v>260.54000000000002</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="C172">
-        <v>259.88</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4250,7 +4249,7 @@
         <v>307</v>
       </c>
       <c r="C173">
-        <v>256.77</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4258,21 +4257,21 @@
         <v>308</v>
       </c>
       <c r="B174" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="C174">
-        <v>256.26</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="C175">
-        <v>246.75</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4283,7 +4282,7 @@
         <v>312</v>
       </c>
       <c r="C176">
-        <v>245.07</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4291,21 +4290,21 @@
         <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="C177">
-        <v>244.73</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>314</v>
+      </c>
+      <c r="B178" t="s">
         <v>315</v>
       </c>
-      <c r="B178" t="s">
-        <v>20</v>
-      </c>
       <c r="C178">
-        <v>242.8</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4316,7 +4315,7 @@
         <v>317</v>
       </c>
       <c r="C179">
-        <v>241.07</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4324,21 +4323,21 @@
         <v>318</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="C180">
-        <v>240.93</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>319</v>
+      </c>
+      <c r="B181" t="s">
         <v>320</v>
       </c>
-      <c r="B181" t="s">
-        <v>112</v>
-      </c>
       <c r="C181">
-        <v>236.97</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4349,7 +4348,7 @@
         <v>322</v>
       </c>
       <c r="C182">
-        <v>235.24</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4357,21 +4356,21 @@
         <v>323</v>
       </c>
       <c r="B183" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="C183">
-        <v>234.95</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" t="s">
         <v>325</v>
       </c>
-      <c r="B184" t="s">
-        <v>98</v>
-      </c>
       <c r="C184">
-        <v>228.4</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4379,32 +4378,32 @@
         <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="C185">
-        <v>228.33</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>327</v>
+      </c>
+      <c r="B186" t="s">
         <v>328</v>
       </c>
-      <c r="B186" t="s">
-        <v>329</v>
-      </c>
       <c r="C186">
-        <v>221.55</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>329</v>
+      </c>
+      <c r="B187" t="s">
         <v>330</v>
       </c>
-      <c r="B187" t="s">
-        <v>62</v>
-      </c>
       <c r="C187">
-        <v>219.44</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4412,54 +4411,54 @@
         <v>331</v>
       </c>
       <c r="B188" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="C188">
-        <v>218.5</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B189" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="C189">
-        <v>203.87</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="C190">
-        <v>203.61</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>335</v>
+      </c>
+      <c r="B191" t="s">
         <v>336</v>
       </c>
-      <c r="B191" t="s">
-        <v>337</v>
-      </c>
       <c r="C191">
-        <v>199.24</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>337</v>
+      </c>
+      <c r="B192" t="s">
         <v>338</v>
       </c>
-      <c r="B192" t="s">
-        <v>248</v>
-      </c>
       <c r="C192">
-        <v>197.42</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4470,7 +4469,7 @@
         <v>340</v>
       </c>
       <c r="C193">
-        <v>192.35</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4478,32 +4477,32 @@
         <v>341</v>
       </c>
       <c r="B194" t="s">
-        <v>342</v>
+        <v>169</v>
       </c>
       <c r="C194">
-        <v>191.65</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="C195">
-        <v>187.16</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B196" t="s">
         <v>344</v>
       </c>
-      <c r="B196" t="s">
-        <v>275</v>
-      </c>
       <c r="C196">
-        <v>186.38</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4511,186 +4510,186 @@
         <v>345</v>
       </c>
       <c r="B197" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C197">
-        <v>184.72</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B198" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="C198">
-        <v>178.9</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="C199">
-        <v>178.22</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="C200">
-        <v>178.17</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C201">
-        <v>169.78</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C202">
-        <v>168.19</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B203" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C203">
-        <v>167.87</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B204" t="s">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="C204">
-        <v>166.94</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B205" t="s">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="C205">
-        <v>164.31</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B206" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="C206">
-        <v>162.41999999999999</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="C207">
-        <v>159.78</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="C208">
-        <v>152.68</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>361</v>
+      </c>
+      <c r="B209" t="s">
         <v>362</v>
       </c>
-      <c r="B209" t="s">
-        <v>363</v>
-      </c>
       <c r="C209">
-        <v>148.74</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C210">
-        <v>148.69999999999999</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>364</v>
+      </c>
+      <c r="B211" t="s">
         <v>365</v>
       </c>
-      <c r="B211" t="s">
-        <v>366</v>
-      </c>
       <c r="C211">
-        <v>147.41</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>366</v>
+      </c>
+      <c r="B212" t="s">
         <v>367</v>
       </c>
-      <c r="B212" t="s">
-        <v>368</v>
-      </c>
       <c r="C212">
-        <v>146.58000000000001</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>368</v>
+      </c>
+      <c r="B213" t="s">
         <v>369</v>
       </c>
-      <c r="B213" t="s">
-        <v>248</v>
-      </c>
       <c r="C213">
-        <v>139.29</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4701,7 +4700,7 @@
         <v>371</v>
       </c>
       <c r="C214">
-        <v>134.29</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4712,7 +4711,7 @@
         <v>373</v>
       </c>
       <c r="C215">
-        <v>129.91999999999999</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4720,43 +4719,43 @@
         <v>374</v>
       </c>
       <c r="B216" t="s">
-        <v>94</v>
+        <v>375</v>
       </c>
       <c r="C216">
-        <v>129.80000000000001</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C217">
-        <v>128.16999999999999</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B218" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C218">
-        <v>124.93</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B219" t="s">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="C219">
-        <v>123.91</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4767,7 +4766,7 @@
         <v>382</v>
       </c>
       <c r="C220">
-        <v>120.91</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4778,7 +4777,7 @@
         <v>384</v>
       </c>
       <c r="C221">
-        <v>120.44</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4789,7 +4788,7 @@
         <v>386</v>
       </c>
       <c r="C222">
-        <v>120.01</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4797,216 +4796,216 @@
         <v>387</v>
       </c>
       <c r="B223" t="s">
-        <v>388</v>
+        <v>157</v>
       </c>
       <c r="C223">
-        <v>119.46</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B224" t="s">
-        <v>390</v>
+        <v>115</v>
       </c>
       <c r="C224">
-        <v>119.05</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B225" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="C225">
-        <v>118.62</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B226" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="C226">
-        <v>117.74</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C227">
-        <v>116.42</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C228">
-        <v>116.06</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="C229">
-        <v>116.06</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C230">
-        <v>110.29</v>
+        <v>105.71</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>199</v>
+        <v>362</v>
       </c>
       <c r="C231">
-        <v>107.6</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C232">
-        <v>107.14</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="C233">
-        <v>106.21</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C234">
-        <v>106.02</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="C235">
-        <v>105.71</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>373</v>
+        <v>111</v>
       </c>
       <c r="C236">
-        <v>105.38</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="C237">
-        <v>104.99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>410</v>
       </c>
       <c r="C238">
-        <v>102.96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>413</v>
+        <v>279</v>
       </c>
       <c r="C239">
-        <v>102.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B240" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C240">
-        <v>101.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B241" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="C241">
-        <v>101.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>416</v>
+      </c>
+      <c r="B242" t="s">
         <v>417</v>
-      </c>
-      <c r="B242" t="s">
-        <v>131</v>
       </c>
       <c r="C242">
         <v>100</v>
@@ -5028,7 +5027,7 @@
         <v>420</v>
       </c>
       <c r="B244" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="C244">
         <v>100</v>
@@ -5061,7 +5060,7 @@
         <v>425</v>
       </c>
       <c r="B247" t="s">
-        <v>426</v>
+        <v>59</v>
       </c>
       <c r="C247">
         <v>100</v>
@@ -5069,10 +5068,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>426</v>
+      </c>
+      <c r="B248" t="s">
         <v>427</v>
-      </c>
-      <c r="B248" t="s">
-        <v>428</v>
       </c>
       <c r="C248">
         <v>100</v>
@@ -5080,10 +5079,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" t="s">
         <v>429</v>
-      </c>
-      <c r="B249" t="s">
-        <v>22</v>
       </c>
       <c r="C249">
         <v>100</v>
@@ -5097,7 +5096,7 @@
         <v>431</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5105,76 +5104,76 @@
         <v>432</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
+        <v>101</v>
       </c>
       <c r="C251">
-        <v>100</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B252" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="C252">
-        <v>100</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
-        <v>436</v>
+        <v>312</v>
       </c>
       <c r="C253">
-        <v>100</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B254" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C254">
-        <v>100</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B255" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C255">
-        <v>98.02</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B256" t="s">
-        <v>18</v>
+        <v>440</v>
       </c>
       <c r="C256">
-        <v>97.08</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>441</v>
+      </c>
+      <c r="B257" t="s">
         <v>442</v>
       </c>
-      <c r="B257" t="s">
-        <v>24</v>
-      </c>
       <c r="C257">
-        <v>97.03</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5182,21 +5181,21 @@
         <v>443</v>
       </c>
       <c r="B258" t="s">
-        <v>324</v>
+        <v>444</v>
       </c>
       <c r="C258">
-        <v>96.49</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B259" t="s">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="C259">
-        <v>95.43</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5204,65 +5203,65 @@
         <v>446</v>
       </c>
       <c r="B260" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C260">
-        <v>95.12</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>447</v>
+      </c>
+      <c r="B261" t="s">
         <v>448</v>
       </c>
-      <c r="B261" t="s">
-        <v>449</v>
-      </c>
       <c r="C261">
-        <v>94.34</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B262" t="s">
-        <v>451</v>
+        <v>238</v>
       </c>
       <c r="C262">
-        <v>94.23</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B263" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C263">
-        <v>92.85</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B264" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="C264">
-        <v>91.39</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>453</v>
+      </c>
+      <c r="B265" t="s">
         <v>454</v>
       </c>
-      <c r="B265" t="s">
-        <v>451</v>
-      </c>
       <c r="C265">
-        <v>89.77</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5270,32 +5269,32 @@
         <v>455</v>
       </c>
       <c r="B266" t="s">
-        <v>456</v>
+        <v>315</v>
       </c>
       <c r="C266">
-        <v>89.2</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B267" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="C267">
-        <v>88.17</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>457</v>
+      </c>
+      <c r="B268" t="s">
         <v>458</v>
       </c>
-      <c r="B268" t="s">
-        <v>143</v>
-      </c>
       <c r="C268">
-        <v>87.45</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5306,7 +5305,7 @@
         <v>460</v>
       </c>
       <c r="C269">
-        <v>87.25</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5317,7 +5316,7 @@
         <v>462</v>
       </c>
       <c r="C270">
-        <v>86.45</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5325,32 +5324,32 @@
         <v>463</v>
       </c>
       <c r="B271" t="s">
-        <v>327</v>
+        <v>464</v>
       </c>
       <c r="C271">
-        <v>86.38</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B272" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C272">
-        <v>85.85</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B273" t="s">
-        <v>466</v>
+        <v>275</v>
       </c>
       <c r="C273">
-        <v>85.65</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5358,109 +5357,109 @@
         <v>467</v>
       </c>
       <c r="B274" t="s">
-        <v>468</v>
+        <v>14</v>
       </c>
       <c r="C274">
-        <v>84.2</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>468</v>
+      </c>
+      <c r="B275" t="s">
         <v>469</v>
       </c>
-      <c r="B275" t="s">
-        <v>470</v>
-      </c>
       <c r="C275">
-        <v>83.73</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B276" t="s">
-        <v>472</v>
+        <v>291</v>
       </c>
       <c r="C276">
-        <v>83.66</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B277" t="s">
-        <v>110</v>
+        <v>472</v>
       </c>
       <c r="C277">
-        <v>83.36</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="C278">
-        <v>83.26</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B279" t="s">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="C279">
-        <v>82.37</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>475</v>
+      </c>
+      <c r="B280" t="s">
         <v>476</v>
       </c>
-      <c r="B280" t="s">
-        <v>477</v>
-      </c>
       <c r="C280">
-        <v>81.87</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B281" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C281">
-        <v>81.739999999999995</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>478</v>
+      </c>
+      <c r="B282" t="s">
         <v>479</v>
       </c>
-      <c r="B282" t="s">
-        <v>480</v>
-      </c>
       <c r="C282">
-        <v>81.13</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>480</v>
+      </c>
+      <c r="B283" t="s">
         <v>481</v>
       </c>
-      <c r="B283" t="s">
-        <v>366</v>
-      </c>
       <c r="C283">
-        <v>77.87</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5468,10 +5467,10 @@
         <v>482</v>
       </c>
       <c r="B284" t="s">
-        <v>406</v>
+        <v>150</v>
       </c>
       <c r="C284">
-        <v>76.319999999999993</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5482,7 +5481,7 @@
         <v>484</v>
       </c>
       <c r="C285">
-        <v>75.86</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5490,10 +5489,10 @@
         <v>485</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="C286">
-        <v>74.319999999999993</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5504,7 +5503,7 @@
         <v>487</v>
       </c>
       <c r="C287">
-        <v>73.239999999999995</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5512,21 +5511,21 @@
         <v>488</v>
       </c>
       <c r="B288" t="s">
-        <v>489</v>
+        <v>360</v>
       </c>
       <c r="C288">
-        <v>72.58</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>489</v>
+      </c>
+      <c r="B289" t="s">
         <v>490</v>
       </c>
-      <c r="B289" t="s">
-        <v>168</v>
-      </c>
       <c r="C289">
-        <v>72.56</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5534,43 +5533,43 @@
         <v>491</v>
       </c>
       <c r="B290" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="C290">
-        <v>71.84</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B291" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C291">
-        <v>71.569999999999993</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
+        <v>493</v>
+      </c>
+      <c r="B292" t="s">
         <v>494</v>
       </c>
-      <c r="B292" t="s">
-        <v>495</v>
-      </c>
       <c r="C292">
-        <v>71.31</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>495</v>
+      </c>
+      <c r="B293" t="s">
         <v>496</v>
       </c>
-      <c r="B293" t="s">
-        <v>371</v>
-      </c>
       <c r="C293">
-        <v>70.88</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5578,76 +5577,76 @@
         <v>497</v>
       </c>
       <c r="B294" t="s">
-        <v>498</v>
+        <v>115</v>
       </c>
       <c r="C294">
-        <v>70.13</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B295" t="s">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="C295">
-        <v>69.84</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B296" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="C296">
-        <v>69.08</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>500</v>
+      </c>
+      <c r="B297" t="s">
         <v>501</v>
       </c>
-      <c r="B297" t="s">
-        <v>502</v>
-      </c>
       <c r="C297">
-        <v>68.459999999999994</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B298" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="C298">
-        <v>68.39</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>57</v>
+        <v>504</v>
       </c>
       <c r="C299">
-        <v>66.989999999999995</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>505</v>
+      </c>
+      <c r="B300" t="s">
         <v>506</v>
       </c>
-      <c r="B300" t="s">
-        <v>72</v>
-      </c>
       <c r="C300">
-        <v>65.83</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5655,21 +5654,21 @@
         <v>507</v>
       </c>
       <c r="B301" t="s">
-        <v>279</v>
+        <v>508</v>
       </c>
       <c r="C301">
-        <v>61.65</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B302" t="s">
-        <v>509</v>
+        <v>169</v>
       </c>
       <c r="C302">
-        <v>61.56</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5677,10 +5676,10 @@
         <v>510</v>
       </c>
       <c r="B303" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="C303">
-        <v>61.04</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5691,7 +5690,7 @@
         <v>512</v>
       </c>
       <c r="C304">
-        <v>60.95</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5702,7 +5701,7 @@
         <v>514</v>
       </c>
       <c r="C305">
-        <v>60.39</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5713,7 +5712,7 @@
         <v>516</v>
       </c>
       <c r="C306">
-        <v>59.42</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5721,10 +5720,10 @@
         <v>517</v>
       </c>
       <c r="B307" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="C307">
-        <v>58.37</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5732,10 +5731,10 @@
         <v>518</v>
       </c>
       <c r="B308" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C308">
-        <v>57.82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5746,7 +5745,7 @@
         <v>520</v>
       </c>
       <c r="C309">
-        <v>55.66</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5754,131 +5753,131 @@
         <v>521</v>
       </c>
       <c r="B310" t="s">
-        <v>522</v>
+        <v>362</v>
       </c>
       <c r="C310">
-        <v>52.75</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B311" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C311">
-        <v>51.32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B312" t="s">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="C312">
-        <v>50</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B313" t="s">
-        <v>526</v>
+        <v>14</v>
       </c>
       <c r="C313">
-        <v>48.53</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B314" t="s">
-        <v>373</v>
+        <v>14</v>
       </c>
       <c r="C314">
-        <v>48.16</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B315" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="C315">
-        <v>47</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B316" t="s">
-        <v>413</v>
+        <v>20</v>
       </c>
       <c r="C316">
-        <v>46.92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B317" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C317">
-        <v>44.89</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B318" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C318">
-        <v>43.86</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B319" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="C319">
-        <v>43.07</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B320" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C320">
-        <v>43</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
+        <v>533</v>
+      </c>
+      <c r="B321" t="s">
         <v>534</v>
       </c>
-      <c r="B321" t="s">
-        <v>16</v>
-      </c>
       <c r="C321">
-        <v>42.7</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5886,10 +5885,10 @@
         <v>535</v>
       </c>
       <c r="B322" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C322">
-        <v>42.57</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5897,98 +5896,98 @@
         <v>536</v>
       </c>
       <c r="B323" t="s">
-        <v>537</v>
+        <v>262</v>
       </c>
       <c r="C323">
-        <v>42.42</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B324" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="C324">
-        <v>41.74</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B325" t="s">
-        <v>540</v>
+        <v>10</v>
       </c>
       <c r="C325">
-        <v>41.63</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
+        <v>398</v>
       </c>
       <c r="C326">
-        <v>40.869999999999997</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B327" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="C327">
-        <v>40.799999999999997</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B328" t="s">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="C328">
-        <v>39.68</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B329" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="C329">
-        <v>38.93</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="C330">
-        <v>38.159999999999997</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
+        <v>545</v>
+      </c>
+      <c r="B331" t="s">
         <v>546</v>
       </c>
-      <c r="B331" t="s">
-        <v>363</v>
-      </c>
       <c r="C331">
-        <v>37.44</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5996,10 +5995,10 @@
         <v>547</v>
       </c>
       <c r="B332" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C332">
-        <v>36.81</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6007,21 +6006,21 @@
         <v>548</v>
       </c>
       <c r="B333" t="s">
-        <v>170</v>
+        <v>549</v>
       </c>
       <c r="C333">
-        <v>36.590000000000003</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B334" t="s">
-        <v>550</v>
+        <v>42</v>
       </c>
       <c r="C334">
-        <v>36.36</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6029,131 +6028,131 @@
         <v>551</v>
       </c>
       <c r="B335" t="s">
-        <v>552</v>
+        <v>315</v>
       </c>
       <c r="C335">
-        <v>36.21</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B336" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C336">
-        <v>33.049999999999997</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B337" t="s">
-        <v>555</v>
+        <v>277</v>
       </c>
       <c r="C337">
-        <v>32.909999999999997</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B338" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C338">
-        <v>32.64</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B339" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C339">
-        <v>32.229999999999997</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B340" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="C340">
-        <v>32.14</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B341" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="C341">
-        <v>31.82</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C342">
-        <v>31.1</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B343" t="s">
-        <v>302</v>
+        <v>560</v>
       </c>
       <c r="C343">
-        <v>31.09</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B344" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C344">
-        <v>30.32</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>348</v>
+        <v>494</v>
       </c>
       <c r="C345">
-        <v>29.91</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
+        <v>563</v>
+      </c>
+      <c r="B346" t="s">
         <v>564</v>
       </c>
-      <c r="B346" t="s">
-        <v>72</v>
-      </c>
       <c r="C346">
-        <v>28.26</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6164,7 +6163,7 @@
         <v>566</v>
       </c>
       <c r="C347">
-        <v>27.18</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6172,10 +6171,10 @@
         <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C348">
-        <v>27.11</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6183,109 +6182,109 @@
         <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="C349">
-        <v>26.74</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B350" t="s">
-        <v>34</v>
+        <v>571</v>
       </c>
       <c r="C350">
-        <v>26.25</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C351">
-        <v>25.41</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B352" t="s">
-        <v>44</v>
+        <v>575</v>
       </c>
       <c r="C352">
-        <v>25.08</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B353" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C353">
-        <v>23.89</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B354" t="s">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="C354">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B355" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C355">
-        <v>21.71</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B356" t="s">
-        <v>580</v>
+        <v>105</v>
       </c>
       <c r="C356">
-        <v>21.27</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B357" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="C357">
-        <v>20.9</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>583</v>
+        <v>185</v>
       </c>
       <c r="C358">
-        <v>19.38</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6293,54 +6292,54 @@
         <v>584</v>
       </c>
       <c r="B359" t="s">
-        <v>125</v>
+        <v>585</v>
       </c>
       <c r="C359">
-        <v>19.149999999999999</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>72</v>
+        <v>587</v>
       </c>
       <c r="C360">
-        <v>19.079999999999998</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B361" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="C361">
-        <v>18.8</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>588</v>
+        <v>419</v>
       </c>
       <c r="C362">
-        <v>17.86</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B363" t="s">
-        <v>590</v>
+        <v>279</v>
       </c>
       <c r="C363">
-        <v>16.78</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6348,10 +6347,10 @@
         <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="C364">
-        <v>16.72</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6359,87 +6358,87 @@
         <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>428</v>
+        <v>593</v>
       </c>
       <c r="C365">
-        <v>16.54</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>290</v>
+        <v>595</v>
       </c>
       <c r="C366">
-        <v>15.92</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B367" t="s">
-        <v>314</v>
+        <v>597</v>
       </c>
       <c r="C367">
-        <v>15.86</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B368" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C368">
-        <v>15.42</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B369" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C369">
-        <v>14.67</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B370" t="s">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="C370">
-        <v>14.28</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B371" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="C371">
-        <v>13.67</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>604</v>
+        <v>406</v>
       </c>
       <c r="C372">
-        <v>13.63</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6447,43 +6446,43 @@
         <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="C373">
-        <v>13.55</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B374" t="s">
-        <v>590</v>
+        <v>161</v>
       </c>
       <c r="C374">
-        <v>12.88</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B375" t="s">
-        <v>415</v>
+        <v>26</v>
       </c>
       <c r="C375">
-        <v>12.61</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B376" t="s">
-        <v>609</v>
+        <v>50</v>
       </c>
       <c r="C376">
-        <v>12.6</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6491,10 +6490,10 @@
         <v>610</v>
       </c>
       <c r="B377" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C377">
-        <v>12.5</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6502,10 +6501,10 @@
         <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="C378">
-        <v>11.96</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6513,54 +6512,54 @@
         <v>612</v>
       </c>
       <c r="B379" t="s">
-        <v>78</v>
+        <v>613</v>
       </c>
       <c r="C379">
-        <v>11.63</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B380" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C380">
-        <v>9.85</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B381" t="s">
-        <v>253</v>
+        <v>616</v>
       </c>
       <c r="C381">
-        <v>9.77</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B382" t="s">
-        <v>616</v>
+        <v>233</v>
       </c>
       <c r="C382">
-        <v>9.7200000000000006</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B383" t="s">
-        <v>618</v>
+        <v>469</v>
       </c>
       <c r="C383">
-        <v>8.4499999999999993</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6568,21 +6567,21 @@
         <v>619</v>
       </c>
       <c r="B384" t="s">
-        <v>248</v>
+        <v>620</v>
       </c>
       <c r="C384">
-        <v>8.44</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B385" t="s">
-        <v>621</v>
+        <v>128</v>
       </c>
       <c r="C385">
-        <v>7.79</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6590,10 +6589,10 @@
         <v>622</v>
       </c>
       <c r="B386" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="C386">
-        <v>7.77</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6604,7 +6603,7 @@
         <v>624</v>
       </c>
       <c r="C387">
-        <v>7.7</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6612,43 +6611,43 @@
         <v>625</v>
       </c>
       <c r="B388" t="s">
-        <v>147</v>
+        <v>626</v>
       </c>
       <c r="C388">
-        <v>7.6</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B389" t="s">
-        <v>540</v>
+        <v>628</v>
       </c>
       <c r="C389">
-        <v>7.51</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B390" t="s">
-        <v>628</v>
+        <v>315</v>
       </c>
       <c r="C390">
-        <v>7.47</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B391" t="s">
-        <v>630</v>
+        <v>312</v>
       </c>
       <c r="C391">
-        <v>6.58</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6656,21 +6655,21 @@
         <v>631</v>
       </c>
       <c r="B392" t="s">
-        <v>632</v>
+        <v>24</v>
       </c>
       <c r="C392">
-        <v>5.56</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
+        <v>632</v>
+      </c>
+      <c r="B393" t="s">
         <v>633</v>
       </c>
-      <c r="B393" t="s">
-        <v>327</v>
-      </c>
       <c r="C393">
-        <v>5.55</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6678,10 +6677,10 @@
         <v>634</v>
       </c>
       <c r="B394" t="s">
-        <v>324</v>
+        <v>438</v>
       </c>
       <c r="C394">
-        <v>4.3600000000000003</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6689,43 +6688,43 @@
         <v>635</v>
       </c>
       <c r="B395" t="s">
-        <v>44</v>
+        <v>636</v>
       </c>
       <c r="C395">
-        <v>2.41</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B396" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C396">
-        <v>2.3199999999999998</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B397" t="s">
-        <v>447</v>
+        <v>26</v>
       </c>
       <c r="C397">
-        <v>2.13</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B398" t="s">
-        <v>640</v>
+        <v>26</v>
       </c>
       <c r="C398">
-        <v>1.76</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6733,10 +6732,10 @@
         <v>641</v>
       </c>
       <c r="B399" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C399">
-        <v>0.69</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6744,10 +6743,10 @@
         <v>642</v>
       </c>
       <c r="B400" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C400">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6755,7 +6754,7 @@
         <v>643</v>
       </c>
       <c r="B401" t="s">
-        <v>324</v>
+        <v>644</v>
       </c>
       <c r="C401">
         <v>0.55000000000000004</v>
@@ -6763,13 +6762,13 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B402" t="s">
-        <v>645</v>
+        <v>373</v>
       </c>
       <c r="C402">
-        <v>0.55000000000000004</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6777,7 +6776,7 @@
         <v>646</v>
       </c>
       <c r="B403" t="s">
-        <v>384</v>
+        <v>647</v>
       </c>
       <c r="C403">
         <v>0.03</v>
@@ -6785,13 +6784,13 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B404" t="s">
-        <v>648</v>
+        <v>34</v>
       </c>
       <c r="C404">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6799,26 +6798,15 @@
         <v>649</v>
       </c>
       <c r="B405" t="s">
-        <v>60</v>
+        <v>650</v>
       </c>
       <c r="C405">
         <v>0.01</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
-      <c r="A406" t="s">
-        <v>650</v>
-      </c>
-      <c r="B406" t="s">
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
         <v>651</v>
-      </c>
-      <c r="C406">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A8F925-A088-4695-B19E-BCB50E3A44EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5386EC-4BFA-4D4F-9F3A-FCFA3BA23E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="653">
   <si>
     <t>CONTA</t>
   </si>
@@ -61,1018 +61,1030 @@
     <t>CINTIA</t>
   </si>
   <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
     <t>004254210</t>
   </si>
   <si>
     <t>MARCO</t>
   </si>
   <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>005022526</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
     <t>004332207</t>
   </si>
   <si>
     <t>IRACY</t>
   </si>
   <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004460491</t>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
   </si>
   <si>
     <t>004574428</t>
   </si>
   <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004586209</t>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
   </si>
   <si>
     <t>ROBERIO</t>
   </si>
   <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>005003629</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>005064129</t>
+    <t>005203562</t>
   </si>
   <si>
     <t>004517080</t>
@@ -1213,12 +1225,6 @@
     <t>LUCAS</t>
   </si>
   <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>005152037</t>
   </si>
   <si>
@@ -1244,9 +1250,6 @@
   </si>
   <si>
     <t>004539779</t>
-  </si>
-  <si>
-    <t>004237325</t>
   </si>
   <si>
     <t>004239624</t>
@@ -2341,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C407"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2423,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>25666.97</v>
+        <v>27689.47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2434,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>19811.38</v>
+        <v>25666.97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2445,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>18923.03</v>
+        <v>13567.35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2456,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>13567.35</v>
+        <v>12424.49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2467,7 +2470,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>12424.49</v>
+        <v>12248.54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2478,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>12248.54</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2489,7 +2492,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>12085.71</v>
+        <v>10038.73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2497,10 +2500,10 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>11451.01</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2511,7 +2514,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>9964.4</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2519,21 +2522,21 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>7849.45</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
       <c r="C17">
-        <v>5108.05</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2544,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>4304.41</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2555,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>2975.83</v>
+        <v>2438.4499999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2566,7 +2569,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>2691.13</v>
+        <v>2417.21</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2577,7 +2580,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>2501.4</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2588,7 +2591,7 @@
         <v>42</v>
       </c>
       <c r="C22">
-        <v>2438.4499999999998</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2599,7 +2602,7 @@
         <v>44</v>
       </c>
       <c r="C23">
-        <v>2417.21</v>
+        <v>1869.95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2610,7 +2613,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>2300</v>
+        <v>1865.9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2621,7 +2624,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>2073.7199999999998</v>
+        <v>1744.22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2632,7 +2635,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1869.95</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2640,43 +2643,43 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>1865.9</v>
+        <v>1451.01</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
       <c r="C28">
-        <v>1744.22</v>
+        <v>1272.2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
       <c r="C29">
-        <v>1544.52</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
       <c r="C30">
-        <v>1416.45</v>
+        <v>1129.29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2687,7 +2690,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>1406.22</v>
+        <v>1125.31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2698,7 +2701,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>1272.2</v>
+        <v>1051.0899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2709,7 +2712,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>1241.52</v>
+        <v>1012.48</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2720,7 +2723,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>1239.45</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2731,7 +2734,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>1198.42</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2742,7 +2745,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>1129.29</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2753,7 +2756,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>1125.31</v>
+        <v>986.98</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2764,7 +2767,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1051.0899999999999</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2775,7 +2778,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1012.48</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2786,7 +2789,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2797,7 +2800,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>991.44</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2808,7 +2811,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>988.88</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2819,7 +2822,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>986.98</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2830,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>984.55</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2841,7 +2844,7 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>944.11</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2852,7 +2855,7 @@
         <v>89</v>
       </c>
       <c r="C46">
-        <v>938.8</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2863,7 +2866,7 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <v>930.54</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2874,7 +2877,7 @@
         <v>93</v>
       </c>
       <c r="C48">
-        <v>891.04</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2885,7 +2888,7 @@
         <v>95</v>
       </c>
       <c r="C49">
-        <v>885.13</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2896,7 +2899,7 @@
         <v>97</v>
       </c>
       <c r="C50">
-        <v>884.67</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2907,7 +2910,7 @@
         <v>99</v>
       </c>
       <c r="C51">
-        <v>883.13</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2918,7 +2921,7 @@
         <v>101</v>
       </c>
       <c r="C52">
-        <v>872.41</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2929,7 +2932,7 @@
         <v>103</v>
       </c>
       <c r="C53">
-        <v>867.93</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2940,7 +2943,7 @@
         <v>105</v>
       </c>
       <c r="C54">
-        <v>867.16</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2951,7 +2954,7 @@
         <v>107</v>
       </c>
       <c r="C55">
-        <v>864.35</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2959,65 +2962,65 @@
         <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>845.19</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
       </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
       <c r="C57">
-        <v>833.03</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
       </c>
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
       <c r="C58">
-        <v>820.67</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
-        <v>115</v>
-      </c>
       <c r="C59">
-        <v>810.41</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
       </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
       <c r="C60">
-        <v>803.76</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
       <c r="C61">
-        <v>802.88</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3028,7 +3031,7 @@
         <v>120</v>
       </c>
       <c r="C62">
-        <v>802.18</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3036,692 +3039,692 @@
         <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C63">
-        <v>798.23</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
         <v>123</v>
       </c>
-      <c r="B64" t="s">
-        <v>124</v>
-      </c>
       <c r="C64">
-        <v>787.45</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
         <v>125</v>
       </c>
-      <c r="B65" t="s">
-        <v>126</v>
-      </c>
       <c r="C65">
-        <v>768.88</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C66">
-        <v>761.35</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="C67">
-        <v>747.96</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C68">
-        <v>740.54</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C69">
-        <v>739.38</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C70">
-        <v>732.94</v>
+        <v>703</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C71">
-        <v>723.26</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>715.28</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73">
-        <v>714.2</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C74">
-        <v>710.16</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
         <v>141</v>
       </c>
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
       <c r="C75">
-        <v>703</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s">
-        <v>144</v>
-      </c>
       <c r="C76">
-        <v>685.96</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" t="s">
-        <v>146</v>
-      </c>
       <c r="C77">
-        <v>655.11</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C78">
-        <v>651</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79">
-        <v>645.16999999999996</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80">
-        <v>636.76</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81">
-        <v>622.63</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="C82">
-        <v>608.94000000000005</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
         <v>156</v>
       </c>
-      <c r="B83" t="s">
-        <v>157</v>
-      </c>
       <c r="C83">
-        <v>608.66999999999996</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
         <v>158</v>
       </c>
-      <c r="B84" t="s">
-        <v>159</v>
-      </c>
       <c r="C84">
-        <v>605.79</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
         <v>160</v>
       </c>
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
       <c r="C85">
-        <v>596.41999999999996</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C86">
-        <v>579.26</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C87">
-        <v>579.20000000000005</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C88">
-        <v>570.97</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C89">
-        <v>560.45000000000005</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="C90">
-        <v>556.30999999999995</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C91">
-        <v>553.23</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>544.76</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C93">
-        <v>542.62</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="C94">
-        <v>536.41999999999996</v>
+        <v>521.74</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95">
-        <v>534.49</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C96">
-        <v>531.54</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C97">
-        <v>528.38</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C98">
-        <v>521.74</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C99">
-        <v>520.05999999999995</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C100">
-        <v>510.92</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C101">
-        <v>509.7</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C102">
-        <v>486.29</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C103">
-        <v>483.71</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C104">
-        <v>470.68</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C105">
-        <v>468.72</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>468.65</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="C107">
-        <v>465.88</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C108">
-        <v>465.38</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C109">
-        <v>463.52</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C110">
-        <v>462.44</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="C111">
-        <v>459.98</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112">
-        <v>453.33</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="C113">
-        <v>451.86</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>447.24</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C115">
-        <v>446.15</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C116">
-        <v>441.76</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C117">
-        <v>429.52</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="C118">
-        <v>418</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="C119">
-        <v>415.42</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
         <v>216</v>
       </c>
-      <c r="B120" t="s">
-        <v>217</v>
-      </c>
       <c r="C120">
-        <v>409.89</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="C121">
-        <v>409.11</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C122">
-        <v>407.94</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="C123">
-        <v>404.34</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" t="s">
         <v>223</v>
       </c>
-      <c r="B124" t="s">
-        <v>224</v>
-      </c>
       <c r="C124">
-        <v>400.5</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" t="s">
         <v>225</v>
       </c>
-      <c r="B125" t="s">
-        <v>71</v>
-      </c>
       <c r="C125">
-        <v>400.01</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3729,54 +3732,54 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="C126">
-        <v>396.98</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="B127" t="s">
         <v>228</v>
       </c>
-      <c r="B127" t="s">
-        <v>229</v>
-      </c>
       <c r="C127">
-        <v>392.89</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" t="s">
         <v>230</v>
       </c>
-      <c r="B128" t="s">
-        <v>231</v>
-      </c>
       <c r="C128">
-        <v>392.83</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>231</v>
+      </c>
+      <c r="B129" t="s">
         <v>232</v>
       </c>
-      <c r="B129" t="s">
-        <v>233</v>
-      </c>
       <c r="C129">
-        <v>380.46</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" t="s">
         <v>234</v>
       </c>
-      <c r="B130" t="s">
-        <v>26</v>
-      </c>
       <c r="C130">
-        <v>378.28</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3787,7 +3790,7 @@
         <v>236</v>
       </c>
       <c r="C131">
-        <v>376.72</v>
+        <v>364.22</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3795,65 +3798,65 @@
         <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>374.97</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" t="s">
         <v>239</v>
       </c>
-      <c r="B133" t="s">
-        <v>240</v>
-      </c>
       <c r="C133">
-        <v>369.5</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" t="s">
         <v>241</v>
       </c>
-      <c r="B134" t="s">
-        <v>242</v>
-      </c>
       <c r="C134">
-        <v>367.11</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" t="s">
         <v>243</v>
       </c>
-      <c r="B135" t="s">
-        <v>244</v>
-      </c>
       <c r="C135">
-        <v>364.22</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="C136">
-        <v>347.34</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" t="s">
         <v>246</v>
       </c>
-      <c r="B137" t="s">
-        <v>34</v>
-      </c>
       <c r="C137">
-        <v>346.77</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3864,7 +3867,7 @@
         <v>248</v>
       </c>
       <c r="C138">
-        <v>345.51</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3872,21 +3875,21 @@
         <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C139">
-        <v>344.66</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
         <v>251</v>
       </c>
-      <c r="B140" t="s">
-        <v>221</v>
-      </c>
       <c r="C140">
-        <v>344.22</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3897,7 +3900,7 @@
         <v>253</v>
       </c>
       <c r="C141">
-        <v>341.85</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3908,7 +3911,7 @@
         <v>255</v>
       </c>
       <c r="C142">
-        <v>338.66</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3916,54 +3919,54 @@
         <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="C143">
-        <v>336.01</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C144">
-        <v>333.95</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C145">
-        <v>331.75</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C146">
-        <v>331.38</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="C147">
-        <v>327.87</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3974,7 +3977,7 @@
         <v>266</v>
       </c>
       <c r="C148">
-        <v>323.66000000000003</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3982,32 +3985,32 @@
         <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C149">
-        <v>322.77</v>
+        <v>304.41000000000003</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" t="s">
         <v>269</v>
       </c>
-      <c r="B150" t="s">
-        <v>270</v>
-      </c>
       <c r="C150">
-        <v>316.35000000000002</v>
+        <v>299.13</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" t="s">
         <v>271</v>
       </c>
-      <c r="B151" t="s">
-        <v>50</v>
-      </c>
       <c r="C151">
-        <v>310.17</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4018,7 +4021,7 @@
         <v>273</v>
       </c>
       <c r="C152">
-        <v>304.47000000000003</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4029,7 +4032,7 @@
         <v>275</v>
       </c>
       <c r="C153">
-        <v>299.13</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4040,7 +4043,7 @@
         <v>277</v>
       </c>
       <c r="C154">
-        <v>296.88</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4048,54 +4051,54 @@
         <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="C155">
-        <v>290.31</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C156">
-        <v>286.94</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="C157">
-        <v>285.38</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="C158">
-        <v>284.19</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>283</v>
+      </c>
+      <c r="B159" t="s">
         <v>284</v>
       </c>
-      <c r="B159" t="s">
-        <v>42</v>
-      </c>
       <c r="C159">
-        <v>283.02999999999997</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4103,21 +4106,21 @@
         <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="C160">
-        <v>271.19</v>
+        <v>261.81</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B161" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="C161">
-        <v>271.16000000000003</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4128,7 +4131,7 @@
         <v>289</v>
       </c>
       <c r="C162">
-        <v>264.52999999999997</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4136,21 +4139,21 @@
         <v>290</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="C163">
-        <v>261.81</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>291</v>
+      </c>
+      <c r="B164" t="s">
         <v>292</v>
       </c>
-      <c r="B164" t="s">
-        <v>22</v>
-      </c>
       <c r="C164">
-        <v>260.54000000000002</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4158,43 +4161,43 @@
         <v>293</v>
       </c>
       <c r="B165" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="C165">
-        <v>259.88</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C166">
-        <v>257.49</v>
+        <v>253.35</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B167" t="s">
         <v>296</v>
       </c>
-      <c r="B167" t="s">
-        <v>297</v>
-      </c>
       <c r="C167">
-        <v>256.77</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
         <v>298</v>
       </c>
-      <c r="B168" t="s">
-        <v>169</v>
-      </c>
       <c r="C168">
-        <v>256.26</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4205,7 +4208,7 @@
         <v>300</v>
       </c>
       <c r="C169">
-        <v>246.75</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4213,32 +4216,32 @@
         <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C170">
-        <v>245.07</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>302</v>
+      </c>
+      <c r="B171" t="s">
         <v>303</v>
       </c>
-      <c r="B171" t="s">
-        <v>304</v>
-      </c>
       <c r="C171">
-        <v>244.73</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>304</v>
+      </c>
+      <c r="B172" t="s">
         <v>305</v>
       </c>
-      <c r="B172" t="s">
-        <v>59</v>
-      </c>
       <c r="C172">
-        <v>242.8</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4249,7 +4252,7 @@
         <v>307</v>
       </c>
       <c r="C173">
-        <v>241.07</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4257,21 +4260,21 @@
         <v>308</v>
       </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="C174">
-        <v>240.93</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>309</v>
+      </c>
+      <c r="B175" t="s">
         <v>310</v>
       </c>
-      <c r="B175" t="s">
-        <v>89</v>
-      </c>
       <c r="C175">
-        <v>236.97</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4279,21 +4282,21 @@
         <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>312</v>
+        <v>59</v>
       </c>
       <c r="C176">
-        <v>234.95</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" t="s">
         <v>313</v>
       </c>
-      <c r="B177" t="s">
-        <v>71</v>
-      </c>
       <c r="C177">
-        <v>228.4</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4304,7 +4307,7 @@
         <v>315</v>
       </c>
       <c r="C178">
-        <v>228.33</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4312,21 +4315,21 @@
         <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>317</v>
+        <v>123</v>
       </c>
       <c r="C179">
-        <v>221.55</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>317</v>
+      </c>
+      <c r="B180" t="s">
         <v>318</v>
       </c>
-      <c r="B180" t="s">
-        <v>133</v>
-      </c>
       <c r="C180">
-        <v>219.44</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4337,7 +4340,7 @@
         <v>320</v>
       </c>
       <c r="C181">
-        <v>218.5</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4356,7 +4359,7 @@
         <v>323</v>
       </c>
       <c r="B183" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C183">
         <v>203.61</v>
@@ -4378,10 +4381,10 @@
         <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C185">
-        <v>197.42</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4389,32 +4392,32 @@
         <v>327</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="C186">
-        <v>192.35</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>328</v>
+      </c>
+      <c r="B187" t="s">
         <v>329</v>
       </c>
-      <c r="B187" t="s">
-        <v>330</v>
-      </c>
       <c r="C187">
-        <v>191.65</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>330</v>
+      </c>
+      <c r="B188" t="s">
         <v>331</v>
       </c>
-      <c r="B188" t="s">
-        <v>172</v>
-      </c>
       <c r="C188">
-        <v>187.16</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4422,10 +4425,10 @@
         <v>332</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="C189">
-        <v>186.38</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4433,54 +4436,54 @@
         <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="C190">
-        <v>184.72</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>334</v>
+      </c>
+      <c r="B191" t="s">
         <v>335</v>
       </c>
-      <c r="B191" t="s">
-        <v>336</v>
-      </c>
       <c r="C191">
-        <v>178.9</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>336</v>
+      </c>
+      <c r="B192" t="s">
         <v>337</v>
       </c>
-      <c r="B192" t="s">
-        <v>338</v>
-      </c>
       <c r="C192">
-        <v>178.22</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>338</v>
+      </c>
+      <c r="B193" t="s">
         <v>339</v>
       </c>
-      <c r="B193" t="s">
-        <v>340</v>
-      </c>
       <c r="C193">
-        <v>178.17</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>340</v>
+      </c>
+      <c r="B194" t="s">
         <v>341</v>
       </c>
-      <c r="B194" t="s">
-        <v>169</v>
-      </c>
       <c r="C194">
-        <v>169.78</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4488,10 +4491,10 @@
         <v>342</v>
       </c>
       <c r="B195" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C195">
-        <v>168.19</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4499,21 +4502,21 @@
         <v>343</v>
       </c>
       <c r="B196" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="C196">
-        <v>167.87</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>344</v>
+      </c>
+      <c r="B197" t="s">
         <v>345</v>
       </c>
-      <c r="B197" t="s">
-        <v>297</v>
-      </c>
       <c r="C197">
-        <v>166.94</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4521,10 +4524,10 @@
         <v>346</v>
       </c>
       <c r="B198" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="C198">
-        <v>164.31</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4532,10 +4535,10 @@
         <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C199">
-        <v>162.96</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4543,10 +4546,10 @@
         <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C200">
-        <v>162.41999999999999</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4554,10 +4557,10 @@
         <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C201">
-        <v>159.78</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4565,10 +4568,10 @@
         <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C202">
-        <v>152.68</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4576,21 +4579,21 @@
         <v>351</v>
       </c>
       <c r="B203" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="C203">
-        <v>148.74</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
+        <v>352</v>
+      </c>
+      <c r="B204" t="s">
         <v>353</v>
       </c>
-      <c r="B204" t="s">
-        <v>101</v>
-      </c>
       <c r="C204">
-        <v>148.69999999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4598,219 +4601,219 @@
         <v>354</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C205">
-        <v>147.41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>355</v>
+      </c>
+      <c r="B206" t="s">
         <v>356</v>
       </c>
-      <c r="B206" t="s">
-        <v>357</v>
-      </c>
       <c r="C206">
-        <v>146.58000000000001</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="C207">
-        <v>139.29</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>358</v>
+      </c>
+      <c r="B208" t="s">
         <v>359</v>
       </c>
-      <c r="B208" t="s">
-        <v>360</v>
-      </c>
       <c r="C208">
-        <v>134.29</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>360</v>
+      </c>
+      <c r="B209" t="s">
         <v>361</v>
       </c>
-      <c r="B209" t="s">
-        <v>362</v>
-      </c>
       <c r="C209">
-        <v>129.91999999999999</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="C210">
-        <v>129.80000000000001</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>363</v>
+      </c>
+      <c r="B211" t="s">
         <v>364</v>
       </c>
-      <c r="B211" t="s">
-        <v>365</v>
-      </c>
       <c r="C211">
-        <v>128.16999999999999</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>365</v>
+      </c>
+      <c r="B212" t="s">
         <v>366</v>
       </c>
-      <c r="B212" t="s">
-        <v>367</v>
-      </c>
       <c r="C212">
-        <v>124.93</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B213" t="s">
-        <v>369</v>
+        <v>205</v>
       </c>
       <c r="C213">
-        <v>123.91</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B214" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C214">
-        <v>120.91</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B215" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C215">
-        <v>120.44</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B216" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C216">
-        <v>120.01</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B217" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C217">
-        <v>119.46</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C218">
-        <v>119.05</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B219" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="C219">
-        <v>118.62</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" t="s">
         <v>381</v>
       </c>
-      <c r="B220" t="s">
-        <v>382</v>
-      </c>
       <c r="C220">
-        <v>117.74</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
+        <v>382</v>
+      </c>
+      <c r="B221" t="s">
         <v>383</v>
       </c>
-      <c r="B221" t="s">
-        <v>384</v>
-      </c>
       <c r="C221">
-        <v>116.42</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B222" t="s">
-        <v>386</v>
+        <v>118</v>
       </c>
       <c r="C222">
-        <v>116.06</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B223" t="s">
-        <v>157</v>
+        <v>386</v>
       </c>
       <c r="C223">
-        <v>116.06</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>387</v>
+      </c>
+      <c r="B224" t="s">
         <v>388</v>
       </c>
-      <c r="B224" t="s">
-        <v>115</v>
-      </c>
       <c r="C224">
-        <v>113.2</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4821,7 +4824,7 @@
         <v>390</v>
       </c>
       <c r="C225">
-        <v>110.29</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4829,10 +4832,10 @@
         <v>391</v>
       </c>
       <c r="B226" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C226">
-        <v>107.6</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4840,21 +4843,21 @@
         <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="C227">
-        <v>107.14</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>393</v>
+      </c>
+      <c r="B228" t="s">
         <v>394</v>
       </c>
-      <c r="B228" t="s">
-        <v>373</v>
-      </c>
       <c r="C228">
-        <v>106.21</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4862,98 +4865,98 @@
         <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>174</v>
       </c>
       <c r="C229">
-        <v>106.02</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
+        <v>396</v>
+      </c>
+      <c r="B230" t="s">
         <v>397</v>
       </c>
-      <c r="B230" t="s">
-        <v>398</v>
-      </c>
       <c r="C230">
-        <v>105.71</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B231" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C231">
-        <v>105.38</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>399</v>
+      </c>
+      <c r="B232" t="s">
         <v>400</v>
       </c>
-      <c r="B232" t="s">
-        <v>401</v>
-      </c>
       <c r="C232">
-        <v>104.99</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B233" t="s">
-        <v>22</v>
+        <v>366</v>
       </c>
       <c r="C233">
-        <v>102.96</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>402</v>
+      </c>
+      <c r="B234" t="s">
         <v>403</v>
       </c>
-      <c r="B234" t="s">
-        <v>404</v>
-      </c>
       <c r="C234">
-        <v>102.6</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="C235">
-        <v>101.48</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B236" t="s">
-        <v>111</v>
+        <v>406</v>
       </c>
       <c r="C236">
-        <v>101.15</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>407</v>
+      </c>
+      <c r="B237" t="s">
         <v>408</v>
       </c>
-      <c r="B237" t="s">
-        <v>111</v>
-      </c>
       <c r="C237">
-        <v>100</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4961,18 +4964,18 @@
         <v>409</v>
       </c>
       <c r="B238" t="s">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="C238">
-        <v>100</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" t="s">
         <v>411</v>
-      </c>
-      <c r="B239" t="s">
-        <v>279</v>
       </c>
       <c r="C239">
         <v>100</v>
@@ -4983,7 +4986,7 @@
         <v>412</v>
       </c>
       <c r="B240" t="s">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="C240">
         <v>100</v>
@@ -4991,10 +4994,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>413</v>
+      </c>
+      <c r="B241" t="s">
         <v>414</v>
-      </c>
-      <c r="B241" t="s">
-        <v>415</v>
       </c>
       <c r="C241">
         <v>100</v>
@@ -5002,10 +5005,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>415</v>
+      </c>
+      <c r="B242" t="s">
         <v>416</v>
-      </c>
-      <c r="B242" t="s">
-        <v>417</v>
       </c>
       <c r="C242">
         <v>100</v>
@@ -5013,10 +5016,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>417</v>
+      </c>
+      <c r="B243" t="s">
         <v>418</v>
-      </c>
-      <c r="B243" t="s">
-        <v>419</v>
       </c>
       <c r="C243">
         <v>100</v>
@@ -5024,10 +5027,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" t="s">
         <v>420</v>
-      </c>
-      <c r="B244" t="s">
-        <v>221</v>
       </c>
       <c r="C244">
         <v>100</v>
@@ -5038,7 +5041,7 @@
         <v>421</v>
       </c>
       <c r="B245" t="s">
-        <v>422</v>
+        <v>213</v>
       </c>
       <c r="C245">
         <v>100</v>
@@ -5046,10 +5049,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>422</v>
+      </c>
+      <c r="B246" t="s">
         <v>423</v>
-      </c>
-      <c r="B246" t="s">
-        <v>424</v>
       </c>
       <c r="C246">
         <v>100</v>
@@ -5057,10 +5060,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>424</v>
+      </c>
+      <c r="B247" t="s">
         <v>425</v>
-      </c>
-      <c r="B247" t="s">
-        <v>59</v>
       </c>
       <c r="C247">
         <v>100</v>
@@ -5071,7 +5074,7 @@
         <v>426</v>
       </c>
       <c r="B248" t="s">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="C248">
         <v>100</v>
@@ -5079,10 +5082,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>427</v>
+      </c>
+      <c r="B249" t="s">
         <v>428</v>
-      </c>
-      <c r="B249" t="s">
-        <v>429</v>
       </c>
       <c r="C249">
         <v>100</v>
@@ -5090,24 +5093,24 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>429</v>
+      </c>
+      <c r="B250" t="s">
         <v>430</v>
       </c>
-      <c r="B250" t="s">
-        <v>431</v>
-      </c>
       <c r="C250">
-        <v>98.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>431</v>
+      </c>
+      <c r="B251" t="s">
         <v>432</v>
       </c>
-      <c r="B251" t="s">
-        <v>101</v>
-      </c>
       <c r="C251">
-        <v>97.08</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5115,10 +5118,10 @@
         <v>433</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="C252">
-        <v>97.03</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5126,10 +5129,10 @@
         <v>434</v>
       </c>
       <c r="B253" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="C253">
-        <v>96.49</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5137,65 +5140,65 @@
         <v>435</v>
       </c>
       <c r="B254" t="s">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="C254">
-        <v>95.43</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>436</v>
+      </c>
+      <c r="B255" t="s">
         <v>437</v>
       </c>
-      <c r="B255" t="s">
-        <v>438</v>
-      </c>
       <c r="C255">
-        <v>95.12</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>438</v>
+      </c>
+      <c r="B256" t="s">
         <v>439</v>
       </c>
-      <c r="B256" t="s">
-        <v>440</v>
-      </c>
       <c r="C256">
-        <v>94.34</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>440</v>
+      </c>
+      <c r="B257" t="s">
         <v>441</v>
       </c>
-      <c r="B257" t="s">
-        <v>442</v>
-      </c>
       <c r="C257">
-        <v>94.23</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>442</v>
+      </c>
+      <c r="B258" t="s">
         <v>443</v>
       </c>
-      <c r="B258" t="s">
-        <v>444</v>
-      </c>
       <c r="C258">
-        <v>92.85</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>444</v>
+      </c>
+      <c r="B259" t="s">
         <v>445</v>
       </c>
-      <c r="B259" t="s">
-        <v>315</v>
-      </c>
       <c r="C259">
-        <v>91.39</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5203,10 +5206,10 @@
         <v>446</v>
       </c>
       <c r="B260" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="C260">
-        <v>89.77</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5214,21 +5217,21 @@
         <v>447</v>
       </c>
       <c r="B261" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C261">
-        <v>89.2</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>448</v>
+      </c>
+      <c r="B262" t="s">
         <v>449</v>
       </c>
-      <c r="B262" t="s">
-        <v>238</v>
-      </c>
       <c r="C262">
-        <v>88.17</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5236,10 +5239,10 @@
         <v>450</v>
       </c>
       <c r="B263" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="C263">
-        <v>87.45</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5247,32 +5250,32 @@
         <v>451</v>
       </c>
       <c r="B264" t="s">
-        <v>452</v>
+        <v>114</v>
       </c>
       <c r="C264">
-        <v>87.25</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>452</v>
+      </c>
+      <c r="B265" t="s">
         <v>453</v>
       </c>
-      <c r="B265" t="s">
-        <v>454</v>
-      </c>
       <c r="C265">
-        <v>86.45</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>454</v>
+      </c>
+      <c r="B266" t="s">
         <v>455</v>
       </c>
-      <c r="B266" t="s">
-        <v>315</v>
-      </c>
       <c r="C266">
-        <v>86.38</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5280,10 +5283,10 @@
         <v>456</v>
       </c>
       <c r="B267" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="C267">
-        <v>85.85</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5291,54 +5294,54 @@
         <v>457</v>
       </c>
       <c r="B268" t="s">
-        <v>458</v>
+        <v>75</v>
       </c>
       <c r="C268">
-        <v>85.65</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>458</v>
+      </c>
+      <c r="B269" t="s">
         <v>459</v>
       </c>
-      <c r="B269" t="s">
-        <v>460</v>
-      </c>
       <c r="C269">
-        <v>84.2</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>460</v>
+      </c>
+      <c r="B270" t="s">
         <v>461</v>
       </c>
-      <c r="B270" t="s">
-        <v>462</v>
-      </c>
       <c r="C270">
-        <v>83.73</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>462</v>
+      </c>
+      <c r="B271" t="s">
         <v>463</v>
       </c>
-      <c r="B271" t="s">
-        <v>464</v>
-      </c>
       <c r="C271">
-        <v>83.66</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>464</v>
+      </c>
+      <c r="B272" t="s">
         <v>465</v>
       </c>
-      <c r="B272" t="s">
-        <v>87</v>
-      </c>
       <c r="C272">
-        <v>83.36</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5346,10 +5349,10 @@
         <v>466</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="C273">
-        <v>83.26</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5357,10 +5360,10 @@
         <v>467</v>
       </c>
       <c r="B274" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="C274">
-        <v>82.37</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5368,21 +5371,21 @@
         <v>468</v>
       </c>
       <c r="B275" t="s">
-        <v>469</v>
+        <v>16</v>
       </c>
       <c r="C275">
-        <v>81.87</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>469</v>
+      </c>
+      <c r="B276" t="s">
         <v>470</v>
       </c>
-      <c r="B276" t="s">
-        <v>291</v>
-      </c>
       <c r="C276">
-        <v>81.739999999999995</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5390,21 +5393,21 @@
         <v>471</v>
       </c>
       <c r="B277" t="s">
-        <v>472</v>
+        <v>286</v>
       </c>
       <c r="C277">
-        <v>81.13</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>472</v>
+      </c>
+      <c r="B278" t="s">
         <v>473</v>
       </c>
-      <c r="B278" t="s">
-        <v>355</v>
-      </c>
       <c r="C278">
-        <v>77.87</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5412,10 +5415,10 @@
         <v>474</v>
       </c>
       <c r="B279" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C279">
-        <v>76.319999999999993</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5423,21 +5426,21 @@
         <v>475</v>
       </c>
       <c r="B280" t="s">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="C280">
-        <v>75.86</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>476</v>
+      </c>
+      <c r="B281" t="s">
         <v>477</v>
       </c>
-      <c r="B281" t="s">
-        <v>277</v>
-      </c>
       <c r="C281">
-        <v>74.319999999999993</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5445,32 +5448,32 @@
         <v>478</v>
       </c>
       <c r="B282" t="s">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="C282">
-        <v>73.239999999999995</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>479</v>
+      </c>
+      <c r="B283" t="s">
         <v>480</v>
       </c>
-      <c r="B283" t="s">
-        <v>481</v>
-      </c>
       <c r="C283">
-        <v>72.58</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>481</v>
+      </c>
+      <c r="B284" t="s">
         <v>482</v>
       </c>
-      <c r="B284" t="s">
-        <v>150</v>
-      </c>
       <c r="C284">
-        <v>72.56</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5478,21 +5481,21 @@
         <v>483</v>
       </c>
       <c r="B285" t="s">
-        <v>484</v>
+        <v>141</v>
       </c>
       <c r="C285">
-        <v>71.84</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>484</v>
+      </c>
+      <c r="B286" t="s">
         <v>485</v>
       </c>
-      <c r="B286" t="s">
-        <v>44</v>
-      </c>
       <c r="C286">
-        <v>71.569999999999993</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5500,21 +5503,21 @@
         <v>486</v>
       </c>
       <c r="B287" t="s">
-        <v>487</v>
+        <v>38</v>
       </c>
       <c r="C287">
-        <v>71.31</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>487</v>
+      </c>
+      <c r="B288" t="s">
         <v>488</v>
       </c>
-      <c r="B288" t="s">
-        <v>360</v>
-      </c>
       <c r="C288">
-        <v>70.88</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5522,21 +5525,21 @@
         <v>489</v>
       </c>
       <c r="B289" t="s">
-        <v>490</v>
+        <v>364</v>
       </c>
       <c r="C289">
-        <v>70.13</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
+        <v>490</v>
+      </c>
+      <c r="B290" t="s">
         <v>491</v>
       </c>
-      <c r="B290" t="s">
-        <v>431</v>
-      </c>
       <c r="C290">
-        <v>69.84</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5544,10 +5547,10 @@
         <v>492</v>
       </c>
       <c r="B291" t="s">
-        <v>87</v>
+        <v>432</v>
       </c>
       <c r="C291">
-        <v>69.08</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5555,32 +5558,32 @@
         <v>493</v>
       </c>
       <c r="B292" t="s">
-        <v>494</v>
+        <v>75</v>
       </c>
       <c r="C292">
-        <v>68.459999999999994</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>494</v>
+      </c>
+      <c r="B293" t="s">
         <v>495</v>
       </c>
-      <c r="B293" t="s">
-        <v>496</v>
-      </c>
       <c r="C293">
-        <v>68.39</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>496</v>
+      </c>
+      <c r="B294" t="s">
         <v>497</v>
       </c>
-      <c r="B294" t="s">
-        <v>115</v>
-      </c>
       <c r="C294">
-        <v>66.989999999999995</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5588,10 +5591,10 @@
         <v>498</v>
       </c>
       <c r="B295" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C295">
-        <v>65.83</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5599,10 +5602,10 @@
         <v>499</v>
       </c>
       <c r="B296" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="C296">
-        <v>61.65</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5610,21 +5613,21 @@
         <v>500</v>
       </c>
       <c r="B297" t="s">
-        <v>501</v>
+        <v>259</v>
       </c>
       <c r="C297">
-        <v>61.56</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>501</v>
+      </c>
+      <c r="B298" t="s">
         <v>502</v>
       </c>
-      <c r="B298" t="s">
-        <v>266</v>
-      </c>
       <c r="C298">
-        <v>61.04</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5632,43 +5635,43 @@
         <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>504</v>
+        <v>259</v>
       </c>
       <c r="C299">
-        <v>60.95</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>504</v>
+      </c>
+      <c r="B300" t="s">
         <v>505</v>
       </c>
-      <c r="B300" t="s">
-        <v>506</v>
-      </c>
       <c r="C300">
-        <v>60.39</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>506</v>
+      </c>
+      <c r="B301" t="s">
         <v>507</v>
       </c>
-      <c r="B301" t="s">
-        <v>508</v>
-      </c>
       <c r="C301">
-        <v>59.42</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
+        <v>508</v>
+      </c>
+      <c r="B302" t="s">
         <v>509</v>
       </c>
-      <c r="B302" t="s">
-        <v>169</v>
-      </c>
       <c r="C302">
-        <v>58.37</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5676,10 +5679,10 @@
         <v>510</v>
       </c>
       <c r="B303" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="C303">
-        <v>57.82</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5687,43 +5690,43 @@
         <v>511</v>
       </c>
       <c r="B304" t="s">
-        <v>512</v>
+        <v>93</v>
       </c>
       <c r="C304">
-        <v>57.41</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
+        <v>512</v>
+      </c>
+      <c r="B305" t="s">
         <v>513</v>
       </c>
-      <c r="B305" t="s">
-        <v>514</v>
-      </c>
       <c r="C305">
-        <v>55.66</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
+        <v>514</v>
+      </c>
+      <c r="B306" t="s">
         <v>515</v>
       </c>
-      <c r="B306" t="s">
-        <v>516</v>
-      </c>
       <c r="C306">
-        <v>52.75</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
+        <v>516</v>
+      </c>
+      <c r="B307" t="s">
         <v>517</v>
       </c>
-      <c r="B307" t="s">
-        <v>89</v>
-      </c>
       <c r="C307">
-        <v>51.32</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5731,10 +5734,10 @@
         <v>518</v>
       </c>
       <c r="B308" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C308">
-        <v>50</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5742,21 +5745,21 @@
         <v>519</v>
       </c>
       <c r="B309" t="s">
-        <v>520</v>
+        <v>67</v>
       </c>
       <c r="C309">
-        <v>48.53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
+        <v>520</v>
+      </c>
+      <c r="B310" t="s">
         <v>521</v>
       </c>
-      <c r="B310" t="s">
-        <v>362</v>
-      </c>
       <c r="C310">
-        <v>48.16</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5764,10 +5767,10 @@
         <v>522</v>
       </c>
       <c r="B311" t="s">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="C311">
-        <v>47</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5775,10 +5778,10 @@
         <v>523</v>
       </c>
       <c r="B312" t="s">
-        <v>404</v>
+        <v>69</v>
       </c>
       <c r="C312">
-        <v>46.92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5786,10 +5789,10 @@
         <v>524</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="C313">
-        <v>44.89</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5797,10 +5800,10 @@
         <v>525</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C314">
-        <v>43.86</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5808,10 +5811,10 @@
         <v>526</v>
       </c>
       <c r="B315" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="C315">
-        <v>43.07</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5819,10 +5822,10 @@
         <v>527</v>
       </c>
       <c r="B316" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="C316">
-        <v>43</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5830,10 +5833,10 @@
         <v>528</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C317">
-        <v>42.7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5841,10 +5844,10 @@
         <v>529</v>
       </c>
       <c r="B318" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C318">
-        <v>42.57</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5852,21 +5855,21 @@
         <v>530</v>
       </c>
       <c r="B319" t="s">
-        <v>531</v>
+        <v>18</v>
       </c>
       <c r="C319">
-        <v>42.42</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
+        <v>531</v>
+      </c>
+      <c r="B320" t="s">
         <v>532</v>
       </c>
-      <c r="B320" t="s">
-        <v>44</v>
-      </c>
       <c r="C320">
-        <v>41.74</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5874,21 +5877,21 @@
         <v>533</v>
       </c>
       <c r="B321" t="s">
-        <v>534</v>
+        <v>38</v>
       </c>
       <c r="C321">
-        <v>41.63</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
+        <v>534</v>
+      </c>
+      <c r="B322" t="s">
         <v>535</v>
       </c>
-      <c r="B322" t="s">
-        <v>101</v>
-      </c>
       <c r="C322">
-        <v>40.869999999999997</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5896,10 +5899,10 @@
         <v>536</v>
       </c>
       <c r="B323" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="C323">
-        <v>40.799999999999997</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5907,10 +5910,10 @@
         <v>537</v>
       </c>
       <c r="B324" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C324">
-        <v>39.68</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5918,10 +5921,10 @@
         <v>538</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="C325">
-        <v>38.93</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5929,10 +5932,10 @@
         <v>539</v>
       </c>
       <c r="B326" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C326">
-        <v>38.159999999999997</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5940,10 +5943,10 @@
         <v>540</v>
       </c>
       <c r="B327" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C327">
-        <v>37.44</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5951,10 +5954,10 @@
         <v>541</v>
       </c>
       <c r="B328" t="s">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="C328">
-        <v>36.81</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5962,10 +5965,10 @@
         <v>542</v>
       </c>
       <c r="B329" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C329">
-        <v>36.590000000000003</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5973,32 +5976,32 @@
         <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>544</v>
+        <v>143</v>
       </c>
       <c r="C330">
-        <v>36.36</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
+        <v>544</v>
+      </c>
+      <c r="B331" t="s">
         <v>545</v>
       </c>
-      <c r="B331" t="s">
-        <v>546</v>
-      </c>
       <c r="C331">
-        <v>36.21</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>546</v>
+      </c>
+      <c r="B332" t="s">
         <v>547</v>
       </c>
-      <c r="B332" t="s">
-        <v>24</v>
-      </c>
       <c r="C332">
-        <v>33.049999999999997</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6006,21 +6009,21 @@
         <v>548</v>
       </c>
       <c r="B333" t="s">
-        <v>549</v>
+        <v>22</v>
       </c>
       <c r="C333">
-        <v>32.909999999999997</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>549</v>
+      </c>
+      <c r="B334" t="s">
         <v>550</v>
       </c>
-      <c r="B334" t="s">
-        <v>42</v>
-      </c>
       <c r="C334">
-        <v>32.64</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6028,10 +6031,10 @@
         <v>551</v>
       </c>
       <c r="B335" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="C335">
-        <v>32.229999999999997</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6039,10 +6042,10 @@
         <v>552</v>
       </c>
       <c r="B336" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="C336">
-        <v>32.14</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6050,10 +6053,10 @@
         <v>553</v>
       </c>
       <c r="B337" t="s">
-        <v>277</v>
+        <v>65</v>
       </c>
       <c r="C337">
-        <v>31.82</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6061,10 +6064,10 @@
         <v>554</v>
       </c>
       <c r="B338" t="s">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="C338">
-        <v>31.1</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6072,10 +6075,10 @@
         <v>555</v>
       </c>
       <c r="B339" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="C339">
-        <v>31.09</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6083,10 +6086,10 @@
         <v>556</v>
       </c>
       <c r="B340" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="C340">
-        <v>30.32</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6094,10 +6097,10 @@
         <v>557</v>
       </c>
       <c r="B341" t="s">
-        <v>336</v>
+        <v>148</v>
       </c>
       <c r="C341">
-        <v>29.91</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6105,10 +6108,10 @@
         <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="C342">
-        <v>28.26</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6116,21 +6119,21 @@
         <v>559</v>
       </c>
       <c r="B343" t="s">
-        <v>560</v>
+        <v>38</v>
       </c>
       <c r="C343">
-        <v>27.18</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>560</v>
+      </c>
+      <c r="B344" t="s">
         <v>561</v>
       </c>
-      <c r="B344" t="s">
-        <v>161</v>
-      </c>
       <c r="C344">
-        <v>27.11</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6138,10 +6141,10 @@
         <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
       <c r="C345">
-        <v>26.74</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6149,32 +6152,32 @@
         <v>563</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
       <c r="C346">
-        <v>26.25</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
+        <v>564</v>
+      </c>
+      <c r="B347" t="s">
         <v>565</v>
       </c>
-      <c r="B347" t="s">
-        <v>566</v>
-      </c>
       <c r="C347">
-        <v>25.41</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>566</v>
+      </c>
+      <c r="B348" t="s">
         <v>567</v>
       </c>
-      <c r="B348" t="s">
-        <v>24</v>
-      </c>
       <c r="C348">
-        <v>25.08</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6182,65 +6185,65 @@
         <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
       <c r="C349">
-        <v>23.89</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>569</v>
+      </c>
+      <c r="B350" t="s">
         <v>570</v>
       </c>
-      <c r="B350" t="s">
-        <v>571</v>
-      </c>
       <c r="C350">
-        <v>22.3</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
+        <v>571</v>
+      </c>
+      <c r="B351" t="s">
         <v>572</v>
       </c>
-      <c r="B351" t="s">
-        <v>573</v>
-      </c>
       <c r="C351">
-        <v>22.16</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>573</v>
+      </c>
+      <c r="B352" t="s">
         <v>574</v>
       </c>
-      <c r="B352" t="s">
-        <v>575</v>
-      </c>
       <c r="C352">
-        <v>21.71</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
+        <v>575</v>
+      </c>
+      <c r="B353" t="s">
         <v>576</v>
       </c>
-      <c r="B353" t="s">
-        <v>577</v>
-      </c>
       <c r="C353">
-        <v>21.27</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>577</v>
+      </c>
+      <c r="B354" t="s">
         <v>578</v>
       </c>
-      <c r="B354" t="s">
-        <v>464</v>
-      </c>
       <c r="C354">
-        <v>20.9</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6248,21 +6251,21 @@
         <v>579</v>
       </c>
       <c r="B355" t="s">
-        <v>580</v>
+        <v>465</v>
       </c>
       <c r="C355">
-        <v>19.38</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>580</v>
+      </c>
+      <c r="B356" t="s">
         <v>581</v>
       </c>
-      <c r="B356" t="s">
-        <v>105</v>
-      </c>
       <c r="C356">
-        <v>19.149999999999999</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6270,10 +6273,10 @@
         <v>582</v>
       </c>
       <c r="B357" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C357">
-        <v>19.079999999999998</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6281,10 +6284,10 @@
         <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="C358">
-        <v>18.8</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6292,32 +6295,32 @@
         <v>584</v>
       </c>
       <c r="B359" t="s">
-        <v>585</v>
+        <v>176</v>
       </c>
       <c r="C359">
-        <v>17.86</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>585</v>
+      </c>
+      <c r="B360" t="s">
         <v>586</v>
       </c>
-      <c r="B360" t="s">
-        <v>587</v>
-      </c>
       <c r="C360">
-        <v>16.78</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
+        <v>587</v>
+      </c>
+      <c r="B361" t="s">
         <v>588</v>
       </c>
-      <c r="B361" t="s">
-        <v>115</v>
-      </c>
       <c r="C361">
-        <v>16.72</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6325,10 +6328,10 @@
         <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>419</v>
+        <v>105</v>
       </c>
       <c r="C362">
-        <v>16.54</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6336,10 +6339,10 @@
         <v>590</v>
       </c>
       <c r="B363" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="C363">
-        <v>15.92</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6347,10 +6350,10 @@
         <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="C364">
-        <v>15.86</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6358,65 +6361,65 @@
         <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>593</v>
+        <v>300</v>
       </c>
       <c r="C365">
-        <v>15.42</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
+        <v>593</v>
+      </c>
+      <c r="B366" t="s">
         <v>594</v>
       </c>
-      <c r="B366" t="s">
-        <v>595</v>
-      </c>
       <c r="C366">
-        <v>14.67</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
+        <v>595</v>
+      </c>
+      <c r="B367" t="s">
         <v>596</v>
       </c>
-      <c r="B367" t="s">
-        <v>597</v>
-      </c>
       <c r="C367">
-        <v>14.28</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
+        <v>597</v>
+      </c>
+      <c r="B368" t="s">
         <v>598</v>
       </c>
-      <c r="B368" t="s">
-        <v>599</v>
-      </c>
       <c r="C368">
-        <v>13.67</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
+        <v>599</v>
+      </c>
+      <c r="B369" t="s">
         <v>600</v>
       </c>
-      <c r="B369" t="s">
-        <v>601</v>
-      </c>
       <c r="C369">
-        <v>13.63</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>601</v>
+      </c>
+      <c r="B370" t="s">
         <v>602</v>
       </c>
-      <c r="B370" t="s">
-        <v>270</v>
-      </c>
       <c r="C370">
-        <v>13.55</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6424,10 +6427,10 @@
         <v>603</v>
       </c>
       <c r="B371" t="s">
-        <v>587</v>
+        <v>263</v>
       </c>
       <c r="C371">
-        <v>12.88</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6435,10 +6438,10 @@
         <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>406</v>
+        <v>588</v>
       </c>
       <c r="C372">
-        <v>12.61</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6446,21 +6449,21 @@
         <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>606</v>
+        <v>408</v>
       </c>
       <c r="C373">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
+        <v>606</v>
+      </c>
+      <c r="B374" t="s">
         <v>607</v>
       </c>
-      <c r="B374" t="s">
-        <v>161</v>
-      </c>
       <c r="C374">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6468,10 +6471,10 @@
         <v>608</v>
       </c>
       <c r="B375" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="C375">
-        <v>11.96</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6479,10 +6482,10 @@
         <v>609</v>
       </c>
       <c r="B376" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C376">
-        <v>11.63</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6490,10 +6493,10 @@
         <v>610</v>
       </c>
       <c r="B377" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C377">
-        <v>9.85</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6501,10 +6504,10 @@
         <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C378">
-        <v>9.77</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6512,21 +6515,21 @@
         <v>612</v>
       </c>
       <c r="B379" t="s">
-        <v>613</v>
+        <v>230</v>
       </c>
       <c r="C379">
-        <v>9.7200000000000006</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
+        <v>613</v>
+      </c>
+      <c r="B380" t="s">
         <v>614</v>
       </c>
-      <c r="B380" t="s">
-        <v>221</v>
-      </c>
       <c r="C380">
-        <v>9.49</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6534,21 +6537,21 @@
         <v>615</v>
       </c>
       <c r="B381" t="s">
-        <v>616</v>
+        <v>213</v>
       </c>
       <c r="C381">
-        <v>8.4499999999999993</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
+        <v>616</v>
+      </c>
+      <c r="B382" t="s">
         <v>617</v>
       </c>
-      <c r="B382" t="s">
-        <v>233</v>
-      </c>
       <c r="C382">
-        <v>8.44</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6556,10 +6559,10 @@
         <v>618</v>
       </c>
       <c r="B383" t="s">
-        <v>469</v>
+        <v>225</v>
       </c>
       <c r="C383">
-        <v>7.77</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6567,21 +6570,21 @@
         <v>619</v>
       </c>
       <c r="B384" t="s">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="C384">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
+        <v>620</v>
+      </c>
+      <c r="B385" t="s">
         <v>621</v>
       </c>
-      <c r="B385" t="s">
-        <v>128</v>
-      </c>
       <c r="C385">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6589,10 +6592,10 @@
         <v>622</v>
       </c>
       <c r="B386" t="s">
-        <v>534</v>
+        <v>118</v>
       </c>
       <c r="C386">
-        <v>7.51</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6600,43 +6603,43 @@
         <v>623</v>
       </c>
       <c r="B387" t="s">
-        <v>624</v>
+        <v>535</v>
       </c>
       <c r="C387">
-        <v>7.47</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
+        <v>624</v>
+      </c>
+      <c r="B388" t="s">
         <v>625</v>
       </c>
-      <c r="B388" t="s">
-        <v>626</v>
-      </c>
       <c r="C388">
-        <v>6.58</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
+        <v>626</v>
+      </c>
+      <c r="B389" t="s">
         <v>627</v>
       </c>
-      <c r="B389" t="s">
-        <v>628</v>
-      </c>
       <c r="C389">
-        <v>5.56</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
+        <v>628</v>
+      </c>
+      <c r="B390" t="s">
         <v>629</v>
       </c>
-      <c r="B390" t="s">
-        <v>315</v>
-      </c>
       <c r="C390">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6644,10 +6647,10 @@
         <v>630</v>
       </c>
       <c r="B391" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C391">
-        <v>4.3600000000000003</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6655,10 +6658,10 @@
         <v>631</v>
       </c>
       <c r="B392" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="C392">
-        <v>2.41</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6666,21 +6669,21 @@
         <v>632</v>
       </c>
       <c r="B393" t="s">
-        <v>633</v>
+        <v>22</v>
       </c>
       <c r="C393">
-        <v>2.3199999999999998</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
+        <v>633</v>
+      </c>
+      <c r="B394" t="s">
         <v>634</v>
       </c>
-      <c r="B394" t="s">
-        <v>438</v>
-      </c>
       <c r="C394">
-        <v>2.13</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6688,32 +6691,32 @@
         <v>635</v>
       </c>
       <c r="B395" t="s">
-        <v>636</v>
+        <v>439</v>
       </c>
       <c r="C395">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
+        <v>636</v>
+      </c>
+      <c r="B396" t="s">
         <v>637</v>
       </c>
-      <c r="B396" t="s">
-        <v>638</v>
-      </c>
       <c r="C396">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
+        <v>638</v>
+      </c>
+      <c r="B397" t="s">
         <v>639</v>
       </c>
-      <c r="B397" t="s">
-        <v>26</v>
-      </c>
       <c r="C397">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6721,10 +6724,10 @@
         <v>640</v>
       </c>
       <c r="B398" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C398">
-        <v>0.69</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6732,10 +6735,10 @@
         <v>641</v>
       </c>
       <c r="B399" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C399">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6743,10 +6746,10 @@
         <v>642</v>
       </c>
       <c r="B400" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="C400">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6754,7 +6757,7 @@
         <v>643</v>
       </c>
       <c r="B401" t="s">
-        <v>644</v>
+        <v>310</v>
       </c>
       <c r="C401">
         <v>0.55000000000000004</v>
@@ -6762,13 +6765,13 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
+        <v>644</v>
+      </c>
+      <c r="B402" t="s">
         <v>645</v>
       </c>
-      <c r="B402" t="s">
-        <v>373</v>
-      </c>
       <c r="C402">
-        <v>0.03</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6776,7 +6779,7 @@
         <v>646</v>
       </c>
       <c r="B403" t="s">
-        <v>647</v>
+        <v>377</v>
       </c>
       <c r="C403">
         <v>0.03</v>
@@ -6784,13 +6787,13 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
+        <v>647</v>
+      </c>
+      <c r="B404" t="s">
         <v>648</v>
       </c>
-      <c r="B404" t="s">
-        <v>34</v>
-      </c>
       <c r="C404">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6798,15 +6801,26 @@
         <v>649</v>
       </c>
       <c r="B405" t="s">
-        <v>650</v>
+        <v>239</v>
       </c>
       <c r="C405">
         <v>0.01</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
-      <c r="A407" t="s">
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>650</v>
+      </c>
+      <c r="B406" t="s">
         <v>651</v>
+      </c>
+      <c r="C406">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5386EC-4BFA-4D4F-9F3A-FCFA3BA23E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1A21A7-8761-49B0-B76E-AB2E1685F815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="649">
   <si>
     <t>CONTA</t>
   </si>
@@ -85,1618 +85,1606 @@
     <t>MARCIA</t>
   </si>
   <si>
-    <t>005022526</t>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>005028018</t>
   </si>
   <si>
     <t>ALEXANDRE</t>
   </si>
   <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>005002457</t>
   </si>
   <si>
     <t>004383190</t>
   </si>
   <si>
     <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005002457</t>
   </si>
   <si>
     <t>004552021</t>
@@ -2344,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>13567.35</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2470,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>12248.54</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2481,7 +2469,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>12085.71</v>
+        <v>10038.73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2489,21 +2477,21 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>10038.73</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14">
-        <v>10000</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2511,21 +2499,21 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>7849.45</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
       <c r="C16">
-        <v>5108.05</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2536,7 +2524,7 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>2691.13</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2547,7 +2535,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>2501.4</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2558,7 +2546,7 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>2438.4499999999998</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2569,7 +2557,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>2417.21</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2577,76 +2565,76 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>2300</v>
+        <v>1451.01</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
       <c r="C22">
-        <v>2073.7199999999998</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
       <c r="C23">
-        <v>1869.95</v>
+        <v>1051.0899999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
       <c r="C24">
-        <v>1865.9</v>
+        <v>1012.48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
       <c r="C25">
-        <v>1744.22</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
       <c r="C26">
-        <v>1544.52</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
       <c r="C27">
-        <v>1451.01</v>
+        <v>986.98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2657,7 +2645,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1272.2</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2668,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>1239.45</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2679,7 +2667,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>1129.29</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2690,7 +2678,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>1125.31</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2701,7 +2689,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>1051.0899999999999</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2712,7 +2700,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>1012.48</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2723,7 +2711,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>1000</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2734,7 +2722,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>991.44</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2745,7 +2733,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>988.88</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2756,7 +2744,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>986.98</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2767,7 +2755,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>984.55</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2778,7 +2766,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>944.11</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2789,7 +2777,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>938.8</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2800,7 +2788,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>930.54</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2811,7 +2799,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>891.04</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2822,7 +2810,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>885.13</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2833,7 +2821,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>884.67</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2844,7 +2832,7 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>883.13</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2852,1033 +2840,1033 @@
         <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>872.41</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
       <c r="C47">
-        <v>867.93</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
       <c r="C48">
-        <v>867.16</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
       <c r="C49">
-        <v>864.35</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
       <c r="C50">
-        <v>845.19</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
       <c r="C51">
-        <v>833.03</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
       <c r="C52">
-        <v>820.67</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C53">
-        <v>811.38</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54">
-        <v>810.41</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55">
-        <v>803.76</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C56">
-        <v>802.88</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>802.18</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58">
-        <v>798.23</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C59">
-        <v>787.45</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C60">
-        <v>768.88</v>
+        <v>703</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C61">
-        <v>761.35</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C62">
-        <v>747.96</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C63">
-        <v>740.54</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C64">
-        <v>739.38</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C65">
-        <v>732.94</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C66">
-        <v>723.26</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="C67">
-        <v>715.28</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>714.2</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C69">
-        <v>710.16</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70">
-        <v>703</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71">
-        <v>685.96</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C72">
-        <v>664.2</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
         <v>136</v>
       </c>
-      <c r="B73" t="s">
-        <v>137</v>
-      </c>
       <c r="C73">
-        <v>655.11</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-      <c r="B74" t="s">
-        <v>139</v>
-      </c>
       <c r="C74">
-        <v>651</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" t="s">
         <v>140</v>
       </c>
-      <c r="B75" t="s">
-        <v>141</v>
-      </c>
       <c r="C75">
-        <v>645.16999999999996</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
         <v>142</v>
       </c>
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
       <c r="C76">
-        <v>636.76</v>
+        <v>560.32000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C77">
-        <v>622.63</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C78">
-        <v>608.94000000000005</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
         <v>147</v>
       </c>
-      <c r="B79" t="s">
-        <v>148</v>
-      </c>
       <c r="C79">
-        <v>608.66999999999996</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C80">
-        <v>605.79</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>596.41999999999996</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C82">
-        <v>579.26</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>579.20000000000005</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C84">
-        <v>570.97</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C85">
-        <v>560.45000000000005</v>
+        <v>521.74</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86">
-        <v>556.30999999999995</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>553.23</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C88">
-        <v>544.76</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C89">
-        <v>542.62</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C90">
-        <v>536.41999999999996</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91">
-        <v>534.49</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="C92">
-        <v>531.54</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="C93">
-        <v>528.38</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>521.74</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C95">
-        <v>520.05999999999995</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="C96">
-        <v>510.92</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>509.7</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C98">
-        <v>486.29</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C99">
-        <v>470.68</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C100">
-        <v>468.72</v>
+        <v>451.14</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="C101">
-        <v>468.65</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="C102">
-        <v>465.88</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C103">
-        <v>465.38</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C104">
-        <v>463.52</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C105">
-        <v>462.44</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>459.98</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C107">
-        <v>453.33</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="C108">
-        <v>451.86</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C109">
-        <v>447.24</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C110">
-        <v>446.15</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="C111">
-        <v>441.76</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C112">
-        <v>429.52</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C113">
-        <v>418</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="C114">
-        <v>416.45</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C115">
-        <v>415.42</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116">
-        <v>409.89</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C117">
-        <v>409.11</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="C118">
-        <v>407.94</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="C119">
-        <v>404.34</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C120">
-        <v>400.5</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="C121">
-        <v>400.01</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" t="s">
         <v>218</v>
       </c>
-      <c r="B122" t="s">
-        <v>219</v>
-      </c>
       <c r="C122">
-        <v>396.98</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" t="s">
         <v>220</v>
       </c>
-      <c r="B123" t="s">
-        <v>221</v>
-      </c>
       <c r="C123">
-        <v>392.89</v>
+        <v>364.22</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>392.83</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C125">
-        <v>380.46</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="C126">
-        <v>378.28</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" t="s">
         <v>227</v>
       </c>
-      <c r="B127" t="s">
-        <v>228</v>
-      </c>
       <c r="C127">
-        <v>376.72</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C128">
-        <v>374.97</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C129">
-        <v>369.5</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C130">
-        <v>367.11</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C131">
-        <v>364.22</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="C132">
-        <v>347.34</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C133">
-        <v>346.77</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C134">
-        <v>345.51</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C135">
-        <v>344.66</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C136">
-        <v>344.22</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" t="s">
         <v>245</v>
       </c>
-      <c r="B137" t="s">
-        <v>246</v>
-      </c>
       <c r="C137">
-        <v>341.85</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" t="s">
         <v>247</v>
       </c>
-      <c r="B138" t="s">
-        <v>248</v>
-      </c>
       <c r="C138">
-        <v>338.66</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
         <v>249</v>
       </c>
-      <c r="B139" t="s">
-        <v>239</v>
-      </c>
       <c r="C139">
-        <v>336.01</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3889,7 +3877,7 @@
         <v>251</v>
       </c>
       <c r="C140">
-        <v>333.95</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3897,76 +3885,76 @@
         <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C141">
-        <v>331.75</v>
+        <v>304.41000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" t="s">
         <v>254</v>
       </c>
-      <c r="B142" t="s">
-        <v>255</v>
-      </c>
       <c r="C142">
-        <v>331.38</v>
+        <v>299.13</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" t="s">
         <v>256</v>
       </c>
-      <c r="B143" t="s">
-        <v>257</v>
-      </c>
       <c r="C143">
-        <v>327.87</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" t="s">
         <v>258</v>
       </c>
-      <c r="B144" t="s">
-        <v>259</v>
-      </c>
       <c r="C144">
-        <v>323.66000000000003</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" t="s">
         <v>260</v>
       </c>
-      <c r="B145" t="s">
-        <v>261</v>
-      </c>
       <c r="C145">
-        <v>322.77</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" t="s">
         <v>262</v>
       </c>
-      <c r="B146" t="s">
-        <v>263</v>
-      </c>
       <c r="C146">
-        <v>316.35000000000002</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" t="s">
         <v>264</v>
       </c>
-      <c r="B147" t="s">
-        <v>44</v>
-      </c>
       <c r="C147">
-        <v>310.17</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3977,7 +3965,7 @@
         <v>266</v>
       </c>
       <c r="C148">
-        <v>304.47000000000003</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3985,10 +3973,10 @@
         <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="C149">
-        <v>304.41000000000003</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3999,7 +3987,7 @@
         <v>269</v>
       </c>
       <c r="C150">
-        <v>299.13</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4010,7 +3998,7 @@
         <v>271</v>
       </c>
       <c r="C151">
-        <v>296.88</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4021,7 +4009,7 @@
         <v>273</v>
       </c>
       <c r="C152">
-        <v>290.31</v>
+        <v>261.81</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4029,43 +4017,43 @@
         <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="C153">
-        <v>286.94</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>275</v>
+      </c>
+      <c r="B154" t="s">
         <v>276</v>
       </c>
-      <c r="B154" t="s">
-        <v>277</v>
-      </c>
       <c r="C154">
-        <v>285.38</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C155">
-        <v>284.19</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" t="s">
         <v>279</v>
       </c>
-      <c r="B156" t="s">
-        <v>36</v>
-      </c>
       <c r="C156">
-        <v>283.02999999999997</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4073,10 +4061,10 @@
         <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C157">
-        <v>271.19</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4084,43 +4072,43 @@
         <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="C158">
-        <v>271.16000000000003</v>
+        <v>253.35</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" t="s">
         <v>283</v>
       </c>
-      <c r="B159" t="s">
-        <v>284</v>
-      </c>
       <c r="C159">
-        <v>264.52999999999997</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" t="s">
         <v>285</v>
       </c>
-      <c r="B160" t="s">
-        <v>286</v>
-      </c>
       <c r="C160">
-        <v>261.81</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" t="s">
         <v>287</v>
       </c>
-      <c r="B161" t="s">
-        <v>20</v>
-      </c>
       <c r="C161">
-        <v>260.54000000000002</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4128,21 +4116,21 @@
         <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C162">
-        <v>259.88</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>289</v>
+      </c>
+      <c r="B163" t="s">
         <v>290</v>
       </c>
-      <c r="B163" t="s">
-        <v>89</v>
-      </c>
       <c r="C163">
-        <v>257.49</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4153,7 +4141,7 @@
         <v>292</v>
       </c>
       <c r="C164">
-        <v>256.77</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4161,43 +4149,43 @@
         <v>293</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="C165">
-        <v>256.26</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C166">
-        <v>253.35</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C167">
-        <v>246.75</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="C168">
-        <v>245.07</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4208,7 +4196,7 @@
         <v>300</v>
       </c>
       <c r="C169">
-        <v>244.73</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4216,21 +4204,21 @@
         <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C170">
-        <v>242.8</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="C171">
-        <v>241.52</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4241,7 +4229,7 @@
         <v>305</v>
       </c>
       <c r="C172">
-        <v>241.07</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4252,7 +4240,7 @@
         <v>307</v>
       </c>
       <c r="C173">
-        <v>240.93</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4260,21 +4248,21 @@
         <v>308</v>
       </c>
       <c r="B174" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="C174">
-        <v>236.97</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="C175">
-        <v>234.95</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4282,21 +4270,21 @@
         <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="C176">
-        <v>228.4</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="C177">
-        <v>228.33</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4304,21 +4292,21 @@
         <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>209</v>
       </c>
       <c r="C178">
-        <v>221.55</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>315</v>
+      </c>
+      <c r="B179" t="s">
         <v>316</v>
       </c>
-      <c r="B179" t="s">
-        <v>123</v>
-      </c>
       <c r="C179">
-        <v>219.44</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4329,7 +4317,7 @@
         <v>318</v>
       </c>
       <c r="C180">
-        <v>218.5</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4337,54 +4325,54 @@
         <v>319</v>
       </c>
       <c r="B181" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="C181">
-        <v>205.79</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="C182">
-        <v>203.87</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="C183">
-        <v>203.61</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>323</v>
+      </c>
+      <c r="B184" t="s">
         <v>324</v>
       </c>
-      <c r="B184" t="s">
-        <v>325</v>
-      </c>
       <c r="C184">
-        <v>199.24</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" t="s">
         <v>326</v>
       </c>
-      <c r="B185" t="s">
-        <v>205</v>
-      </c>
       <c r="C185">
-        <v>198.42</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4392,21 +4380,21 @@
         <v>327</v>
       </c>
       <c r="B186" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="C186">
-        <v>197.42</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B187" t="s">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c r="C187">
-        <v>192.35</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4414,21 +4402,21 @@
         <v>330</v>
       </c>
       <c r="B188" t="s">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="C188">
-        <v>191.65</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>331</v>
+      </c>
+      <c r="B189" t="s">
         <v>332</v>
       </c>
-      <c r="B189" t="s">
-        <v>163</v>
-      </c>
       <c r="C189">
-        <v>187.16</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4436,10 +4424,10 @@
         <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C190">
-        <v>186.38</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4447,142 +4435,142 @@
         <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>57</v>
       </c>
       <c r="C191">
-        <v>184.72</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B192" t="s">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="C192">
-        <v>178.9</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B193" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
       <c r="C193">
-        <v>178.22</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B194" t="s">
-        <v>341</v>
+        <v>140</v>
       </c>
       <c r="C194">
-        <v>178.17</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B195" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C195">
-        <v>169.78</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>340</v>
       </c>
       <c r="C196">
-        <v>168.19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B197" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C197">
-        <v>167.87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="C198">
-        <v>166.94</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B199" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C199">
-        <v>164.31</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B200" t="s">
-        <v>123</v>
+        <v>346</v>
       </c>
       <c r="C200">
-        <v>162.96</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B201" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C201">
-        <v>162.41999999999999</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="C202">
-        <v>159.78</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>350</v>
+      </c>
+      <c r="B203" t="s">
         <v>351</v>
       </c>
-      <c r="B203" t="s">
-        <v>176</v>
-      </c>
       <c r="C203">
-        <v>152.68</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4593,7 +4581,7 @@
         <v>353</v>
       </c>
       <c r="C204">
-        <v>150</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4601,10 +4589,10 @@
         <v>354</v>
       </c>
       <c r="B205" t="s">
-        <v>353</v>
+        <v>189</v>
       </c>
       <c r="C205">
-        <v>150</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4615,7 +4603,7 @@
         <v>356</v>
       </c>
       <c r="C206">
-        <v>148.74</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4623,142 +4611,142 @@
         <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="C207">
-        <v>148.69999999999999</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C208">
-        <v>147.41</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B209" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C209">
-        <v>146.58000000000001</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>225</v>
+        <v>364</v>
       </c>
       <c r="C210">
-        <v>139.29</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C211">
-        <v>134.29</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C212">
-        <v>129.91999999999999</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B213" t="s">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="C213">
-        <v>129.80000000000001</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B214" t="s">
-        <v>369</v>
+        <v>98</v>
       </c>
       <c r="C214">
-        <v>128.16999999999999</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B215" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C215">
-        <v>124.93</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B216" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C216">
-        <v>123.91</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B217" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C217">
-        <v>120.91</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B218" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="C218">
-        <v>120.44</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="C219">
-        <v>120.01</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4769,7 +4757,7 @@
         <v>381</v>
       </c>
       <c r="C220">
-        <v>119.46</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4777,21 +4765,21 @@
         <v>382</v>
       </c>
       <c r="B221" t="s">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="C221">
-        <v>119.05</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>383</v>
+      </c>
+      <c r="B222" t="s">
         <v>384</v>
       </c>
-      <c r="B222" t="s">
-        <v>118</v>
-      </c>
       <c r="C222">
-        <v>118.62</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4799,76 +4787,76 @@
         <v>385</v>
       </c>
       <c r="B223" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C223">
-        <v>117.74</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>386</v>
+      </c>
+      <c r="B224" t="s">
         <v>387</v>
       </c>
-      <c r="B224" t="s">
-        <v>388</v>
-      </c>
       <c r="C224">
-        <v>116.42</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B225" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="C225">
-        <v>116.06</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B226" t="s">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="C226">
-        <v>116.06</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C227">
-        <v>113.2</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>392</v>
+      </c>
+      <c r="B228" t="s">
         <v>393</v>
       </c>
-      <c r="B228" t="s">
-        <v>394</v>
-      </c>
       <c r="C228">
-        <v>110.29</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>394</v>
+      </c>
+      <c r="B229" t="s">
         <v>395</v>
       </c>
-      <c r="B229" t="s">
-        <v>174</v>
-      </c>
       <c r="C229">
-        <v>107.6</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4876,21 +4864,21 @@
         <v>396</v>
       </c>
       <c r="B230" t="s">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="C230">
-        <v>107.14</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>397</v>
+      </c>
+      <c r="B231" t="s">
         <v>398</v>
       </c>
-      <c r="B231" t="s">
-        <v>377</v>
-      </c>
       <c r="C231">
-        <v>106.21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4898,21 +4886,21 @@
         <v>399</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>258</v>
       </c>
       <c r="C232">
-        <v>106.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>400</v>
+      </c>
+      <c r="B233" t="s">
         <v>401</v>
       </c>
-      <c r="B233" t="s">
-        <v>366</v>
-      </c>
       <c r="C233">
-        <v>105.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4923,7 +4911,7 @@
         <v>403</v>
       </c>
       <c r="C234">
-        <v>104.99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4931,32 +4919,32 @@
         <v>404</v>
       </c>
       <c r="B235" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="C235">
-        <v>102.96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B236" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C236">
-        <v>102.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>408</v>
+        <v>197</v>
       </c>
       <c r="C237">
-        <v>101.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4964,18 +4952,18 @@
         <v>409</v>
       </c>
       <c r="B238" t="s">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="C238">
-        <v>101.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C239">
         <v>100</v>
@@ -4983,10 +4971,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C240">
         <v>100</v>
@@ -4994,10 +4982,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B241" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C241">
         <v>100</v>
@@ -5005,10 +4993,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B242" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C242">
         <v>100</v>
@@ -5016,24 +5004,24 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B243" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C243">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B244" t="s">
-        <v>420</v>
+        <v>69</v>
       </c>
       <c r="C244">
-        <v>100</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5041,10 +5029,10 @@
         <v>421</v>
       </c>
       <c r="B245" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C245">
-        <v>100</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5052,32 +5040,32 @@
         <v>422</v>
       </c>
       <c r="B246" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="C246">
-        <v>100</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>423</v>
+      </c>
+      <c r="B247" t="s">
         <v>424</v>
       </c>
-      <c r="B247" t="s">
-        <v>425</v>
-      </c>
       <c r="C247">
-        <v>100</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>425</v>
+      </c>
+      <c r="B248" t="s">
         <v>426</v>
       </c>
-      <c r="B248" t="s">
-        <v>275</v>
-      </c>
       <c r="C248">
-        <v>100</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5088,7 +5076,7 @@
         <v>428</v>
       </c>
       <c r="C249">
-        <v>100</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5099,7 +5087,7 @@
         <v>430</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5110,7 +5098,7 @@
         <v>432</v>
       </c>
       <c r="C251">
-        <v>98.02</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5118,10 +5106,10 @@
         <v>433</v>
       </c>
       <c r="B252" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="C252">
-        <v>97.08</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5129,10 +5117,10 @@
         <v>434</v>
       </c>
       <c r="B253" t="s">
-        <v>236</v>
+        <v>430</v>
       </c>
       <c r="C253">
-        <v>97.03</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5140,21 +5128,21 @@
         <v>435</v>
       </c>
       <c r="B254" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="C254">
-        <v>96.49</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B255" t="s">
-        <v>437</v>
+        <v>214</v>
       </c>
       <c r="C255">
-        <v>95.43</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5162,87 +5150,87 @@
         <v>438</v>
       </c>
       <c r="B256" t="s">
-        <v>439</v>
+        <v>94</v>
       </c>
       <c r="C256">
-        <v>95.12</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>439</v>
+      </c>
+      <c r="B257" t="s">
         <v>440</v>
       </c>
-      <c r="B257" t="s">
-        <v>441</v>
-      </c>
       <c r="C257">
-        <v>94.34</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>441</v>
+      </c>
+      <c r="B258" t="s">
         <v>442</v>
       </c>
-      <c r="B258" t="s">
-        <v>443</v>
-      </c>
       <c r="C258">
-        <v>94.23</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B259" t="s">
-        <v>445</v>
+        <v>300</v>
       </c>
       <c r="C259">
-        <v>92.85</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B260" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="C260">
-        <v>91.39</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B261" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C261">
-        <v>89.77</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>447</v>
+      </c>
+      <c r="B262" t="s">
         <v>448</v>
       </c>
-      <c r="B262" t="s">
-        <v>449</v>
-      </c>
       <c r="C262">
-        <v>89.2</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>449</v>
+      </c>
+      <c r="B263" t="s">
         <v>450</v>
       </c>
-      <c r="B263" t="s">
-        <v>230</v>
-      </c>
       <c r="C263">
-        <v>88.17</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5250,21 +5238,21 @@
         <v>451</v>
       </c>
       <c r="B264" t="s">
-        <v>114</v>
+        <v>452</v>
       </c>
       <c r="C264">
-        <v>87.45</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B265" t="s">
-        <v>453</v>
+        <v>55</v>
       </c>
       <c r="C265">
-        <v>87.25</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5272,32 +5260,32 @@
         <v>454</v>
       </c>
       <c r="B266" t="s">
-        <v>455</v>
+        <v>254</v>
       </c>
       <c r="C266">
-        <v>86.45</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B267" t="s">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="C267">
-        <v>86.38</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>456</v>
+      </c>
+      <c r="B268" t="s">
         <v>457</v>
       </c>
-      <c r="B268" t="s">
-        <v>75</v>
-      </c>
       <c r="C268">
-        <v>85.85</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5305,120 +5293,120 @@
         <v>458</v>
       </c>
       <c r="B269" t="s">
-        <v>459</v>
+        <v>273</v>
       </c>
       <c r="C269">
-        <v>85.65</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>459</v>
+      </c>
+      <c r="B270" t="s">
         <v>460</v>
       </c>
-      <c r="B270" t="s">
-        <v>461</v>
-      </c>
       <c r="C270">
-        <v>84.2</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B271" t="s">
-        <v>463</v>
+        <v>346</v>
       </c>
       <c r="C271">
-        <v>83.73</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>387</v>
       </c>
       <c r="C272">
-        <v>83.66</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="C273">
-        <v>83.36</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C274">
-        <v>83.26</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>467</v>
       </c>
       <c r="C275">
-        <v>82.37</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>468</v>
+      </c>
+      <c r="B276" t="s">
         <v>469</v>
       </c>
-      <c r="B276" t="s">
-        <v>470</v>
-      </c>
       <c r="C276">
-        <v>81.87</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B277" t="s">
-        <v>286</v>
+        <v>121</v>
       </c>
       <c r="C277">
-        <v>81.739999999999995</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>471</v>
+      </c>
+      <c r="B278" t="s">
         <v>472</v>
       </c>
-      <c r="B278" t="s">
-        <v>473</v>
-      </c>
       <c r="C278">
-        <v>81.13</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
+        <v>473</v>
+      </c>
+      <c r="B279" t="s">
         <v>474</v>
       </c>
-      <c r="B279" t="s">
-        <v>359</v>
-      </c>
       <c r="C279">
-        <v>77.87</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5426,54 +5414,54 @@
         <v>475</v>
       </c>
       <c r="B280" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="C280">
-        <v>76.319999999999993</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B281" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C281">
-        <v>75.86</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B282" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="C282">
-        <v>74.319999999999993</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B283" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C283">
-        <v>73.239999999999995</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B284" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="C284">
-        <v>72.58</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5481,10 +5469,10 @@
         <v>483</v>
       </c>
       <c r="B285" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="C285">
-        <v>72.56</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5495,7 +5483,7 @@
         <v>485</v>
       </c>
       <c r="C286">
-        <v>71.84</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5503,21 +5491,21 @@
         <v>486</v>
       </c>
       <c r="B287" t="s">
-        <v>38</v>
+        <v>487</v>
       </c>
       <c r="C287">
-        <v>71.569999999999993</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B288" t="s">
-        <v>488</v>
+        <v>85</v>
       </c>
       <c r="C288">
-        <v>71.31</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5525,21 +5513,21 @@
         <v>489</v>
       </c>
       <c r="B289" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="C289">
-        <v>70.88</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B290" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C290">
-        <v>70.13</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5547,10 +5535,10 @@
         <v>492</v>
       </c>
       <c r="B291" t="s">
-        <v>432</v>
+        <v>243</v>
       </c>
       <c r="C291">
-        <v>69.84</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5558,21 +5546,21 @@
         <v>493</v>
       </c>
       <c r="B292" t="s">
-        <v>75</v>
+        <v>494</v>
       </c>
       <c r="C292">
-        <v>69.08</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B293" t="s">
-        <v>495</v>
+        <v>243</v>
       </c>
       <c r="C293">
-        <v>68.459999999999994</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5583,7 +5571,7 @@
         <v>497</v>
       </c>
       <c r="C294">
-        <v>68.39</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5591,131 +5579,131 @@
         <v>498</v>
       </c>
       <c r="B295" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="C295">
-        <v>66.989999999999995</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B296" t="s">
-        <v>38</v>
+        <v>501</v>
       </c>
       <c r="C296">
-        <v>65.83</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B297" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="C297">
-        <v>61.65</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>73</v>
       </c>
       <c r="C298">
-        <v>61.56</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B299" t="s">
-        <v>259</v>
+        <v>505</v>
       </c>
       <c r="C299">
-        <v>61.04</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B300" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C300">
-        <v>60.95</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B301" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C301">
-        <v>60.39</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B302" t="s">
-        <v>509</v>
+        <v>57</v>
       </c>
       <c r="C302">
-        <v>59.42</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B303" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C303">
-        <v>58.37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>513</v>
       </c>
       <c r="C304">
-        <v>57.82</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B305" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="C305">
-        <v>57.41</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B306" t="s">
-        <v>515</v>
+        <v>49</v>
       </c>
       <c r="C306">
-        <v>55.66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5723,120 +5711,120 @@
         <v>516</v>
       </c>
       <c r="B307" t="s">
-        <v>517</v>
+        <v>393</v>
       </c>
       <c r="C307">
-        <v>52.75</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B308" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C308">
-        <v>51.32</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B309" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="C309">
-        <v>50</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B310" t="s">
-        <v>521</v>
+        <v>16</v>
       </c>
       <c r="C310">
-        <v>48.53</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B311" t="s">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="C311">
-        <v>48.16</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B312" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C312">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B313" t="s">
-        <v>406</v>
+        <v>10</v>
       </c>
       <c r="C313">
-        <v>46.92</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B314" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C314">
-        <v>44.89</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>525</v>
       </c>
       <c r="C315">
-        <v>43.86</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B316" t="s">
-        <v>160</v>
+        <v>476</v>
       </c>
       <c r="C316">
-        <v>43.07</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>527</v>
+      </c>
+      <c r="B317" t="s">
         <v>528</v>
       </c>
-      <c r="B317" t="s">
-        <v>18</v>
-      </c>
       <c r="C317">
-        <v>43</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5844,10 +5832,10 @@
         <v>529</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C318">
-        <v>42.7</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5855,10 +5843,10 @@
         <v>530</v>
       </c>
       <c r="B319" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="C319">
-        <v>42.57</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5866,87 +5854,87 @@
         <v>531</v>
       </c>
       <c r="B320" t="s">
-        <v>532</v>
+        <v>241</v>
       </c>
       <c r="C320">
-        <v>42.42</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B321" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C321">
-        <v>41.74</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B322" t="s">
-        <v>535</v>
+        <v>307</v>
       </c>
       <c r="C322">
-        <v>41.63</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B323" t="s">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="C323">
-        <v>40.869999999999997</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B324" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C324">
-        <v>40.799999999999997</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B325" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="C325">
-        <v>39.68</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="C326">
-        <v>38.93</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>539</v>
+      </c>
+      <c r="B327" t="s">
         <v>540</v>
       </c>
-      <c r="B327" t="s">
-        <v>320</v>
-      </c>
       <c r="C327">
-        <v>38.159999999999997</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5954,54 +5942,54 @@
         <v>541</v>
       </c>
       <c r="B328" t="s">
-        <v>356</v>
+        <v>542</v>
       </c>
       <c r="C328">
-        <v>37.44</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B329" t="s">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="C329">
-        <v>36.81</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B330" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="C330">
-        <v>36.590000000000003</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B331" t="s">
-        <v>545</v>
+        <v>300</v>
       </c>
       <c r="C331">
-        <v>36.36</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B332" t="s">
-        <v>547</v>
+        <v>264</v>
       </c>
       <c r="C332">
-        <v>36.21</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6009,10 +5997,10 @@
         <v>548</v>
       </c>
       <c r="B333" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="C333">
-        <v>33.049999999999997</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6020,54 +6008,54 @@
         <v>549</v>
       </c>
       <c r="B334" t="s">
-        <v>550</v>
+        <v>189</v>
       </c>
       <c r="C334">
-        <v>32.909999999999997</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B335" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="C335">
-        <v>32.64</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B336" t="s">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="C336">
-        <v>32.229999999999997</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B337" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="C337">
-        <v>32.14</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
+        <v>553</v>
+      </c>
+      <c r="B338" t="s">
         <v>554</v>
       </c>
-      <c r="B338" t="s">
-        <v>271</v>
-      </c>
       <c r="C338">
-        <v>31.82</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6075,10 +6063,10 @@
         <v>555</v>
       </c>
       <c r="B339" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="C339">
-        <v>31.1</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6086,241 +6074,241 @@
         <v>556</v>
       </c>
       <c r="B340" t="s">
-        <v>286</v>
+        <v>557</v>
       </c>
       <c r="C340">
-        <v>31.09</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B341" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C341">
-        <v>30.32</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B342" t="s">
-        <v>337</v>
+        <v>485</v>
       </c>
       <c r="C342">
-        <v>29.91</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B343" t="s">
-        <v>38</v>
+        <v>561</v>
       </c>
       <c r="C343">
-        <v>28.26</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C344">
-        <v>27.18</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B345" t="s">
-        <v>152</v>
+        <v>542</v>
       </c>
       <c r="C345">
-        <v>27.11</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="C346">
-        <v>26.74</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B347" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C347">
-        <v>26.25</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B348" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C348">
-        <v>25.41</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B349" t="s">
-        <v>22</v>
+        <v>572</v>
       </c>
       <c r="C349">
-        <v>25.08</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B350" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C350">
-        <v>23.89</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B351" t="s">
-        <v>572</v>
+        <v>452</v>
       </c>
       <c r="C351">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B352" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C352">
-        <v>22.16</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B353" t="s">
-        <v>576</v>
+        <v>73</v>
       </c>
       <c r="C353">
-        <v>21.71</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B354" t="s">
-        <v>578</v>
+        <v>476</v>
       </c>
       <c r="C354">
-        <v>21.27</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B355" t="s">
-        <v>465</v>
+        <v>158</v>
       </c>
       <c r="C355">
-        <v>20.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B356" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C356">
-        <v>19.38</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>584</v>
       </c>
       <c r="C357">
-        <v>19.149999999999999</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B358" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C358">
-        <v>19.079999999999998</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B359" t="s">
-        <v>176</v>
+        <v>407</v>
       </c>
       <c r="C359">
-        <v>18.8</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B360" t="s">
-        <v>586</v>
+        <v>258</v>
       </c>
       <c r="C360">
-        <v>17.86</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B361" t="s">
-        <v>588</v>
+        <v>287</v>
       </c>
       <c r="C361">
-        <v>16.78</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6328,142 +6316,142 @@
         <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>105</v>
+        <v>590</v>
       </c>
       <c r="C362">
-        <v>16.72</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B363" t="s">
-        <v>420</v>
+        <v>592</v>
       </c>
       <c r="C363">
-        <v>16.54</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B364" t="s">
-        <v>273</v>
+        <v>594</v>
       </c>
       <c r="C364">
-        <v>15.92</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B365" t="s">
-        <v>300</v>
+        <v>596</v>
       </c>
       <c r="C365">
-        <v>15.86</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B366" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C366">
-        <v>15.42</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B367" t="s">
-        <v>596</v>
+        <v>247</v>
       </c>
       <c r="C367">
-        <v>14.67</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B368" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="C368">
-        <v>14.28</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B369" t="s">
-        <v>600</v>
+        <v>395</v>
       </c>
       <c r="C369">
-        <v>13.67</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B370" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C370">
-        <v>13.63</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B371" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="C371">
-        <v>13.55</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B372" t="s">
-        <v>588</v>
+        <v>22</v>
       </c>
       <c r="C372">
-        <v>12.88</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B373" t="s">
-        <v>408</v>
+        <v>249</v>
       </c>
       <c r="C373">
-        <v>12.61</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B374" t="s">
-        <v>607</v>
+        <v>128</v>
       </c>
       <c r="C374">
-        <v>12.6</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6471,10 +6459,10 @@
         <v>608</v>
       </c>
       <c r="B375" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C375">
-        <v>12.5</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6482,241 +6470,241 @@
         <v>609</v>
       </c>
       <c r="B376" t="s">
-        <v>24</v>
+        <v>610</v>
       </c>
       <c r="C376">
-        <v>11.96</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B377" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="C377">
-        <v>11.63</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B378" t="s">
-        <v>148</v>
+        <v>613</v>
       </c>
       <c r="C378">
-        <v>9.85</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B379" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C379">
-        <v>9.77</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B380" t="s">
-        <v>614</v>
+        <v>457</v>
       </c>
       <c r="C380">
-        <v>9.7200000000000006</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B381" t="s">
-        <v>213</v>
+        <v>617</v>
       </c>
       <c r="C381">
-        <v>9.49</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B382" t="s">
-        <v>617</v>
+        <v>98</v>
       </c>
       <c r="C382">
-        <v>8.4499999999999993</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B383" t="s">
-        <v>225</v>
+        <v>528</v>
       </c>
       <c r="C383">
-        <v>8.44</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B384" t="s">
-        <v>470</v>
+        <v>621</v>
       </c>
       <c r="C384">
-        <v>7.77</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B385" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C385">
-        <v>7.7</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B386" t="s">
-        <v>118</v>
+        <v>625</v>
       </c>
       <c r="C386">
-        <v>7.6</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B387" t="s">
-        <v>535</v>
+        <v>300</v>
       </c>
       <c r="C387">
-        <v>7.51</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B388" t="s">
-        <v>625</v>
+        <v>297</v>
       </c>
       <c r="C388">
-        <v>7.47</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B389" t="s">
-        <v>627</v>
+        <v>542</v>
       </c>
       <c r="C389">
-        <v>6.58</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B390" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C390">
-        <v>5.56</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B391" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="C391">
-        <v>5.55</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B392" t="s">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="C392">
-        <v>4.3600000000000003</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B393" t="s">
-        <v>22</v>
+        <v>635</v>
       </c>
       <c r="C393">
-        <v>2.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B394" t="s">
-        <v>634</v>
+        <v>22</v>
       </c>
       <c r="C394">
-        <v>2.3199999999999998</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B395" t="s">
-        <v>439</v>
+        <v>22</v>
       </c>
       <c r="C395">
-        <v>2.13</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B396" t="s">
-        <v>637</v>
+        <v>264</v>
       </c>
       <c r="C396">
-        <v>1.76</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B397" t="s">
-        <v>639</v>
+        <v>297</v>
       </c>
       <c r="C397">
-        <v>1.4</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6724,103 +6712,59 @@
         <v>640</v>
       </c>
       <c r="B398" t="s">
-        <v>24</v>
+        <v>641</v>
       </c>
       <c r="C398">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B399" t="s">
-        <v>24</v>
+        <v>364</v>
       </c>
       <c r="C399">
-        <v>0.69</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B400" t="s">
-        <v>65</v>
+        <v>644</v>
       </c>
       <c r="C400">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B401" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="C401">
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B402" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C402">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" t="s">
-        <v>646</v>
-      </c>
-      <c r="B403" t="s">
-        <v>377</v>
-      </c>
-      <c r="C403">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>647</v>
-      </c>
-      <c r="B404" t="s">
         <v>648</v>
-      </c>
-      <c r="C404">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="A405" t="s">
-        <v>649</v>
-      </c>
-      <c r="B405" t="s">
-        <v>239</v>
-      </c>
-      <c r="C405">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
-      <c r="A406" t="s">
-        <v>650</v>
-      </c>
-      <c r="B406" t="s">
-        <v>651</v>
-      </c>
-      <c r="C406">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1A21A7-8761-49B0-B76E-AB2E1685F815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86C3364-0468-4794-9056-A8ACDAB048A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="646">
   <si>
     <t>CONTA</t>
   </si>
@@ -49,12 +62,24 @@
     <t>SOFIA</t>
   </si>
   <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
     <t>004482439</t>
   </si>
   <si>
     <t>PEDRO</t>
   </si>
   <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
     <t>004927044</t>
   </si>
   <si>
@@ -67,6 +92,12 @@
     <t>VICTOR</t>
   </si>
   <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
     <t>004254210</t>
   </si>
   <si>
@@ -79,12 +110,6 @@
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
     <t>005009922</t>
   </si>
   <si>
@@ -97,9 +122,18 @@
     <t>BEATRIZ</t>
   </si>
   <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
     <t>005198093</t>
   </si>
   <si>
+    <t>004381359</t>
+  </si>
+  <si>
     <t>004426743</t>
   </si>
   <si>
@@ -139,19 +173,16 @@
     <t>ASSAKO</t>
   </si>
   <si>
-    <t>004381359</t>
-  </si>
-  <si>
     <t>004352384</t>
   </si>
   <si>
     <t>BRASFORT</t>
   </si>
   <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
   </si>
   <si>
     <t>004550415</t>
@@ -172,12 +203,6 @@
     <t>MONICA</t>
   </si>
   <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
     <t>004329441</t>
   </si>
   <si>
@@ -268,6 +293,12 @@
     <t>WANDER</t>
   </si>
   <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
     <t>004332207</t>
   </si>
   <si>
@@ -487,12 +518,6 @@
     <t>SAVIO</t>
   </si>
   <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
     <t>004381095</t>
   </si>
   <si>
@@ -523,9 +548,6 @@
     <t>003249855</t>
   </si>
   <si>
-    <t>MARINA</t>
-  </si>
-  <si>
     <t>004554411</t>
   </si>
   <si>
@@ -562,9 +584,6 @@
     <t>004361159</t>
   </si>
   <si>
-    <t>HFR</t>
-  </si>
-  <si>
     <t>004450724</t>
   </si>
   <si>
@@ -679,12 +698,6 @@
     <t>MARIAH</t>
   </si>
   <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
     <t>005081833</t>
   </si>
   <si>
@@ -802,9 +815,6 @@
     <t>004514241</t>
   </si>
   <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
     <t>004328934</t>
   </si>
   <si>
@@ -916,9 +926,6 @@
     <t>FERNANDO</t>
   </si>
   <si>
-    <t>004381180</t>
-  </si>
-  <si>
     <t>004381415</t>
   </si>
   <si>
@@ -1259,9 +1266,6 @@
   </si>
   <si>
     <t>RENATO</t>
-  </si>
-  <si>
-    <t>005040864</t>
   </si>
   <si>
     <t>005101676</t>
@@ -2332,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C404"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2392,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>66090.740000000005</v>
+        <v>102207.09</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2403,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>32123.8</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2414,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>27689.47</v>
+        <v>54325.11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2425,7 +2429,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>25666.97</v>
+        <v>32123.8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2436,7 +2440,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>13566.65</v>
+        <v>27689.47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2447,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>12424.49</v>
+        <v>26392.37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2458,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>12085.71</v>
+        <v>25666.97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2469,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>10038.73</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2477,54 +2481,54 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>10000</v>
+        <v>12085.71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>7849.45</v>
+        <v>10038.73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>5108.05</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>2691.13</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2501.4</v>
+        <v>9640.99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2535,7 +2539,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>2300</v>
+        <v>7849.45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2543,32 +2547,32 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>2073.7199999999998</v>
+        <v>5108.05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
       <c r="C20">
-        <v>1544.52</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
       <c r="C21">
-        <v>1451.01</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2579,7 +2583,7 @@
         <v>41</v>
       </c>
       <c r="C22">
-        <v>1239.45</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2590,7 +2594,7 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <v>1051.0899999999999</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2601,7 +2605,7 @@
         <v>45</v>
       </c>
       <c r="C24">
-        <v>1012.48</v>
+        <v>1544.52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2612,7 +2616,7 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>991.44</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2623,7 +2627,7 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <v>988.88</v>
+        <v>1212.6400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2634,7 +2638,7 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>986.98</v>
+        <v>1012.48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2645,7 +2649,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>984.55</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2656,7 +2660,7 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>944.11</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2667,7 +2671,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>938.8</v>
+        <v>984.55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2678,7 +2682,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>930.54</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2689,7 +2693,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>891.04</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2700,7 +2704,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>885.13</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2711,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>884.67</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2722,7 +2726,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>883.13</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2733,7 +2737,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>872.41</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2744,7 +2748,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>867.93</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2755,7 +2759,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>867.16</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2766,7 +2770,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>864.35</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2777,7 +2781,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>845.19</v>
+        <v>867.16</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2788,7 +2792,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>833.03</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2799,7 +2803,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>820.67</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2810,7 +2814,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>811.38</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2821,7 +2825,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>810.41</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2832,7 +2836,7 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>803.76</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2840,43 +2844,43 @@
         <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C46">
-        <v>802.88</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47">
-        <v>802.18</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>798.23</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>787.45</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2887,7 +2891,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>768.88</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2898,7 +2902,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>761.35</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2909,7 +2913,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>747.96</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2917,142 +2921,142 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>740.54</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54">
-        <v>739.38</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55">
-        <v>732.94</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>723.26</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="C57">
-        <v>715.28</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C58">
-        <v>714.2</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>710.16</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>703</v>
+        <v>715.28</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61">
-        <v>685.96</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>664.2</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63">
-        <v>655.11</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64">
-        <v>651</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>645.16999999999996</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3063,7 +3067,7 @@
         <v>123</v>
       </c>
       <c r="C66">
-        <v>636.76</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3074,7 +3078,7 @@
         <v>125</v>
       </c>
       <c r="C67">
-        <v>622.63</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3082,43 +3086,43 @@
         <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C68">
-        <v>608.94000000000005</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69">
-        <v>608.66999999999996</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70">
-        <v>605.79</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C71">
-        <v>596.41999999999996</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3129,7 +3133,7 @@
         <v>134</v>
       </c>
       <c r="C72">
-        <v>579.26</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3140,7 +3144,7 @@
         <v>136</v>
       </c>
       <c r="C73">
-        <v>579.20000000000005</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3151,7 +3155,7 @@
         <v>138</v>
       </c>
       <c r="C74">
-        <v>570.97</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3162,7 +3166,7 @@
         <v>140</v>
       </c>
       <c r="C75">
-        <v>560.45000000000005</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3173,7 +3177,7 @@
         <v>142</v>
       </c>
       <c r="C76">
-        <v>560.32000000000005</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3181,109 +3185,109 @@
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C77">
-        <v>556.30999999999995</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78">
-        <v>553.23</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79">
-        <v>544.76</v>
+        <v>560.32000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C80">
-        <v>542.62</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C81">
-        <v>536.41999999999996</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C82">
-        <v>534.49</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C83">
-        <v>531.54</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="C84">
-        <v>528.38</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85">
-        <v>521.74</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>520.05999999999995</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3291,32 +3295,32 @@
         <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="C87">
-        <v>510.92</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C88">
-        <v>509.7</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C89">
-        <v>486.29</v>
+        <v>510.92</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3327,7 +3331,7 @@
         <v>165</v>
       </c>
       <c r="C90">
-        <v>470.68</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3338,7 +3342,7 @@
         <v>167</v>
       </c>
       <c r="C91">
-        <v>468.72</v>
+        <v>486.29</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3346,43 +3350,43 @@
         <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C92">
-        <v>468.65</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C93">
-        <v>465.88</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C94">
-        <v>465.38</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="C95">
-        <v>463.52</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3390,21 +3394,21 @@
         <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="C96">
-        <v>462.44</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
         <v>175</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
       <c r="C97">
-        <v>459.98</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3415,7 +3419,7 @@
         <v>177</v>
       </c>
       <c r="C98">
-        <v>453.33</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3423,10 +3427,10 @@
         <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99">
-        <v>451.86</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3437,7 +3441,7 @@
         <v>180</v>
       </c>
       <c r="C100">
-        <v>451.14</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3445,10 +3449,10 @@
         <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C101">
-        <v>447.24</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3456,65 +3460,65 @@
         <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C102">
-        <v>446.15</v>
+        <v>451.14</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="C103">
-        <v>441.76</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C104">
-        <v>429.52</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C105">
-        <v>418</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="C106">
-        <v>416.45</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" t="s">
         <v>191</v>
       </c>
-      <c r="B107" t="s">
-        <v>156</v>
-      </c>
       <c r="C107">
-        <v>415.42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3522,678 +3526,678 @@
         <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="C108">
-        <v>409.89</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="C109">
-        <v>409.11</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110">
-        <v>407.94</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="C111">
-        <v>404.34</v>
+        <v>409.11</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
         <v>199</v>
       </c>
-      <c r="B112" t="s">
-        <v>200</v>
-      </c>
       <c r="C112">
-        <v>400.5</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="C113">
-        <v>400.01</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" t="s">
         <v>202</v>
       </c>
-      <c r="B114" t="s">
-        <v>203</v>
-      </c>
       <c r="C114">
-        <v>396.98</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="C115">
-        <v>392.89</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C116">
-        <v>392.83</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C117">
-        <v>380.46</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="C118">
-        <v>378.28</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" t="s">
         <v>211</v>
       </c>
-      <c r="B119" t="s">
-        <v>212</v>
-      </c>
       <c r="C119">
-        <v>376.72</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>374.97</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C121">
-        <v>369.5</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C122">
-        <v>367.11</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C123">
-        <v>364.22</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="C124">
-        <v>347.34</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>346.77</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C126">
-        <v>345.51</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C127">
-        <v>344.66</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="C128">
-        <v>344.22</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C129">
-        <v>341.85</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C130">
-        <v>338.66</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>336.01</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C132">
-        <v>333.95</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C133">
-        <v>331.75</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C134">
-        <v>331.38</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C135">
-        <v>327.87</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C136">
-        <v>323.66000000000003</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C137">
-        <v>322.77</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C138">
-        <v>316.35000000000002</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C139">
-        <v>310.17</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C140">
-        <v>304.47000000000003</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C141">
-        <v>304.41000000000003</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C142">
-        <v>299.13</v>
+        <v>304.41000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C143">
-        <v>296.88</v>
+        <v>299.13</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C144">
-        <v>290.31</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C145">
-        <v>286.94</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="C146">
-        <v>285.38</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C147">
-        <v>284.19</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C148">
-        <v>283.02999999999997</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="C149">
-        <v>271.19</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="C150">
-        <v>271.16000000000003</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C151">
-        <v>264.52999999999997</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C152">
-        <v>261.81</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="C153">
-        <v>260.54000000000002</v>
+        <v>261.81</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <v>259.88</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="C155">
-        <v>257.49</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="C156">
-        <v>256.77</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="C157">
-        <v>256.26</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C158">
-        <v>253.35</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B159" t="s">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="C159">
-        <v>246.75</v>
+        <v>253.35</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C160">
-        <v>245.07</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B161" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C161">
-        <v>244.73</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C162">
-        <v>242.8</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B163" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C163">
-        <v>241.52</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C164">
-        <v>241.07</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B165" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C165">
-        <v>240.93</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="C166">
-        <v>236.97</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="C167">
-        <v>234.95</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B168" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="C168">
-        <v>228.4</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C169">
         <v>228.33</v>
@@ -4201,10 +4205,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C170">
         <v>221.55</v>
@@ -4212,10 +4216,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B171" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C171">
         <v>219.44</v>
@@ -4223,10 +4227,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C172">
         <v>218.5</v>
@@ -4234,10 +4238,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C173">
         <v>205.79</v>
@@ -4245,10 +4249,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C174">
         <v>203.87</v>
@@ -4256,10 +4260,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C175">
         <v>203.61</v>
@@ -4267,10 +4271,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B176" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C176">
         <v>199.24</v>
@@ -4278,10 +4282,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B177" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C177">
         <v>198.42</v>
@@ -4289,10 +4293,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C178">
         <v>197.42</v>
@@ -4300,10 +4304,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B179" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C179">
         <v>192.35</v>
@@ -4311,10 +4315,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B180" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C180">
         <v>191.65</v>
@@ -4322,10 +4326,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B181" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C181">
         <v>187.16</v>
@@ -4333,7 +4337,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B182" t="s">
         <v>239</v>
@@ -4344,10 +4348,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C183">
         <v>184.72</v>
@@ -4355,10 +4359,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B184" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C184">
         <v>178.9</v>
@@ -4366,10 +4370,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B185" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C185">
         <v>178.22</v>
@@ -4377,10 +4381,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C186">
         <v>178.17</v>
@@ -4388,10 +4392,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B187" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C187">
         <v>169.78</v>
@@ -4399,10 +4403,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C188">
         <v>168.19</v>
@@ -4410,10 +4414,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C189">
         <v>167.87</v>
@@ -4421,10 +4425,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C190">
         <v>166.94</v>
@@ -4432,10 +4436,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B191" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C191">
         <v>164.31</v>
@@ -4443,10 +4447,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B192" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C192">
         <v>162.96</v>
@@ -4454,10 +4458,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B193" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C193">
         <v>162.41999999999999</v>
@@ -4465,10 +4469,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C194">
         <v>159.78</v>
@@ -4476,10 +4480,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B195" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C195">
         <v>152.68</v>
@@ -4487,10 +4491,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C196">
         <v>150</v>
@@ -4498,10 +4502,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B197" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C197">
         <v>150</v>
@@ -4509,10 +4513,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B198" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C198">
         <v>148.74</v>
@@ -4520,10 +4524,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B199" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C199">
         <v>148.69999999999999</v>
@@ -4531,10 +4535,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C200">
         <v>147.41</v>
@@ -4542,10 +4546,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C201">
         <v>146.58000000000001</v>
@@ -4553,10 +4557,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C202">
         <v>139.29</v>
@@ -4564,10 +4568,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B203" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C203">
         <v>134.29</v>
@@ -4575,10 +4579,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C204">
         <v>129.91999999999999</v>
@@ -4586,10 +4590,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B205" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C205">
         <v>129.80000000000001</v>
@@ -4597,10 +4601,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C206">
         <v>128.16999999999999</v>
@@ -4608,10 +4612,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C207">
         <v>124.93</v>
@@ -4619,10 +4623,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B208" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C208">
         <v>123.91</v>
@@ -4630,10 +4634,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B209" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C209">
         <v>120.91</v>
@@ -4641,10 +4645,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B210" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C210">
         <v>120.44</v>
@@ -4652,10 +4656,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C211">
         <v>120.01</v>
@@ -4663,10 +4667,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B212" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C212">
         <v>119.46</v>
@@ -4674,10 +4678,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B213" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C213">
         <v>119.05</v>
@@ -4685,10 +4689,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B214" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C214">
         <v>118.62</v>
@@ -4696,10 +4700,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B215" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C215">
         <v>117.74</v>
@@ -4707,10 +4711,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B216" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C216">
         <v>116.42</v>
@@ -4718,10 +4722,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B217" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C217">
         <v>116.06</v>
@@ -4729,10 +4733,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C218">
         <v>116.06</v>
@@ -4740,10 +4744,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B219" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C219">
         <v>113.2</v>
@@ -4751,10 +4755,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B220" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C220">
         <v>110.29</v>
@@ -4762,10 +4766,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B221" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="C221">
         <v>107.6</v>
@@ -4773,10 +4777,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B222" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C222">
         <v>107.14</v>
@@ -4784,10 +4788,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B223" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C223">
         <v>106.21</v>
@@ -4795,10 +4799,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B224" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C224">
         <v>106.02</v>
@@ -4806,10 +4810,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B225" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C225">
         <v>105.38</v>
@@ -4817,10 +4821,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B226" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C226">
         <v>104.99</v>
@@ -4828,10 +4832,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B227" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C227">
         <v>102.96</v>
@@ -4839,10 +4843,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B228" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C228">
         <v>102.6</v>
@@ -4850,10 +4854,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B229" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C229">
         <v>101.48</v>
@@ -4861,10 +4865,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C230">
         <v>101.15</v>
@@ -4872,10 +4876,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B231" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4883,7 +4887,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B232" t="s">
         <v>258</v>
@@ -4894,10 +4898,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B233" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C233">
         <v>100</v>
@@ -4905,10 +4909,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C234">
         <v>100</v>
@@ -4916,10 +4920,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B235" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C235">
         <v>100</v>
@@ -4927,10 +4931,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C236">
         <v>100</v>
@@ -4938,10 +4942,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B237" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C237">
         <v>100</v>
@@ -4949,10 +4953,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B238" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C238">
         <v>100</v>
@@ -4960,10 +4964,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B239" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C239">
         <v>100</v>
@@ -4971,10 +4975,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B240" t="s">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="C240">
         <v>100</v>
@@ -4982,10 +4986,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>413</v>
+      </c>
+      <c r="B241" t="s">
         <v>414</v>
-      </c>
-      <c r="B241" t="s">
-        <v>415</v>
       </c>
       <c r="C241">
         <v>100</v>
@@ -4993,1715 +4997,1715 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>415</v>
+      </c>
+      <c r="B242" t="s">
         <v>416</v>
       </c>
-      <c r="B242" t="s">
-        <v>417</v>
-      </c>
       <c r="C242">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B243" t="s">
-        <v>419</v>
+        <v>73</v>
       </c>
       <c r="C243">
-        <v>98.02</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C244">
-        <v>97.08</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B245" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="C245">
-        <v>97.03</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B246" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="C246">
-        <v>96.49</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>422</v>
+      </c>
+      <c r="B247" t="s">
         <v>423</v>
       </c>
-      <c r="B247" t="s">
-        <v>424</v>
-      </c>
       <c r="C247">
-        <v>95.43</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>424</v>
+      </c>
+      <c r="B248" t="s">
         <v>425</v>
       </c>
-      <c r="B248" t="s">
-        <v>426</v>
-      </c>
       <c r="C248">
-        <v>95.12</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>426</v>
+      </c>
+      <c r="B249" t="s">
         <v>427</v>
       </c>
-      <c r="B249" t="s">
-        <v>428</v>
-      </c>
       <c r="C249">
-        <v>94.34</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>428</v>
+      </c>
+      <c r="B250" t="s">
         <v>429</v>
       </c>
-      <c r="B250" t="s">
-        <v>430</v>
-      </c>
       <c r="C250">
-        <v>94.23</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B251" t="s">
-        <v>432</v>
+        <v>298</v>
       </c>
       <c r="C251">
-        <v>92.85</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B252" t="s">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="C252">
-        <v>91.39</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B253" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C253">
-        <v>89.77</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B254" t="s">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="C254">
-        <v>89.2</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B255" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="C255">
-        <v>88.17</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B256" t="s">
-        <v>94</v>
+        <v>437</v>
       </c>
       <c r="C256">
-        <v>87.45</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>438</v>
+      </c>
+      <c r="B257" t="s">
         <v>439</v>
       </c>
-      <c r="B257" t="s">
-        <v>440</v>
-      </c>
       <c r="C257">
-        <v>87.25</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B258" t="s">
-        <v>442</v>
+        <v>298</v>
       </c>
       <c r="C258">
-        <v>86.45</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B259" t="s">
-        <v>300</v>
+        <v>59</v>
       </c>
       <c r="C259">
-        <v>86.38</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B260" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="C260">
-        <v>85.85</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>444</v>
+      </c>
+      <c r="B261" t="s">
         <v>445</v>
       </c>
-      <c r="B261" t="s">
-        <v>446</v>
-      </c>
       <c r="C261">
-        <v>85.65</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>446</v>
+      </c>
+      <c r="B262" t="s">
         <v>447</v>
       </c>
-      <c r="B262" t="s">
-        <v>448</v>
-      </c>
       <c r="C262">
-        <v>84.2</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>448</v>
+      </c>
+      <c r="B263" t="s">
         <v>449</v>
       </c>
-      <c r="B263" t="s">
-        <v>450</v>
-      </c>
       <c r="C263">
-        <v>83.73</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B264" t="s">
-        <v>452</v>
+        <v>59</v>
       </c>
       <c r="C264">
-        <v>83.66</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B265" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="C265">
-        <v>83.36</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B266" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="C266">
-        <v>83.26</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="C267">
-        <v>82.37</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B268" t="s">
-        <v>457</v>
+        <v>272</v>
       </c>
       <c r="C268">
-        <v>81.87</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B269" t="s">
-        <v>273</v>
+        <v>457</v>
       </c>
       <c r="C269">
-        <v>81.739999999999995</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B270" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="C270">
-        <v>81.13</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B271" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="C271">
-        <v>77.87</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B272" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="C272">
-        <v>76.319999999999993</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B273" t="s">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="C273">
-        <v>75.86</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B274" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="C274">
-        <v>74.319999999999993</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>465</v>
+      </c>
+      <c r="B275" t="s">
         <v>466</v>
       </c>
-      <c r="B275" t="s">
-        <v>467</v>
-      </c>
       <c r="C275">
-        <v>73.239999999999995</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B276" t="s">
-        <v>469</v>
+        <v>127</v>
       </c>
       <c r="C276">
-        <v>72.58</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B277" t="s">
-        <v>121</v>
+        <v>469</v>
       </c>
       <c r="C277">
-        <v>72.56</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>470</v>
+      </c>
+      <c r="B278" t="s">
         <v>471</v>
       </c>
-      <c r="B278" t="s">
-        <v>472</v>
-      </c>
       <c r="C278">
-        <v>72.2</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
+        <v>472</v>
+      </c>
+      <c r="B279" t="s">
         <v>473</v>
       </c>
-      <c r="B279" t="s">
-        <v>474</v>
-      </c>
       <c r="C279">
-        <v>71.84</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>474</v>
+      </c>
+      <c r="B280" t="s">
         <v>475</v>
       </c>
-      <c r="B280" t="s">
-        <v>476</v>
-      </c>
       <c r="C280">
-        <v>71.569999999999993</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B281" t="s">
-        <v>478</v>
+        <v>349</v>
       </c>
       <c r="C281">
-        <v>71.31</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B282" t="s">
-        <v>351</v>
+        <v>478</v>
       </c>
       <c r="C282">
-        <v>70.88</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B283" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="C283">
-        <v>70.13</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B284" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="C284">
-        <v>69.84</v>
+        <v>69.08</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B285" t="s">
-        <v>55</v>
+        <v>482</v>
       </c>
       <c r="C285">
-        <v>69.08</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>483</v>
+      </c>
+      <c r="B286" t="s">
         <v>484</v>
       </c>
-      <c r="B286" t="s">
-        <v>485</v>
-      </c>
       <c r="C286">
-        <v>68.459999999999994</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B287" t="s">
-        <v>487</v>
+        <v>91</v>
       </c>
       <c r="C287">
-        <v>68.39</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B288" t="s">
-        <v>85</v>
+        <v>487</v>
       </c>
       <c r="C288">
-        <v>66.989999999999995</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B289" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C289">
-        <v>65.900000000000006</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B290" t="s">
-        <v>476</v>
+        <v>243</v>
       </c>
       <c r="C290">
-        <v>65.83</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B291" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="C291">
-        <v>61.65</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B292" t="s">
-        <v>494</v>
+        <v>243</v>
       </c>
       <c r="C292">
-        <v>61.56</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B293" t="s">
-        <v>243</v>
+        <v>494</v>
       </c>
       <c r="C293">
-        <v>61.04</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>495</v>
+      </c>
+      <c r="B294" t="s">
         <v>496</v>
       </c>
-      <c r="B294" t="s">
-        <v>497</v>
-      </c>
       <c r="C294">
-        <v>60.95</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>497</v>
+      </c>
+      <c r="B295" t="s">
         <v>498</v>
       </c>
-      <c r="B295" t="s">
-        <v>499</v>
-      </c>
       <c r="C295">
-        <v>60.39</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B296" t="s">
-        <v>501</v>
+        <v>146</v>
       </c>
       <c r="C296">
-        <v>59.42</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B297" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C297">
-        <v>58.37</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B298" t="s">
-        <v>73</v>
+        <v>502</v>
       </c>
       <c r="C298">
-        <v>57.82</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>503</v>
+      </c>
+      <c r="B299" t="s">
         <v>504</v>
       </c>
-      <c r="B299" t="s">
-        <v>505</v>
-      </c>
       <c r="C299">
-        <v>57.41</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>505</v>
+      </c>
+      <c r="B300" t="s">
         <v>506</v>
       </c>
-      <c r="B300" t="s">
-        <v>507</v>
-      </c>
       <c r="C300">
-        <v>55.66</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B301" t="s">
-        <v>509</v>
+        <v>61</v>
       </c>
       <c r="C301">
-        <v>52.75</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B302" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C302">
-        <v>51.32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B303" t="s">
-        <v>47</v>
+        <v>510</v>
       </c>
       <c r="C303">
-        <v>50</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B304" t="s">
-        <v>513</v>
+        <v>351</v>
       </c>
       <c r="C304">
-        <v>48.53</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B305" t="s">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="C305">
-        <v>48.16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B306" t="s">
-        <v>49</v>
+        <v>391</v>
       </c>
       <c r="C306">
-        <v>47</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B307" t="s">
-        <v>393</v>
+        <v>22</v>
       </c>
       <c r="C307">
-        <v>46.92</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C308">
-        <v>44.89</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B309" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="C309">
-        <v>44.34</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C310">
-        <v>43.86</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B311" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="C311">
-        <v>43.07</v>
+        <v>43</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B312" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C312">
-        <v>43</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C313">
-        <v>42.7</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B314" t="s">
-        <v>18</v>
+        <v>522</v>
       </c>
       <c r="C314">
-        <v>42.57</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B315" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="C315">
-        <v>42.42</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B316" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="C316">
-        <v>41.74</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B317" t="s">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="C317">
-        <v>41.63</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B318" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="C318">
-        <v>40.869999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B319" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C319">
-        <v>40.799999999999997</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B320" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="C320">
-        <v>39.68</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="C321">
-        <v>38.93</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B322" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="C322">
-        <v>38.159999999999997</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B323" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="C323">
-        <v>37.44</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B324" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="C324">
-        <v>36.81</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B325" t="s">
-        <v>123</v>
+        <v>535</v>
       </c>
       <c r="C325">
-        <v>36.590000000000003</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
+        <v>536</v>
+      </c>
+      <c r="B326" t="s">
         <v>537</v>
       </c>
-      <c r="B326" t="s">
-        <v>538</v>
-      </c>
       <c r="C326">
-        <v>36.36</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>538</v>
+      </c>
+      <c r="B327" t="s">
         <v>539</v>
       </c>
-      <c r="B327" t="s">
-        <v>540</v>
-      </c>
       <c r="C327">
-        <v>36.21</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
+        <v>540</v>
+      </c>
+      <c r="B328" t="s">
         <v>541</v>
       </c>
-      <c r="B328" t="s">
-        <v>542</v>
-      </c>
       <c r="C328">
-        <v>33.049999999999997</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B329" t="s">
-        <v>544</v>
+        <v>265</v>
       </c>
       <c r="C329">
-        <v>32.909999999999997</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="C330">
-        <v>32.64</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B331" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C331">
-        <v>32.229999999999997</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B332" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C332">
-        <v>32.14</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B333" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="C333">
-        <v>31.82</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B334" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="C334">
-        <v>31.1</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B335" t="s">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="C335">
-        <v>31.09</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B336" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="C336">
-        <v>30.32</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B337" t="s">
-        <v>324</v>
+        <v>551</v>
       </c>
       <c r="C337">
-        <v>29.91</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B338" t="s">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="C338">
-        <v>29.29</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B339" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="C339">
-        <v>28.26</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B340" t="s">
-        <v>557</v>
+        <v>138</v>
       </c>
       <c r="C340">
-        <v>27.18</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B341" t="s">
-        <v>132</v>
+        <v>482</v>
       </c>
       <c r="C341">
-        <v>27.11</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B342" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="C342">
-        <v>26.74</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>559</v>
+      </c>
+      <c r="B343" t="s">
         <v>560</v>
       </c>
-      <c r="B343" t="s">
-        <v>561</v>
-      </c>
       <c r="C343">
-        <v>26.25</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B344" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C344">
-        <v>25.41</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="C345">
-        <v>25.08</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
+        <v>564</v>
+      </c>
+      <c r="B346" t="s">
         <v>565</v>
       </c>
-      <c r="B346" t="s">
-        <v>566</v>
-      </c>
       <c r="C346">
-        <v>23.89</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
+        <v>566</v>
+      </c>
+      <c r="B347" t="s">
         <v>567</v>
       </c>
-      <c r="B347" t="s">
-        <v>568</v>
-      </c>
       <c r="C347">
-        <v>22.3</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>568</v>
+      </c>
+      <c r="B348" t="s">
         <v>569</v>
       </c>
-      <c r="B348" t="s">
-        <v>570</v>
-      </c>
       <c r="C348">
-        <v>22.16</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
+        <v>570</v>
+      </c>
+      <c r="B349" t="s">
         <v>571</v>
       </c>
-      <c r="B349" t="s">
-        <v>572</v>
-      </c>
       <c r="C349">
-        <v>21.71</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B350" t="s">
-        <v>574</v>
+        <v>449</v>
       </c>
       <c r="C350">
-        <v>21.27</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B351" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C351">
-        <v>20.9</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B352" t="s">
-        <v>577</v>
+        <v>77</v>
       </c>
       <c r="C352">
-        <v>19.38</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B353" t="s">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="C353">
-        <v>19.149999999999999</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B354" t="s">
-        <v>476</v>
+        <v>162</v>
       </c>
       <c r="C354">
-        <v>19.079999999999998</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B355" t="s">
-        <v>158</v>
+        <v>579</v>
       </c>
       <c r="C355">
-        <v>18.8</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>580</v>
+      </c>
+      <c r="B356" t="s">
         <v>581</v>
       </c>
-      <c r="B356" t="s">
-        <v>582</v>
-      </c>
       <c r="C356">
-        <v>17.86</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B357" t="s">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="C357">
-        <v>16.78</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>85</v>
+        <v>405</v>
       </c>
       <c r="C358">
-        <v>16.72</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B359" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
       <c r="C359">
-        <v>16.54</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B360" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C360">
-        <v>15.92</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B361" t="s">
-        <v>287</v>
+        <v>587</v>
       </c>
       <c r="C361">
-        <v>15.86</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
+        <v>588</v>
+      </c>
+      <c r="B362" t="s">
         <v>589</v>
       </c>
-      <c r="B362" t="s">
-        <v>590</v>
-      </c>
       <c r="C362">
-        <v>15.42</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
+        <v>590</v>
+      </c>
+      <c r="B363" t="s">
         <v>591</v>
       </c>
-      <c r="B363" t="s">
-        <v>592</v>
-      </c>
       <c r="C363">
-        <v>14.67</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
+        <v>592</v>
+      </c>
+      <c r="B364" t="s">
         <v>593</v>
       </c>
-      <c r="B364" t="s">
-        <v>594</v>
-      </c>
       <c r="C364">
-        <v>14.28</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
+        <v>594</v>
+      </c>
+      <c r="B365" t="s">
         <v>595</v>
       </c>
-      <c r="B365" t="s">
-        <v>596</v>
-      </c>
       <c r="C365">
-        <v>13.67</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B366" t="s">
-        <v>598</v>
+        <v>247</v>
       </c>
       <c r="C366">
-        <v>13.63</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B367" t="s">
-        <v>247</v>
+        <v>581</v>
       </c>
       <c r="C367">
-        <v>13.55</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B368" t="s">
-        <v>584</v>
+        <v>393</v>
       </c>
       <c r="C368">
-        <v>12.88</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B369" t="s">
-        <v>395</v>
+        <v>600</v>
       </c>
       <c r="C369">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B370" t="s">
-        <v>603</v>
+        <v>138</v>
       </c>
       <c r="C370">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B371" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="C371">
-        <v>12.5</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B372" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="C372">
-        <v>11.96</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B373" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="C373">
-        <v>11.63</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B374" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="C374">
-        <v>9.85</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B375" t="s">
-        <v>214</v>
+        <v>607</v>
       </c>
       <c r="C375">
-        <v>9.77</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B376" t="s">
-        <v>610</v>
+        <v>199</v>
       </c>
       <c r="C376">
-        <v>9.7200000000000006</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B377" t="s">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="C377">
-        <v>9.49</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>613</v>
+        <v>211</v>
       </c>
       <c r="C378">
-        <v>8.4499999999999993</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B379" t="s">
-        <v>209</v>
+        <v>454</v>
       </c>
       <c r="C379">
-        <v>8.44</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B380" t="s">
-        <v>457</v>
+        <v>614</v>
       </c>
       <c r="C380">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B381" t="s">
-        <v>617</v>
+        <v>104</v>
       </c>
       <c r="C381">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B382" t="s">
-        <v>98</v>
+        <v>525</v>
       </c>
       <c r="C382">
-        <v>7.6</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B383" t="s">
-        <v>528</v>
+        <v>618</v>
       </c>
       <c r="C383">
-        <v>7.51</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
+        <v>619</v>
+      </c>
+      <c r="B384" t="s">
         <v>620</v>
       </c>
-      <c r="B384" t="s">
-        <v>621</v>
-      </c>
       <c r="C384">
-        <v>7.47</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
+        <v>621</v>
+      </c>
+      <c r="B385" t="s">
         <v>622</v>
       </c>
-      <c r="B385" t="s">
-        <v>623</v>
-      </c>
       <c r="C385">
-        <v>6.58</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B386" t="s">
-        <v>625</v>
+        <v>298</v>
       </c>
       <c r="C386">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B387" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C387">
-        <v>5.55</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B388" t="s">
-        <v>297</v>
+        <v>539</v>
       </c>
       <c r="C388">
-        <v>4.3600000000000003</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B389" t="s">
-        <v>542</v>
+        <v>627</v>
       </c>
       <c r="C389">
-        <v>2.41</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B390" t="s">
-        <v>630</v>
+        <v>423</v>
       </c>
       <c r="C390">
-        <v>2.3199999999999998</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B391" t="s">
-        <v>426</v>
+        <v>630</v>
       </c>
       <c r="C391">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
+        <v>631</v>
+      </c>
+      <c r="B392" t="s">
         <v>632</v>
       </c>
-      <c r="B392" t="s">
-        <v>633</v>
-      </c>
       <c r="C392">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B393" t="s">
-        <v>635</v>
+        <v>26</v>
       </c>
       <c r="C393">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B394" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C394">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B395" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="C395">
-        <v>0.69</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B396" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="C396">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B397" t="s">
-        <v>297</v>
+        <v>638</v>
       </c>
       <c r="C397">
         <v>0.55000000000000004</v>
@@ -6709,21 +6713,21 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B398" t="s">
-        <v>641</v>
+        <v>362</v>
       </c>
       <c r="C398">
-        <v>0.55000000000000004</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B399" t="s">
-        <v>364</v>
+        <v>641</v>
       </c>
       <c r="C399">
         <v>0.03</v>
@@ -6731,40 +6735,29 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B400" t="s">
-        <v>644</v>
+        <v>223</v>
       </c>
       <c r="C400">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B401" t="s">
-        <v>223</v>
+        <v>644</v>
       </c>
       <c r="C401">
         <v>0.01</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="A402" t="s">
-        <v>646</v>
-      </c>
-      <c r="B402" t="s">
-        <v>647</v>
-      </c>
-      <c r="C402">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="A404" t="s">
-        <v>648</v>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86C3364-0468-4794-9056-A8ACDAB048A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49053D51-E4AD-4E45-9A22-6F51C8328ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="735" windowWidth="15330" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="650">
   <si>
     <t>CONTA</t>
   </si>
@@ -56,1918 +43,1930 @@
     <t>LAILA</t>
   </si>
   <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
     <t>001922009</t>
   </si>
   <si>
     <t>SOFIA</t>
   </si>
   <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
     <t>004924222</t>
   </si>
   <si>
     <t>ROSANE</t>
   </si>
   <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
     <t>004482439</t>
   </si>
   <si>
     <t>PEDRO</t>
   </si>
   <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
     <t>004463586</t>
   </si>
   <si>
     <t>MARCIA</t>
   </si>
   <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
     <t>004927044</t>
   </si>
   <si>
     <t>CINTIA</t>
   </si>
   <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
   </si>
   <si>
     <t>005009922</t>
   </si>
   <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004855960</t>
+  </si>
+  <si>
+    <t>CLERIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>005190138</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>004479965</t>
+  </si>
+  <si>
+    <t>004563237</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>002878817</t>
+  </si>
+  <si>
+    <t>004400000</t>
+  </si>
+  <si>
+    <t>VILMA</t>
   </si>
   <si>
     <t>004206790</t>
   </si>
   <si>
     <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>004204255</t>
-  </si>
-  <si>
-    <t>AMADO</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004855960</t>
-  </si>
-  <si>
-    <t>CLERIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>005190138</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>004479965</t>
-  </si>
-  <si>
-    <t>004563237</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>002878817</t>
-  </si>
-  <si>
-    <t>004400000</t>
-  </si>
-  <si>
-    <t>VILMA</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2336,11 +2335,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2385,7 +2382,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>107285.49</v>
+        <v>127005.16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2396,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>102207.09</v>
+        <v>107285.49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2407,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>66090.740000000005</v>
+        <v>104932.86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2418,7 +2415,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>54325.11</v>
+        <v>102207.09</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2429,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>32123.8</v>
+        <v>89518.69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2440,7 +2437,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>27689.47</v>
+        <v>79268.850000000006</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2451,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>26392.37</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2462,7 +2459,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>25666.97</v>
+        <v>62515.28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2473,7 +2470,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>13566.65</v>
+        <v>61788.72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2484,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>12085.71</v>
+        <v>53602.58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2495,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>10038.73</v>
+        <v>51460.33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2506,7 +2503,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>10000</v>
+        <v>30995.85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2514,219 +2511,219 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>26392.37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>9640.99</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>7849.45</v>
+        <v>18583.13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>5108.05</v>
+        <v>18325.11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>2691.13</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>2501.4</v>
+        <v>10038.73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>2300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>2073.7199999999998</v>
+        <v>9640.99</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
       <c r="C24">
-        <v>1544.52</v>
+        <v>8715.01</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>1239.45</v>
+        <v>6153.07</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>1212.6400000000001</v>
+        <v>3869.68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>1012.48</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>991.44</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>988.88</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>984.55</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>944.11</v>
+        <v>1212.6400000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>938.8</v>
+        <v>1186.29</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>930.54</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>891.04</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>885.13</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2737,7 +2734,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>884.67</v>
+        <v>949.18</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2745,142 +2742,142 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>883.13</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
       <c r="C38">
-        <v>872.41</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
       <c r="C39">
-        <v>867.93</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
       <c r="C40">
-        <v>867.16</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
       <c r="C41">
-        <v>864.35</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
       <c r="C42">
-        <v>845.19</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
       <c r="C43">
-        <v>833.03</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
       <c r="C44">
-        <v>820.67</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
       <c r="C45">
-        <v>817.72</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
       <c r="C46">
-        <v>811.38</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
       <c r="C47">
-        <v>810.41</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
       <c r="C48">
-        <v>803.76</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
       <c r="C49">
-        <v>802.88</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2891,7 +2888,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>802.18</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2899,98 +2896,98 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>798.23</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
       <c r="C52">
-        <v>787.45</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
       <c r="C53">
-        <v>768.88</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
-        <v>104</v>
-      </c>
       <c r="C54">
-        <v>761.35</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>747.96</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C56">
-        <v>740.54</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
       <c r="C57">
-        <v>739.38</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
       <c r="C58">
-        <v>732.94</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
       <c r="C59">
-        <v>723.26</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2998,98 +2995,98 @@
         <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>715.28</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61">
-        <v>714.2</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>710.16</v>
+        <v>740.54</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63">
-        <v>703</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64">
-        <v>685.96</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C65">
-        <v>664.2</v>
+        <v>729.28</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C66">
-        <v>655.11</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67">
-        <v>651</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>645.16999999999996</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3100,7 +3097,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>636.76</v>
+        <v>703</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3111,7 +3108,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>622.63</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3119,10 +3116,10 @@
         <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C71">
-        <v>608.94000000000005</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3133,7 +3130,7 @@
         <v>134</v>
       </c>
       <c r="C72">
-        <v>608.66999999999996</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3144,7 +3141,7 @@
         <v>136</v>
       </c>
       <c r="C73">
-        <v>605.79</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3155,7 +3152,7 @@
         <v>138</v>
       </c>
       <c r="C74">
-        <v>596.41999999999996</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3166,7 +3163,7 @@
         <v>140</v>
       </c>
       <c r="C75">
-        <v>579.26</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3177,7 +3174,7 @@
         <v>142</v>
       </c>
       <c r="C76">
-        <v>579.20000000000005</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3185,43 +3182,43 @@
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C77">
-        <v>570.97</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" t="s">
         <v>145</v>
       </c>
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
       <c r="C78">
-        <v>560.45000000000005</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
         <v>147</v>
       </c>
-      <c r="B79" t="s">
-        <v>148</v>
-      </c>
       <c r="C79">
-        <v>560.32000000000005</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" t="s">
-        <v>146</v>
-      </c>
       <c r="C80">
-        <v>556.30999999999995</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3232,7 +3229,7 @@
         <v>151</v>
       </c>
       <c r="C81">
-        <v>553.23</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3243,7 +3240,7 @@
         <v>153</v>
       </c>
       <c r="C82">
-        <v>544.76</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3251,109 +3248,109 @@
         <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C83">
-        <v>542.62</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="C84">
-        <v>536.41999999999996</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C85">
-        <v>534.49</v>
+        <v>560.32000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="C86">
-        <v>531.54</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C87">
-        <v>528.38</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C88">
-        <v>520.05999999999995</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C89">
-        <v>510.92</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="C90">
-        <v>509.7</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C91">
-        <v>486.29</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="C92">
-        <v>470.68</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3361,744 +3358,744 @@
         <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="C93">
-        <v>468.72</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C94">
-        <v>468.65</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="C95">
-        <v>465.88</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C96">
-        <v>465.38</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="C97">
-        <v>463.52</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C98">
-        <v>462.44</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="C99">
-        <v>459.98</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="C100">
-        <v>453.33</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="C101">
-        <v>451.86</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C102">
-        <v>451.14</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C103">
-        <v>447.24</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C104">
-        <v>446.15</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="C105">
-        <v>441.76</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C106">
-        <v>429.52</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C107">
-        <v>418</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="C108">
-        <v>416.45</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C109">
-        <v>415.42</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C110">
-        <v>409.89</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>409.11</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="C112">
-        <v>407.94</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="C113">
-        <v>404.34</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C114">
-        <v>400.5</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="C115">
-        <v>400.01</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="C116">
-        <v>396.98</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C117">
-        <v>392.89</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="C118">
-        <v>392.83</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C119">
-        <v>380.46</v>
+        <v>396.98</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="C120">
-        <v>378.28</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C121">
-        <v>376.72</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C122">
-        <v>374.97</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C123">
-        <v>369.5</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C124">
-        <v>367.11</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="C125">
-        <v>347.34</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C126">
-        <v>346.77</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C127">
-        <v>345.51</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="C128">
-        <v>344.66</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>344.22</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C130">
-        <v>341.85</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C131">
-        <v>338.66</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C132">
-        <v>336.01</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C133">
-        <v>333.95</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C134">
-        <v>331.75</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="C135">
-        <v>331.38</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C136">
-        <v>327.87</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C137">
-        <v>323.66000000000003</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C138">
-        <v>322.77</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C139">
-        <v>316.35000000000002</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C140">
-        <v>310.17</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C141">
-        <v>304.47000000000003</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C142">
-        <v>304.41000000000003</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C143">
-        <v>299.13</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C144">
-        <v>296.88</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C145">
-        <v>290.31</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="C146">
-        <v>286.94</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="C147">
-        <v>285.38</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C148">
-        <v>284.19</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C149">
-        <v>283.02999999999997</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="C150">
-        <v>271.19</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="C151">
-        <v>271.16000000000003</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C152">
-        <v>264.52999999999997</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C153">
-        <v>261.81</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="C154">
-        <v>260.54000000000002</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="C155">
-        <v>259.88</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="C156">
-        <v>257.49</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="C157">
-        <v>256.77</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="C158">
-        <v>256.26</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C159">
-        <v>253.35</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C160">
         <v>246.75</v>
@@ -4106,10 +4103,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C161">
         <v>245.07</v>
@@ -4117,10 +4114,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C162">
         <v>244.73</v>
@@ -4128,10 +4125,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C163">
         <v>242.8</v>
@@ -4139,10 +4136,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B164" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C164">
         <v>241.52</v>
@@ -4150,10 +4147,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C165">
         <v>241.07</v>
@@ -4161,10 +4158,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C166">
         <v>240.93</v>
@@ -4172,10 +4169,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C167">
         <v>236.97</v>
@@ -4183,10 +4180,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C168">
         <v>234.95</v>
@@ -4194,10 +4191,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C169">
         <v>228.33</v>
@@ -4205,10 +4202,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C170">
         <v>221.55</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B171" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C171">
         <v>219.44</v>
@@ -4227,10 +4224,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B172" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C172">
         <v>218.5</v>
@@ -4238,10 +4235,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B173" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C173">
         <v>205.79</v>
@@ -4249,10 +4246,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B174" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C174">
         <v>203.87</v>
@@ -4260,10 +4257,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C175">
         <v>203.61</v>
@@ -4271,10 +4268,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B176" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C176">
         <v>199.24</v>
@@ -4282,10 +4279,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C177">
         <v>198.42</v>
@@ -4293,10 +4290,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B178" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C178">
         <v>197.42</v>
@@ -4304,10 +4301,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C179">
         <v>192.35</v>
@@ -4315,10 +4312,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C180">
         <v>191.65</v>
@@ -4326,10 +4323,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B181" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C181">
         <v>187.16</v>
@@ -4337,10 +4334,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C182">
         <v>186.38</v>
@@ -4348,538 +4345,538 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B183" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C183">
-        <v>184.72</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C184">
-        <v>178.9</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C185">
-        <v>178.22</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="C186">
-        <v>178.17</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B187" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="C187">
-        <v>169.78</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="C188">
-        <v>168.19</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B189" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="C189">
-        <v>167.87</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C190">
-        <v>166.94</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C191">
-        <v>164.31</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B192" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C192">
-        <v>162.96</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B193" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C193">
-        <v>162.41999999999999</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B194" t="s">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="C194">
-        <v>159.78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="C195">
-        <v>152.68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B196" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C196">
-        <v>150</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
+        <v>84</v>
       </c>
       <c r="C197">
-        <v>150</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B198" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C198">
-        <v>148.74</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B199" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="C199">
-        <v>148.69999999999999</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B200" t="s">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="C200">
-        <v>147.41</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B201" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C201">
-        <v>146.58000000000001</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>351</v>
       </c>
       <c r="C202">
-        <v>139.29</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B203" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C203">
-        <v>134.29</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B204" t="s">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="C204">
-        <v>129.91999999999999</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="C205">
-        <v>129.80000000000001</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C206">
-        <v>128.16999999999999</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B207" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C207">
-        <v>124.93</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B208" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="C208">
-        <v>123.91</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B209" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C209">
-        <v>120.91</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C210">
-        <v>120.44</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B211" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C211">
-        <v>120.01</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C212">
-        <v>119.46</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B213" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="C213">
-        <v>119.05</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B214" t="s">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="C214">
-        <v>118.62</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B215" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C215">
-        <v>117.74</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B216" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="C216">
-        <v>116.42</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B217" t="s">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="C217">
-        <v>116.06</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B218" t="s">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="C218">
-        <v>116.06</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C219">
-        <v>113.2</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B220" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C220">
-        <v>110.29</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="C221">
-        <v>107.6</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B222" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C222">
-        <v>107.14</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B223" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C223">
-        <v>106.21</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B224" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C224">
-        <v>106.02</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B225" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="C225">
-        <v>105.38</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B226" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C226">
-        <v>104.99</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="C227">
-        <v>102.96</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>391</v>
+        <v>94</v>
       </c>
       <c r="C228">
-        <v>102.6</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B229" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C229">
-        <v>101.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B230" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="C230">
-        <v>101.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B231" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4887,10 +4884,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B232" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -4898,10 +4895,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B233" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C233">
         <v>100</v>
@@ -4909,10 +4906,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C234">
         <v>100</v>
@@ -4920,10 +4917,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="C235">
         <v>100</v>
@@ -4931,10 +4928,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B236" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C236">
         <v>100</v>
@@ -4942,10 +4939,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>199</v>
+        <v>409</v>
       </c>
       <c r="C237">
         <v>100</v>
@@ -4953,10 +4950,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C238">
         <v>100</v>
@@ -4964,10 +4961,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B239" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C239">
         <v>100</v>
@@ -4975,706 +4972,706 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B240" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>414</v>
+        <v>84</v>
       </c>
       <c r="C241">
-        <v>100</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B242" t="s">
-        <v>416</v>
+        <v>14</v>
       </c>
       <c r="C242">
-        <v>98.02</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B243" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="C243">
-        <v>97.08</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="C244">
-        <v>97.03</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="C245">
-        <v>96.49</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B246" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C246">
-        <v>95.43</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B247" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C247">
-        <v>95.12</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C248">
-        <v>94.34</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>427</v>
+        <v>301</v>
       </c>
       <c r="C249">
-        <v>94.23</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B250" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C250">
-        <v>92.85</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B251" t="s">
-        <v>298</v>
+        <v>432</v>
       </c>
       <c r="C251">
-        <v>91.39</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B252" t="s">
-        <v>427</v>
+        <v>224</v>
       </c>
       <c r="C252">
-        <v>89.77</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
-        <v>433</v>
+        <v>110</v>
       </c>
       <c r="C253">
-        <v>89.2</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B254" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
       <c r="C254">
-        <v>88.17</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B255" t="s">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="C255">
-        <v>87.45</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B256" t="s">
-        <v>437</v>
+        <v>301</v>
       </c>
       <c r="C256">
-        <v>87.25</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="C257">
-        <v>86.45</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B258" t="s">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="C258">
-        <v>86.38</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>443</v>
       </c>
       <c r="C259">
-        <v>85.85</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B260" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C260">
-        <v>85.65</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B261" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C261">
-        <v>84.2</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B262" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C262">
-        <v>83.73</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B263" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="C263">
-        <v>83.66</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B264" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C264">
-        <v>83.36</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B265" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="C265">
-        <v>83.26</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B266" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="C266">
-        <v>82.37</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B267" t="s">
-        <v>454</v>
+        <v>276</v>
       </c>
       <c r="C267">
-        <v>81.87</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="C268">
-        <v>81.739999999999995</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B269" t="s">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="C269">
-        <v>81.13</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B270" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C270">
-        <v>77.87</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B271" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="C271">
-        <v>76.319999999999993</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B272" t="s">
-        <v>461</v>
+        <v>260</v>
       </c>
       <c r="C272">
-        <v>75.86</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B273" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="C273">
-        <v>74.319999999999993</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B274" t="s">
-        <v>464</v>
+        <v>138</v>
       </c>
       <c r="C274">
-        <v>73.239999999999995</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B275" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C275">
-        <v>72.58</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B276" t="s">
-        <v>127</v>
+        <v>469</v>
       </c>
       <c r="C276">
-        <v>72.56</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B277" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C277">
-        <v>72.2</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B278" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C278">
-        <v>71.84</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B279" t="s">
-        <v>473</v>
+        <v>349</v>
       </c>
       <c r="C279">
-        <v>71.569999999999993</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B280" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C280">
-        <v>71.31</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B281" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="C281">
-        <v>70.88</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C282">
-        <v>70.13</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B283" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="C283">
-        <v>69.84</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B284" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C284">
-        <v>69.08</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B285" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C285">
-        <v>68.459999999999994</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B286" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C286">
-        <v>68.39</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B287" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="C287">
-        <v>66.989999999999995</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B288" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C288">
-        <v>65.900000000000006</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B289" t="s">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="C289">
-        <v>65.83</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B290" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="C290">
-        <v>61.65</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B291" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C291">
-        <v>61.56</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B292" t="s">
-        <v>243</v>
+        <v>495</v>
       </c>
       <c r="C292">
-        <v>61.04</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B293" t="s">
-        <v>494</v>
+        <v>157</v>
       </c>
       <c r="C293">
-        <v>60.95</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B294" t="s">
-        <v>496</v>
+        <v>8</v>
       </c>
       <c r="C294">
-        <v>60.39</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B295" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C295">
-        <v>59.42</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B296" t="s">
-        <v>146</v>
+        <v>501</v>
       </c>
       <c r="C296">
-        <v>58.37</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B297" t="s">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="C297">
-        <v>57.82</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>72</v>
       </c>
       <c r="C298">
-        <v>57.41</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B299" t="s">
-        <v>504</v>
+        <v>64</v>
       </c>
       <c r="C299">
-        <v>55.66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B300" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C300">
-        <v>52.75</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B301" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="C301">
-        <v>51.32</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B302" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C302">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B303" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="C303">
-        <v>48.53</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5682,10 +5679,10 @@
         <v>511</v>
       </c>
       <c r="B304" t="s">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="C304">
-        <v>48.16</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5693,10 +5690,10 @@
         <v>512</v>
       </c>
       <c r="B305" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="C305">
-        <v>47</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5704,10 +5701,10 @@
         <v>513</v>
       </c>
       <c r="B306" t="s">
-        <v>391</v>
+        <v>34</v>
       </c>
       <c r="C306">
-        <v>46.92</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5715,10 +5712,10 @@
         <v>514</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="C307">
-        <v>44.89</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5726,10 +5723,10 @@
         <v>515</v>
       </c>
       <c r="B308" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="C308">
-        <v>44.34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5737,10 +5734,10 @@
         <v>516</v>
       </c>
       <c r="B309" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C309">
-        <v>43.86</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5748,10 +5745,10 @@
         <v>517</v>
       </c>
       <c r="B310" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="C310">
-        <v>43.07</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5759,65 +5756,65 @@
         <v>518</v>
       </c>
       <c r="B311" t="s">
-        <v>24</v>
+        <v>519</v>
       </c>
       <c r="C311">
-        <v>43</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="C312">
-        <v>42.7</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="C313">
-        <v>42.57</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B314" t="s">
-        <v>522</v>
+        <v>84</v>
       </c>
       <c r="C314">
-        <v>42.42</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B315" t="s">
-        <v>473</v>
+        <v>246</v>
       </c>
       <c r="C315">
-        <v>41.74</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B316" t="s">
-        <v>525</v>
+        <v>248</v>
       </c>
       <c r="C316">
-        <v>41.63</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5825,10 +5822,10 @@
         <v>526</v>
       </c>
       <c r="B317" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C317">
-        <v>40.869999999999997</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5836,10 +5833,10 @@
         <v>527</v>
       </c>
       <c r="B318" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="C318">
-        <v>40.799999999999997</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5847,10 +5844,10 @@
         <v>528</v>
       </c>
       <c r="B319" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="C319">
-        <v>39.68</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5858,10 +5855,10 @@
         <v>529</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="C320">
-        <v>38.93</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5869,10 +5866,10 @@
         <v>530</v>
       </c>
       <c r="B321" t="s">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="C321">
-        <v>38.159999999999997</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5880,76 +5877,76 @@
         <v>531</v>
       </c>
       <c r="B322" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="C322">
-        <v>37.44</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B323" t="s">
-        <v>249</v>
+        <v>534</v>
       </c>
       <c r="C323">
-        <v>36.81</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B324" t="s">
-        <v>129</v>
+        <v>536</v>
       </c>
       <c r="C324">
-        <v>36.590000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B325" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C325">
-        <v>36.36</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B326" t="s">
-        <v>537</v>
+        <v>269</v>
       </c>
       <c r="C326">
-        <v>36.21</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B327" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="C327">
-        <v>33.049999999999997</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B328" t="s">
-        <v>541</v>
+        <v>267</v>
       </c>
       <c r="C328">
-        <v>32.909999999999997</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5957,10 +5954,10 @@
         <v>542</v>
       </c>
       <c r="B329" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C329">
-        <v>32.64</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5968,10 +5965,10 @@
         <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="C330">
-        <v>32.229999999999997</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5979,10 +5976,10 @@
         <v>544</v>
       </c>
       <c r="B331" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C331">
-        <v>32.14</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5990,10 +5987,10 @@
         <v>545</v>
       </c>
       <c r="B332" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="C332">
-        <v>31.82</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6001,10 +5998,10 @@
         <v>546</v>
       </c>
       <c r="B333" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="C333">
-        <v>31.1</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6012,197 +6009,197 @@
         <v>547</v>
       </c>
       <c r="B334" t="s">
-        <v>272</v>
+        <v>548</v>
       </c>
       <c r="C334">
-        <v>31.09</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B335" t="s">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="C335">
-        <v>30.32</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B336" t="s">
-        <v>322</v>
+        <v>551</v>
       </c>
       <c r="C336">
-        <v>29.91</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B337" t="s">
-        <v>551</v>
+        <v>149</v>
       </c>
       <c r="C337">
-        <v>29.29</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B338" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C338">
-        <v>28.26</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B339" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C339">
-        <v>27.18</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B340" t="s">
-        <v>138</v>
+        <v>557</v>
       </c>
       <c r="C340">
-        <v>27.11</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B341" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="C341">
-        <v>26.74</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B342" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C342">
-        <v>26.25</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B343" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C343">
-        <v>25.41</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B344" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="C344">
-        <v>25.08</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C345">
-        <v>23.89</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B346" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C346">
-        <v>22.3</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B347" t="s">
-        <v>567</v>
+        <v>449</v>
       </c>
       <c r="C347">
-        <v>22.16</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B348" t="s">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="C348">
-        <v>21.71</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B349" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C349">
-        <v>21.27</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B350" t="s">
-        <v>449</v>
+        <v>8</v>
       </c>
       <c r="C350">
-        <v>20.9</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B351" t="s">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="C351">
-        <v>19.38</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6210,10 +6207,10 @@
         <v>575</v>
       </c>
       <c r="B352" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="C352">
-        <v>19.149999999999999</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6221,43 +6218,43 @@
         <v>576</v>
       </c>
       <c r="B353" t="s">
-        <v>473</v>
+        <v>577</v>
       </c>
       <c r="C353">
-        <v>19.079999999999998</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B354" t="s">
-        <v>162</v>
+        <v>579</v>
       </c>
       <c r="C354">
-        <v>18.8</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B355" t="s">
-        <v>579</v>
+        <v>101</v>
       </c>
       <c r="C355">
-        <v>17.86</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B356" t="s">
-        <v>581</v>
+        <v>404</v>
       </c>
       <c r="C356">
-        <v>16.78</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6265,10 +6262,10 @@
         <v>582</v>
       </c>
       <c r="B357" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="C357">
-        <v>16.72</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6276,10 +6273,10 @@
         <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>405</v>
+        <v>289</v>
       </c>
       <c r="C358">
-        <v>16.54</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6287,76 +6284,76 @@
         <v>584</v>
       </c>
       <c r="B359" t="s">
-        <v>258</v>
+        <v>585</v>
       </c>
       <c r="C359">
-        <v>15.92</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>286</v>
+        <v>587</v>
       </c>
       <c r="C360">
-        <v>15.86</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B361" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C361">
-        <v>15.42</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B362" t="s">
-        <v>589</v>
+        <v>181</v>
       </c>
       <c r="C362">
-        <v>14.67</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B363" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C363">
-        <v>14.28</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B364" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C364">
-        <v>13.67</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B365" t="s">
-        <v>595</v>
+        <v>254</v>
       </c>
       <c r="C365">
-        <v>13.63</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6364,10 +6361,10 @@
         <v>596</v>
       </c>
       <c r="B366" t="s">
-        <v>247</v>
+        <v>579</v>
       </c>
       <c r="C366">
-        <v>13.55</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6375,10 +6372,10 @@
         <v>597</v>
       </c>
       <c r="B367" t="s">
-        <v>581</v>
+        <v>392</v>
       </c>
       <c r="C367">
-        <v>12.88</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6386,21 +6383,21 @@
         <v>598</v>
       </c>
       <c r="B368" t="s">
-        <v>393</v>
+        <v>599</v>
       </c>
       <c r="C368">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B369" t="s">
-        <v>600</v>
+        <v>149</v>
       </c>
       <c r="C369">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6408,18 +6405,18 @@
         <v>601</v>
       </c>
       <c r="B370" t="s">
-        <v>138</v>
+        <v>602</v>
       </c>
       <c r="C370">
-        <v>12.5</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B371" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C371">
         <v>11.96</v>
@@ -6427,10 +6424,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C372">
         <v>11.63</v>
@@ -6438,35 +6435,35 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C373">
-        <v>9.85</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B374" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C374">
-        <v>9.77</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B375" t="s">
-        <v>607</v>
+        <v>224</v>
       </c>
       <c r="C375">
-        <v>9.7200000000000006</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6474,21 +6471,21 @@
         <v>608</v>
       </c>
       <c r="B376" t="s">
-        <v>199</v>
+        <v>609</v>
       </c>
       <c r="C376">
-        <v>9.49</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B377" t="s">
-        <v>610</v>
+        <v>207</v>
       </c>
       <c r="C377">
-        <v>8.4499999999999993</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6496,32 +6493,32 @@
         <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>211</v>
+        <v>612</v>
       </c>
       <c r="C378">
-        <v>8.44</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B379" t="s">
-        <v>454</v>
+        <v>219</v>
       </c>
       <c r="C379">
-        <v>7.77</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B380" t="s">
-        <v>614</v>
+        <v>454</v>
       </c>
       <c r="C380">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6529,32 +6526,32 @@
         <v>615</v>
       </c>
       <c r="B381" t="s">
-        <v>104</v>
+        <v>616</v>
       </c>
       <c r="C381">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B382" t="s">
-        <v>525</v>
+        <v>114</v>
       </c>
       <c r="C382">
-        <v>7.51</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B383" t="s">
-        <v>618</v>
+        <v>522</v>
       </c>
       <c r="C383">
-        <v>7.47</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6565,7 +6562,7 @@
         <v>620</v>
       </c>
       <c r="C384">
-        <v>6.58</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6576,7 +6573,7 @@
         <v>622</v>
       </c>
       <c r="C385">
-        <v>5.56</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6584,43 +6581,43 @@
         <v>623</v>
       </c>
       <c r="B386" t="s">
-        <v>298</v>
+        <v>624</v>
       </c>
       <c r="C386">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B387" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C387">
-        <v>4.3600000000000003</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B388" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="C388">
-        <v>2.41</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B389" t="s">
-        <v>627</v>
+        <v>536</v>
       </c>
       <c r="C389">
-        <v>2.3199999999999998</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6628,21 +6625,21 @@
         <v>628</v>
       </c>
       <c r="B390" t="s">
-        <v>423</v>
+        <v>629</v>
       </c>
       <c r="C390">
-        <v>2.13</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B391" t="s">
-        <v>630</v>
+        <v>422</v>
       </c>
       <c r="C391">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6653,7 +6650,7 @@
         <v>632</v>
       </c>
       <c r="C392">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6661,51 +6658,51 @@
         <v>633</v>
       </c>
       <c r="B393" t="s">
-        <v>26</v>
+        <v>634</v>
       </c>
       <c r="C393">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B394" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C394">
-        <v>0.69</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B395" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="C395">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B396" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C396">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B397" t="s">
-        <v>638</v>
+        <v>299</v>
       </c>
       <c r="C397">
         <v>0.55000000000000004</v>
@@ -6716,18 +6713,18 @@
         <v>639</v>
       </c>
       <c r="B398" t="s">
-        <v>362</v>
+        <v>640</v>
       </c>
       <c r="C398">
-        <v>0.03</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B399" t="s">
-        <v>641</v>
+        <v>363</v>
       </c>
       <c r="C399">
         <v>0.03</v>
@@ -6738,26 +6735,48 @@
         <v>642</v>
       </c>
       <c r="B400" t="s">
-        <v>223</v>
+        <v>643</v>
       </c>
       <c r="C400">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B401" t="s">
-        <v>644</v>
+        <v>18</v>
       </c>
       <c r="C401">
         <v>0.01</v>
       </c>
     </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>645</v>
+      </c>
+      <c r="B402" t="s">
+        <v>646</v>
+      </c>
+      <c r="C402">
+        <v>0.01</v>
+      </c>
+    </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="B403" t="s">
+        <v>648</v>
+      </c>
+      <c r="C403">
+        <v>-9033.89</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49053D51-E4AD-4E45-9A22-6F51C8328ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A968D05-7E07-4E7F-9886-4B89E826A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="735" windowWidth="15330" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -91,262 +91,262 @@
     <t>HELENA</t>
   </si>
   <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
     <t>004556150</t>
   </si>
   <si>
     <t>MARINA</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
   </si>
   <si>
     <t>003435941</t>
@@ -2337,7 +2337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2470,7 +2472,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>61788.72</v>
+        <v>53602.58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2481,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>53602.58</v>
+        <v>51460.33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2492,7 +2494,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>51460.33</v>
+        <v>30995.85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2503,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>30995.85</v>
+        <v>26392.37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2514,7 +2516,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>26392.37</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2525,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>25790.959999999999</v>
+        <v>18583.13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2536,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>18583.13</v>
+        <v>18325.11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2547,7 +2549,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>18325.11</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2558,7 +2560,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>13566.65</v>
+        <v>10038.73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2569,7 +2571,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>10038.73</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2577,32 +2579,32 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>10000</v>
+        <v>9640.99</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C23">
-        <v>9640.99</v>
+        <v>8715.01</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
       <c r="C24">
-        <v>8715.01</v>
+        <v>6153.07</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2613,7 +2615,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>6153.07</v>
+        <v>3869.68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2624,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>3869.68</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2635,7 +2637,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2691.13</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2646,7 +2648,7 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>2300</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2657,7 +2659,7 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>2073.7199999999998</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2668,7 +2670,7 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>1239.45</v>
+        <v>1212.6400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2679,7 +2681,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>1212.6400000000001</v>
+        <v>1186.29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2690,7 +2692,7 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>1186.29</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2701,7 +2703,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>991.44</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2709,21 +2711,21 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>988.88</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
       <c r="C35">
-        <v>953.43</v>
+        <v>949.18</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2731,21 +2733,21 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>949.18</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
       <c r="C37">
-        <v>944.11</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2756,7 +2758,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>938.8</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2767,7 +2769,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>930.54</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2778,7 +2780,7 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>891.04</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2789,7 +2791,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>885.13</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2800,7 +2802,7 @@
         <v>80</v>
       </c>
       <c r="C42">
-        <v>884.67</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2811,7 +2813,7 @@
         <v>82</v>
       </c>
       <c r="C43">
-        <v>883.13</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2822,7 +2824,7 @@
         <v>84</v>
       </c>
       <c r="C44">
-        <v>872.41</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2833,7 +2835,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>867.93</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2844,7 +2846,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>864.35</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2855,7 +2857,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>849.45</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2866,7 +2868,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>845.19</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2877,7 +2879,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>833.03</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2885,21 +2887,21 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>820.67</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
         <v>97</v>
       </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
       <c r="C51">
-        <v>817.72</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2910,7 +2912,7 @@
         <v>99</v>
       </c>
       <c r="C52">
-        <v>811.38</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2921,7 +2923,7 @@
         <v>101</v>
       </c>
       <c r="C53">
-        <v>810.41</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2929,21 +2931,21 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>803.76</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
         <v>104</v>
       </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
       <c r="C55">
-        <v>802.88</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2954,7 +2956,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>802.18</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2965,7 +2967,7 @@
         <v>108</v>
       </c>
       <c r="C57">
-        <v>798.23</v>
+        <v>788.72</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3061,7 +3063,7 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>723.26</v>
@@ -3116,7 +3118,7 @@
         <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C71">
         <v>664.2</v>
@@ -3182,7 +3184,7 @@
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C77">
         <v>608.94000000000005</v>
@@ -3325,7 +3327,7 @@
         <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90">
         <v>536.41999999999996</v>
@@ -3347,7 +3349,7 @@
         <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C92">
         <v>531.54</v>
@@ -3402,7 +3404,7 @@
         <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C97">
         <v>468.72</v>
@@ -3435,7 +3437,7 @@
         <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <v>465.38</v>
@@ -3468,7 +3470,7 @@
         <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C103">
         <v>459.98</v>
@@ -3490,7 +3492,7 @@
         <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C105">
         <v>451.86</v>
@@ -3567,7 +3569,7 @@
         <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C112">
         <v>415.42</v>
@@ -3611,7 +3613,7 @@
         <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C116">
         <v>404.34</v>
@@ -3633,7 +3635,7 @@
         <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118">
         <v>400.01</v>
@@ -3688,7 +3690,7 @@
         <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C123">
         <v>378.28</v>
@@ -3952,7 +3954,7 @@
         <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C147">
         <v>286.94</v>
@@ -3996,7 +3998,7 @@
         <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C151">
         <v>271.19</v>
@@ -4040,7 +4042,7 @@
         <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C155">
         <v>260.54000000000002</v>
@@ -4062,7 +4064,7 @@
         <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C157">
         <v>257.49</v>
@@ -4128,7 +4130,7 @@
         <v>290</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C163">
         <v>242.8</v>
@@ -4172,7 +4174,7 @@
         <v>297</v>
       </c>
       <c r="B167" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C167">
         <v>236.97</v>
@@ -4425,7 +4427,7 @@
         <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C190">
         <v>164.31</v>
@@ -4502,7 +4504,7 @@
         <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C197">
         <v>148.69999999999999</v>
@@ -4722,7 +4724,7 @@
         <v>376</v>
       </c>
       <c r="B217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C217">
         <v>113.2</v>
@@ -4744,7 +4746,7 @@
         <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C219">
         <v>107.6</v>
@@ -4810,7 +4812,7 @@
         <v>388</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C225">
         <v>102.96</v>
@@ -4843,7 +4845,7 @@
         <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C228">
         <v>101.15</v>
@@ -4986,7 +4988,7 @@
         <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C241">
         <v>97.08</v>
@@ -5173,7 +5175,7 @@
         <v>441</v>
       </c>
       <c r="B258" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C258">
         <v>85.71</v>
@@ -5250,7 +5252,7 @@
         <v>452</v>
       </c>
       <c r="B265" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C265">
         <v>82.37</v>
@@ -5459,7 +5461,7 @@
         <v>482</v>
       </c>
       <c r="B284" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C284">
         <v>66.989999999999995</v>
@@ -5613,7 +5615,7 @@
         <v>504</v>
       </c>
       <c r="B298" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C298">
         <v>51.32</v>
@@ -5624,7 +5626,7 @@
         <v>505</v>
       </c>
       <c r="B299" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C299">
         <v>50</v>
@@ -5657,7 +5659,7 @@
         <v>509</v>
       </c>
       <c r="B302" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C302">
         <v>47</v>
@@ -5679,7 +5681,7 @@
         <v>511</v>
       </c>
       <c r="B304" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C304">
         <v>44.89</v>
@@ -5701,7 +5703,7 @@
         <v>513</v>
       </c>
       <c r="B306" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C306">
         <v>43.86</v>
@@ -5723,7 +5725,7 @@
         <v>515</v>
       </c>
       <c r="B308" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C308">
         <v>43</v>
@@ -5745,7 +5747,7 @@
         <v>517</v>
       </c>
       <c r="B310" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C310">
         <v>42.57</v>
@@ -5789,7 +5791,7 @@
         <v>523</v>
       </c>
       <c r="B314" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C314">
         <v>40.869999999999997</v>
@@ -6240,7 +6242,7 @@
         <v>580</v>
       </c>
       <c r="B355" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C355">
         <v>16.72</v>
@@ -6416,7 +6418,7 @@
         <v>603</v>
       </c>
       <c r="B371" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C371">
         <v>11.96</v>
@@ -6669,7 +6671,7 @@
         <v>635</v>
       </c>
       <c r="B394" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C394">
         <v>0.9</v>
@@ -6680,7 +6682,7 @@
         <v>636</v>
       </c>
       <c r="B395" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C395">
         <v>0.69</v>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A968D05-7E07-4E7F-9886-4B89E826A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89069985-B87B-4C72-883B-F639B4DF4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="639">
   <si>
     <t>CONTA</t>
   </si>
@@ -31,1875 +31,1842 @@
     <t>SALDO</t>
   </si>
   <si>
-    <t>004643737</t>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
   </si>
   <si>
     <t>LARA</t>
   </si>
   <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004855960</t>
+  </si>
+  <si>
+    <t>CLERIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
   </si>
   <si>
     <t>003301389</t>
   </si>
   <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>004204255</t>
-  </si>
-  <si>
-    <t>AMADO</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004855960</t>
-  </si>
-  <si>
-    <t>CLERIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
     <t>004895776</t>
   </si>
   <si>
@@ -1945,6 +1912,12 @@
     <t>ANNA</t>
   </si>
   <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
     <t>004321092</t>
   </si>
   <si>
@@ -1961,12 +1934,6 @@
   </si>
   <si>
     <t>VILMA</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2335,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C405"/>
+  <dimension ref="A1:C397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2362,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>386283.71</v>
+        <v>107285.49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2373,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>339347.04</v>
+        <v>84533.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2384,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>127005.16</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2395,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>107285.49</v>
+        <v>62515.28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2406,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>104932.86</v>
+        <v>53602.58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2417,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>102207.09</v>
+        <v>51460.33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2428,7 +2395,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>89518.69</v>
+        <v>50664.74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2439,7 +2406,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>79268.850000000006</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2450,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>66090.740000000005</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2461,7 +2428,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>62515.28</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2472,7 +2439,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>53602.58</v>
+        <v>21560.32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2483,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>51460.33</v>
+        <v>18325.11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2494,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>30995.85</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2505,7 +2472,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>26392.37</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2516,7 +2483,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>25790.959999999999</v>
+        <v>10038.73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2527,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>18583.13</v>
+        <v>6153.07</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2538,7 +2505,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>18325.11</v>
+        <v>3869.68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2549,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>13566.65</v>
+        <v>3153.3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2560,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>10038.73</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2568,21 +2535,21 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>10000</v>
+        <v>2640.99</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
       <c r="C22">
-        <v>9640.99</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2590,65 +2557,65 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>8715.01</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>6153.07</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>3869.68</v>
+        <v>1212.6400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>2691.13</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>2300</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>2073.7199999999998</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2659,7 +2626,7 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>1239.45</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2670,7 +2637,7 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>1212.6400000000001</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2678,43 +2645,43 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>1186.29</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
       <c r="C32">
-        <v>991.44</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
       <c r="C33">
-        <v>988.88</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
       <c r="C34">
-        <v>953.43</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2725,7 +2692,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>949.18</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2733,98 +2700,98 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>944.11</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>938.8</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>930.54</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>891.04</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>885.13</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>884.67</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42">
-        <v>883.13</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43">
-        <v>872.41</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>867.93</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2835,7 +2802,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>864.35</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2846,7 +2813,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>849.45</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2857,7 +2824,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>845.19</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2868,7 +2835,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>833.03</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2879,7 +2846,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>820.67</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2887,131 +2854,131 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C50">
-        <v>817.72</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51">
-        <v>811.38</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52">
-        <v>810.41</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>803.76</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C54">
-        <v>802.88</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C55">
-        <v>802.18</v>
+        <v>743.01</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C56">
-        <v>798.23</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C57">
-        <v>788.72</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C58">
-        <v>787.45</v>
+        <v>729.28</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C59">
-        <v>768.88</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60">
-        <v>761.35</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C61">
-        <v>747.96</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3019,32 +2986,32 @@
         <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C62">
-        <v>740.54</v>
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63">
-        <v>739.38</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>732.94</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3055,7 +3022,7 @@
         <v>123</v>
       </c>
       <c r="C65">
-        <v>729.28</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3063,175 +3030,175 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C66">
-        <v>723.26</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67">
-        <v>714.2</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C68">
-        <v>710.16</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C69">
-        <v>703</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C70">
-        <v>685.96</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C71">
-        <v>664.2</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C72">
-        <v>655.11</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>651</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C74">
-        <v>645.16999999999996</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75">
-        <v>636.76</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76">
-        <v>622.63</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C77">
-        <v>608.94000000000005</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
         <v>145</v>
       </c>
       <c r="C78">
-        <v>608.66999999999996</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79">
-        <v>605.79</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C80">
-        <v>596.41999999999996</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C81">
-        <v>579.26</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3239,87 +3206,87 @@
         <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C82">
-        <v>579.20000000000005</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
         <v>154</v>
       </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
       <c r="C83">
-        <v>570.97</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>560.45000000000005</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85">
-        <v>560.32000000000005</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C86">
-        <v>556.30999999999995</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
         <v>161</v>
       </c>
-      <c r="B87" t="s">
-        <v>162</v>
-      </c>
       <c r="C87">
-        <v>553.23</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
         <v>163</v>
       </c>
-      <c r="B88" t="s">
-        <v>164</v>
-      </c>
       <c r="C88">
-        <v>544.76</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" t="s">
         <v>165</v>
       </c>
-      <c r="B89" t="s">
-        <v>138</v>
-      </c>
       <c r="C89">
-        <v>542.62</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3327,10 +3294,10 @@
         <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C90">
-        <v>536.41999999999996</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3341,7 +3308,7 @@
         <v>168</v>
       </c>
       <c r="C91">
-        <v>534.49</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3349,10 +3316,10 @@
         <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C92">
-        <v>531.54</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3363,7 +3330,7 @@
         <v>171</v>
       </c>
       <c r="C93">
-        <v>528.38</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3374,7 +3341,7 @@
         <v>173</v>
       </c>
       <c r="C94">
-        <v>520.05999999999995</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3382,65 +3349,65 @@
         <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="C95">
-        <v>509.7</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
         <v>176</v>
       </c>
-      <c r="B96" t="s">
-        <v>177</v>
-      </c>
       <c r="C96">
-        <v>470.68</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>468.72</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C98">
-        <v>468.65</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
         <v>180</v>
       </c>
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
       <c r="C99">
-        <v>465.88</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
         <v>182</v>
       </c>
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
       <c r="C100">
-        <v>465.38</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3451,7 +3418,7 @@
         <v>184</v>
       </c>
       <c r="C101">
-        <v>463.52</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3462,7 +3429,7 @@
         <v>186</v>
       </c>
       <c r="C102">
-        <v>462.44</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3470,10 +3437,10 @@
         <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>459.98</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3481,21 +3448,21 @@
         <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="C104">
-        <v>453.33</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
         <v>190</v>
       </c>
-      <c r="B105" t="s">
-        <v>40</v>
-      </c>
       <c r="C105">
-        <v>451.86</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3503,32 +3470,32 @@
         <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C106">
-        <v>447.24</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C107">
-        <v>446.15</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="C108">
-        <v>441.76</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3539,7 +3506,7 @@
         <v>197</v>
       </c>
       <c r="C109">
-        <v>429.52</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3547,21 +3514,21 @@
         <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>418</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
         <v>200</v>
       </c>
-      <c r="B111" t="s">
-        <v>20</v>
-      </c>
       <c r="C111">
-        <v>416.45</v>
+        <v>397.62</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3569,43 +3536,43 @@
         <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="C112">
-        <v>415.42</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C113">
-        <v>409.89</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C114">
-        <v>409.12</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="C115">
-        <v>407.94</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3613,65 +3580,65 @@
         <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C116">
-        <v>404.34</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C117">
-        <v>400.5</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C118">
-        <v>400.01</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C119">
-        <v>396.98</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>392.89</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>392.83</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3682,7 +3649,7 @@
         <v>219</v>
       </c>
       <c r="C122">
-        <v>380.46</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3690,21 +3657,21 @@
         <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="C123">
-        <v>378.28</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C124">
-        <v>376.72</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3715,7 +3682,7 @@
         <v>224</v>
       </c>
       <c r="C125">
-        <v>374.97</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3726,7 +3693,7 @@
         <v>226</v>
       </c>
       <c r="C126">
-        <v>369.5</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3734,21 +3701,21 @@
         <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>367.11</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" t="s">
         <v>229</v>
       </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
       <c r="C128">
-        <v>347.34</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3756,230 +3723,230 @@
         <v>230</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="C129">
-        <v>346.77</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C130">
-        <v>345.51</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C131">
-        <v>344.66</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C132">
-        <v>344.22</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C133">
-        <v>341.85</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C134">
-        <v>338.66</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="C135">
-        <v>336.01</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C136">
-        <v>333.95</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C137">
-        <v>331.75</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C138">
-        <v>331.38</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="C139">
-        <v>327.87</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C140">
-        <v>323.66000000000003</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C141">
-        <v>322.77</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C142">
-        <v>316.35000000000002</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="C143">
-        <v>310.17</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C144">
-        <v>304.47000000000003</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C145">
-        <v>296.88</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C146">
-        <v>290.31</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C147">
-        <v>286.94</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C148">
-        <v>285.38</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="C149">
-        <v>284.19</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3990,7 +3957,7 @@
         <v>269</v>
       </c>
       <c r="C150">
-        <v>283.02999999999997</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3998,10 +3965,10 @@
         <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C151">
-        <v>271.19</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4012,7 +3979,7 @@
         <v>272</v>
       </c>
       <c r="C152">
-        <v>271.16000000000003</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4023,7 +3990,7 @@
         <v>274</v>
       </c>
       <c r="C153">
-        <v>264.52999999999997</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4034,7 +4001,7 @@
         <v>276</v>
       </c>
       <c r="C154">
-        <v>261.82</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4042,10 +4009,10 @@
         <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>260.54000000000002</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4056,7 +4023,7 @@
         <v>279</v>
       </c>
       <c r="C156">
-        <v>259.88</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4064,142 +4031,142 @@
         <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="C157">
-        <v>257.49</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C158">
-        <v>256.77</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="C159">
-        <v>256.26</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C160">
-        <v>246.75</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C161">
-        <v>245.07</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C162">
-        <v>244.73</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C163">
-        <v>242.8</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C164">
-        <v>241.52</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C165">
-        <v>241.07</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C166">
-        <v>240.93</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B167" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="C167">
-        <v>236.97</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C168">
-        <v>234.95</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="C169">
-        <v>228.33</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4207,98 +4174,98 @@
         <v>302</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="C170">
-        <v>221.55</v>
+        <v>198.38</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C171">
-        <v>219.44</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>304</v>
+      </c>
+      <c r="B172" t="s">
         <v>305</v>
       </c>
-      <c r="B172" t="s">
-        <v>306</v>
-      </c>
       <c r="C172">
-        <v>218.5</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>306</v>
+      </c>
+      <c r="B173" t="s">
         <v>307</v>
       </c>
-      <c r="B173" t="s">
-        <v>308</v>
-      </c>
       <c r="C173">
-        <v>205.79</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="C174">
-        <v>203.87</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C175">
-        <v>203.61</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C176">
-        <v>199.24</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B177" t="s">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="C177">
-        <v>198.42</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>314</v>
+      </c>
+      <c r="B178" t="s">
         <v>315</v>
       </c>
-      <c r="B178" t="s">
-        <v>219</v>
-      </c>
       <c r="C178">
-        <v>197.42</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4306,186 +4273,186 @@
         <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>317</v>
+        <v>145</v>
       </c>
       <c r="C179">
-        <v>192.35</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="C180">
-        <v>191.65</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="C181">
-        <v>187.16</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B182" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C182">
-        <v>186.38</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>58</v>
       </c>
       <c r="C183">
-        <v>178.9</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="C184">
-        <v>178.22</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="C185">
-        <v>178.17</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B186" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C186">
-        <v>169.78</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B187" t="s">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="C187">
-        <v>168.19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B188" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C188">
-        <v>167.87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B189" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="C189">
-        <v>166.94</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C190">
-        <v>164.31</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B191" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
       <c r="C191">
-        <v>162.96</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="C192">
-        <v>159.78</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B193" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C193">
-        <v>152.68</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>336</v>
+      </c>
+      <c r="B194" t="s">
         <v>337</v>
       </c>
-      <c r="B194" t="s">
-        <v>338</v>
-      </c>
       <c r="C194">
-        <v>150</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
+        <v>338</v>
+      </c>
+      <c r="B195" t="s">
         <v>339</v>
       </c>
-      <c r="B195" t="s">
-        <v>338</v>
-      </c>
       <c r="C195">
-        <v>150</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4496,7 +4463,7 @@
         <v>341</v>
       </c>
       <c r="C196">
-        <v>148.74</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4504,10 +4471,10 @@
         <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="C197">
-        <v>148.69999999999999</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4518,7 +4485,7 @@
         <v>344</v>
       </c>
       <c r="C198">
-        <v>147.41</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4529,7 +4496,7 @@
         <v>346</v>
       </c>
       <c r="C199">
-        <v>146.58000000000001</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4537,21 +4504,21 @@
         <v>347</v>
       </c>
       <c r="B200" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="C200">
-        <v>139.29</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>349</v>
+        <v>8</v>
       </c>
       <c r="C201">
-        <v>134.29</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4562,7 +4529,7 @@
         <v>351</v>
       </c>
       <c r="C202">
-        <v>131.47</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4573,7 +4540,7 @@
         <v>353</v>
       </c>
       <c r="C203">
-        <v>129.91999999999999</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4581,32 +4548,32 @@
         <v>354</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>355</v>
       </c>
       <c r="C204">
-        <v>129.80000000000001</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C205">
-        <v>128.16999999999999</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B206" t="s">
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="C206">
-        <v>124.93</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4617,7 +4584,7 @@
         <v>360</v>
       </c>
       <c r="C207">
-        <v>120.91</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4625,21 +4592,21 @@
         <v>361</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="C208">
-        <v>120.82</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>363</v>
+        <v>134</v>
       </c>
       <c r="C209">
-        <v>120.44</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4647,175 +4614,175 @@
         <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="C210">
-        <v>120.01</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>365</v>
+      </c>
+      <c r="B211" t="s">
         <v>366</v>
       </c>
-      <c r="B211" t="s">
-        <v>367</v>
-      </c>
       <c r="C211">
-        <v>119.46</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="C212">
-        <v>119.05</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B213" t="s">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="C213">
-        <v>118.62</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C214">
-        <v>117.74</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B215" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C215">
-        <v>116.42</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B216" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="C216">
-        <v>116.06</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B217" t="s">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="C217">
-        <v>113.2</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>378</v>
+        <v>26</v>
       </c>
       <c r="C218">
-        <v>110.29</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B219" t="s">
-        <v>58</v>
+        <v>378</v>
       </c>
       <c r="C219">
-        <v>107.6</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>379</v>
+      </c>
+      <c r="B220" t="s">
         <v>380</v>
       </c>
-      <c r="B220" t="s">
-        <v>381</v>
-      </c>
       <c r="C220">
-        <v>107.14</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B221" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="C221">
-        <v>106.21</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" t="s">
         <v>383</v>
       </c>
-      <c r="B222" t="s">
-        <v>384</v>
-      </c>
       <c r="C222">
-        <v>106.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B223" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="C223">
-        <v>105.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" t="s">
         <v>386</v>
       </c>
-      <c r="B224" t="s">
-        <v>387</v>
-      </c>
       <c r="C224">
-        <v>104.99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>387</v>
+      </c>
+      <c r="B225" t="s">
         <v>388</v>
       </c>
-      <c r="B225" t="s">
-        <v>36</v>
-      </c>
       <c r="C225">
-        <v>102.96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4826,7 +4793,7 @@
         <v>390</v>
       </c>
       <c r="C226">
-        <v>102.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4837,7 +4804,7 @@
         <v>392</v>
       </c>
       <c r="C227">
-        <v>101.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4845,10 +4812,10 @@
         <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="C228">
-        <v>101.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4867,7 +4834,7 @@
         <v>396</v>
       </c>
       <c r="B230" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -4875,10 +4842,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4886,10 +4853,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -4897,24 +4864,24 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C233">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B234" t="s">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="C234">
-        <v>100</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4922,21 +4889,21 @@
         <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>207</v>
+        <v>406</v>
       </c>
       <c r="C235">
-        <v>100</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="C236">
-        <v>100</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4947,7 +4914,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4958,7 +4925,7 @@
         <v>411</v>
       </c>
       <c r="C238">
-        <v>100</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4969,7 +4936,7 @@
         <v>413</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4980,7 +4947,7 @@
         <v>415</v>
       </c>
       <c r="C240">
-        <v>98.02</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4988,54 +4955,54 @@
         <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="C241">
-        <v>97.08</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="C242">
-        <v>97.03</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B243" t="s">
-        <v>299</v>
+        <v>415</v>
       </c>
       <c r="C243">
-        <v>96.49</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B244" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C244">
-        <v>95.43</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B245" t="s">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="C245">
-        <v>95.12</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5043,87 +5010,87 @@
         <v>423</v>
       </c>
       <c r="B246" t="s">
-        <v>424</v>
+        <v>98</v>
       </c>
       <c r="C246">
-        <v>94.34</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>424</v>
+      </c>
+      <c r="B247" t="s">
         <v>425</v>
       </c>
-      <c r="B247" t="s">
-        <v>426</v>
-      </c>
       <c r="C247">
-        <v>94.23</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>426</v>
+      </c>
+      <c r="B248" t="s">
         <v>427</v>
       </c>
-      <c r="B248" t="s">
-        <v>428</v>
-      </c>
       <c r="C248">
-        <v>92.85</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B249" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C249">
-        <v>91.39</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B250" t="s">
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="C250">
-        <v>89.77</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B251" t="s">
-        <v>432</v>
+        <v>22</v>
       </c>
       <c r="C251">
-        <v>89.2</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B252" t="s">
-        <v>224</v>
+        <v>432</v>
       </c>
       <c r="C252">
-        <v>88.17</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>433</v>
+      </c>
+      <c r="B253" t="s">
         <v>434</v>
       </c>
-      <c r="B253" t="s">
-        <v>110</v>
-      </c>
       <c r="C253">
-        <v>87.45</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5134,7 +5101,7 @@
         <v>436</v>
       </c>
       <c r="C254">
-        <v>87.25</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5145,7 +5112,7 @@
         <v>438</v>
       </c>
       <c r="C255">
-        <v>86.45</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5153,10 +5120,10 @@
         <v>439</v>
       </c>
       <c r="B256" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="C256">
-        <v>86.38</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5164,43 +5131,43 @@
         <v>440</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="C257">
-        <v>85.85</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B258" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C258">
-        <v>85.71</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B259" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C259">
-        <v>85.65</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B260" t="s">
-        <v>445</v>
+        <v>263</v>
       </c>
       <c r="C260">
-        <v>84.2</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5211,7 +5178,7 @@
         <v>447</v>
       </c>
       <c r="C261">
-        <v>83.73</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5219,32 +5186,32 @@
         <v>448</v>
       </c>
       <c r="B262" t="s">
-        <v>449</v>
+        <v>332</v>
       </c>
       <c r="C262">
-        <v>83.66</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="C263">
-        <v>83.36</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>450</v>
+      </c>
+      <c r="B264" t="s">
         <v>451</v>
       </c>
-      <c r="B264" t="s">
-        <v>16</v>
-      </c>
       <c r="C264">
-        <v>83.26</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5252,10 +5219,10 @@
         <v>452</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="C265">
-        <v>82.37</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5266,7 +5233,7 @@
         <v>454</v>
       </c>
       <c r="C266">
-        <v>81.87</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5274,10 +5241,10 @@
         <v>455</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="C267">
-        <v>81.739999999999995</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5288,7 +5255,7 @@
         <v>457</v>
       </c>
       <c r="C268">
-        <v>81.13</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5296,131 +5263,131 @@
         <v>458</v>
       </c>
       <c r="B269" t="s">
-        <v>344</v>
+        <v>459</v>
       </c>
       <c r="C269">
-        <v>77.87</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B270" t="s">
-        <v>384</v>
+        <v>461</v>
       </c>
       <c r="C270">
-        <v>76.319999999999993</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B271" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C271">
-        <v>75.86</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B272" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="C272">
-        <v>74.319999999999993</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B273" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C273">
-        <v>73.239999999999995</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B274" t="s">
-        <v>138</v>
+        <v>403</v>
       </c>
       <c r="C274">
-        <v>72.56</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B275" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C275">
-        <v>72.2</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B276" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C276">
-        <v>71.84</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B277" t="s">
-        <v>471</v>
+        <v>88</v>
       </c>
       <c r="C277">
-        <v>71.569999999999993</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B278" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C278">
-        <v>71.31</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B279" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="C279">
-        <v>70.88</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B280" t="s">
-        <v>476</v>
+        <v>237</v>
       </c>
       <c r="C280">
-        <v>70.13</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5428,21 +5395,21 @@
         <v>477</v>
       </c>
       <c r="B281" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="C281">
-        <v>69.84</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B282" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="C282">
-        <v>68.459999999999994</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5453,7 +5420,7 @@
         <v>481</v>
       </c>
       <c r="C283">
-        <v>68.39</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5461,131 +5428,131 @@
         <v>482</v>
       </c>
       <c r="B284" t="s">
-        <v>99</v>
+        <v>483</v>
       </c>
       <c r="C284">
-        <v>66.989999999999995</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B285" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C285">
-        <v>65.900000000000006</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B286" t="s">
-        <v>471</v>
+        <v>145</v>
       </c>
       <c r="C286">
-        <v>65.83</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B287" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="C287">
-        <v>61.65</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B288" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C288">
-        <v>61.56</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B289" t="s">
-        <v>250</v>
+        <v>491</v>
       </c>
       <c r="C289">
-        <v>61.04</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B290" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C290">
-        <v>60.95</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B291" t="s">
-        <v>493</v>
+        <v>51</v>
       </c>
       <c r="C291">
-        <v>60.39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B292" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C292">
-        <v>59.42</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B293" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="C293">
-        <v>58.37</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C294">
-        <v>57.82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B295" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="C295">
-        <v>57.41</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5593,230 +5560,230 @@
         <v>500</v>
       </c>
       <c r="B296" t="s">
-        <v>501</v>
+        <v>20</v>
       </c>
       <c r="C296">
-        <v>55.66</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B297" t="s">
-        <v>503</v>
+        <v>256</v>
       </c>
       <c r="C297">
-        <v>52.75</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B298" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C298">
-        <v>51.32</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C299">
-        <v>50</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>507</v>
+        <v>30</v>
       </c>
       <c r="C300">
-        <v>48.53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>353</v>
+        <v>8</v>
       </c>
       <c r="C301">
-        <v>48.16</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C302">
-        <v>47</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B303" t="s">
-        <v>390</v>
+        <v>508</v>
       </c>
       <c r="C303">
-        <v>46.92</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B304" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="C304">
-        <v>44.89</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B305" t="s">
-        <v>269</v>
+        <v>511</v>
       </c>
       <c r="C305">
-        <v>44.34</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B306" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C306">
-        <v>43.86</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B307" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="C307">
-        <v>43.07</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B308" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="C308">
-        <v>43</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C309">
-        <v>42.7</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B310" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="C310">
-        <v>42.57</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B311" t="s">
-        <v>519</v>
+        <v>329</v>
       </c>
       <c r="C311">
-        <v>42.42</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>471</v>
+        <v>243</v>
       </c>
       <c r="C312">
-        <v>41.74</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B313" t="s">
-        <v>522</v>
+        <v>129</v>
       </c>
       <c r="C313">
-        <v>41.63</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B314" t="s">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="C314">
-        <v>40.869999999999997</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B315" t="s">
-        <v>246</v>
+        <v>523</v>
       </c>
       <c r="C315">
-        <v>40.799999999999997</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
+        <v>524</v>
+      </c>
+      <c r="B316" t="s">
         <v>525</v>
       </c>
-      <c r="B316" t="s">
-        <v>248</v>
-      </c>
       <c r="C316">
-        <v>39.68</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5824,65 +5791,65 @@
         <v>526</v>
       </c>
       <c r="B317" t="s">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="C317">
-        <v>38.93</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B318" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="C318">
-        <v>38.159999999999997</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B319" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="C319">
-        <v>37.44</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B320" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C320">
-        <v>36.81</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B321" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="C321">
-        <v>36.590000000000003</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B322" t="s">
-        <v>532</v>
+        <v>186</v>
       </c>
       <c r="C322">
-        <v>36.36</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5890,87 +5857,87 @@
         <v>533</v>
       </c>
       <c r="B323" t="s">
-        <v>534</v>
+        <v>263</v>
       </c>
       <c r="C323">
-        <v>36.21</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B324" t="s">
-        <v>536</v>
+        <v>134</v>
       </c>
       <c r="C324">
-        <v>33.049999999999997</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>538</v>
+        <v>311</v>
       </c>
       <c r="C325">
-        <v>32.909999999999997</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B326" t="s">
-        <v>269</v>
+        <v>537</v>
       </c>
       <c r="C326">
-        <v>32.64</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B327" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
       <c r="C327">
-        <v>32.229999999999997</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B328" t="s">
-        <v>267</v>
+        <v>540</v>
       </c>
       <c r="C328">
-        <v>32.14</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B329" t="s">
-        <v>260</v>
+        <v>469</v>
       </c>
       <c r="C329">
-        <v>31.82</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
+        <v>542</v>
+      </c>
+      <c r="B330" t="s">
         <v>543</v>
       </c>
-      <c r="B330" t="s">
-        <v>199</v>
-      </c>
       <c r="C330">
-        <v>31.1</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5978,175 +5945,175 @@
         <v>544</v>
       </c>
       <c r="B331" t="s">
-        <v>276</v>
+        <v>545</v>
       </c>
       <c r="C331">
-        <v>31.09</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B332" t="s">
-        <v>145</v>
+        <v>525</v>
       </c>
       <c r="C332">
-        <v>30.32</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B333" t="s">
-        <v>323</v>
+        <v>548</v>
       </c>
       <c r="C333">
-        <v>29.91</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B334" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C334">
-        <v>29.29</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B335" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="C335">
-        <v>28.26</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B336" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C336">
-        <v>27.18</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B337" t="s">
-        <v>149</v>
+        <v>556</v>
       </c>
       <c r="C337">
-        <v>27.11</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B338" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="C338">
-        <v>26.74</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B339" t="s">
-        <v>555</v>
+        <v>56</v>
       </c>
       <c r="C339">
-        <v>26.25</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B340" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C340">
-        <v>25.41</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B341" t="s">
-        <v>536</v>
+        <v>106</v>
       </c>
       <c r="C341">
-        <v>25.08</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B342" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="C342">
-        <v>23.89</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B343" t="s">
-        <v>562</v>
+        <v>159</v>
       </c>
       <c r="C343">
-        <v>22.3</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B344" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C344">
-        <v>22.16</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B345" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C345">
-        <v>21.71</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B346" t="s">
-        <v>568</v>
+        <v>88</v>
       </c>
       <c r="C346">
-        <v>21.27</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6154,10 +6121,10 @@
         <v>569</v>
       </c>
       <c r="B347" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="C347">
-        <v>20.9</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6165,10 +6132,10 @@
         <v>570</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="C348">
-        <v>19.600000000000001</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6176,21 +6143,21 @@
         <v>571</v>
       </c>
       <c r="B349" t="s">
-        <v>572</v>
+        <v>276</v>
       </c>
       <c r="C349">
-        <v>19.38</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>572</v>
+      </c>
+      <c r="B350" t="s">
         <v>573</v>
       </c>
-      <c r="B350" t="s">
-        <v>8</v>
-      </c>
       <c r="C350">
-        <v>19.149999999999999</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6198,142 +6165,142 @@
         <v>574</v>
       </c>
       <c r="B351" t="s">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="C351">
-        <v>19.079999999999998</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B352" t="s">
-        <v>173</v>
+        <v>577</v>
       </c>
       <c r="C352">
-        <v>18.8</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B353" t="s">
-        <v>577</v>
+        <v>168</v>
       </c>
       <c r="C353">
-        <v>17.86</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B354" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C354">
-        <v>16.78</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B355" t="s">
-        <v>99</v>
+        <v>582</v>
       </c>
       <c r="C355">
-        <v>16.72</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B356" t="s">
-        <v>404</v>
+        <v>241</v>
       </c>
       <c r="C356">
-        <v>16.54</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B357" t="s">
-        <v>262</v>
+        <v>567</v>
       </c>
       <c r="C357">
-        <v>15.92</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B358" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="C358">
-        <v>15.86</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B359" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C359">
-        <v>15.42</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B360" t="s">
-        <v>587</v>
+        <v>28</v>
       </c>
       <c r="C360">
-        <v>14.67</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B361" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C361">
-        <v>14.28</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B362" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="C362">
-        <v>13.84</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B363" t="s">
-        <v>592</v>
+        <v>243</v>
       </c>
       <c r="C363">
-        <v>13.67</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6341,43 +6308,43 @@
         <v>593</v>
       </c>
       <c r="B364" t="s">
-        <v>594</v>
+        <v>145</v>
       </c>
       <c r="C364">
-        <v>13.63</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B365" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="C365">
-        <v>13.55</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B366" t="s">
-        <v>579</v>
+        <v>211</v>
       </c>
       <c r="C366">
-        <v>12.88</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
+        <v>596</v>
+      </c>
+      <c r="B367" t="s">
         <v>597</v>
       </c>
-      <c r="B367" t="s">
-        <v>392</v>
-      </c>
       <c r="C367">
-        <v>12.61</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6385,21 +6352,21 @@
         <v>598</v>
       </c>
       <c r="B368" t="s">
-        <v>599</v>
+        <v>194</v>
       </c>
       <c r="C368">
-        <v>12.6</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
+        <v>599</v>
+      </c>
+      <c r="B369" t="s">
         <v>600</v>
       </c>
-      <c r="B369" t="s">
-        <v>149</v>
-      </c>
       <c r="C369">
-        <v>12.5</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6407,32 +6374,32 @@
         <v>601</v>
       </c>
       <c r="B370" t="s">
-        <v>602</v>
+        <v>206</v>
       </c>
       <c r="C370">
-        <v>12.48</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B371" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="C371">
-        <v>11.96</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
+        <v>603</v>
+      </c>
+      <c r="B372" t="s">
         <v>604</v>
       </c>
-      <c r="B372" t="s">
-        <v>256</v>
-      </c>
       <c r="C372">
-        <v>11.63</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6440,10 +6407,10 @@
         <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C373">
-        <v>10.43</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6451,10 +6418,10 @@
         <v>606</v>
       </c>
       <c r="B374" t="s">
-        <v>145</v>
+        <v>511</v>
       </c>
       <c r="C374">
-        <v>9.85</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6462,76 +6429,76 @@
         <v>607</v>
       </c>
       <c r="B375" t="s">
-        <v>224</v>
+        <v>608</v>
       </c>
       <c r="C375">
-        <v>9.77</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B376" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C376">
-        <v>9.7200000000000006</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B377" t="s">
-        <v>207</v>
+        <v>612</v>
       </c>
       <c r="C377">
-        <v>9.49</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B378" t="s">
-        <v>612</v>
+        <v>288</v>
       </c>
       <c r="C378">
-        <v>8.4499999999999993</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B379" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="C379">
-        <v>8.44</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B380" t="s">
-        <v>454</v>
+        <v>286</v>
       </c>
       <c r="C380">
-        <v>7.77</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B381" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
       <c r="C381">
-        <v>7.7</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6539,54 +6506,54 @@
         <v>617</v>
       </c>
       <c r="B382" t="s">
-        <v>114</v>
+        <v>618</v>
       </c>
       <c r="C382">
-        <v>7.6</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B383" t="s">
-        <v>522</v>
+        <v>411</v>
       </c>
       <c r="C383">
-        <v>7.51</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B384" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C384">
-        <v>7.47</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B385" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C385">
-        <v>6.58</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B386" t="s">
-        <v>624</v>
+        <v>22</v>
       </c>
       <c r="C386">
-        <v>5.56</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6594,10 +6561,10 @@
         <v>625</v>
       </c>
       <c r="B387" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="C387">
-        <v>5.55</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6605,10 +6572,10 @@
         <v>626</v>
       </c>
       <c r="B388" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C388">
-        <v>4.3600000000000003</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6616,10 +6583,10 @@
         <v>627</v>
       </c>
       <c r="B389" t="s">
-        <v>536</v>
+        <v>286</v>
       </c>
       <c r="C389">
-        <v>2.41</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6630,7 +6597,7 @@
         <v>629</v>
       </c>
       <c r="C390">
-        <v>2.3199999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6638,21 +6605,21 @@
         <v>630</v>
       </c>
       <c r="B391" t="s">
-        <v>422</v>
+        <v>631</v>
       </c>
       <c r="C391">
-        <v>2.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B392" t="s">
-        <v>632</v>
+        <v>351</v>
       </c>
       <c r="C392">
-        <v>1.76</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6663,7 +6630,7 @@
         <v>634</v>
       </c>
       <c r="C393">
-        <v>1.4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6671,10 +6638,10 @@
         <v>635</v>
       </c>
       <c r="B394" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C394">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6682,103 +6649,15 @@
         <v>636</v>
       </c>
       <c r="B395" t="s">
-        <v>42</v>
+        <v>637</v>
       </c>
       <c r="C395">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="A396" t="s">
-        <v>637</v>
-      </c>
-      <c r="B396" t="s">
-        <v>267</v>
-      </c>
-      <c r="C396">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>638</v>
-      </c>
-      <c r="B397" t="s">
-        <v>299</v>
-      </c>
-      <c r="C397">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" t="s">
-        <v>639</v>
-      </c>
-      <c r="B398" t="s">
-        <v>640</v>
-      </c>
-      <c r="C398">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="A399" t="s">
-        <v>641</v>
-      </c>
-      <c r="B399" t="s">
-        <v>363</v>
-      </c>
-      <c r="C399">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" t="s">
-        <v>642</v>
-      </c>
-      <c r="B400" t="s">
-        <v>643</v>
-      </c>
-      <c r="C400">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" t="s">
-        <v>644</v>
-      </c>
-      <c r="B401" t="s">
-        <v>18</v>
-      </c>
-      <c r="C401">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" t="s">
-        <v>645</v>
-      </c>
-      <c r="B402" t="s">
-        <v>646</v>
-      </c>
-      <c r="C402">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" t="s">
-        <v>647</v>
-      </c>
-      <c r="B403" t="s">
-        <v>648</v>
-      </c>
-      <c r="C403">
-        <v>-9033.89</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="A405" t="s">
-        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89069985-B87B-4C72-883B-F639B4DF4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5E01F3-06E5-435B-8B88-1699AB4ED338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="638">
   <si>
     <t>CONTA</t>
   </si>
@@ -55,10 +68,475 @@
     <t>HELENA</t>
   </si>
   <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
     <t>004361159</t>
   </si>
   <si>
-    <t>HFR</t>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
   </si>
   <si>
     <t>004252768</t>
@@ -67,64 +545,892 @@
     <t>ALESSANDRO</t>
   </si>
   <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>005040864</t>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
   </si>
   <si>
     <t>ANDRE</t>
   </si>
   <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
   </si>
   <si>
     <t>004321016</t>
@@ -133,1299 +1439,6 @@
     <t>JOAQUIM</t>
   </si>
   <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
     <t>004318604</t>
   </si>
   <si>
@@ -1634,9 +1647,6 @@
   </si>
   <si>
     <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004552021</t>
   </si>
   <si>
     <t>004994036</t>
@@ -2302,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C397"/>
+  <dimension ref="A1:C396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2373,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>53602.58</v>
+        <v>50664.74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2384,7 +2394,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>51460.33</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2395,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>50664.74</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2406,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>23481.03</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2417,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>25790.959999999999</v>
+        <v>21560.32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2428,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>25000</v>
+        <v>18325.11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2439,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>21560.32</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2450,7 +2460,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>18325.11</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2461,7 +2471,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>15027.11</v>
+        <v>10138.73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2472,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>13566.65</v>
+        <v>6153.07</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2483,7 +2493,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>10038.73</v>
+        <v>4628.26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2494,7 +2504,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>6153.07</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2502,43 +2512,43 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>3869.68</v>
+        <v>2640.99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19">
-        <v>3153.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20">
-        <v>2691.13</v>
+        <v>2073.7199999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
       <c r="C21">
-        <v>2640.99</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2549,7 +2559,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2300</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2560,7 +2570,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2073.7199999999998</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2568,87 +2578,87 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>1239.45</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
       <c r="C25">
-        <v>1212.6400000000001</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
       <c r="C26">
-        <v>991.44</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27">
-        <v>988.88</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>953.43</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
       <c r="C29">
-        <v>944.11</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30">
-        <v>938.8</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
       <c r="C31">
-        <v>932.86</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2659,7 +2669,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>930.54</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2670,7 +2680,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>891.04</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2681,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>885.13</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2692,7 +2702,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>884.67</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2703,7 +2713,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>883.13</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2714,7 +2724,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>872.41</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2725,7 +2735,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>867.93</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2736,7 +2746,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>864.35</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2747,7 +2757,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>849.45</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2758,7 +2768,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>845.19</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2769,7 +2779,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>833.03</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2780,7 +2790,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>820.67</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2788,131 +2798,131 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>817.72</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45">
-        <v>811.38</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46">
-        <v>810.41</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47">
-        <v>803.76</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>802.88</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49">
-        <v>802.18</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>798.23</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>787.45</v>
+        <v>743.01</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>768.88</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53">
-        <v>761.35</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54">
-        <v>747.96</v>
+        <v>729.28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C55">
-        <v>743.01</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2923,7 +2933,7 @@
         <v>108</v>
       </c>
       <c r="C56">
-        <v>739.38</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2931,32 +2941,32 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C57">
-        <v>732.94</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
-        <v>112</v>
-      </c>
       <c r="C58">
-        <v>729.28</v>
+        <v>703</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
         <v>113</v>
       </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
       <c r="C59">
-        <v>723.26</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2964,21 +2974,21 @@
         <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="C60">
-        <v>714.2</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
       <c r="C61">
-        <v>710.16</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2989,7 +2999,7 @@
         <v>118</v>
       </c>
       <c r="C62">
-        <v>703</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3000,7 +3010,7 @@
         <v>120</v>
       </c>
       <c r="C63">
-        <v>685.96</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3008,32 +3018,32 @@
         <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C64">
-        <v>664.2</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65">
-        <v>655.11</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="C66">
-        <v>651</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3044,7 +3054,7 @@
         <v>127</v>
       </c>
       <c r="C67">
-        <v>645.16999999999996</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3055,7 +3065,7 @@
         <v>129</v>
       </c>
       <c r="C68">
-        <v>636.76</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3063,54 +3073,54 @@
         <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C69">
-        <v>622.63</v>
+        <v>602.58000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>608.94000000000005</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
         <v>133</v>
       </c>
-      <c r="B71" t="s">
-        <v>134</v>
-      </c>
       <c r="C71">
-        <v>608.66999999999996</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
         <v>135</v>
       </c>
-      <c r="B72" t="s">
-        <v>136</v>
-      </c>
       <c r="C72">
-        <v>605.79</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
         <v>137</v>
       </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
       <c r="C73">
-        <v>596.41999999999996</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3121,7 +3131,7 @@
         <v>139</v>
       </c>
       <c r="C74">
-        <v>579.26</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3129,109 +3139,109 @@
         <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75">
-        <v>579.20000000000005</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
         <v>142</v>
       </c>
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
       <c r="C76">
-        <v>570.97</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="B77" t="s">
-        <v>145</v>
-      </c>
       <c r="C77">
-        <v>560.45000000000005</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C78">
-        <v>556.30999999999995</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>553.23</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80">
-        <v>544.76</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="C81">
-        <v>542.62</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C82">
-        <v>536.41999999999996</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
         <v>153</v>
       </c>
-      <c r="B83" t="s">
-        <v>154</v>
-      </c>
       <c r="C83">
-        <v>534.49</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
         <v>155</v>
       </c>
-      <c r="B84" t="s">
-        <v>30</v>
-      </c>
       <c r="C84">
-        <v>531.54</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3242,7 +3252,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>528.38</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3253,7 +3263,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>520.05999999999995</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3261,65 +3271,65 @@
         <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C87">
-        <v>509.7</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
         <v>162</v>
       </c>
-      <c r="B88" t="s">
-        <v>163</v>
-      </c>
       <c r="C88">
-        <v>470.68</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="C89">
-        <v>468.72</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C90">
-        <v>468.65</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
         <v>167</v>
       </c>
-      <c r="B91" t="s">
-        <v>168</v>
-      </c>
       <c r="C91">
-        <v>465.88</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
         <v>169</v>
       </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
       <c r="C92">
-        <v>465.38</v>
+        <v>460.33</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3327,65 +3337,65 @@
         <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="C93">
-        <v>463.52</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
         <v>172</v>
       </c>
-      <c r="B94" t="s">
-        <v>173</v>
-      </c>
       <c r="C94">
-        <v>462.44</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>459.98</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C96">
-        <v>453.33</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C97">
-        <v>451.86</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" t="s">
         <v>178</v>
       </c>
-      <c r="B98" t="s">
-        <v>168</v>
-      </c>
       <c r="C98">
-        <v>447.24</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3396,7 +3406,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>446.15</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3407,7 +3417,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>441.76</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3415,43 +3425,43 @@
         <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>429.52</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>418</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="C103">
-        <v>416.45</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" t="s">
         <v>188</v>
       </c>
-      <c r="B104" t="s">
-        <v>49</v>
-      </c>
       <c r="C104">
-        <v>415.42</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3462,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="C105">
-        <v>409.89</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3470,54 +3480,54 @@
         <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="C106">
-        <v>409.12</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" t="s">
         <v>193</v>
       </c>
-      <c r="B107" t="s">
-        <v>194</v>
-      </c>
       <c r="C107">
-        <v>407.94</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C108">
-        <v>404.34</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" t="s">
         <v>196</v>
       </c>
-      <c r="B109" t="s">
-        <v>197</v>
-      </c>
       <c r="C109">
-        <v>400.5</v>
+        <v>397.62</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
         <v>198</v>
       </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
       <c r="C110">
-        <v>400.01</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3528,7 +3538,7 @@
         <v>200</v>
       </c>
       <c r="C111">
-        <v>397.62</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3539,7 +3549,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>392.89</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3547,32 +3557,32 @@
         <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="C113">
-        <v>392.83</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" t="s">
         <v>205</v>
       </c>
-      <c r="B114" t="s">
-        <v>206</v>
-      </c>
       <c r="C114">
-        <v>380.46</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" t="s">
         <v>207</v>
       </c>
-      <c r="B115" t="s">
-        <v>22</v>
-      </c>
       <c r="C115">
-        <v>378.28</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3583,7 +3593,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>376.72</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3594,7 +3604,7 @@
         <v>211</v>
       </c>
       <c r="C117">
-        <v>374.97</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3602,43 +3612,43 @@
         <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>369.5</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>367.11</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="C120">
-        <v>347.34</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" t="s">
         <v>217</v>
       </c>
-      <c r="B121" t="s">
-        <v>6</v>
-      </c>
       <c r="C121">
-        <v>346.77</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3646,32 +3656,32 @@
         <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C122">
-        <v>345.51</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" t="s">
         <v>220</v>
       </c>
-      <c r="B123" t="s">
-        <v>221</v>
-      </c>
       <c r="C123">
-        <v>344.66</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" t="s">
         <v>222</v>
       </c>
-      <c r="B124" t="s">
-        <v>194</v>
-      </c>
       <c r="C124">
-        <v>344.22</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3679,32 +3689,32 @@
         <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>341.85</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" t="s">
         <v>225</v>
       </c>
-      <c r="B126" t="s">
-        <v>226</v>
-      </c>
       <c r="C126">
-        <v>338.66</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" t="s">
         <v>227</v>
       </c>
-      <c r="B127" t="s">
-        <v>6</v>
-      </c>
       <c r="C127">
-        <v>336.01</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3715,7 +3725,7 @@
         <v>229</v>
       </c>
       <c r="C128">
-        <v>333.95</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3726,7 +3736,7 @@
         <v>231</v>
       </c>
       <c r="C129">
-        <v>331.75</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3737,7 +3747,7 @@
         <v>233</v>
       </c>
       <c r="C130">
-        <v>331.38</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3748,7 +3758,7 @@
         <v>235</v>
       </c>
       <c r="C131">
-        <v>327.87</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3759,7 +3769,7 @@
         <v>237</v>
       </c>
       <c r="C132">
-        <v>323.66000000000003</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3770,7 +3780,7 @@
         <v>239</v>
       </c>
       <c r="C133">
-        <v>322.77</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3781,7 +3791,7 @@
         <v>241</v>
       </c>
       <c r="C134">
-        <v>316.35000000000002</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3792,7 +3802,7 @@
         <v>243</v>
       </c>
       <c r="C135">
-        <v>310.17</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3803,7 +3813,7 @@
         <v>245</v>
       </c>
       <c r="C136">
-        <v>304.47000000000003</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3814,7 +3824,7 @@
         <v>247</v>
       </c>
       <c r="C137">
-        <v>296.88</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3825,7 +3835,7 @@
         <v>249</v>
       </c>
       <c r="C138">
-        <v>290.31</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3833,32 +3843,32 @@
         <v>250</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C139">
-        <v>286.94</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B140" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C140">
-        <v>285.38</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C141">
-        <v>284.19</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3869,7 +3879,7 @@
         <v>256</v>
       </c>
       <c r="C142">
-        <v>283.02999999999997</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3877,32 +3887,32 @@
         <v>257</v>
       </c>
       <c r="B143" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="C143">
-        <v>271.19</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C144">
-        <v>271.16000000000003</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="C145">
-        <v>264.52999999999997</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3913,7 +3923,7 @@
         <v>263</v>
       </c>
       <c r="C146">
-        <v>261.82</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3921,10 +3931,10 @@
         <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C147">
-        <v>260.54000000000002</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3935,7 +3945,7 @@
         <v>266</v>
       </c>
       <c r="C148">
-        <v>259.88</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3943,10 +3953,10 @@
         <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C149">
-        <v>257.49</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3957,7 +3967,7 @@
         <v>269</v>
       </c>
       <c r="C150">
-        <v>256.77</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3965,32 +3975,32 @@
         <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="C151">
-        <v>256.26</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C152">
-        <v>246.75</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C153">
-        <v>245.07</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4001,7 +4011,7 @@
         <v>276</v>
       </c>
       <c r="C154">
-        <v>244.73</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4009,32 +4019,32 @@
         <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="C155">
-        <v>242.8</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C156">
-        <v>241.52</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="C157">
-        <v>241.07</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4045,7 +4055,7 @@
         <v>283</v>
       </c>
       <c r="C158">
-        <v>240.93</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4053,32 +4063,32 @@
         <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="C159">
-        <v>236.97</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C160">
-        <v>234.95</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="C161">
-        <v>228.33</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4089,7 +4099,7 @@
         <v>290</v>
       </c>
       <c r="C162">
-        <v>221.55</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4097,10 +4107,10 @@
         <v>291</v>
       </c>
       <c r="B163" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C163">
-        <v>219.44</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4111,7 +4121,7 @@
         <v>293</v>
       </c>
       <c r="C164">
-        <v>218.5</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4122,7 +4132,7 @@
         <v>295</v>
       </c>
       <c r="C165">
-        <v>205.79</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4130,21 +4140,21 @@
         <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="C166">
-        <v>203.87</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>297</v>
+      </c>
+      <c r="B167" t="s">
         <v>298</v>
       </c>
-      <c r="B167" t="s">
-        <v>204</v>
-      </c>
       <c r="C167">
-        <v>203.61</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4152,32 +4162,32 @@
         <v>299</v>
       </c>
       <c r="B168" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="C168">
-        <v>199.24</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C169">
-        <v>198.42</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>301</v>
+      </c>
+      <c r="B170" t="s">
         <v>302</v>
       </c>
-      <c r="B170" t="s">
-        <v>58</v>
-      </c>
       <c r="C170">
-        <v>198.38</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4185,21 +4195,21 @@
         <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="C171">
-        <v>197.42</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="C172">
-        <v>192.35</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4207,21 +4217,21 @@
         <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="C173">
-        <v>191.65</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>307</v>
+      </c>
+      <c r="B174" t="s">
         <v>308</v>
       </c>
-      <c r="B174" t="s">
-        <v>148</v>
-      </c>
       <c r="C174">
-        <v>187.16</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4229,32 +4239,32 @@
         <v>309</v>
       </c>
       <c r="B175" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="C175">
-        <v>186.38</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C176">
-        <v>178.9</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>139</v>
       </c>
       <c r="C177">
-        <v>178.22</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4262,21 +4272,21 @@
         <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="C178">
-        <v>178.17</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>315</v>
+      </c>
+      <c r="B179" t="s">
         <v>316</v>
       </c>
-      <c r="B179" t="s">
-        <v>145</v>
-      </c>
       <c r="C179">
-        <v>169.78</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4284,10 +4294,10 @@
         <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="C180">
-        <v>168.19</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4295,43 +4305,43 @@
         <v>318</v>
       </c>
       <c r="B181" t="s">
-        <v>319</v>
+        <v>50</v>
       </c>
       <c r="C181">
-        <v>167.87</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B182" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="C182">
-        <v>166.94</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C183">
-        <v>164.31</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" t="s">
         <v>322</v>
       </c>
-      <c r="B184" t="s">
-        <v>108</v>
-      </c>
       <c r="C184">
-        <v>162.96</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4339,10 +4349,10 @@
         <v>323</v>
       </c>
       <c r="B185" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C185">
-        <v>159.78</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4350,18 +4360,18 @@
         <v>324</v>
       </c>
       <c r="B186" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="C186">
-        <v>152.68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>326</v>
+      </c>
+      <c r="B187" t="s">
         <v>325</v>
-      </c>
-      <c r="B187" t="s">
-        <v>326</v>
       </c>
       <c r="C187">
         <v>150</v>
@@ -4372,21 +4382,21 @@
         <v>327</v>
       </c>
       <c r="B188" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C188">
-        <v>150</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="C189">
-        <v>148.74</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4394,32 +4404,32 @@
         <v>330</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>331</v>
       </c>
       <c r="C190">
-        <v>148.69999999999999</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B191" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C191">
-        <v>147.41</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B192" t="s">
-        <v>334</v>
+        <v>202</v>
       </c>
       <c r="C192">
-        <v>146.58000000000001</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4427,43 +4437,43 @@
         <v>335</v>
       </c>
       <c r="B193" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="C193">
-        <v>139.29</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C194">
-        <v>134.29</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B195" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C195">
-        <v>131.47</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="C196">
-        <v>129.91999999999999</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4471,43 +4481,43 @@
         <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="C197">
-        <v>129.80000000000001</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C198">
-        <v>128.16999999999999</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C199">
-        <v>124.93</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>8</v>
       </c>
       <c r="C200">
-        <v>120.91</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4515,54 +4525,54 @@
         <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C201">
-        <v>120.82</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B202" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C202">
-        <v>120.44</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C203">
-        <v>120.01</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C204">
-        <v>119.46</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B205" t="s">
-        <v>357</v>
+        <v>95</v>
       </c>
       <c r="C205">
-        <v>119.05</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4570,32 +4580,32 @@
         <v>358</v>
       </c>
       <c r="B206" t="s">
-        <v>102</v>
+        <v>359</v>
       </c>
       <c r="C206">
-        <v>118.62</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B207" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C207">
-        <v>117.74</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B208" t="s">
-        <v>362</v>
+        <v>127</v>
       </c>
       <c r="C208">
-        <v>116.42</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4603,10 +4613,10 @@
         <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C209">
-        <v>116.06</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4614,21 +4624,21 @@
         <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="C210">
-        <v>113.2</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="C211">
-        <v>110.29</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4636,21 +4646,21 @@
         <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="C212">
-        <v>107.6</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B213" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C213">
-        <v>107.14</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4658,21 +4668,21 @@
         <v>370</v>
       </c>
       <c r="B214" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C214">
-        <v>106.21</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B215" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C215">
-        <v>106.02</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4680,21 +4690,21 @@
         <v>373</v>
       </c>
       <c r="B216" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="C216">
-        <v>105.38</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B217" t="s">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="C217">
-        <v>104.99</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4702,32 +4712,32 @@
         <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="C218">
-        <v>102.96</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C219">
-        <v>102.6</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B220" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="C220">
-        <v>101.48</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4735,18 +4745,18 @@
         <v>381</v>
       </c>
       <c r="B221" t="s">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="C221">
-        <v>101.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B222" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="C222">
         <v>100</v>
@@ -4757,7 +4767,7 @@
         <v>384</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>385</v>
       </c>
       <c r="C223">
         <v>100</v>
@@ -4765,10 +4775,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B224" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C224">
         <v>100</v>
@@ -4776,10 +4786,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B225" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C225">
         <v>100</v>
@@ -4787,10 +4797,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B226" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C226">
         <v>100</v>
@@ -4798,10 +4808,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="C227">
         <v>100</v>
@@ -4812,7 +4822,7 @@
         <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>194</v>
+        <v>394</v>
       </c>
       <c r="C228">
         <v>100</v>
@@ -4820,10 +4830,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -4831,10 +4841,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -4842,10 +4852,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4853,24 +4863,24 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C232">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B233" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
       <c r="C233">
-        <v>98.02</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4878,21 +4888,21 @@
         <v>404</v>
       </c>
       <c r="B234" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="C234">
-        <v>97.08</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="C235">
-        <v>97.03</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4900,65 +4910,65 @@
         <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
       <c r="C236">
-        <v>96.49</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B237" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C237">
-        <v>95.43</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B238" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C238">
-        <v>95.12</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B239" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C239">
-        <v>94.34</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B240" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C240">
-        <v>94.23</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B241" t="s">
-        <v>417</v>
+        <v>285</v>
       </c>
       <c r="C241">
-        <v>92.85</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4966,10 +4976,10 @@
         <v>418</v>
       </c>
       <c r="B242" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="C242">
-        <v>91.39</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4977,21 +4987,21 @@
         <v>419</v>
       </c>
       <c r="B243" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C243">
-        <v>89.77</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>421</v>
+        <v>207</v>
       </c>
       <c r="C244">
-        <v>89.2</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4999,10 +5009,10 @@
         <v>422</v>
       </c>
       <c r="B245" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="C245">
-        <v>88.17</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5010,32 +5020,32 @@
         <v>423</v>
       </c>
       <c r="B246" t="s">
-        <v>98</v>
+        <v>424</v>
       </c>
       <c r="C246">
-        <v>87.45</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B247" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C247">
-        <v>87.25</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>427</v>
+        <v>285</v>
       </c>
       <c r="C248">
-        <v>86.45</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5043,10 +5053,10 @@
         <v>428</v>
       </c>
       <c r="B249" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="C249">
-        <v>86.38</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5054,10 +5064,10 @@
         <v>429</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C250">
-        <v>85.85</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5065,54 +5075,54 @@
         <v>430</v>
       </c>
       <c r="B251" t="s">
-        <v>22</v>
+        <v>431</v>
       </c>
       <c r="C251">
-        <v>85.71</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B252" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C252">
-        <v>85.65</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C253">
-        <v>84.2</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B254" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C254">
-        <v>83.73</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B255" t="s">
-        <v>438</v>
+        <v>48</v>
       </c>
       <c r="C255">
-        <v>83.66</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5120,21 +5130,21 @@
         <v>439</v>
       </c>
       <c r="B256" t="s">
-        <v>56</v>
+        <v>440</v>
       </c>
       <c r="C256">
-        <v>83.36</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B257" t="s">
-        <v>441</v>
+        <v>14</v>
       </c>
       <c r="C257">
-        <v>83.26</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5142,21 +5152,21 @@
         <v>442</v>
       </c>
       <c r="B258" t="s">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="C258">
-        <v>82.37</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B259" t="s">
-        <v>444</v>
+        <v>260</v>
       </c>
       <c r="C259">
-        <v>81.87</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5164,21 +5174,21 @@
         <v>445</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>446</v>
       </c>
       <c r="C260">
-        <v>81.739999999999995</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B261" t="s">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="C261">
-        <v>81.13</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5186,10 +5196,10 @@
         <v>448</v>
       </c>
       <c r="B262" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="C262">
-        <v>77.87</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5197,21 +5207,21 @@
         <v>449</v>
       </c>
       <c r="B263" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="C263">
-        <v>76.319999999999993</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B264" t="s">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="C264">
-        <v>75.86</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5219,21 +5229,21 @@
         <v>452</v>
       </c>
       <c r="B265" t="s">
-        <v>247</v>
+        <v>453</v>
       </c>
       <c r="C265">
-        <v>74.319999999999993</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B266" t="s">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="C266">
-        <v>73.239999999999995</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5241,32 +5251,32 @@
         <v>455</v>
       </c>
       <c r="B267" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="C267">
-        <v>72.56</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B268" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C268">
-        <v>72.2</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B269" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="C269">
-        <v>71.84</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5277,7 +5287,7 @@
         <v>461</v>
       </c>
       <c r="C270">
-        <v>71.569999999999993</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5285,21 +5295,21 @@
         <v>462</v>
       </c>
       <c r="B271" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="C271">
-        <v>71.31</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>463</v>
+      </c>
+      <c r="B272" t="s">
         <v>464</v>
       </c>
-      <c r="B272" t="s">
-        <v>337</v>
-      </c>
       <c r="C272">
-        <v>70.88</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5307,21 +5317,21 @@
         <v>465</v>
       </c>
       <c r="B273" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="C273">
-        <v>70.13</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>466</v>
+      </c>
+      <c r="B274" t="s">
         <v>467</v>
       </c>
-      <c r="B274" t="s">
-        <v>403</v>
-      </c>
       <c r="C274">
-        <v>69.84</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5351,7 +5361,7 @@
         <v>472</v>
       </c>
       <c r="B277" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C277">
         <v>66.989999999999995</v>
@@ -5373,7 +5383,7 @@
         <v>475</v>
       </c>
       <c r="B279" t="s">
-        <v>461</v>
+        <v>32</v>
       </c>
       <c r="C279">
         <v>65.83</v>
@@ -5384,7 +5394,7 @@
         <v>476</v>
       </c>
       <c r="B280" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C280">
         <v>61.65</v>
@@ -5406,7 +5416,7 @@
         <v>479</v>
       </c>
       <c r="B282" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C282">
         <v>61.04</v>
@@ -5450,7 +5460,7 @@
         <v>486</v>
       </c>
       <c r="B286" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C286">
         <v>58.37</v>
@@ -5461,7 +5471,7 @@
         <v>487</v>
       </c>
       <c r="B287" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C287">
         <v>57.82</v>
@@ -5505,7 +5515,7 @@
         <v>494</v>
       </c>
       <c r="B291" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C291">
         <v>50</v>
@@ -5527,7 +5537,7 @@
         <v>497</v>
       </c>
       <c r="B293" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C293">
         <v>48.16</v>
@@ -5538,7 +5548,7 @@
         <v>498</v>
       </c>
       <c r="B294" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C294">
         <v>47</v>
@@ -5549,7 +5559,7 @@
         <v>499</v>
       </c>
       <c r="B295" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C295">
         <v>46.92</v>
@@ -5560,7 +5570,7 @@
         <v>500</v>
       </c>
       <c r="B296" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C296">
         <v>44.89</v>
@@ -5571,7 +5581,7 @@
         <v>501</v>
       </c>
       <c r="B297" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C297">
         <v>44.34</v>
@@ -5582,7 +5592,7 @@
         <v>502</v>
       </c>
       <c r="B298" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C298">
         <v>43.86</v>
@@ -5593,7 +5603,7 @@
         <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C299">
         <v>43.07</v>
@@ -5604,7 +5614,7 @@
         <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C300">
         <v>43</v>
@@ -5626,7 +5636,7 @@
         <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C302">
         <v>42.57</v>
@@ -5648,7 +5658,7 @@
         <v>509</v>
       </c>
       <c r="B304" t="s">
-        <v>461</v>
+        <v>32</v>
       </c>
       <c r="C304">
         <v>41.74</v>
@@ -5670,7 +5680,7 @@
         <v>512</v>
       </c>
       <c r="B306" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C306">
         <v>40.869999999999997</v>
@@ -5681,7 +5691,7 @@
         <v>513</v>
       </c>
       <c r="B307" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C307">
         <v>40.799999999999997</v>
@@ -5692,7 +5702,7 @@
         <v>514</v>
       </c>
       <c r="B308" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C308">
         <v>39.68</v>
@@ -5714,7 +5724,7 @@
         <v>516</v>
       </c>
       <c r="B310" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C310">
         <v>38.159999999999997</v>
@@ -5725,7 +5735,7 @@
         <v>517</v>
       </c>
       <c r="B311" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C311">
         <v>37.44</v>
@@ -5736,7 +5746,7 @@
         <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C312">
         <v>36.81</v>
@@ -5747,7 +5757,7 @@
         <v>519</v>
       </c>
       <c r="B313" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C313">
         <v>36.590000000000003</v>
@@ -5802,7 +5812,7 @@
         <v>528</v>
       </c>
       <c r="B318" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C318">
         <v>32.64</v>
@@ -5813,7 +5823,7 @@
         <v>529</v>
       </c>
       <c r="B319" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C319">
         <v>32.229999999999997</v>
@@ -5824,7 +5834,7 @@
         <v>530</v>
       </c>
       <c r="B320" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C320">
         <v>32.14</v>
@@ -5835,7 +5845,7 @@
         <v>531</v>
       </c>
       <c r="B321" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C321">
         <v>31.82</v>
@@ -5846,7 +5856,7 @@
         <v>532</v>
       </c>
       <c r="B322" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C322">
         <v>31.1</v>
@@ -5857,7 +5867,7 @@
         <v>533</v>
       </c>
       <c r="B323" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C323">
         <v>31.09</v>
@@ -5868,7 +5878,7 @@
         <v>534</v>
       </c>
       <c r="B324" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C324">
         <v>30.32</v>
@@ -5879,7 +5889,7 @@
         <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C325">
         <v>29.91</v>
@@ -5901,21 +5911,21 @@
         <v>538</v>
       </c>
       <c r="B327" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="C327">
-        <v>28.26</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B328" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
       <c r="C328">
-        <v>27.18</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5923,32 +5933,32 @@
         <v>541</v>
       </c>
       <c r="B329" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="C329">
-        <v>26.74</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C330">
-        <v>26.25</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B331" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C331">
-        <v>25.41</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5956,65 +5966,65 @@
         <v>546</v>
       </c>
       <c r="B332" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="C332">
-        <v>25.08</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B333" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C333">
-        <v>23.89</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B334" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C334">
-        <v>22.3</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B335" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C335">
-        <v>22.16</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B336" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C336">
-        <v>21.71</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B337" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
       <c r="C337">
-        <v>21.27</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6022,10 +6032,10 @@
         <v>557</v>
       </c>
       <c r="B338" t="s">
-        <v>438</v>
+        <v>48</v>
       </c>
       <c r="C338">
-        <v>20.9</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6033,21 +6043,21 @@
         <v>558</v>
       </c>
       <c r="B339" t="s">
-        <v>56</v>
+        <v>559</v>
       </c>
       <c r="C339">
-        <v>19.600000000000001</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B340" t="s">
-        <v>560</v>
+        <v>99</v>
       </c>
       <c r="C340">
-        <v>19.38</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6055,10 +6065,10 @@
         <v>561</v>
       </c>
       <c r="B341" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="C341">
-        <v>19.149999999999999</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6066,10 +6076,10 @@
         <v>562</v>
       </c>
       <c r="B342" t="s">
-        <v>461</v>
+        <v>153</v>
       </c>
       <c r="C342">
-        <v>19.079999999999998</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6077,32 +6087,32 @@
         <v>563</v>
       </c>
       <c r="B343" t="s">
-        <v>159</v>
+        <v>564</v>
       </c>
       <c r="C343">
-        <v>18.8</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C344">
-        <v>17.86</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B345" t="s">
-        <v>567</v>
+        <v>81</v>
       </c>
       <c r="C345">
-        <v>16.78</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6110,10 +6120,10 @@
         <v>568</v>
       </c>
       <c r="B346" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="C346">
-        <v>16.72</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6121,10 +6131,10 @@
         <v>569</v>
       </c>
       <c r="B347" t="s">
-        <v>392</v>
+        <v>245</v>
       </c>
       <c r="C347">
-        <v>16.54</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6132,10 +6142,10 @@
         <v>570</v>
       </c>
       <c r="B348" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C348">
-        <v>15.92</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6143,43 +6153,43 @@
         <v>571</v>
       </c>
       <c r="B349" t="s">
-        <v>276</v>
+        <v>572</v>
       </c>
       <c r="C349">
-        <v>15.86</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B350" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C350">
-        <v>15.42</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B351" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C351">
-        <v>14.67</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B352" t="s">
-        <v>577</v>
+        <v>162</v>
       </c>
       <c r="C352">
-        <v>14.28</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6187,32 +6197,32 @@
         <v>578</v>
       </c>
       <c r="B353" t="s">
-        <v>168</v>
+        <v>579</v>
       </c>
       <c r="C353">
-        <v>13.84</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B354" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C354">
-        <v>13.67</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B355" t="s">
-        <v>582</v>
+        <v>237</v>
       </c>
       <c r="C355">
-        <v>13.63</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6220,10 +6230,10 @@
         <v>583</v>
       </c>
       <c r="B356" t="s">
-        <v>241</v>
+        <v>566</v>
       </c>
       <c r="C356">
-        <v>13.55</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6231,10 +6241,10 @@
         <v>584</v>
       </c>
       <c r="B357" t="s">
-        <v>567</v>
+        <v>379</v>
       </c>
       <c r="C357">
-        <v>12.88</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6242,21 +6252,21 @@
         <v>585</v>
       </c>
       <c r="B358" t="s">
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="C358">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B359" t="s">
-        <v>587</v>
+        <v>24</v>
       </c>
       <c r="C359">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6264,21 +6274,21 @@
         <v>588</v>
       </c>
       <c r="B360" t="s">
-        <v>28</v>
+        <v>589</v>
       </c>
       <c r="C360">
-        <v>12.5</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B361" t="s">
-        <v>590</v>
+        <v>16</v>
       </c>
       <c r="C361">
-        <v>12.48</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6286,10 +6296,10 @@
         <v>591</v>
       </c>
       <c r="B362" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="C362">
-        <v>11.96</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6297,10 +6307,10 @@
         <v>592</v>
       </c>
       <c r="B363" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="C363">
-        <v>11.63</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6308,10 +6318,10 @@
         <v>593</v>
       </c>
       <c r="B364" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C364">
-        <v>10.43</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6319,10 +6329,10 @@
         <v>594</v>
       </c>
       <c r="B365" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="C365">
-        <v>9.85</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6330,21 +6340,21 @@
         <v>595</v>
       </c>
       <c r="B366" t="s">
-        <v>211</v>
+        <v>596</v>
       </c>
       <c r="C366">
-        <v>9.77</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B367" t="s">
-        <v>597</v>
+        <v>190</v>
       </c>
       <c r="C367">
-        <v>9.7200000000000006</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6352,21 +6362,21 @@
         <v>598</v>
       </c>
       <c r="B368" t="s">
-        <v>194</v>
+        <v>599</v>
       </c>
       <c r="C368">
-        <v>9.49</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B369" t="s">
-        <v>600</v>
+        <v>202</v>
       </c>
       <c r="C369">
-        <v>8.4499999999999993</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6374,10 +6384,10 @@
         <v>601</v>
       </c>
       <c r="B370" t="s">
-        <v>206</v>
+        <v>443</v>
       </c>
       <c r="C370">
-        <v>8.44</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6385,21 +6395,21 @@
         <v>602</v>
       </c>
       <c r="B371" t="s">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="C371">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>604</v>
+        <v>95</v>
       </c>
       <c r="C372">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6407,10 +6417,10 @@
         <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>102</v>
+        <v>511</v>
       </c>
       <c r="C373">
-        <v>7.6</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6418,43 +6428,43 @@
         <v>606</v>
       </c>
       <c r="B374" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="C374">
-        <v>7.51</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B375" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C375">
-        <v>7.47</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B376" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C376">
-        <v>6.58</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B377" t="s">
-        <v>612</v>
+        <v>285</v>
       </c>
       <c r="C377">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6462,10 +6472,10 @@
         <v>613</v>
       </c>
       <c r="B378" t="s">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="C378">
-        <v>5.55</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6473,10 +6483,10 @@
         <v>614</v>
       </c>
       <c r="B379" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="C379">
-        <v>5.16</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6484,10 +6494,10 @@
         <v>615</v>
       </c>
       <c r="B380" t="s">
-        <v>286</v>
+        <v>525</v>
       </c>
       <c r="C380">
-        <v>4.3600000000000003</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6495,21 +6505,21 @@
         <v>616</v>
       </c>
       <c r="B381" t="s">
-        <v>525</v>
+        <v>617</v>
       </c>
       <c r="C381">
-        <v>2.41</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B382" t="s">
-        <v>618</v>
+        <v>410</v>
       </c>
       <c r="C382">
-        <v>2.3199999999999998</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6517,32 +6527,32 @@
         <v>619</v>
       </c>
       <c r="B383" t="s">
-        <v>411</v>
+        <v>620</v>
       </c>
       <c r="C383">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B384" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C384">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B385" t="s">
-        <v>623</v>
+        <v>16</v>
       </c>
       <c r="C385">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6550,10 +6560,10 @@
         <v>624</v>
       </c>
       <c r="B386" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C386">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6561,10 +6571,10 @@
         <v>625</v>
       </c>
       <c r="B387" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C387">
-        <v>0.69</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6572,10 +6582,10 @@
         <v>626</v>
       </c>
       <c r="B388" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C388">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6583,7 +6593,7 @@
         <v>627</v>
       </c>
       <c r="B389" t="s">
-        <v>286</v>
+        <v>628</v>
       </c>
       <c r="C389">
         <v>0.55000000000000004</v>
@@ -6591,24 +6601,24 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B390" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C390">
-        <v>0.55000000000000004</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B391" t="s">
-        <v>631</v>
+        <v>350</v>
       </c>
       <c r="C391">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6616,7 +6626,7 @@
         <v>632</v>
       </c>
       <c r="B392" t="s">
-        <v>351</v>
+        <v>633</v>
       </c>
       <c r="C392">
         <v>0.03</v>
@@ -6624,13 +6634,13 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B393" t="s">
-        <v>634</v>
+        <v>6</v>
       </c>
       <c r="C393">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6638,26 +6648,15 @@
         <v>635</v>
       </c>
       <c r="B394" t="s">
-        <v>6</v>
+        <v>636</v>
       </c>
       <c r="C394">
         <v>0.01</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="A395" t="s">
-        <v>636</v>
-      </c>
-      <c r="B395" t="s">
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
         <v>637</v>
-      </c>
-      <c r="C395">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5E01F3-06E5-435B-8B88-1699AB4ED338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{030E2667-9BC4-4C59-9ADC-C2F32820F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:C396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{030E2667-9BC4-4C59-9ADC-C2F32820F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8701740F-D6F0-4534-90ED-497D027DB350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="644">
   <si>
     <t>CONTA</t>
   </si>
@@ -44,6 +31,18 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t>004329441</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>004432579</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
     <t>001922009</t>
   </si>
   <si>
@@ -56,22 +55,52 @@
     <t>GUILHERME</t>
   </si>
   <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
     <t>004482439</t>
   </si>
   <si>
     <t>PEDRO</t>
   </si>
   <si>
-    <t>004329441</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004458624</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
   </si>
   <si>
     <t>004254210</t>
@@ -80,10 +109,67 @@
     <t>MARCO</t>
   </si>
   <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>ANA</t>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004884046</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
   </si>
   <si>
     <t>004512434</t>
@@ -92,40 +178,25 @@
     <t>CAIO</t>
   </si>
   <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
   </si>
   <si>
     <t>004552021</t>
@@ -134,33 +205,6 @@
     <t>MARIA</t>
   </si>
   <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
     <t>004382902</t>
   </si>
   <si>
@@ -254,9 +298,6 @@
     <t>004505474</t>
   </si>
   <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
     <t>004216504</t>
   </si>
   <si>
@@ -641,9 +682,6 @@
     <t>004289402</t>
   </si>
   <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
     <t>005032151</t>
   </si>
   <si>
@@ -779,12 +817,6 @@
     <t>ANDRE</t>
   </si>
   <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
     <t>004238436</t>
   </si>
   <si>
@@ -1127,12 +1159,6 @@
     <t>000772433</t>
   </si>
   <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
     <t>004972351</t>
   </si>
   <si>
@@ -1154,12 +1180,6 @@
     <t>005152037</t>
   </si>
   <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
     <t>004854514</t>
   </si>
   <si>
@@ -1223,9 +1243,6 @@
     <t>004886366</t>
   </si>
   <si>
-    <t>RENATO</t>
-  </si>
-  <si>
     <t>005101676</t>
   </si>
   <si>
@@ -1355,9 +1372,6 @@
     <t>005173958</t>
   </si>
   <si>
-    <t>VENIA</t>
-  </si>
-  <si>
     <t>004240292</t>
   </si>
   <si>
@@ -1661,9 +1675,6 @@
     <t>002277249</t>
   </si>
   <si>
-    <t>DANILO</t>
-  </si>
-  <si>
     <t>004482090</t>
   </si>
   <si>
@@ -1863,12 +1874,6 @@
   </si>
   <si>
     <t>THEO</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
   </si>
   <si>
     <t>004448501</t>
@@ -2312,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2339,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>107285.49</v>
+        <v>129164.89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2350,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>84533.8</v>
+        <v>108387.16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2361,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>66090.740000000005</v>
+        <v>107285.49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2372,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>62515.28</v>
+        <v>84533.8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2383,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>50664.74</v>
+        <v>77077.77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2394,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>25790.959999999999</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2405,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>25000</v>
+        <v>63355.91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2416,7 +2421,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>23481.03</v>
+        <v>60788.61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2427,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>21560.32</v>
+        <v>55689.97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2435,186 +2440,186 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>18325.11</v>
+        <v>34124.239999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>15027.11</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>13566.65</v>
+        <v>32842.589999999997</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>10138.73</v>
+        <v>32828.06</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>6153.07</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>4628.26</v>
+        <v>21560.32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>2691.13</v>
+        <v>18325.11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>2640.99</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
       <c r="C19">
-        <v>2300</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
       <c r="C20">
-        <v>2073.7199999999998</v>
+        <v>12786.35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
       <c r="C21">
-        <v>1239.45</v>
+        <v>12670.31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>991.44</v>
+        <v>11280.26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>988.88</v>
+        <v>10248.209999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>953.43</v>
+        <v>10138.73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
       <c r="C25">
-        <v>944.11</v>
+        <v>7714.42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
       <c r="C26">
-        <v>938.8</v>
+        <v>6256.5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
       <c r="C27">
-        <v>932.86</v>
+        <v>4481.03</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2625,7 +2630,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>930.54</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2633,461 +2638,461 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>891.04</v>
+        <v>2640.99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
       <c r="C30">
-        <v>885.13</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
       <c r="C31">
-        <v>884.67</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
       <c r="C32">
-        <v>883.13</v>
+        <v>1083.32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
       <c r="C33">
-        <v>872.41</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
       <c r="C34">
-        <v>867.93</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>864.35</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36">
-        <v>849.45</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37">
-        <v>845.19</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38">
-        <v>833.03</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39">
-        <v>820.67</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40">
-        <v>817.72</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41">
-        <v>811.38</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42">
-        <v>810.41</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>803.76</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44">
-        <v>802.88</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45">
-        <v>802.18</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C46">
-        <v>798.23</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47">
-        <v>787.45</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48">
-        <v>768.88</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>761.35</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C50">
-        <v>747.96</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C51">
-        <v>743.01</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C52">
-        <v>739.38</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>732.94</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C54">
-        <v>729.28</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C55">
-        <v>723.26</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C56">
-        <v>714.2</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C57">
-        <v>710.16</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58">
-        <v>703</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59">
-        <v>685.96</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C60">
-        <v>664.2</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
       <c r="C61">
-        <v>655.11</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
         <v>117</v>
       </c>
-      <c r="B62" t="s">
-        <v>118</v>
-      </c>
       <c r="C62">
-        <v>651</v>
+        <v>743.06</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
       <c r="C63">
-        <v>645.16999999999996</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
         <v>121</v>
       </c>
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
       <c r="C64">
-        <v>636.76</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
       <c r="C65">
-        <v>622.63</v>
+        <v>729.28</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C66">
-        <v>608.94000000000005</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
       <c r="C67">
-        <v>608.66999999999996</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>605.79</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C69">
-        <v>602.58000000000004</v>
+        <v>703</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
         <v>131</v>
       </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
       <c r="C70">
-        <v>596.41999999999996</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3095,54 +3100,54 @@
         <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C71">
-        <v>579.26</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
         <v>134</v>
       </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
       <c r="C72">
-        <v>579.20000000000005</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
         <v>136</v>
       </c>
-      <c r="B73" t="s">
-        <v>137</v>
-      </c>
       <c r="C73">
-        <v>570.97</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-      <c r="B74" t="s">
-        <v>139</v>
-      </c>
       <c r="C74">
-        <v>560.45000000000005</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" t="s">
         <v>140</v>
       </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
       <c r="C75">
-        <v>556.30999999999995</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3153,7 +3158,7 @@
         <v>142</v>
       </c>
       <c r="C76">
-        <v>553.23</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3161,21 +3166,21 @@
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C77">
-        <v>544.76</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" t="s">
         <v>145</v>
       </c>
-      <c r="B78" t="s">
-        <v>120</v>
-      </c>
       <c r="C78">
-        <v>542.62</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3183,21 +3188,21 @@
         <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C79">
-        <v>536.41999999999996</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C80">
-        <v>534.49</v>
+        <v>602.58000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3205,10 +3210,10 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>531.54</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3219,7 +3224,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>528.38</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3230,7 +3235,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>520.05999999999995</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3241,7 +3246,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>509.7</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3252,7 +3257,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>470.68</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3260,21 +3265,21 @@
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C86">
-        <v>468.72</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
         <v>160</v>
       </c>
-      <c r="B87" t="s">
-        <v>24</v>
-      </c>
       <c r="C87">
-        <v>468.65</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3285,7 +3290,7 @@
         <v>162</v>
       </c>
       <c r="C88">
-        <v>465.88</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3293,10 +3298,10 @@
         <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C89">
-        <v>465.38</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3304,65 +3309,65 @@
         <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>463.52</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" t="s">
         <v>166</v>
       </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
       <c r="C91">
-        <v>462.44</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="C92">
-        <v>460.33</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="C93">
-        <v>459.98</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
         <v>171</v>
       </c>
-      <c r="B94" t="s">
-        <v>172</v>
-      </c>
       <c r="C94">
-        <v>453.33</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
         <v>173</v>
       </c>
-      <c r="B95" t="s">
-        <v>28</v>
-      </c>
       <c r="C95">
-        <v>451.86</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3370,32 +3375,32 @@
         <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C96">
-        <v>447.24</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97">
-        <v>446.15</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>441.76</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3406,7 +3411,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>429.52</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3414,21 +3419,21 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>418</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" t="s">
         <v>183</v>
       </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
       <c r="C101">
-        <v>416.45</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3436,32 +3441,32 @@
         <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="C102">
-        <v>415.42</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C103">
-        <v>409.89</v>
+        <v>460.33</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="C104">
-        <v>409.12</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3472,7 +3477,7 @@
         <v>190</v>
       </c>
       <c r="C105">
-        <v>407.94</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3480,10 +3485,10 @@
         <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C106">
-        <v>404.34</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3491,21 +3496,21 @@
         <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C107">
-        <v>400.5</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" t="s">
         <v>194</v>
       </c>
-      <c r="B108" t="s">
-        <v>77</v>
-      </c>
       <c r="C108">
-        <v>400.01</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3516,7 +3521,7 @@
         <v>196</v>
       </c>
       <c r="C109">
-        <v>397.62</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3527,7 +3532,7 @@
         <v>198</v>
       </c>
       <c r="C110">
-        <v>392.89</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3538,7 +3543,7 @@
         <v>200</v>
       </c>
       <c r="C111">
-        <v>392.83</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3546,120 +3551,120 @@
         <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="C112">
-        <v>380.46</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C113">
-        <v>378.28</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" t="s">
         <v>204</v>
       </c>
-      <c r="B114" t="s">
-        <v>205</v>
-      </c>
       <c r="C114">
-        <v>376.72</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
         <v>206</v>
       </c>
-      <c r="B115" t="s">
-        <v>207</v>
-      </c>
       <c r="C115">
-        <v>374.97</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
         <v>208</v>
       </c>
-      <c r="B116" t="s">
-        <v>209</v>
-      </c>
       <c r="C116">
-        <v>369.5</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="C117">
-        <v>367.11</v>
+        <v>404.34</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="C118">
-        <v>347.34</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C119">
-        <v>346.77</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>213</v>
+      </c>
+      <c r="B120" t="s">
         <v>214</v>
       </c>
-      <c r="B120" t="s">
-        <v>215</v>
-      </c>
       <c r="C120">
-        <v>345.51</v>
+        <v>397.62</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
         <v>216</v>
       </c>
-      <c r="B121" t="s">
-        <v>217</v>
-      </c>
       <c r="C121">
-        <v>344.66</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" t="s">
         <v>218</v>
       </c>
-      <c r="B122" t="s">
-        <v>190</v>
-      </c>
       <c r="C122">
-        <v>344.22</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3667,516 +3672,516 @@
         <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="C123">
-        <v>341.85</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>338.66</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="C125">
-        <v>336.01</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" t="s">
         <v>224</v>
       </c>
-      <c r="B126" t="s">
-        <v>225</v>
-      </c>
       <c r="C126">
-        <v>333.95</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" t="s">
         <v>226</v>
       </c>
-      <c r="B127" t="s">
-        <v>227</v>
-      </c>
       <c r="C127">
-        <v>331.75</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" t="s">
         <v>228</v>
       </c>
-      <c r="B128" t="s">
-        <v>229</v>
-      </c>
       <c r="C128">
-        <v>331.38</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>327.87</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="C130">
-        <v>323.66000000000003</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>322.77</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C132">
-        <v>316.35000000000002</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="C133">
-        <v>310.17</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C134">
-        <v>304.47000000000003</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C135">
-        <v>296.88</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>290.31</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C137">
-        <v>286.94</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C138">
-        <v>285.38</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C139">
-        <v>284.19</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B140" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C140">
-        <v>283.02999999999997</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="C141">
-        <v>271.19</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C142">
-        <v>271.16000000000003</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C143">
-        <v>264.52999999999997</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C144">
-        <v>261.82</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="C145">
-        <v>260.54000000000002</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C146">
-        <v>259.88</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C147">
-        <v>257.49</v>
+        <v>290.32</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C148">
-        <v>256.77</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="C149">
-        <v>256.26</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" t="s">
         <v>268</v>
       </c>
-      <c r="B150" t="s">
-        <v>269</v>
-      </c>
       <c r="C150">
-        <v>246.75</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B151" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="C151">
-        <v>245.07</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C152">
-        <v>244.73</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C153">
-        <v>242.8</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" t="s">
         <v>275</v>
       </c>
-      <c r="B154" t="s">
-        <v>276</v>
-      </c>
       <c r="C154">
-        <v>241.52</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="C155">
-        <v>241.07</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>240.93</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C157">
-        <v>236.97</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C158">
-        <v>234.95</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="C159">
-        <v>228.33</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C160">
-        <v>221.55</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="C161">
-        <v>219.44</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C162">
-        <v>218.5</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="C163">
-        <v>214.1</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C164">
-        <v>205.79</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C165">
-        <v>203.87</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="C166">
-        <v>203.61</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="C167">
-        <v>199.24</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="C168">
-        <v>198.42</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>299</v>
+      </c>
+      <c r="B169" t="s">
         <v>300</v>
       </c>
-      <c r="B169" t="s">
-        <v>202</v>
-      </c>
       <c r="C169">
-        <v>197.42</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4187,7 +4192,7 @@
         <v>302</v>
       </c>
       <c r="C170">
-        <v>192.35</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4195,21 +4200,21 @@
         <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>304</v>
+        <v>119</v>
       </c>
       <c r="C171">
-        <v>191.65</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>304</v>
+      </c>
+      <c r="B172" t="s">
         <v>305</v>
       </c>
-      <c r="B172" t="s">
-        <v>142</v>
-      </c>
       <c r="C172">
-        <v>187.16</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4217,10 +4222,10 @@
         <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="C173">
-        <v>186.38</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4231,7 +4236,7 @@
         <v>308</v>
       </c>
       <c r="C174">
-        <v>178.9</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4242,7 +4247,7 @@
         <v>310</v>
       </c>
       <c r="C175">
-        <v>178.22</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4250,21 +4255,21 @@
         <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="C176">
-        <v>178.17</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" t="s">
         <v>313</v>
       </c>
-      <c r="B177" t="s">
-        <v>139</v>
-      </c>
       <c r="C177">
-        <v>169.78</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4272,10 +4277,10 @@
         <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C178">
-        <v>168.19</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4283,21 +4288,21 @@
         <v>315</v>
       </c>
       <c r="B179" t="s">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="C179">
-        <v>167.87</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>316</v>
+      </c>
+      <c r="B180" t="s">
         <v>317</v>
       </c>
-      <c r="B180" t="s">
-        <v>266</v>
-      </c>
       <c r="C180">
-        <v>166.94</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4305,120 +4310,120 @@
         <v>318</v>
       </c>
       <c r="B181" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="C181">
-        <v>164.31</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B182" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="C182">
-        <v>162.96</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="C183">
-        <v>159.78</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C184">
-        <v>153.30000000000001</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="C185">
-        <v>152.68</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B186" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C186">
-        <v>150</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B187" t="s">
-        <v>325</v>
+        <v>157</v>
       </c>
       <c r="C187">
-        <v>150</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="C188">
-        <v>148.74</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B189" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="C189">
-        <v>148.69999999999999</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B190" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="C190">
-        <v>147.41</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B191" t="s">
-        <v>333</v>
+        <v>69</v>
       </c>
       <c r="C191">
-        <v>146.58000000000001</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4426,10 +4431,10 @@
         <v>334</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="C192">
-        <v>139.29</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4437,230 +4442,230 @@
         <v>335</v>
       </c>
       <c r="B193" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="C193">
-        <v>134.29</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>336</v>
+      </c>
+      <c r="B194" t="s">
         <v>337</v>
       </c>
-      <c r="B194" t="s">
-        <v>338</v>
-      </c>
       <c r="C194">
-        <v>131.47</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B195" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="C195">
-        <v>129.91999999999999</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="C196">
-        <v>129.80000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C197">
-        <v>128.16999999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B198" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C198">
-        <v>124.93</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B199" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="C199">
-        <v>120.91</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="C200">
-        <v>120.82</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B201" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C201">
-        <v>120.44</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>47</v>
       </c>
       <c r="C202">
-        <v>120.01</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C203">
-        <v>119.46</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B204" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C204">
-        <v>119.05</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B205" t="s">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="C205">
-        <v>118.62</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B206" t="s">
-        <v>359</v>
+        <v>200</v>
       </c>
       <c r="C206">
-        <v>117.74</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C207">
-        <v>116.42</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>127</v>
+        <v>360</v>
       </c>
       <c r="C208">
-        <v>116.06</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B209" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="C209">
-        <v>113.2</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>14</v>
       </c>
       <c r="C210">
-        <v>110.29</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="C211">
-        <v>107.6</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>366</v>
+      </c>
+      <c r="B212" t="s">
         <v>367</v>
       </c>
-      <c r="B212" t="s">
-        <v>368</v>
-      </c>
       <c r="C212">
-        <v>107.14</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>368</v>
+      </c>
+      <c r="B213" t="s">
         <v>369</v>
       </c>
-      <c r="B213" t="s">
-        <v>350</v>
-      </c>
       <c r="C213">
-        <v>106.21</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4671,7 +4676,7 @@
         <v>371</v>
       </c>
       <c r="C214">
-        <v>106.02</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4679,10 +4684,10 @@
         <v>372</v>
       </c>
       <c r="B215" t="s">
-        <v>340</v>
+        <v>113</v>
       </c>
       <c r="C215">
-        <v>105.38</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4693,7 +4698,7 @@
         <v>374</v>
       </c>
       <c r="C216">
-        <v>104.99</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4701,21 +4706,21 @@
         <v>375</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="C217">
-        <v>102.96</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B218" t="s">
-        <v>377</v>
+        <v>145</v>
       </c>
       <c r="C218">
-        <v>102.6</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4723,117 +4728,117 @@
         <v>378</v>
       </c>
       <c r="B219" t="s">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="C219">
-        <v>101.48</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B220" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C220">
-        <v>101.15</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
+        <v>380</v>
+      </c>
+      <c r="B221" t="s">
         <v>381</v>
       </c>
-      <c r="B221" t="s">
-        <v>382</v>
-      </c>
       <c r="C221">
-        <v>100</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B222" t="s">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C222">
-        <v>100</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" t="s">
         <v>384</v>
       </c>
-      <c r="B223" t="s">
-        <v>385</v>
-      </c>
       <c r="C223">
-        <v>100</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B224" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C224">
-        <v>100</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B225" t="s">
-        <v>389</v>
+        <v>32</v>
       </c>
       <c r="C225">
-        <v>100</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B226" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C226">
-        <v>100</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B227" t="s">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="C227">
-        <v>100</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="C228">
-        <v>100</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -4841,10 +4846,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -4852,10 +4857,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4863,739 +4868,739 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B232" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C232">
-        <v>98.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B233" t="s">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="C233">
-        <v>97.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B234" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C234">
-        <v>97.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B235" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="C235">
-        <v>96.49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B236" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C236">
-        <v>95.43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B237" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="C237">
-        <v>95.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B238" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C238">
-        <v>94.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B239" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C239">
-        <v>94.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B240" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C240">
-        <v>92.85</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B241" t="s">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="C241">
-        <v>91.39</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B242" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C242">
-        <v>89.77</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B243" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="C243">
-        <v>89.2</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B244" t="s">
-        <v>207</v>
+        <v>418</v>
       </c>
       <c r="C244">
-        <v>88.17</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B245" t="s">
-        <v>91</v>
+        <v>420</v>
       </c>
       <c r="C245">
-        <v>87.45</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B246" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C246">
-        <v>87.25</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B247" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C247">
-        <v>86.45</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B248" t="s">
-        <v>285</v>
+        <v>426</v>
       </c>
       <c r="C248">
-        <v>86.38</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B249" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C249">
-        <v>85.85</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="C250">
-        <v>85.71</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>429</v>
+      </c>
+      <c r="B251" t="s">
         <v>430</v>
       </c>
-      <c r="B251" t="s">
-        <v>431</v>
-      </c>
       <c r="C251">
-        <v>85.65</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B252" t="s">
-        <v>433</v>
+        <v>224</v>
       </c>
       <c r="C252">
-        <v>84.2</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B253" t="s">
-        <v>435</v>
+        <v>109</v>
       </c>
       <c r="C253">
-        <v>83.73</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B254" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C254">
-        <v>83.66</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B255" t="s">
-        <v>48</v>
+        <v>436</v>
       </c>
       <c r="C255">
-        <v>83.36</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B256" t="s">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="C256">
-        <v>83.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C257">
-        <v>82.37</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B258" t="s">
-        <v>443</v>
+        <v>6</v>
       </c>
       <c r="C258">
-        <v>81.87</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>441</v>
       </c>
       <c r="C259">
-        <v>81.739999999999995</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B260" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C260">
-        <v>81.13</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B261" t="s">
-        <v>331</v>
+        <v>445</v>
       </c>
       <c r="C261">
-        <v>77.87</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B262" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="C262">
-        <v>76.319999999999993</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B263" t="s">
-        <v>450</v>
+        <v>67</v>
       </c>
       <c r="C263">
-        <v>75.86</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B264" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="C264">
-        <v>74.319999999999993</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B265" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="C265">
-        <v>73.239999999999995</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B266" t="s">
-        <v>120</v>
+        <v>452</v>
       </c>
       <c r="C266">
-        <v>72.56</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B267" t="s">
-        <v>456</v>
+        <v>275</v>
       </c>
       <c r="C267">
-        <v>72.2</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B268" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C268">
-        <v>71.84</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="C269">
-        <v>71.569999999999993</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B270" t="s">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="C270">
-        <v>71.31</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B271" t="s">
-        <v>336</v>
+        <v>459</v>
       </c>
       <c r="C271">
-        <v>70.88</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B272" t="s">
-        <v>464</v>
+        <v>260</v>
       </c>
       <c r="C272">
-        <v>70.13</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B273" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="C273">
-        <v>69.84</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B274" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="C274">
-        <v>69.680000000000007</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B275" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C275">
-        <v>68.459999999999994</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B276" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C276">
-        <v>68.39</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B277" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C277">
-        <v>66.989999999999995</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B278" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C278">
-        <v>65.900000000000006</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B279" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="C279">
-        <v>65.83</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B280" t="s">
-        <v>233</v>
+        <v>473</v>
       </c>
       <c r="C280">
-        <v>61.65</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B281" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C281">
-        <v>61.56</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B282" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
       <c r="C282">
-        <v>61.04</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B283" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C283">
-        <v>60.95</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B284" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C284">
-        <v>60.39</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B285" t="s">
-        <v>485</v>
+        <v>99</v>
       </c>
       <c r="C285">
-        <v>59.42</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B286" t="s">
-        <v>139</v>
+        <v>483</v>
       </c>
       <c r="C286">
-        <v>58.37</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B287" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C287">
-        <v>57.82</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B288" t="s">
-        <v>489</v>
+        <v>250</v>
       </c>
       <c r="C288">
-        <v>57.41</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B289" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C289">
-        <v>55.66</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B290" t="s">
-        <v>493</v>
+        <v>250</v>
       </c>
       <c r="C290">
-        <v>52.75</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B291" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="C291">
-        <v>50</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B292" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C292">
-        <v>48.53</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B293" t="s">
-        <v>340</v>
+        <v>494</v>
       </c>
       <c r="C293">
-        <v>48.16</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B294" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C294">
-        <v>47</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B295" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="C295">
-        <v>46.92</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>498</v>
       </c>
       <c r="C296">
-        <v>44.89</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B297" t="s">
-        <v>253</v>
+        <v>500</v>
       </c>
       <c r="C297">
-        <v>44.34</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>501</v>
+      </c>
+      <c r="B298" t="s">
         <v>502</v>
       </c>
-      <c r="B298" t="s">
-        <v>14</v>
-      </c>
       <c r="C298">
-        <v>43.86</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5603,10 +5608,10 @@
         <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C299">
-        <v>43.07</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5614,43 +5619,43 @@
         <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>26</v>
+        <v>505</v>
       </c>
       <c r="C300">
-        <v>43</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="C301">
-        <v>42.7</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B302" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C302">
-        <v>42.57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B303" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="C303">
-        <v>42.42</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5658,10 +5663,10 @@
         <v>509</v>
       </c>
       <c r="B304" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C304">
-        <v>41.74</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5669,76 +5674,76 @@
         <v>510</v>
       </c>
       <c r="B305" t="s">
-        <v>511</v>
+        <v>268</v>
       </c>
       <c r="C305">
-        <v>41.63</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B306" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C306">
-        <v>40.869999999999997</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B307" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="C307">
-        <v>40.799999999999997</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B308" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="C308">
-        <v>39.68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B309" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C309">
-        <v>38.93</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B310" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="C310">
-        <v>38.159999999999997</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
+        <v>516</v>
+      </c>
+      <c r="B311" t="s">
         <v>517</v>
       </c>
-      <c r="B311" t="s">
-        <v>328</v>
-      </c>
       <c r="C311">
-        <v>37.44</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5746,10 +5751,10 @@
         <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="C312">
-        <v>36.81</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5757,21 +5762,21 @@
         <v>519</v>
       </c>
       <c r="B313" t="s">
-        <v>122</v>
+        <v>520</v>
       </c>
       <c r="C313">
-        <v>36.590000000000003</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B314" t="s">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="C314">
-        <v>36.36</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5779,109 +5784,109 @@
         <v>522</v>
       </c>
       <c r="B315" t="s">
-        <v>523</v>
+        <v>246</v>
       </c>
       <c r="C315">
-        <v>36.21</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B316" t="s">
-        <v>525</v>
+        <v>248</v>
       </c>
       <c r="C316">
-        <v>33.049999999999997</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B317" t="s">
-        <v>527</v>
+        <v>14</v>
       </c>
       <c r="C317">
-        <v>32.909999999999997</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B318" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="C318">
-        <v>32.64</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B319" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="C319">
-        <v>32.229999999999997</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B320" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C320">
-        <v>32.14</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B321" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="C321">
-        <v>31.82</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B322" t="s">
-        <v>182</v>
+        <v>530</v>
       </c>
       <c r="C322">
-        <v>31.1</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B323" t="s">
-        <v>260</v>
+        <v>532</v>
       </c>
       <c r="C323">
-        <v>31.09</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
+        <v>533</v>
+      </c>
+      <c r="B324" t="s">
         <v>534</v>
       </c>
-      <c r="B324" t="s">
-        <v>127</v>
-      </c>
       <c r="C324">
-        <v>30.32</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5889,21 +5894,21 @@
         <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>308</v>
+        <v>536</v>
       </c>
       <c r="C325">
-        <v>29.91</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B326" t="s">
-        <v>537</v>
+        <v>268</v>
       </c>
       <c r="C326">
-        <v>29.29</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5911,752 +5916,829 @@
         <v>538</v>
       </c>
       <c r="B327" t="s">
-        <v>539</v>
+        <v>300</v>
       </c>
       <c r="C327">
-        <v>27.18</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B328" t="s">
-        <v>469</v>
+        <v>266</v>
       </c>
       <c r="C328">
-        <v>26.74</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B329" t="s">
-        <v>542</v>
+        <v>260</v>
       </c>
       <c r="C329">
-        <v>26.25</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B330" t="s">
-        <v>544</v>
+        <v>200</v>
       </c>
       <c r="C330">
-        <v>25.41</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B331" t="s">
-        <v>525</v>
+        <v>275</v>
       </c>
       <c r="C331">
-        <v>25.08</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B332" t="s">
-        <v>547</v>
+        <v>145</v>
       </c>
       <c r="C332">
-        <v>23.89</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B333" t="s">
-        <v>549</v>
+        <v>323</v>
       </c>
       <c r="C333">
-        <v>22.3</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B334" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C334">
-        <v>22.16</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B335" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C335">
-        <v>21.71</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B336" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="C336">
-        <v>21.27</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B337" t="s">
-        <v>437</v>
+        <v>43</v>
       </c>
       <c r="C337">
-        <v>20.9</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B338" t="s">
-        <v>48</v>
+        <v>552</v>
       </c>
       <c r="C338">
-        <v>19.600000000000001</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B339" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="C339">
-        <v>19.38</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B340" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="C340">
-        <v>19.149999999999999</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B341" t="s">
-        <v>32</v>
+        <v>557</v>
       </c>
       <c r="C341">
-        <v>19.079999999999998</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>153</v>
+        <v>559</v>
       </c>
       <c r="C342">
-        <v>18.8</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B343" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C343">
-        <v>17.86</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B344" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C344">
-        <v>16.78</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B345" t="s">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="C345">
-        <v>16.72</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="C346">
-        <v>16.54</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B347" t="s">
-        <v>245</v>
+        <v>567</v>
       </c>
       <c r="C347">
-        <v>15.92</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B348" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="C348">
-        <v>15.86</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B349" t="s">
-        <v>572</v>
+        <v>60</v>
       </c>
       <c r="C349">
-        <v>15.42</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B350" t="s">
-        <v>574</v>
+        <v>171</v>
       </c>
       <c r="C350">
-        <v>14.67</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B351" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C351">
-        <v>14.28</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>162</v>
+        <v>574</v>
       </c>
       <c r="C352">
-        <v>13.84</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>579</v>
+        <v>99</v>
       </c>
       <c r="C353">
-        <v>13.67</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>581</v>
+        <v>402</v>
       </c>
       <c r="C354">
-        <v>13.63</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C355">
-        <v>13.55</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B356" t="s">
-        <v>566</v>
+        <v>288</v>
       </c>
       <c r="C356">
-        <v>12.88</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B357" t="s">
-        <v>379</v>
+        <v>580</v>
       </c>
       <c r="C357">
-        <v>12.61</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C358">
-        <v>12.6</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B359" t="s">
-        <v>24</v>
+        <v>584</v>
       </c>
       <c r="C359">
-        <v>12.5</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B360" t="s">
-        <v>589</v>
+        <v>180</v>
       </c>
       <c r="C360">
-        <v>12.48</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B361" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="C361">
-        <v>11.96</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B362" t="s">
-        <v>239</v>
+        <v>589</v>
       </c>
       <c r="C362">
-        <v>11.63</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B363" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="C363">
-        <v>10.43</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>127</v>
+        <v>574</v>
       </c>
       <c r="C364">
-        <v>9.85</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="C365">
-        <v>9.77</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B366" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C366">
-        <v>9.7200000000000006</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="C367">
-        <v>9.49</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B368" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C368">
-        <v>8.4499999999999993</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B369" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="C369">
-        <v>8.44</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>443</v>
+        <v>256</v>
       </c>
       <c r="C370">
-        <v>7.77</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B371" t="s">
-        <v>603</v>
+        <v>157</v>
       </c>
       <c r="C371">
-        <v>7.7</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B372" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C372">
-        <v>7.6</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B373" t="s">
-        <v>511</v>
+        <v>224</v>
       </c>
       <c r="C373">
-        <v>7.51</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B374" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C374">
-        <v>7.47</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B375" t="s">
-        <v>609</v>
+        <v>208</v>
       </c>
       <c r="C375">
-        <v>6.58</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B376" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C376">
-        <v>5.56</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B377" t="s">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="C377">
-        <v>5.55</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B378" t="s">
-        <v>99</v>
+        <v>452</v>
       </c>
       <c r="C378">
-        <v>5.16</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B379" t="s">
-        <v>283</v>
+        <v>611</v>
       </c>
       <c r="C379">
-        <v>4.3600000000000003</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B380" t="s">
-        <v>525</v>
+        <v>113</v>
       </c>
       <c r="C380">
-        <v>2.41</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B381" t="s">
-        <v>617</v>
+        <v>520</v>
       </c>
       <c r="C381">
-        <v>2.3199999999999998</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B382" t="s">
-        <v>410</v>
+        <v>615</v>
       </c>
       <c r="C382">
-        <v>2.13</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B383" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C383">
-        <v>1.76</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B384" t="s">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="C384">
-        <v>1.4</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B385" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C385">
-        <v>0.9</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B386" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="C386">
-        <v>0.69</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B387" t="s">
-        <v>251</v>
+        <v>534</v>
       </c>
       <c r="C387">
-        <v>0.59</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B388" t="s">
-        <v>283</v>
+        <v>623</v>
       </c>
       <c r="C388">
-        <v>0.55000000000000004</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B389" t="s">
-        <v>628</v>
+        <v>420</v>
       </c>
       <c r="C389">
-        <v>0.55000000000000004</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B390" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C390">
-        <v>0.11</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B391" t="s">
-        <v>350</v>
+        <v>628</v>
       </c>
       <c r="C391">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B392" t="s">
-        <v>633</v>
+        <v>6</v>
       </c>
       <c r="C392">
-        <v>0.03</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
       </c>
       <c r="C393">
-        <v>0.01</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B394" t="s">
-        <v>636</v>
+        <v>266</v>
       </c>
       <c r="C394">
-        <v>0.01</v>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>632</v>
+      </c>
+      <c r="B395" t="s">
+        <v>298</v>
+      </c>
+      <c r="C395">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
+        <v>633</v>
+      </c>
+      <c r="B396" t="s">
+        <v>634</v>
+      </c>
+      <c r="C396">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>635</v>
+      </c>
+      <c r="B397" t="s">
+        <v>636</v>
+      </c>
+      <c r="C397">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
         <v>637</v>
+      </c>
+      <c r="B398" t="s">
+        <v>365</v>
+      </c>
+      <c r="C398">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>638</v>
+      </c>
+      <c r="B399" t="s">
+        <v>639</v>
+      </c>
+      <c r="C399">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>640</v>
+      </c>
+      <c r="B400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>641</v>
+      </c>
+      <c r="B401" t="s">
+        <v>642</v>
+      </c>
+      <c r="C401">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8701740F-D6F0-4534-90ED-497D027DB350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{702F5E1E-7745-4E2D-935B-FB0755964FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="639">
   <si>
     <t>CONTA</t>
   </si>
@@ -37,1398 +50,1389 @@
     <t>HELENA</t>
   </si>
   <si>
-    <t>004432579</t>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004884046</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
   </si>
   <si>
     <t>ANA</t>
   </si>
   <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
     <t>001922009</t>
   </si>
   <si>
     <t>SOFIA</t>
   </si>
   <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004458624</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
   </si>
   <si>
     <t>004862672</t>
   </si>
   <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004458624</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004884046</t>
-  </si>
-  <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004552021</t>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
   </si>
   <si>
     <t>MARIA</t>
   </si>
   <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
     <t>004228456</t>
   </si>
   <si>
@@ -1456,9 +1460,6 @@
     <t>004318604</t>
   </si>
   <si>
-    <t>RENAN</t>
-  </si>
-  <si>
     <t>004363250</t>
   </si>
   <si>
@@ -1667,9 +1668,6 @@
   </si>
   <si>
     <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>002828327</t>
   </si>
   <si>
     <t>002277249</t>
@@ -2317,11 +2315,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2355,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>108387.16</v>
+        <v>76907.27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2366,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>107285.49</v>
+        <v>66533.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2377,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>84533.8</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2388,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>77077.77</v>
+        <v>29851.14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2399,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>66090.740000000005</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2410,7 +2406,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>63355.91</v>
+        <v>21560.32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2421,7 +2417,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>60788.61</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2432,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>55689.97</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2440,153 +2436,153 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>34124.239999999998</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>34000</v>
+        <v>12786.35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>32842.589999999997</v>
+        <v>10138.73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>32828.06</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>25790.959999999999</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>21560.32</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>18325.11</v>
+        <v>2026.74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>15027.11</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>15000</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>12786.35</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>12670.31</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>11280.26</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>10248.209999999999</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24">
-        <v>10138.73</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2597,7 +2593,7 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>7714.42</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2608,7 +2604,7 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <v>6256.5</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2619,7 +2615,7 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>4481.03</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2630,7 +2626,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>2691.13</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2638,362 +2634,362 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>2640.99</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30">
-        <v>2300</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>1239.45</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32">
-        <v>1083.32</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>991.44</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>988.88</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>953.43</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36">
-        <v>944.11</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37">
-        <v>938.8</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>932.86</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39">
-        <v>930.54</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>891.04</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>885.13</v>
+        <v>802.88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42">
-        <v>884.67</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43">
-        <v>883.13</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44">
-        <v>872.41</v>
+        <v>788.61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45">
-        <v>867.93</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46">
-        <v>864.35</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47">
-        <v>849.45</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48">
-        <v>845.19</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C49">
-        <v>833.03</v>
+        <v>743.06</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C50">
-        <v>820.67</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C51">
-        <v>817.72</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C52">
-        <v>811.38</v>
+        <v>729.28</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>810.41</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C54">
-        <v>803.76</v>
+        <v>714.42</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C55">
-        <v>802.88</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C56">
-        <v>802.18</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57">
-        <v>798.23</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58">
-        <v>787.45</v>
+        <v>689.97</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59">
-        <v>768.88</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>761.35</v>
+        <v>670.31</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C61">
-        <v>747.96</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3004,7 +3000,7 @@
         <v>117</v>
       </c>
       <c r="C62">
-        <v>743.06</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3015,7 +3011,7 @@
         <v>119</v>
       </c>
       <c r="C63">
-        <v>739.38</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3026,7 +3022,7 @@
         <v>121</v>
       </c>
       <c r="C64">
-        <v>732.94</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3034,21 +3030,21 @@
         <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>729.28</v>
+        <v>640.99</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
       <c r="C66">
-        <v>723.26</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3059,7 +3055,7 @@
         <v>126</v>
       </c>
       <c r="C67">
-        <v>714.2</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3067,10 +3063,10 @@
         <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C68">
-        <v>710.16</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3081,7 +3077,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>703</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3092,7 +3088,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>685.96</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3100,10 +3096,10 @@
         <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>664.2</v>
+        <v>602.58000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3111,109 +3107,109 @@
         <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>655.11</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
       <c r="C73">
-        <v>651</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
         <v>137</v>
       </c>
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
       <c r="C74">
-        <v>645.16999999999996</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
         <v>139</v>
       </c>
-      <c r="B75" t="s">
-        <v>140</v>
-      </c>
       <c r="C75">
-        <v>636.76</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
         <v>141</v>
       </c>
-      <c r="B76" t="s">
-        <v>142</v>
-      </c>
       <c r="C76">
-        <v>622.63</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C77">
-        <v>608.94000000000005</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
         <v>144</v>
       </c>
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
       <c r="C78">
-        <v>608.66999999999996</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
         <v>146</v>
       </c>
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
       <c r="C79">
-        <v>605.79</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C80">
-        <v>602.58000000000004</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="B81" t="s">
-        <v>34</v>
-      </c>
       <c r="C81">
-        <v>596.41999999999996</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3224,7 +3220,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>579.26</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3232,43 +3228,43 @@
         <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C83">
-        <v>579.20000000000005</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
         <v>154</v>
       </c>
-      <c r="B84" t="s">
-        <v>155</v>
-      </c>
       <c r="C84">
-        <v>570.97</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
         <v>156</v>
       </c>
-      <c r="B85" t="s">
-        <v>157</v>
-      </c>
       <c r="C85">
-        <v>560.45000000000005</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
       <c r="C86">
-        <v>556.30999999999995</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3279,7 +3275,7 @@
         <v>160</v>
       </c>
       <c r="C87">
-        <v>553.23</v>
+        <v>481.03</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3290,7 +3286,7 @@
         <v>162</v>
       </c>
       <c r="C88">
-        <v>544.76</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3298,10 +3294,10 @@
         <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="C89">
-        <v>542.62</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3309,10 +3305,10 @@
         <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>536.41999999999996</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3323,7 +3319,7 @@
         <v>166</v>
       </c>
       <c r="C91">
-        <v>534.49</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3331,10 +3327,10 @@
         <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C92">
-        <v>531.54</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3345,7 +3341,7 @@
         <v>169</v>
       </c>
       <c r="C93">
-        <v>528.38</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3356,7 +3352,7 @@
         <v>171</v>
       </c>
       <c r="C94">
-        <v>520.05999999999995</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3367,7 +3363,7 @@
         <v>173</v>
       </c>
       <c r="C95">
-        <v>509.7</v>
+        <v>460.33</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3375,131 +3371,131 @@
         <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="C96">
-        <v>470.68</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" t="s">
         <v>176</v>
       </c>
-      <c r="B97" t="s">
-        <v>177</v>
-      </c>
       <c r="C97">
-        <v>468.72</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C98">
-        <v>468.65</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C99">
-        <v>465.88</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C100">
-        <v>465.38</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
         <v>182</v>
       </c>
-      <c r="B101" t="s">
-        <v>183</v>
-      </c>
       <c r="C101">
-        <v>463.52</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
         <v>184</v>
       </c>
-      <c r="B102" t="s">
-        <v>185</v>
-      </c>
       <c r="C102">
-        <v>462.44</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" t="s">
         <v>186</v>
       </c>
-      <c r="B103" t="s">
-        <v>187</v>
-      </c>
       <c r="C103">
-        <v>460.33</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C104">
-        <v>459.98</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C105">
-        <v>453.33</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="C106">
-        <v>451.86</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" t="s">
         <v>192</v>
       </c>
-      <c r="B107" t="s">
-        <v>180</v>
-      </c>
       <c r="C107">
-        <v>447.24</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3510,7 +3506,7 @@
         <v>194</v>
       </c>
       <c r="C108">
-        <v>446.15</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3521,7 +3517,7 @@
         <v>196</v>
       </c>
       <c r="C109">
-        <v>441.76</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3529,32 +3525,32 @@
         <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="C110">
-        <v>429.52</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
         <v>199</v>
       </c>
-      <c r="B111" t="s">
-        <v>200</v>
-      </c>
       <c r="C111">
-        <v>418</v>
+        <v>397.62</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" t="s">
         <v>201</v>
       </c>
-      <c r="B112" t="s">
-        <v>14</v>
-      </c>
       <c r="C112">
-        <v>416.45</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3562,21 +3558,21 @@
         <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="C113">
-        <v>415.42</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="C114">
-        <v>409.89</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3584,32 +3580,32 @@
         <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="C115">
-        <v>409.12</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" t="s">
         <v>207</v>
       </c>
-      <c r="B116" t="s">
-        <v>208</v>
-      </c>
       <c r="C116">
-        <v>407.94</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" t="s">
         <v>209</v>
       </c>
-      <c r="B117" t="s">
-        <v>69</v>
-      </c>
       <c r="C117">
-        <v>404.34</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3620,7 +3616,7 @@
         <v>211</v>
       </c>
       <c r="C118">
-        <v>400.5</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3628,32 +3624,32 @@
         <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="C119">
-        <v>400.01</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C120">
-        <v>397.62</v>
+        <v>355.91</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>392.89</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3661,21 +3657,21 @@
         <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>392.83</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" t="s">
         <v>219</v>
       </c>
-      <c r="B123" t="s">
-        <v>47</v>
-      </c>
       <c r="C123">
-        <v>380.46</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3683,21 +3679,21 @@
         <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C124">
-        <v>378.28</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C125">
-        <v>376.72</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3708,7 +3704,7 @@
         <v>224</v>
       </c>
       <c r="C126">
-        <v>374.97</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3719,7 +3715,7 @@
         <v>226</v>
       </c>
       <c r="C127">
-        <v>369.5</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3727,21 +3723,21 @@
         <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>367.11</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" t="s">
         <v>229</v>
       </c>
-      <c r="B129" t="s">
-        <v>14</v>
-      </c>
       <c r="C129">
-        <v>347.34</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3749,274 +3745,274 @@
         <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C130">
-        <v>346.77</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C131">
-        <v>345.51</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C132">
-        <v>344.66</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C133">
-        <v>344.22</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C134">
-        <v>341.85</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C135">
-        <v>338.66</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="C136">
-        <v>336.01</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C137">
-        <v>333.95</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C138">
-        <v>331.75</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C139">
-        <v>331.38</v>
+        <v>290.32</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C140">
-        <v>327.87</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C141">
-        <v>323.66000000000003</v>
+        <v>285.49</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C142">
-        <v>322.77</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C143">
-        <v>316.35000000000002</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>310.17</v>
+        <v>280.26</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="C145">
-        <v>304.47000000000003</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C146">
-        <v>296.88</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C147">
-        <v>290.32</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C148">
-        <v>286.94</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C149">
-        <v>284.19</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C150">
-        <v>283.02999999999997</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C151">
-        <v>271.19</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C152">
-        <v>271.16000000000003</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C153">
-        <v>264.52999999999997</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B154" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="C154">
-        <v>261.82</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4024,230 +4020,230 @@
         <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="C155">
-        <v>260.54000000000002</v>
+        <v>248.21</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C156">
-        <v>259.88</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="C157">
-        <v>257.49</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C158">
-        <v>256.77</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="C159">
-        <v>256.26</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C160">
-        <v>246.75</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C161">
-        <v>245.07</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C162">
-        <v>244.73</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B163" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="C163">
-        <v>242.8</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B164" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C164">
-        <v>241.52</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B165" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C165">
-        <v>241.07</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C166">
-        <v>240.93</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B167" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C167">
-        <v>236.97</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C168">
-        <v>234.95</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>228.33</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C170">
-        <v>221.55</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B171" t="s">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="C171">
-        <v>219.44</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="C172">
-        <v>218.5</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B173" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C173">
-        <v>214.1</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B174" t="s">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="C174">
-        <v>205.79</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="C175">
-        <v>203.87</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4255,120 +4251,120 @@
         <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="C176">
-        <v>203.61</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C177">
-        <v>199.24</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B178" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C178">
-        <v>198.42</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="C179">
-        <v>197.42</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C180">
-        <v>192.35</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B181" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C181">
-        <v>191.65</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="C182">
-        <v>187.16</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B183" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="C183">
-        <v>186.38</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B184" t="s">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="C184">
-        <v>178.9</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C185">
-        <v>178.22</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B186" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C186">
-        <v>178.17</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4376,10 +4372,10 @@
         <v>328</v>
       </c>
       <c r="B187" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>169.78</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4387,10 +4383,10 @@
         <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="C188">
-        <v>168.19</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4398,21 +4394,21 @@
         <v>330</v>
       </c>
       <c r="B189" t="s">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="C189">
-        <v>167.87</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>331</v>
+      </c>
+      <c r="B190" t="s">
         <v>332</v>
       </c>
-      <c r="B190" t="s">
-        <v>281</v>
-      </c>
       <c r="C190">
-        <v>166.94</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4420,10 +4416,10 @@
         <v>333</v>
       </c>
       <c r="B191" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C191">
-        <v>164.31</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4431,274 +4427,274 @@
         <v>334</v>
       </c>
       <c r="B192" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="C192">
-        <v>162.96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>336</v>
+      </c>
+      <c r="B193" t="s">
         <v>335</v>
       </c>
-      <c r="B193" t="s">
-        <v>157</v>
-      </c>
       <c r="C193">
-        <v>159.78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C194">
-        <v>153.30000000000001</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B195" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C195">
-        <v>152.68</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C196">
-        <v>150</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C197">
-        <v>150</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B198" t="s">
-        <v>343</v>
+        <v>103</v>
       </c>
       <c r="C198">
-        <v>148.74</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B199" t="s">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="C199">
-        <v>148.69999999999999</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C200">
-        <v>147.41</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C201">
-        <v>146.58000000000001</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B202" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="C202">
-        <v>139.29</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B203" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C203">
-        <v>134.29</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C204">
-        <v>131.47</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>10</v>
       </c>
       <c r="C205">
-        <v>129.91999999999999</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
       <c r="C206">
-        <v>129.80000000000001</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <v>128.16999999999999</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C208">
-        <v>124.93</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B209" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C209">
-        <v>120.91</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="C210">
-        <v>120.82</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C211">
-        <v>120.44</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>90</v>
       </c>
       <c r="C212">
-        <v>120.01</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C213">
-        <v>119.46</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B214" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C214">
-        <v>119.05</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B215" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C215">
-        <v>118.62</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B216" t="s">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="C216">
-        <v>117.74</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4706,21 +4702,21 @@
         <v>375</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="C217">
-        <v>116.42</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" t="s">
         <v>377</v>
       </c>
-      <c r="B218" t="s">
-        <v>145</v>
-      </c>
       <c r="C218">
-        <v>116.06</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4728,10 +4724,10 @@
         <v>378</v>
       </c>
       <c r="B219" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="C219">
-        <v>113.2</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4739,21 +4735,21 @@
         <v>379</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>380</v>
       </c>
       <c r="C220">
-        <v>107.6</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B221" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="C221">
-        <v>107.14</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4761,10 +4757,10 @@
         <v>382</v>
       </c>
       <c r="B222" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="C222">
-        <v>106.21</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4775,7 +4771,7 @@
         <v>384</v>
       </c>
       <c r="C223">
-        <v>106.02</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4783,43 +4779,43 @@
         <v>385</v>
       </c>
       <c r="B224" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C224">
-        <v>105.38</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B225" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C225">
-        <v>102.96</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B226" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C226">
-        <v>102.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B227" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C227">
-        <v>101.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4827,18 +4823,18 @@
         <v>391</v>
       </c>
       <c r="B228" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="C228">
-        <v>101.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B229" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -4846,10 +4842,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B230" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -4857,10 +4853,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B231" t="s">
-        <v>396</v>
+        <v>194</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4868,10 +4864,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B232" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -4879,10 +4875,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B233" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C233">
         <v>100</v>
@@ -4890,10 +4886,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B234" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C234">
         <v>100</v>
@@ -4901,10 +4897,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B235" t="s">
-        <v>208</v>
+        <v>405</v>
       </c>
       <c r="C235">
         <v>100</v>
@@ -4912,145 +4908,145 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B236" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C236">
-        <v>100</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B238" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C238">
-        <v>100</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>410</v>
+        <v>293</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C240">
-        <v>98.02</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B241" t="s">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="C241">
-        <v>97.08</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B242" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C242">
-        <v>97.03</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B243" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="C243">
-        <v>96.49</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B244" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C244">
-        <v>95.43</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B245" t="s">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="C245">
-        <v>95.12</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B246" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C246">
-        <v>94.34</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B247" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C247">
-        <v>94.23</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B248" t="s">
-        <v>426</v>
+        <v>209</v>
       </c>
       <c r="C248">
-        <v>92.85</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5058,10 +5054,10 @@
         <v>427</v>
       </c>
       <c r="B249" t="s">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="C249">
-        <v>91.39</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5069,54 +5065,54 @@
         <v>428</v>
       </c>
       <c r="B250" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C250">
-        <v>89.77</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B251" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C251">
-        <v>89.2</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B252" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="C252">
-        <v>88.17</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B253" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C253">
-        <v>87.45</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B254" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="C254">
-        <v>87.25</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5127,7 +5123,7 @@
         <v>436</v>
       </c>
       <c r="C255">
-        <v>86.45</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5135,65 +5131,65 @@
         <v>437</v>
       </c>
       <c r="B256" t="s">
-        <v>300</v>
+        <v>438</v>
       </c>
       <c r="C256">
-        <v>86.38</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B257" t="s">
-        <v>67</v>
+        <v>440</v>
       </c>
       <c r="C257">
-        <v>85.85</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>442</v>
       </c>
       <c r="C258">
-        <v>85.71</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B259" t="s">
-        <v>441</v>
+        <v>43</v>
       </c>
       <c r="C259">
-        <v>85.65</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B260" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="C260">
-        <v>84.2</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B261" t="s">
-        <v>445</v>
+        <v>14</v>
       </c>
       <c r="C261">
-        <v>83.73</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5204,7 +5200,7 @@
         <v>447</v>
       </c>
       <c r="C262">
-        <v>83.66</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5212,10 +5208,10 @@
         <v>448</v>
       </c>
       <c r="B263" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="C263">
-        <v>83.36</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5223,32 +5219,32 @@
         <v>449</v>
       </c>
       <c r="B264" t="s">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="C264">
-        <v>83.26</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B265" t="s">
-        <v>28</v>
+        <v>341</v>
       </c>
       <c r="C265">
-        <v>82.37</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B266" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="C266">
-        <v>81.87</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5256,10 +5252,10 @@
         <v>453</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="C267">
-        <v>81.739999999999995</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5270,7 +5266,7 @@
         <v>455</v>
       </c>
       <c r="C268">
-        <v>81.13</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5278,10 +5274,10 @@
         <v>456</v>
       </c>
       <c r="B269" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="C269">
-        <v>77.87</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5289,21 +5285,21 @@
         <v>457</v>
       </c>
       <c r="B270" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="C270">
-        <v>76.319999999999993</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B271" t="s">
-        <v>459</v>
+        <v>121</v>
       </c>
       <c r="C271">
-        <v>75.86</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5311,142 +5307,142 @@
         <v>460</v>
       </c>
       <c r="B272" t="s">
-        <v>260</v>
+        <v>461</v>
       </c>
       <c r="C272">
-        <v>74.319999999999993</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B273" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C273">
-        <v>73.239999999999995</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B274" t="s">
-        <v>138</v>
+        <v>465</v>
       </c>
       <c r="C274">
-        <v>72.56</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B275" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C275">
-        <v>72.2</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B276" t="s">
-        <v>467</v>
+        <v>346</v>
       </c>
       <c r="C276">
-        <v>71.84</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="C277">
-        <v>71.569999999999993</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B278" t="s">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="C278">
-        <v>71.31</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B279" t="s">
-        <v>351</v>
+        <v>473</v>
       </c>
       <c r="C279">
-        <v>70.88</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B280" t="s">
-        <v>473</v>
+        <v>34</v>
       </c>
       <c r="C280">
-        <v>70.13</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B281" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="C281">
-        <v>69.84</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B282" t="s">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="C282">
-        <v>69.680000000000007</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B283" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C283">
-        <v>68.459999999999994</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B284" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C284">
-        <v>68.39</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5454,10 +5450,10 @@
         <v>481</v>
       </c>
       <c r="B285" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="C285">
-        <v>66.989999999999995</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5468,7 +5464,7 @@
         <v>483</v>
       </c>
       <c r="C286">
-        <v>65.900000000000006</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5476,10 +5472,10 @@
         <v>484</v>
       </c>
       <c r="B287" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="C287">
-        <v>65.83</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5487,54 +5483,54 @@
         <v>485</v>
       </c>
       <c r="B288" t="s">
-        <v>250</v>
+        <v>486</v>
       </c>
       <c r="C288">
-        <v>61.65</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B289" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C289">
-        <v>61.56</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B290" t="s">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="C290">
-        <v>61.04</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B291" t="s">
-        <v>490</v>
+        <v>141</v>
       </c>
       <c r="C291">
-        <v>60.95</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B292" t="s">
-        <v>492</v>
+        <v>94</v>
       </c>
       <c r="C292">
-        <v>60.39</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5545,7 +5541,7 @@
         <v>494</v>
       </c>
       <c r="C293">
-        <v>59.42</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5553,54 +5549,54 @@
         <v>495</v>
       </c>
       <c r="B294" t="s">
-        <v>157</v>
+        <v>496</v>
       </c>
       <c r="C294">
-        <v>58.37</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B295" t="s">
-        <v>117</v>
+        <v>498</v>
       </c>
       <c r="C295">
-        <v>57.82</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B296" t="s">
-        <v>498</v>
+        <v>38</v>
       </c>
       <c r="C296">
-        <v>57.41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B297" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C297">
-        <v>55.66</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>350</v>
       </c>
       <c r="C298">
-        <v>52.75</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5608,10 +5604,10 @@
         <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C299">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5619,98 +5615,98 @@
         <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="C300">
-        <v>48.53</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="C301">
-        <v>48.16</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="C302">
-        <v>47</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B303" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="C303">
-        <v>46.92</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B304" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C304">
-        <v>44.89</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B305" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="C305">
-        <v>44.34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B306" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C306">
-        <v>43.86</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B307" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C307">
-        <v>43.07</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
+        <v>512</v>
+      </c>
+      <c r="B308" t="s">
         <v>513</v>
       </c>
-      <c r="B308" t="s">
-        <v>26</v>
-      </c>
       <c r="C308">
-        <v>43</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5718,10 +5714,10 @@
         <v>514</v>
       </c>
       <c r="B309" t="s">
-        <v>14</v>
+        <v>465</v>
       </c>
       <c r="C309">
-        <v>42.7</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5729,21 +5725,21 @@
         <v>515</v>
       </c>
       <c r="B310" t="s">
-        <v>26</v>
+        <v>516</v>
       </c>
       <c r="C310">
-        <v>42.57</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B311" t="s">
-        <v>517</v>
+        <v>57</v>
       </c>
       <c r="C311">
-        <v>42.42</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5751,10 +5747,10 @@
         <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="C312">
-        <v>41.74</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5762,76 +5758,76 @@
         <v>519</v>
       </c>
       <c r="B313" t="s">
-        <v>520</v>
+        <v>235</v>
       </c>
       <c r="C313">
-        <v>41.63</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B314" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>40.869999999999997</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B315" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="C315">
-        <v>40.799999999999997</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B316" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="C316">
-        <v>39.68</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="C317">
-        <v>38.93</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B318" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="C318">
-        <v>38.159999999999997</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
+        <v>525</v>
+      </c>
+      <c r="B319" t="s">
         <v>526</v>
       </c>
-      <c r="B319" t="s">
-        <v>343</v>
-      </c>
       <c r="C319">
-        <v>37.44</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5839,54 +5835,54 @@
         <v>527</v>
       </c>
       <c r="B320" t="s">
-        <v>256</v>
+        <v>528</v>
       </c>
       <c r="C320">
-        <v>36.81</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B321" t="s">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="C321">
-        <v>36.590000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B322" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C322">
-        <v>36.36</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B323" t="s">
-        <v>532</v>
+        <v>257</v>
       </c>
       <c r="C323">
-        <v>36.21</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B324" t="s">
-        <v>534</v>
+        <v>295</v>
       </c>
       <c r="C324">
-        <v>33.049999999999997</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5894,76 +5890,76 @@
         <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>536</v>
+        <v>255</v>
       </c>
       <c r="C325">
-        <v>32.909999999999997</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B326" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C326">
-        <v>32.64</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B327" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="C327">
-        <v>32.229999999999997</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B328" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C328">
-        <v>32.14</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B329" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C329">
-        <v>31.82</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B330" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="C330">
-        <v>31.1</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
+        <v>541</v>
+      </c>
+      <c r="B331" t="s">
         <v>542</v>
       </c>
-      <c r="B331" t="s">
-        <v>275</v>
-      </c>
       <c r="C331">
-        <v>31.09</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5971,43 +5967,43 @@
         <v>543</v>
       </c>
       <c r="B332" t="s">
-        <v>145</v>
+        <v>544</v>
       </c>
       <c r="C332">
-        <v>30.32</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B333" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="C333">
-        <v>29.91</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B334" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C334">
-        <v>29.29</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B335" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="C335">
-        <v>27.18</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6015,98 +6011,98 @@
         <v>549</v>
       </c>
       <c r="B336" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="C336">
-        <v>26.74</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B337" t="s">
-        <v>43</v>
+        <v>552</v>
       </c>
       <c r="C337">
-        <v>26.25</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B338" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C338">
-        <v>25.41</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B339" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="C339">
-        <v>25.08</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B340" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C340">
-        <v>23.89</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B341" t="s">
-        <v>557</v>
+        <v>442</v>
       </c>
       <c r="C341">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B342" t="s">
-        <v>559</v>
+        <v>43</v>
       </c>
       <c r="C342">
-        <v>22.16</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B343" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C343">
-        <v>21.71</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B344" t="s">
-        <v>563</v>
+        <v>94</v>
       </c>
       <c r="C344">
-        <v>21.27</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6114,10 +6110,10 @@
         <v>564</v>
       </c>
       <c r="B345" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C345">
-        <v>20.9</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6125,10 +6121,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C346">
-        <v>19.600000000000001</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6139,7 +6135,7 @@
         <v>567</v>
       </c>
       <c r="C347">
-        <v>19.38</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6147,43 +6143,43 @@
         <v>568</v>
       </c>
       <c r="B348" t="s">
-        <v>117</v>
+        <v>569</v>
       </c>
       <c r="C348">
-        <v>19.149999999999999</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B349" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C349">
-        <v>19.079999999999998</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B350" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="C350">
-        <v>18.8</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B351" t="s">
-        <v>572</v>
+        <v>249</v>
       </c>
       <c r="C351">
-        <v>17.86</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6191,21 +6187,21 @@
         <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>574</v>
+        <v>283</v>
       </c>
       <c r="C352">
-        <v>16.78</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
+        <v>574</v>
+      </c>
+      <c r="B353" t="s">
         <v>575</v>
       </c>
-      <c r="B353" t="s">
-        <v>99</v>
-      </c>
       <c r="C353">
-        <v>16.72</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6213,87 +6209,87 @@
         <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>402</v>
+        <v>577</v>
       </c>
       <c r="C354">
-        <v>16.54</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B355" t="s">
-        <v>262</v>
+        <v>579</v>
       </c>
       <c r="C355">
-        <v>15.92</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B356" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="C356">
-        <v>15.86</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B357" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C357">
-        <v>15.42</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C358">
-        <v>14.67</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B359" t="s">
-        <v>584</v>
+        <v>241</v>
       </c>
       <c r="C359">
-        <v>14.28</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>180</v>
+        <v>569</v>
       </c>
       <c r="C360">
-        <v>13.84</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B361" t="s">
-        <v>587</v>
+        <v>386</v>
       </c>
       <c r="C361">
-        <v>13.67</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6304,7 +6300,7 @@
         <v>589</v>
       </c>
       <c r="C362">
-        <v>13.63</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6312,10 +6308,10 @@
         <v>590</v>
       </c>
       <c r="B363" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="C363">
-        <v>13.55</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6323,32 +6319,32 @@
         <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="C364">
-        <v>12.88</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B365" t="s">
-        <v>390</v>
+        <v>149</v>
       </c>
       <c r="C365">
-        <v>12.61</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>594</v>
+        <v>243</v>
       </c>
       <c r="C366">
-        <v>12.6</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6356,10 +6352,10 @@
         <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C367">
-        <v>12.5</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6367,32 +6363,32 @@
         <v>596</v>
       </c>
       <c r="B368" t="s">
-        <v>597</v>
+        <v>129</v>
       </c>
       <c r="C368">
-        <v>12.48</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C369">
-        <v>11.96</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>598</v>
+      </c>
+      <c r="B370" t="s">
         <v>599</v>
       </c>
-      <c r="B370" t="s">
-        <v>256</v>
-      </c>
       <c r="C370">
-        <v>11.63</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6400,10 +6396,10 @@
         <v>600</v>
       </c>
       <c r="B371" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C371">
-        <v>10.43</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6411,32 +6407,32 @@
         <v>601</v>
       </c>
       <c r="B372" t="s">
-        <v>145</v>
+        <v>602</v>
       </c>
       <c r="C372">
-        <v>9.85</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B373" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="C373">
-        <v>9.77</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B374" t="s">
-        <v>604</v>
+        <v>447</v>
       </c>
       <c r="C374">
-        <v>9.7200000000000006</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6444,21 +6440,21 @@
         <v>605</v>
       </c>
       <c r="B375" t="s">
-        <v>208</v>
+        <v>606</v>
       </c>
       <c r="C375">
-        <v>9.49</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B376" t="s">
-        <v>607</v>
+        <v>90</v>
       </c>
       <c r="C376">
-        <v>8.4499999999999993</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6466,10 +6462,10 @@
         <v>608</v>
       </c>
       <c r="B377" t="s">
-        <v>47</v>
+        <v>516</v>
       </c>
       <c r="C377">
-        <v>8.44</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6477,54 +6473,54 @@
         <v>609</v>
       </c>
       <c r="B378" t="s">
-        <v>452</v>
+        <v>610</v>
       </c>
       <c r="C378">
-        <v>7.77</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B379" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C379">
-        <v>7.7</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B380" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="C380">
-        <v>7.6</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B381" t="s">
-        <v>520</v>
+        <v>94</v>
       </c>
       <c r="C381">
-        <v>7.51</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B382" t="s">
-        <v>615</v>
+        <v>293</v>
       </c>
       <c r="C382">
-        <v>7.47</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6532,21 +6528,21 @@
         <v>616</v>
       </c>
       <c r="B383" t="s">
-        <v>617</v>
+        <v>530</v>
       </c>
       <c r="C383">
-        <v>6.58</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
+        <v>617</v>
+      </c>
+      <c r="B384" t="s">
         <v>618</v>
       </c>
-      <c r="B384" t="s">
-        <v>300</v>
-      </c>
       <c r="C384">
-        <v>5.55</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6554,10 +6550,10 @@
         <v>619</v>
       </c>
       <c r="B385" t="s">
-        <v>117</v>
+        <v>415</v>
       </c>
       <c r="C385">
-        <v>5.16</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6565,54 +6561,54 @@
         <v>620</v>
       </c>
       <c r="B386" t="s">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="C386">
-        <v>4.3600000000000003</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B387" t="s">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="C387">
-        <v>2.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B388" t="s">
-        <v>623</v>
+        <v>149</v>
       </c>
       <c r="C388">
-        <v>2.3199999999999998</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B389" t="s">
-        <v>420</v>
+        <v>149</v>
       </c>
       <c r="C389">
-        <v>2.13</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B390" t="s">
-        <v>626</v>
+        <v>255</v>
       </c>
       <c r="C390">
-        <v>1.76</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6620,21 +6616,21 @@
         <v>627</v>
       </c>
       <c r="B391" t="s">
-        <v>628</v>
+        <v>293</v>
       </c>
       <c r="C391">
-        <v>1.4</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
+        <v>628</v>
+      </c>
+      <c r="B392" t="s">
         <v>629</v>
       </c>
-      <c r="B392" t="s">
-        <v>6</v>
-      </c>
       <c r="C392">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6642,103 +6638,59 @@
         <v>630</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>631</v>
       </c>
       <c r="C393">
-        <v>0.69</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B394" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="C394">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B395" t="s">
-        <v>298</v>
+        <v>634</v>
       </c>
       <c r="C395">
-        <v>0.55000000000000004</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B396" t="s">
-        <v>634</v>
+        <v>8</v>
       </c>
       <c r="C396">
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B397" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C397">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" t="s">
-        <v>637</v>
-      </c>
-      <c r="B398" t="s">
-        <v>365</v>
-      </c>
-      <c r="C398">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>638</v>
-      </c>
-      <c r="B399" t="s">
-        <v>639</v>
-      </c>
-      <c r="C399">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" t="s">
-        <v>640</v>
-      </c>
-      <c r="B400" t="s">
-        <v>10</v>
-      </c>
-      <c r="C400">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" t="s">
-        <v>641</v>
-      </c>
-      <c r="B401" t="s">
-        <v>642</v>
-      </c>
-      <c r="C401">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" t="s">
-        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702F5E1E-7745-4E2D-935B-FB0755964FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4E1102-A2B2-43EF-9EFE-555E14C09764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="638">
   <si>
     <t>CONTA</t>
   </si>
@@ -98,6 +85,12 @@
     <t>RICARDO</t>
   </si>
   <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
     <t>004454365</t>
   </si>
   <si>
@@ -116,417 +109,414 @@
     <t>BEATRIZ</t>
   </si>
   <si>
-    <t>004556150</t>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
   </si>
   <si>
     <t>MARINA</t>
   </si>
   <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
     <t>004554411</t>
   </si>
   <si>
@@ -1223,9 +1213,6 @@
     <t>004646727</t>
   </si>
   <si>
-    <t>RENATA</t>
-  </si>
-  <si>
     <t>004693697</t>
   </si>
   <si>
@@ -1746,9 +1733,6 @@
   </si>
   <si>
     <t>004264780</t>
-  </si>
-  <si>
-    <t>004340984</t>
   </si>
   <si>
     <t>004259659</t>
@@ -2315,9 +2299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C399"/>
+  <dimension ref="A1:C398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2362,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>66533.8</v>
+        <v>67218.09</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2439,7 +2425,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>13566.65</v>
+        <v>14016.54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2450,7 +2436,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>12786.35</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2461,7 +2447,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>10138.73</v>
+        <v>12786.35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2472,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>5000</v>
+        <v>10138.73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2483,7 +2469,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>2691.13</v>
+        <v>8102.46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2494,7 +2480,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>2300</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2505,7 +2491,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>2026.74</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2516,7 +2502,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>1239.45</v>
+        <v>2026.74</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2527,7 +2513,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>991.44</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2538,7 +2524,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>988.88</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2546,21 +2532,21 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>953.43</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>944.11</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2568,32 +2554,32 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>938.8</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>932.86</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>930.54</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2604,7 +2590,7 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <v>891.04</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2615,7 +2601,7 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>885.13</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2626,7 +2612,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>884.67</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2637,7 +2623,7 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>883.13</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2648,7 +2634,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>872.41</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2659,7 +2645,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>867.93</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2670,7 +2656,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>864.35</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2681,7 +2667,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>849.45</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2692,7 +2678,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>845.19</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2700,21 +2686,21 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>833.03</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>820.67</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2725,7 +2711,7 @@
         <v>70</v>
       </c>
       <c r="C37">
-        <v>817.72</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2736,7 +2722,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>811.38</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2747,7 +2733,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>810.41</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2758,7 +2744,7 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>803.76</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2769,7 +2755,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>802.88</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2898,7 +2884,7 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>723.26</v>
@@ -2931,7 +2917,7 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>710.16</v>
@@ -2986,7 +2972,7 @@
         <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>664.2</v>
@@ -3063,7 +3049,7 @@
         <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>608.94000000000005</v>
@@ -3096,7 +3082,7 @@
         <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>602.58000000000004</v>
@@ -3228,7 +3214,7 @@
         <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C83">
         <v>531.54</v>
@@ -3294,7 +3280,7 @@
         <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="C89">
         <v>468.72</v>
@@ -3302,7 +3288,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -3313,10 +3299,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C91">
         <v>465.88</v>
@@ -3324,10 +3310,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92">
         <v>465.38</v>
@@ -3335,10 +3321,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C93">
         <v>463.52</v>
@@ -3346,10 +3332,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C94">
         <v>462.44</v>
@@ -3357,10 +3343,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C95">
         <v>460.33</v>
@@ -3368,7 +3354,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -3379,10 +3365,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97">
         <v>453.33</v>
@@ -3390,10 +3376,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C98">
         <v>451.86</v>
@@ -3401,10 +3387,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C99">
         <v>447.24</v>
@@ -3412,10 +3398,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100">
         <v>446.15</v>
@@ -3423,10 +3409,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101">
         <v>441.76</v>
@@ -3434,10 +3420,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C102">
         <v>429.52</v>
@@ -3445,10 +3431,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C103">
         <v>418</v>
@@ -3456,7 +3442,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3467,7 +3453,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
         <v>160</v>
@@ -3478,10 +3464,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C106">
         <v>409.89</v>
@@ -3489,10 +3475,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107">
         <v>409.12</v>
@@ -3500,10 +3486,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108">
         <v>407.94</v>
@@ -3511,10 +3497,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C109">
         <v>400.5</v>
@@ -3522,10 +3508,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C110">
         <v>400.01</v>
@@ -3533,10 +3519,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111">
         <v>397.62</v>
@@ -3544,10 +3530,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C112">
         <v>392.89</v>
@@ -3555,10 +3541,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C113">
         <v>392.83</v>
@@ -3566,7 +3552,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
         <v>103</v>
@@ -3577,7 +3563,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
         <v>149</v>
@@ -3588,10 +3574,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C116">
         <v>376.72</v>
@@ -3599,10 +3585,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C117">
         <v>374.97</v>
@@ -3610,10 +3596,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118">
         <v>369.5</v>
@@ -3621,10 +3607,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C119">
         <v>367.11</v>
@@ -3632,10 +3618,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C120">
         <v>355.91</v>
@@ -3643,7 +3629,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3654,7 +3640,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -3665,10 +3651,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C123">
         <v>345.51</v>
@@ -3676,10 +3662,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C124">
         <v>344.66</v>
@@ -3687,10 +3673,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C125">
         <v>344.22</v>
@@ -3698,10 +3684,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C126">
         <v>341.85</v>
@@ -3709,10 +3695,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C127">
         <v>338.66</v>
@@ -3720,7 +3706,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -3731,10 +3717,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C129">
         <v>333.95</v>
@@ -3742,10 +3728,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C130">
         <v>331.75</v>
@@ -3753,10 +3739,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C131">
         <v>331.38</v>
@@ -3764,10 +3750,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C132">
         <v>327.87</v>
@@ -3775,10 +3761,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C133">
         <v>323.66000000000003</v>
@@ -3786,10 +3772,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C134">
         <v>322.77</v>
@@ -3797,10 +3783,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C135">
         <v>316.35000000000002</v>
@@ -3808,10 +3794,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C136">
         <v>310.17</v>
@@ -3819,10 +3805,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C137">
         <v>304.47000000000003</v>
@@ -3830,10 +3816,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C138">
         <v>296.88</v>
@@ -3841,10 +3827,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C139">
         <v>290.32</v>
@@ -3852,10 +3838,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C140">
         <v>286.94</v>
@@ -3863,10 +3849,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C141">
         <v>285.49</v>
@@ -3874,10 +3860,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C142">
         <v>284.19</v>
@@ -3885,10 +3871,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C143">
         <v>283.02999999999997</v>
@@ -3896,7 +3882,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -3907,10 +3893,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C145">
         <v>271.19</v>
@@ -3918,10 +3904,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C146">
         <v>271.16000000000003</v>
@@ -3929,10 +3915,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C147">
         <v>264.52999999999997</v>
@@ -3940,10 +3926,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C148">
         <v>261.82</v>
@@ -3951,10 +3937,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C149">
         <v>260.54000000000002</v>
@@ -3962,10 +3948,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C150">
         <v>259.88</v>
@@ -3973,10 +3959,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B151" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C151">
         <v>257.49</v>
@@ -3984,10 +3970,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C152">
         <v>256.77</v>
@@ -3995,10 +3981,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C153">
         <v>256.5</v>
@@ -4006,7 +3992,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
         <v>141</v>
@@ -4017,10 +4003,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C155">
         <v>248.21</v>
@@ -4028,10 +4014,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C156">
         <v>246.75</v>
@@ -4039,10 +4025,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C157">
         <v>245.07</v>
@@ -4050,10 +4036,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C158">
         <v>244.73</v>
@@ -4061,10 +4047,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C159">
         <v>242.8</v>
@@ -4072,10 +4058,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C160">
         <v>241.52</v>
@@ -4083,10 +4069,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C161">
         <v>241.07</v>
@@ -4094,10 +4080,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C162">
         <v>240.93</v>
@@ -4105,7 +4091,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4116,10 +4102,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C164">
         <v>234.95</v>
@@ -4127,10 +4113,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C165">
         <v>228.33</v>
@@ -4138,10 +4124,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C166">
         <v>221.55</v>
@@ -4149,7 +4135,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B167" t="s">
         <v>96</v>
@@ -4160,10 +4146,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C168">
         <v>218.5</v>
@@ -4171,7 +4157,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4182,10 +4168,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C170">
         <v>205.79</v>
@@ -4193,10 +4179,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C171">
         <v>203.87</v>
@@ -4204,10 +4190,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C172">
         <v>203.61</v>
@@ -4215,10 +4201,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C173">
         <v>199.24</v>
@@ -4226,10 +4212,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B174" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C174">
         <v>198.42</v>
@@ -4237,7 +4223,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B175" t="s">
         <v>103</v>
@@ -4248,10 +4234,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B176" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C176">
         <v>192.35</v>
@@ -4259,10 +4245,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C177">
         <v>191.65</v>
@@ -4270,7 +4256,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B178" t="s">
         <v>144</v>
@@ -4281,10 +4267,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C179">
         <v>186.38</v>
@@ -4292,10 +4278,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B180" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C180">
         <v>178.9</v>
@@ -4303,10 +4289,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B181" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C181">
         <v>178.22</v>
@@ -4314,10 +4300,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C182">
         <v>178.17</v>
@@ -4325,7 +4311,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B183" t="s">
         <v>141</v>
@@ -4336,10 +4322,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>168.19</v>
@@ -4347,10 +4333,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C185">
         <v>167.87</v>
@@ -4358,10 +4344,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C186">
         <v>166.94</v>
@@ -4369,7 +4355,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4380,7 +4366,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B188" t="s">
         <v>96</v>
@@ -4391,7 +4377,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B189" t="s">
         <v>141</v>
@@ -4402,10 +4388,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C190">
         <v>153.30000000000001</v>
@@ -4413,7 +4399,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B191" t="s">
         <v>156</v>
@@ -4424,10 +4410,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C192">
         <v>150</v>
@@ -4435,10 +4421,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193" t="s">
         <v>336</v>
-      </c>
-      <c r="B193" t="s">
-        <v>335</v>
       </c>
       <c r="C193">
         <v>150</v>
@@ -4446,10 +4432,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B194" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C194">
         <v>148.74</v>
@@ -4457,10 +4443,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B195" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C195">
         <v>148.69999999999999</v>
@@ -4468,10 +4454,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C196">
         <v>147.41</v>
@@ -4479,10 +4465,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C197">
         <v>146.58000000000001</v>
@@ -4490,7 +4476,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
         <v>103</v>
@@ -4501,10 +4487,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C199">
         <v>134.29</v>
@@ -4512,10 +4498,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C200">
         <v>131.47</v>
@@ -4523,10 +4509,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B201" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C201">
         <v>129.91999999999999</v>
@@ -4534,10 +4520,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C202">
         <v>129.80000000000001</v>
@@ -4545,10 +4531,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C203">
         <v>128.16999999999999</v>
@@ -4556,10 +4542,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C204">
         <v>124.93</v>
@@ -4567,7 +4553,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
@@ -4578,10 +4564,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C206">
         <v>120.91</v>
@@ -4589,7 +4575,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
@@ -4600,10 +4586,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C208">
         <v>120.44</v>
@@ -4611,10 +4597,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C209">
         <v>120.01</v>
@@ -4622,10 +4608,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C210">
         <v>119.46</v>
@@ -4633,10 +4619,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B211" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C211">
         <v>119.05</v>
@@ -4644,7 +4630,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B212" t="s">
         <v>90</v>
@@ -4655,10 +4641,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B213" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C213">
         <v>117.74</v>
@@ -4666,10 +4652,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C214">
         <v>116.42</v>
@@ -4677,7 +4663,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B215" t="s">
         <v>129</v>
@@ -4688,10 +4674,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B216" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C216">
         <v>113.2</v>
@@ -4699,7 +4685,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B217" t="s">
         <v>160</v>
@@ -4710,10 +4696,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B218" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C218">
         <v>107.14</v>
@@ -4721,10 +4707,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C219">
         <v>106.21</v>
@@ -4732,10 +4718,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B220" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C220">
         <v>106.02</v>
@@ -4743,10 +4729,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B221" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C221">
         <v>105.38</v>
@@ -4754,10 +4740,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B222" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C222">
         <v>102.96</v>
@@ -4765,10 +4751,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B223" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C223">
         <v>102.6</v>
@@ -4776,10 +4762,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B224" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C224">
         <v>101.48</v>
@@ -4787,7 +4773,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B225" t="s">
         <v>20</v>
@@ -4798,10 +4784,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B226" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C226">
         <v>100</v>
@@ -4809,10 +4795,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B227" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C227">
         <v>100</v>
@@ -4820,10 +4806,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B228" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C228">
         <v>100</v>
@@ -4831,10 +4817,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B229" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -4842,10 +4828,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B230" t="s">
-        <v>396</v>
+        <v>22</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -4856,7 +4842,7 @@
         <v>397</v>
       </c>
       <c r="B231" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4922,7 +4908,7 @@
         <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C237">
         <v>97.08</v>
@@ -4944,7 +4930,7 @@
         <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C239">
         <v>96.49</v>
@@ -5010,7 +4996,7 @@
         <v>422</v>
       </c>
       <c r="B245" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C245">
         <v>91.39</v>
@@ -5043,7 +5029,7 @@
         <v>426</v>
       </c>
       <c r="B248" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C248">
         <v>88.17</v>
@@ -5087,7 +5073,7 @@
         <v>432</v>
       </c>
       <c r="B252" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C252">
         <v>86.38</v>
@@ -5098,7 +5084,7 @@
         <v>433</v>
       </c>
       <c r="B253" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C253">
         <v>85.85</v>
@@ -5164,7 +5150,7 @@
         <v>443</v>
       </c>
       <c r="B259" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C259">
         <v>83.36</v>
@@ -5208,7 +5194,7 @@
         <v>448</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C263">
         <v>81.739999999999995</v>
@@ -5230,7 +5216,7 @@
         <v>451</v>
       </c>
       <c r="B265" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C265">
         <v>77.87</v>
@@ -5252,7 +5238,7 @@
         <v>453</v>
       </c>
       <c r="B267" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C267">
         <v>76.319999999999993</v>
@@ -5274,7 +5260,7 @@
         <v>456</v>
       </c>
       <c r="B269" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C269">
         <v>74.319999999999993</v>
@@ -5351,7 +5337,7 @@
         <v>468</v>
       </c>
       <c r="B276" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C276">
         <v>70.88</v>
@@ -5395,7 +5381,7 @@
         <v>474</v>
       </c>
       <c r="B280" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C280">
         <v>68.459999999999994</v>
@@ -5417,7 +5403,7 @@
         <v>477</v>
       </c>
       <c r="B282" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C282">
         <v>66.989999999999995</v>
@@ -5450,7 +5436,7 @@
         <v>481</v>
       </c>
       <c r="B285" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C285">
         <v>61.65</v>
@@ -5472,7 +5458,7 @@
         <v>484</v>
       </c>
       <c r="B287" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C287">
         <v>61.04</v>
@@ -5571,7 +5557,7 @@
         <v>499</v>
       </c>
       <c r="B296" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C296">
         <v>50</v>
@@ -5593,7 +5579,7 @@
         <v>502</v>
       </c>
       <c r="B298" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C298">
         <v>48.16</v>
@@ -5604,7 +5590,7 @@
         <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C299">
         <v>47</v>
@@ -5615,7 +5601,7 @@
         <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C300">
         <v>46.92</v>
@@ -5637,7 +5623,7 @@
         <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C302">
         <v>44.34</v>
@@ -5670,7 +5656,7 @@
         <v>509</v>
       </c>
       <c r="B305" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C305">
         <v>43</v>
@@ -5692,7 +5678,7 @@
         <v>511</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C307">
         <v>42.57</v>
@@ -5736,7 +5722,7 @@
         <v>517</v>
       </c>
       <c r="B311" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C311">
         <v>40.869999999999997</v>
@@ -5747,7 +5733,7 @@
         <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C312">
         <v>40.799999999999997</v>
@@ -5758,7 +5744,7 @@
         <v>519</v>
       </c>
       <c r="B313" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C313">
         <v>39.68</v>
@@ -5780,7 +5766,7 @@
         <v>521</v>
       </c>
       <c r="B315" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C315">
         <v>38.159999999999997</v>
@@ -5791,7 +5777,7 @@
         <v>522</v>
       </c>
       <c r="B316" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C316">
         <v>37.44</v>
@@ -5802,7 +5788,7 @@
         <v>523</v>
       </c>
       <c r="B317" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C317">
         <v>36.81</v>
@@ -5868,7 +5854,7 @@
         <v>533</v>
       </c>
       <c r="B323" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C323">
         <v>32.64</v>
@@ -5879,7 +5865,7 @@
         <v>534</v>
       </c>
       <c r="B324" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C324">
         <v>32.229999999999997</v>
@@ -5890,7 +5876,7 @@
         <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C325">
         <v>32.14</v>
@@ -5901,7 +5887,7 @@
         <v>536</v>
       </c>
       <c r="B326" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C326">
         <v>31.82</v>
@@ -5912,7 +5898,7 @@
         <v>537</v>
       </c>
       <c r="B327" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C327">
         <v>31.1</v>
@@ -5923,7 +5909,7 @@
         <v>538</v>
       </c>
       <c r="B328" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C328">
         <v>31.09</v>
@@ -5945,7 +5931,7 @@
         <v>540</v>
       </c>
       <c r="B330" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C330">
         <v>29.91</v>
@@ -5978,7 +5964,7 @@
         <v>545</v>
       </c>
       <c r="B333" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C333">
         <v>26.25</v>
@@ -6077,7 +6063,7 @@
         <v>560</v>
       </c>
       <c r="B342" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C342">
         <v>19.600000000000001</v>
@@ -6154,7 +6140,7 @@
         <v>570</v>
       </c>
       <c r="B349" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C349">
         <v>16.72</v>
@@ -6165,10 +6151,10 @@
         <v>571</v>
       </c>
       <c r="B350" t="s">
-        <v>396</v>
+        <v>250</v>
       </c>
       <c r="C350">
-        <v>16.54</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6176,10 +6162,10 @@
         <v>572</v>
       </c>
       <c r="B351" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C351">
-        <v>15.92</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6187,43 +6173,43 @@
         <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>283</v>
+        <v>574</v>
       </c>
       <c r="C352">
-        <v>15.86</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C353">
-        <v>15.42</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B354" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C354">
-        <v>14.67</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B355" t="s">
-        <v>579</v>
+        <v>167</v>
       </c>
       <c r="C355">
-        <v>14.28</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6231,32 +6217,32 @@
         <v>580</v>
       </c>
       <c r="B356" t="s">
-        <v>166</v>
+        <v>581</v>
       </c>
       <c r="C356">
-        <v>13.84</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B357" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C357">
-        <v>13.67</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B358" t="s">
-        <v>584</v>
+        <v>242</v>
       </c>
       <c r="C358">
-        <v>13.63</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6264,10 +6250,10 @@
         <v>585</v>
       </c>
       <c r="B359" t="s">
-        <v>241</v>
+        <v>569</v>
       </c>
       <c r="C359">
-        <v>13.55</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6275,10 +6261,10 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="C360">
-        <v>12.88</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6286,21 +6272,21 @@
         <v>587</v>
       </c>
       <c r="B361" t="s">
-        <v>386</v>
+        <v>588</v>
       </c>
       <c r="C361">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>589</v>
+        <v>18</v>
       </c>
       <c r="C362">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6308,21 +6294,21 @@
         <v>590</v>
       </c>
       <c r="B363" t="s">
-        <v>18</v>
+        <v>591</v>
       </c>
       <c r="C363">
-        <v>12.5</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B364" t="s">
-        <v>592</v>
+        <v>149</v>
       </c>
       <c r="C364">
-        <v>12.48</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6330,10 +6316,10 @@
         <v>593</v>
       </c>
       <c r="B365" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="C365">
-        <v>11.96</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6341,10 +6327,10 @@
         <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="C366">
-        <v>11.63</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6352,10 +6338,10 @@
         <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C367">
-        <v>10.43</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6363,10 +6349,10 @@
         <v>596</v>
       </c>
       <c r="B368" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="C368">
-        <v>9.85</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6374,21 +6360,21 @@
         <v>597</v>
       </c>
       <c r="B369" t="s">
-        <v>209</v>
+        <v>598</v>
       </c>
       <c r="C369">
-        <v>9.77</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>599</v>
+        <v>195</v>
       </c>
       <c r="C370">
-        <v>9.7200000000000006</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6396,21 +6382,21 @@
         <v>600</v>
       </c>
       <c r="B371" t="s">
-        <v>194</v>
+        <v>601</v>
       </c>
       <c r="C371">
-        <v>9.49</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B372" t="s">
-        <v>602</v>
+        <v>103</v>
       </c>
       <c r="C372">
-        <v>8.4499999999999993</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6418,10 +6404,10 @@
         <v>603</v>
       </c>
       <c r="B373" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="C373">
-        <v>8.44</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6429,21 +6415,21 @@
         <v>604</v>
       </c>
       <c r="B374" t="s">
-        <v>447</v>
+        <v>605</v>
       </c>
       <c r="C374">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B375" t="s">
-        <v>606</v>
+        <v>90</v>
       </c>
       <c r="C375">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6451,10 +6437,10 @@
         <v>607</v>
       </c>
       <c r="B376" t="s">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="C376">
-        <v>7.6</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6462,32 +6448,32 @@
         <v>608</v>
       </c>
       <c r="B377" t="s">
-        <v>516</v>
+        <v>609</v>
       </c>
       <c r="C377">
-        <v>7.51</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B378" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C378">
-        <v>7.47</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B379" t="s">
-        <v>612</v>
+        <v>296</v>
       </c>
       <c r="C379">
-        <v>6.58</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6495,10 +6481,10 @@
         <v>613</v>
       </c>
       <c r="B380" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="C380">
-        <v>5.55</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6506,10 +6492,10 @@
         <v>614</v>
       </c>
       <c r="B381" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C381">
-        <v>5.16</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6517,10 +6503,10 @@
         <v>615</v>
       </c>
       <c r="B382" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="C382">
-        <v>4.3600000000000003</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6528,21 +6514,21 @@
         <v>616</v>
       </c>
       <c r="B383" t="s">
-        <v>530</v>
+        <v>617</v>
       </c>
       <c r="C383">
-        <v>2.41</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B384" t="s">
-        <v>618</v>
+        <v>415</v>
       </c>
       <c r="C384">
-        <v>2.3199999999999998</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6550,32 +6536,32 @@
         <v>619</v>
       </c>
       <c r="B385" t="s">
-        <v>415</v>
+        <v>620</v>
       </c>
       <c r="C385">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B386" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C386">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B387" t="s">
-        <v>623</v>
+        <v>149</v>
       </c>
       <c r="C387">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6586,7 +6572,7 @@
         <v>149</v>
       </c>
       <c r="C388">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6594,10 +6580,10 @@
         <v>625</v>
       </c>
       <c r="B389" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="C389">
-        <v>0.69</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6605,10 +6591,10 @@
         <v>626</v>
       </c>
       <c r="B390" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C390">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6616,7 +6602,7 @@
         <v>627</v>
       </c>
       <c r="B391" t="s">
-        <v>293</v>
+        <v>628</v>
       </c>
       <c r="C391">
         <v>0.55000000000000004</v>
@@ -6624,24 +6610,24 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B392" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C392">
-        <v>0.55000000000000004</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B393" t="s">
-        <v>631</v>
+        <v>362</v>
       </c>
       <c r="C393">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6649,7 +6635,7 @@
         <v>632</v>
       </c>
       <c r="B394" t="s">
-        <v>361</v>
+        <v>633</v>
       </c>
       <c r="C394">
         <v>0.03</v>
@@ -6657,13 +6643,13 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B395" t="s">
-        <v>634</v>
+        <v>8</v>
       </c>
       <c r="C395">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6671,26 +6657,15 @@
         <v>635</v>
       </c>
       <c r="B396" t="s">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="C396">
         <v>0.01</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="A397" t="s">
-        <v>636</v>
-      </c>
-      <c r="B397" t="s">
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
         <v>637</v>
-      </c>
-      <c r="C397">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="A399" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4E1102-A2B2-43EF-9EFE-555E14C09764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C46A155-17F6-4FDF-837F-F4DADF9A6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="643">
   <si>
     <t>CONTA</t>
   </si>
@@ -55,6 +55,12 @@
     <t>PEDRO</t>
   </si>
   <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
     <t>004459875</t>
   </si>
   <si>
@@ -85,1654 +91,1663 @@
     <t>RICARDO</t>
   </si>
   <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004884046</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004458624</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
+    <t>004806244</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
     <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004884046</t>
-  </si>
-  <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004458624</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>004204255</t>
-  </si>
-  <si>
-    <t>AMADO</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004264780</t>
   </si>
   <si>
     <t>004259659</t>
@@ -2299,11 +2314,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2370,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>29851.14</v>
+        <v>30484.18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2381,7 +2394,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>25790.959999999999</v>
+        <v>29851.14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2392,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>21560.32</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2403,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>15027.11</v>
+        <v>21560.32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2414,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>15000</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2425,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>14016.54</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2480,7 +2493,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>2691.13</v>
+        <v>3098.91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2491,7 +2504,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>2300</v>
+        <v>2741.27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2502,7 +2515,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>2026.74</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2513,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>1239.45</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2524,7 +2537,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>991.44</v>
+        <v>2026.74</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2535,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>988.88</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2543,65 +2556,65 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>953.43</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>944.11</v>
+        <v>988.88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>938.8</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>932.86</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>930.54</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>891.04</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2612,7 +2625,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>885.13</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2623,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>884.67</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2634,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>883.13</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2645,7 +2658,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>872.41</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2656,7 +2669,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>867.93</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2667,7 +2680,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>864.35</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2678,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>849.45</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2689,7 +2702,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>845.19</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2697,32 +2710,32 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>833.03</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>820.67</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>817.72</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2733,7 +2746,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>811.38</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2744,7 +2757,7 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>810.41</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2755,7 +2768,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>803.76</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2763,131 +2776,131 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>802.18</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
       <c r="C43">
-        <v>798.23</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
       <c r="C44">
-        <v>788.61</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
       <c r="C45">
-        <v>787.45</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
       <c r="C46">
-        <v>768.88</v>
+        <v>788.61</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
       <c r="C47">
-        <v>761.35</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
       <c r="C48">
-        <v>747.96</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
       <c r="C49">
-        <v>743.06</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
       <c r="C50">
-        <v>739.38</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
         <v>97</v>
       </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
       <c r="C51">
-        <v>732.94</v>
+        <v>743.06</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
       <c r="C52">
-        <v>729.28</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
       <c r="C53">
-        <v>723.26</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2898,7 +2911,7 @@
         <v>103</v>
       </c>
       <c r="C54">
-        <v>714.42</v>
+        <v>729.28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2906,21 +2919,21 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C55">
-        <v>714.2</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
       <c r="C56">
-        <v>710.16</v>
+        <v>714.42</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2931,7 +2944,7 @@
         <v>108</v>
       </c>
       <c r="C57">
-        <v>703</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2939,43 +2952,43 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C58">
-        <v>689.97</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
       <c r="C59">
-        <v>685.96</v>
+        <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
         <v>113</v>
       </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
       <c r="C60">
-        <v>670.31</v>
+        <v>689.97</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
       <c r="C61">
-        <v>664.2</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2986,7 +2999,7 @@
         <v>117</v>
       </c>
       <c r="C62">
-        <v>655.11</v>
+        <v>670.31</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2994,32 +3007,32 @@
         <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>651</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
       <c r="C64">
-        <v>645.16999999999996</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
       <c r="C65">
-        <v>640.99</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3030,7 +3043,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>636.76</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3038,21 +3051,21 @@
         <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>622.63</v>
+        <v>640.99</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
         <v>127</v>
       </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
       <c r="C68">
-        <v>608.94000000000005</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3063,7 +3076,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>608.66999999999996</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3071,21 +3084,21 @@
         <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>605.79</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
         <v>132</v>
       </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
       <c r="C71">
-        <v>602.58000000000004</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3093,21 +3106,21 @@
         <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C72">
-        <v>596.41999999999996</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C73">
-        <v>579.26</v>
+        <v>602.58000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3115,43 +3128,43 @@
         <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>579.20000000000005</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
       <c r="C75">
-        <v>570.97</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" t="s">
         <v>140</v>
       </c>
-      <c r="B76" t="s">
-        <v>141</v>
-      </c>
       <c r="C76">
-        <v>560.45000000000005</v>
+        <v>579.20000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
         <v>142</v>
       </c>
-      <c r="B77" t="s">
-        <v>141</v>
-      </c>
       <c r="C77">
-        <v>556.30999999999995</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3162,7 +3175,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>553.23</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3170,21 +3183,21 @@
         <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79">
-        <v>544.76</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
         <v>147</v>
       </c>
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
       <c r="C80">
-        <v>542.62</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3195,7 +3208,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>536.41999999999996</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3203,21 +3216,21 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C82">
-        <v>534.49</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" t="s">
-        <v>24</v>
-      </c>
       <c r="C83">
-        <v>531.54</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3228,7 +3241,7 @@
         <v>154</v>
       </c>
       <c r="C84">
-        <v>528.38</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3236,153 +3249,153 @@
         <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C85">
-        <v>520.05999999999995</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
-        <v>158</v>
-      </c>
       <c r="C86">
-        <v>509.7</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>481.03</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C88">
-        <v>470.68</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C89">
-        <v>468.72</v>
+        <v>481.03</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="C90">
-        <v>468.65</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" t="s">
         <v>166</v>
       </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
       <c r="C91">
-        <v>465.88</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C92">
-        <v>465.38</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
         <v>169</v>
       </c>
-      <c r="B93" t="s">
-        <v>170</v>
-      </c>
       <c r="C93">
-        <v>463.52</v>
+        <v>466.1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
         <v>171</v>
       </c>
-      <c r="B94" t="s">
-        <v>172</v>
-      </c>
       <c r="C94">
-        <v>462.44</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="C95">
-        <v>460.33</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="C96">
-        <v>459.98</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" t="s">
         <v>176</v>
       </c>
-      <c r="B97" t="s">
-        <v>177</v>
-      </c>
       <c r="C97">
-        <v>453.33</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" t="s">
         <v>178</v>
       </c>
-      <c r="B98" t="s">
-        <v>28</v>
-      </c>
       <c r="C98">
-        <v>451.86</v>
+        <v>460.33</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3390,10 +3403,10 @@
         <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>447.24</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3404,7 +3417,7 @@
         <v>181</v>
       </c>
       <c r="C100">
-        <v>446.15</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3412,54 +3425,54 @@
         <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C101">
-        <v>441.76</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C102">
-        <v>429.52</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C103">
-        <v>418</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="C104">
-        <v>416.45</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" t="s">
         <v>189</v>
       </c>
-      <c r="B105" t="s">
-        <v>160</v>
-      </c>
       <c r="C105">
-        <v>415.42</v>
+        <v>429.52</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3467,109 +3480,109 @@
         <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>409.89</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C107">
-        <v>409.12</v>
+        <v>415.42</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C108">
-        <v>407.94</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C109">
-        <v>400.5</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="C110">
-        <v>400.01</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
         <v>199</v>
       </c>
-      <c r="B111" t="s">
-        <v>200</v>
-      </c>
       <c r="C111">
-        <v>397.62</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="C112">
-        <v>392.89</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C113">
-        <v>392.83</v>
+        <v>397.62</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C114">
-        <v>380.46</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
         <v>206</v>
       </c>
-      <c r="B115" t="s">
-        <v>149</v>
-      </c>
       <c r="C115">
-        <v>378.28</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3577,76 +3590,76 @@
         <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="C116">
-        <v>376.72</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C117">
-        <v>374.97</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C118">
-        <v>369.5</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C119">
-        <v>367.11</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C120">
-        <v>355.91</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="C121">
-        <v>347.34</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" t="s">
         <v>218</v>
       </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
       <c r="C122">
-        <v>346.77</v>
+        <v>355.91</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3654,1151 +3667,1151 @@
         <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>345.51</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>344.66</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C125">
-        <v>344.22</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" t="s">
         <v>224</v>
       </c>
-      <c r="B126" t="s">
-        <v>225</v>
-      </c>
       <c r="C126">
-        <v>341.85</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C127">
-        <v>338.66</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C128">
-        <v>336.01</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" t="s">
         <v>229</v>
       </c>
-      <c r="B129" t="s">
-        <v>230</v>
-      </c>
       <c r="C129">
-        <v>333.95</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>331.75</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>331.38</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132">
-        <v>327.87</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C133">
-        <v>323.66000000000003</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C134">
-        <v>322.77</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C135">
-        <v>316.35000000000002</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C136">
-        <v>310.17</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C137">
-        <v>304.47000000000003</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C138">
-        <v>296.88</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C139">
-        <v>290.32</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C140">
-        <v>286.94</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C141">
-        <v>285.49</v>
+        <v>290.32</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>284.19</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C143">
-        <v>283.02999999999997</v>
+        <v>285.49</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C144">
-        <v>280.26</v>
+        <v>284.19</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="C145">
-        <v>271.19</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>271.16000000000003</v>
+        <v>280.26</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="C147">
-        <v>264.52999999999997</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C148">
-        <v>261.82</v>
+        <v>271.16000000000003</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C149">
-        <v>260.54000000000002</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C150">
-        <v>259.88</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="C151">
-        <v>257.49</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C152">
-        <v>256.77</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="C153">
-        <v>256.5</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>256.26</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C155">
-        <v>248.21</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="C156">
-        <v>246.75</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C157">
-        <v>245.07</v>
+        <v>248.21</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C158">
-        <v>244.73</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="C159">
-        <v>242.8</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C160">
-        <v>241.52</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="C161">
-        <v>241.07</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C162">
-        <v>240.93</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="C163">
-        <v>236.97</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C164">
-        <v>234.95</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>228.33</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C166">
-        <v>221.55</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="C167">
-        <v>219.44</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C168">
-        <v>218.5</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C169">
-        <v>214.1</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C170">
-        <v>205.79</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>203.87</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="C172">
-        <v>203.61</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C173">
-        <v>199.24</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B174" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C174">
-        <v>198.42</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B175" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="C175">
-        <v>197.42</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="C176">
-        <v>192.35</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B177" t="s">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="C177">
-        <v>191.65</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="C178">
-        <v>187.16</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="C179">
-        <v>186.38</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="C180">
-        <v>178.9</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B181" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C181">
-        <v>178.22</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B182" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C182">
-        <v>178.17</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>141</v>
+        <v>322</v>
       </c>
       <c r="C183">
-        <v>169.78</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>324</v>
       </c>
       <c r="C184">
-        <v>168.19</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="C185">
-        <v>167.87</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="C186">
-        <v>166.94</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="C187">
-        <v>164.31</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="C188">
-        <v>162.96</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B189" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>159.78</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>99</v>
       </c>
       <c r="C190">
-        <v>153.30000000000001</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B191" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C191">
-        <v>152.68</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B192" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C192">
-        <v>150</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B193" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="C193">
-        <v>150</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B194" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C194">
-        <v>148.74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B195" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="C195">
-        <v>148.69999999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C196">
-        <v>147.41</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B197" t="s">
-        <v>344</v>
+        <v>63</v>
       </c>
       <c r="C197">
-        <v>146.58000000000001</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B198" t="s">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="C198">
-        <v>139.29</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B199" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C199">
-        <v>134.29</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B200" t="s">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c r="C200">
-        <v>131.47</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B201" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C201">
-        <v>129.91999999999999</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="C202">
-        <v>129.80000000000001</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C203">
-        <v>128.16999999999999</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B204" t="s">
-        <v>356</v>
+        <v>169</v>
       </c>
       <c r="C204">
-        <v>124.93</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>355</v>
       </c>
       <c r="C205">
-        <v>124.24</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B206" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C206">
-        <v>120.91</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
       </c>
       <c r="C207">
-        <v>120.82</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C208">
-        <v>120.44</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B209" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="C209">
-        <v>120.01</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B210" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C210">
-        <v>119.46</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C211">
-        <v>119.05</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>367</v>
       </c>
       <c r="C212">
-        <v>118.62</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B213" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C213">
-        <v>117.74</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B214" t="s">
-        <v>373</v>
+        <v>93</v>
       </c>
       <c r="C214">
-        <v>116.42</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B215" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="C215">
-        <v>116.06</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B216" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="C216">
-        <v>113.2</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B217" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C217">
-        <v>107.6</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>378</v>
+        <v>162</v>
       </c>
       <c r="C218">
-        <v>107.14</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B219" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C219">
-        <v>106.21</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B220" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C220">
-        <v>106.02</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B221" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="C221">
-        <v>105.38</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B222" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="C222">
-        <v>102.96</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B223" t="s">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="C223">
-        <v>102.6</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B224" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C224">
-        <v>101.48</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B225" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="C225">
-        <v>101.15</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B226" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="C226">
-        <v>100</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B227" t="s">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="C227">
         <v>100</v>
@@ -4806,10 +4819,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B228" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C228">
         <v>100</v>
@@ -4817,10 +4830,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B229" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -4828,10 +4841,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>395</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -4839,10 +4852,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>396</v>
+      </c>
+      <c r="B231" t="s">
         <v>397</v>
-      </c>
-      <c r="B231" t="s">
-        <v>195</v>
       </c>
       <c r="C231">
         <v>100</v>
@@ -4853,7 +4866,7 @@
         <v>398</v>
       </c>
       <c r="B232" t="s">
-        <v>399</v>
+        <v>197</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -4861,10 +4874,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>399</v>
+      </c>
+      <c r="B233" t="s">
         <v>400</v>
-      </c>
-      <c r="B233" t="s">
-        <v>401</v>
       </c>
       <c r="C233">
         <v>100</v>
@@ -4872,10 +4885,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>401</v>
+      </c>
+      <c r="B234" t="s">
         <v>402</v>
-      </c>
-      <c r="B234" t="s">
-        <v>403</v>
       </c>
       <c r="C234">
         <v>100</v>
@@ -4883,10 +4896,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
+        <v>403</v>
+      </c>
+      <c r="B235" t="s">
         <v>404</v>
-      </c>
-      <c r="B235" t="s">
-        <v>405</v>
       </c>
       <c r="C235">
         <v>100</v>
@@ -4894,24 +4907,24 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>405</v>
+      </c>
+      <c r="B236" t="s">
         <v>406</v>
       </c>
-      <c r="B236" t="s">
-        <v>407</v>
-      </c>
       <c r="C236">
-        <v>98.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>407</v>
+      </c>
+      <c r="B237" t="s">
         <v>408</v>
       </c>
-      <c r="B237" t="s">
-        <v>59</v>
-      </c>
       <c r="C237">
-        <v>97.08</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4919,21 +4932,21 @@
         <v>409</v>
       </c>
       <c r="B238" t="s">
-        <v>410</v>
+        <v>63</v>
       </c>
       <c r="C238">
-        <v>97.03</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" t="s">
         <v>411</v>
       </c>
-      <c r="B239" t="s">
-        <v>294</v>
-      </c>
       <c r="C239">
-        <v>96.49</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4941,65 +4954,65 @@
         <v>412</v>
       </c>
       <c r="B240" t="s">
-        <v>413</v>
+        <v>295</v>
       </c>
       <c r="C240">
-        <v>95.43</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>413</v>
+      </c>
+      <c r="B241" t="s">
         <v>414</v>
       </c>
-      <c r="B241" t="s">
-        <v>415</v>
-      </c>
       <c r="C241">
-        <v>95.12</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>415</v>
+      </c>
+      <c r="B242" t="s">
         <v>416</v>
       </c>
-      <c r="B242" t="s">
-        <v>417</v>
-      </c>
       <c r="C242">
-        <v>94.34</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>417</v>
+      </c>
+      <c r="B243" t="s">
         <v>418</v>
       </c>
-      <c r="B243" t="s">
-        <v>419</v>
-      </c>
       <c r="C243">
-        <v>94.23</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" t="s">
         <v>420</v>
       </c>
-      <c r="B244" t="s">
-        <v>421</v>
-      </c>
       <c r="C244">
-        <v>92.85</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>421</v>
+      </c>
+      <c r="B245" t="s">
         <v>422</v>
       </c>
-      <c r="B245" t="s">
-        <v>296</v>
-      </c>
       <c r="C245">
-        <v>91.39</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5007,10 +5020,10 @@
         <v>423</v>
       </c>
       <c r="B246" t="s">
-        <v>419</v>
+        <v>297</v>
       </c>
       <c r="C246">
-        <v>89.77</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5018,21 +5031,21 @@
         <v>424</v>
       </c>
       <c r="B247" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C247">
-        <v>89.2</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>425</v>
+      </c>
+      <c r="B248" t="s">
         <v>426</v>
       </c>
-      <c r="B248" t="s">
-        <v>210</v>
-      </c>
       <c r="C248">
-        <v>88.17</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5040,10 +5053,10 @@
         <v>427</v>
       </c>
       <c r="B249" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C249">
-        <v>87.45</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5051,32 +5064,32 @@
         <v>428</v>
       </c>
       <c r="B250" t="s">
-        <v>429</v>
+        <v>89</v>
       </c>
       <c r="C250">
-        <v>87.25</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>429</v>
+      </c>
+      <c r="B251" t="s">
         <v>430</v>
       </c>
-      <c r="B251" t="s">
-        <v>431</v>
-      </c>
       <c r="C251">
-        <v>86.45</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>431</v>
+      </c>
+      <c r="B252" t="s">
         <v>432</v>
       </c>
-      <c r="B252" t="s">
-        <v>296</v>
-      </c>
       <c r="C252">
-        <v>86.38</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5084,10 +5097,10 @@
         <v>433</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="C253">
-        <v>85.85</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5095,10 +5108,10 @@
         <v>434</v>
       </c>
       <c r="B254" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="C254">
-        <v>85.71</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5106,54 +5119,54 @@
         <v>435</v>
       </c>
       <c r="B255" t="s">
-        <v>436</v>
+        <v>152</v>
       </c>
       <c r="C255">
-        <v>85.65</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>436</v>
+      </c>
+      <c r="B256" t="s">
         <v>437</v>
       </c>
-      <c r="B256" t="s">
-        <v>438</v>
-      </c>
       <c r="C256">
-        <v>84.2</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>438</v>
+      </c>
+      <c r="B257" t="s">
         <v>439</v>
       </c>
-      <c r="B257" t="s">
-        <v>440</v>
-      </c>
       <c r="C257">
-        <v>83.73</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>440</v>
+      </c>
+      <c r="B258" t="s">
         <v>441</v>
       </c>
-      <c r="B258" t="s">
-        <v>442</v>
-      </c>
       <c r="C258">
-        <v>83.66</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>442</v>
+      </c>
+      <c r="B259" t="s">
         <v>443</v>
       </c>
-      <c r="B259" t="s">
-        <v>45</v>
-      </c>
       <c r="C259">
-        <v>83.36</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5161,10 +5174,10 @@
         <v>444</v>
       </c>
       <c r="B260" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C260">
-        <v>83.26</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5172,10 +5185,10 @@
         <v>445</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C261">
-        <v>82.37</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5183,21 +5196,21 @@
         <v>446</v>
       </c>
       <c r="B262" t="s">
-        <v>447</v>
+        <v>16</v>
       </c>
       <c r="C262">
-        <v>81.87</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>447</v>
+      </c>
+      <c r="B263" t="s">
         <v>448</v>
       </c>
-      <c r="B263" t="s">
-        <v>266</v>
-      </c>
       <c r="C263">
-        <v>81.739999999999995</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5205,21 +5218,21 @@
         <v>449</v>
       </c>
       <c r="B264" t="s">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="C264">
-        <v>81.13</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>450</v>
+      </c>
+      <c r="B265" t="s">
         <v>451</v>
       </c>
-      <c r="B265" t="s">
-        <v>342</v>
-      </c>
       <c r="C265">
-        <v>77.87</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5227,10 +5240,10 @@
         <v>452</v>
       </c>
       <c r="B266" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="C266">
-        <v>77.77</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5238,10 +5251,10 @@
         <v>453</v>
       </c>
       <c r="B267" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="C267">
-        <v>76.319999999999993</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5249,21 +5262,21 @@
         <v>454</v>
       </c>
       <c r="B268" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="C268">
-        <v>75.86</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>455</v>
+      </c>
+      <c r="B269" t="s">
         <v>456</v>
       </c>
-      <c r="B269" t="s">
-        <v>248</v>
-      </c>
       <c r="C269">
-        <v>74.319999999999993</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5271,21 +5284,21 @@
         <v>457</v>
       </c>
       <c r="B270" t="s">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="C270">
-        <v>73.239999999999995</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>458</v>
+      </c>
+      <c r="B271" t="s">
         <v>459</v>
       </c>
-      <c r="B271" t="s">
-        <v>121</v>
-      </c>
       <c r="C271">
-        <v>72.56</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5293,54 +5306,54 @@
         <v>460</v>
       </c>
       <c r="B272" t="s">
-        <v>461</v>
+        <v>124</v>
       </c>
       <c r="C272">
-        <v>72.2</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
+        <v>461</v>
+      </c>
+      <c r="B273" t="s">
         <v>462</v>
       </c>
-      <c r="B273" t="s">
-        <v>463</v>
-      </c>
       <c r="C273">
-        <v>71.84</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>463</v>
+      </c>
+      <c r="B274" t="s">
         <v>464</v>
       </c>
-      <c r="B274" t="s">
-        <v>465</v>
-      </c>
       <c r="C274">
-        <v>71.569999999999993</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>465</v>
+      </c>
+      <c r="B275" t="s">
         <v>466</v>
       </c>
-      <c r="B275" t="s">
-        <v>467</v>
-      </c>
       <c r="C275">
-        <v>71.31</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>467</v>
+      </c>
+      <c r="B276" t="s">
         <v>468</v>
       </c>
-      <c r="B276" t="s">
-        <v>347</v>
-      </c>
       <c r="C276">
-        <v>70.88</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5348,21 +5361,21 @@
         <v>469</v>
       </c>
       <c r="B277" t="s">
-        <v>470</v>
+        <v>348</v>
       </c>
       <c r="C277">
-        <v>70.13</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>470</v>
+      </c>
+      <c r="B278" t="s">
         <v>471</v>
       </c>
-      <c r="B278" t="s">
-        <v>407</v>
-      </c>
       <c r="C278">
-        <v>69.84</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5370,21 +5383,21 @@
         <v>472</v>
       </c>
       <c r="B279" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="C279">
-        <v>69.680000000000007</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>473</v>
+      </c>
+      <c r="B280" t="s">
         <v>474</v>
       </c>
-      <c r="B280" t="s">
-        <v>36</v>
-      </c>
       <c r="C280">
-        <v>68.459999999999994</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5392,21 +5405,21 @@
         <v>475</v>
       </c>
       <c r="B281" t="s">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="C281">
-        <v>68.39</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>476</v>
+      </c>
+      <c r="B282" t="s">
         <v>477</v>
       </c>
-      <c r="B282" t="s">
-        <v>76</v>
-      </c>
       <c r="C282">
-        <v>66.989999999999995</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5414,21 +5427,21 @@
         <v>478</v>
       </c>
       <c r="B283" t="s">
-        <v>479</v>
+        <v>32</v>
       </c>
       <c r="C283">
-        <v>65.900000000000006</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>479</v>
+      </c>
+      <c r="B284" t="s">
         <v>480</v>
       </c>
-      <c r="B284" t="s">
-        <v>465</v>
-      </c>
       <c r="C284">
-        <v>65.83</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5436,10 +5449,10 @@
         <v>481</v>
       </c>
       <c r="B285" t="s">
-        <v>238</v>
+        <v>466</v>
       </c>
       <c r="C285">
-        <v>61.65</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5447,21 +5460,21 @@
         <v>482</v>
       </c>
       <c r="B286" t="s">
-        <v>483</v>
+        <v>240</v>
       </c>
       <c r="C286">
-        <v>61.56</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
+        <v>483</v>
+      </c>
+      <c r="B287" t="s">
         <v>484</v>
       </c>
-      <c r="B287" t="s">
-        <v>238</v>
-      </c>
       <c r="C287">
-        <v>61.04</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5469,43 +5482,43 @@
         <v>485</v>
       </c>
       <c r="B288" t="s">
-        <v>486</v>
+        <v>240</v>
       </c>
       <c r="C288">
-        <v>60.95</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>486</v>
+      </c>
+      <c r="B289" t="s">
         <v>487</v>
       </c>
-      <c r="B289" t="s">
-        <v>488</v>
-      </c>
       <c r="C289">
-        <v>60.39</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
+        <v>488</v>
+      </c>
+      <c r="B290" t="s">
         <v>489</v>
       </c>
-      <c r="B290" t="s">
-        <v>490</v>
-      </c>
       <c r="C290">
-        <v>59.42</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
+        <v>490</v>
+      </c>
+      <c r="B291" t="s">
         <v>491</v>
       </c>
-      <c r="B291" t="s">
-        <v>141</v>
-      </c>
       <c r="C291">
-        <v>58.37</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5513,10 +5526,10 @@
         <v>492</v>
       </c>
       <c r="B292" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C292">
-        <v>57.82</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5524,43 +5537,43 @@
         <v>493</v>
       </c>
       <c r="B293" t="s">
-        <v>494</v>
+        <v>97</v>
       </c>
       <c r="C293">
-        <v>57.41</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>494</v>
+      </c>
+      <c r="B294" t="s">
         <v>495</v>
       </c>
-      <c r="B294" t="s">
-        <v>496</v>
-      </c>
       <c r="C294">
-        <v>55.66</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>496</v>
+      </c>
+      <c r="B295" t="s">
         <v>497</v>
       </c>
-      <c r="B295" t="s">
-        <v>498</v>
-      </c>
       <c r="C295">
-        <v>52.75</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
+        <v>498</v>
+      </c>
+      <c r="B296" t="s">
         <v>499</v>
       </c>
-      <c r="B296" t="s">
-        <v>40</v>
-      </c>
       <c r="C296">
-        <v>50</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5568,21 +5581,21 @@
         <v>500</v>
       </c>
       <c r="B297" t="s">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="C297">
-        <v>48.53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>501</v>
+      </c>
+      <c r="B298" t="s">
         <v>502</v>
       </c>
-      <c r="B298" t="s">
-        <v>351</v>
-      </c>
       <c r="C298">
-        <v>48.16</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5590,10 +5603,10 @@
         <v>503</v>
       </c>
       <c r="B299" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="C299">
-        <v>47</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5601,10 +5614,10 @@
         <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>385</v>
+        <v>46</v>
       </c>
       <c r="C300">
-        <v>46.92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5612,10 +5625,10 @@
         <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="C301">
-        <v>44.89</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5623,10 +5636,10 @@
         <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C302">
-        <v>44.34</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5634,10 +5647,10 @@
         <v>507</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="C303">
-        <v>43.86</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5645,10 +5658,10 @@
         <v>508</v>
       </c>
       <c r="B304" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C304">
-        <v>43.07</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5656,10 +5669,10 @@
         <v>509</v>
       </c>
       <c r="B305" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C305">
-        <v>43</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5667,10 +5680,10 @@
         <v>510</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C306">
-        <v>42.7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5678,10 +5691,10 @@
         <v>511</v>
       </c>
       <c r="B307" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C307">
-        <v>42.57</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5689,21 +5702,21 @@
         <v>512</v>
       </c>
       <c r="B308" t="s">
-        <v>513</v>
+        <v>24</v>
       </c>
       <c r="C308">
-        <v>42.42</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
+        <v>513</v>
+      </c>
+      <c r="B309" t="s">
         <v>514</v>
       </c>
-      <c r="B309" t="s">
-        <v>465</v>
-      </c>
       <c r="C309">
-        <v>41.74</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5711,21 +5724,21 @@
         <v>515</v>
       </c>
       <c r="B310" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="C310">
-        <v>41.63</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
+        <v>516</v>
+      </c>
+      <c r="B311" t="s">
         <v>517</v>
       </c>
-      <c r="B311" t="s">
-        <v>59</v>
-      </c>
       <c r="C311">
-        <v>40.869999999999997</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5733,10 +5746,10 @@
         <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="C312">
-        <v>40.799999999999997</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5747,7 +5760,7 @@
         <v>236</v>
       </c>
       <c r="C313">
-        <v>39.68</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5755,10 +5768,10 @@
         <v>520</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="C314">
-        <v>38.93</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5766,10 +5779,10 @@
         <v>521</v>
       </c>
       <c r="B315" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="C315">
-        <v>38.159999999999997</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5777,10 +5790,10 @@
         <v>522</v>
       </c>
       <c r="B316" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C316">
-        <v>37.44</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5788,10 +5801,10 @@
         <v>523</v>
       </c>
       <c r="B317" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="C317">
-        <v>36.81</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5799,10 +5812,10 @@
         <v>524</v>
       </c>
       <c r="B318" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="C318">
-        <v>36.590000000000003</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5810,65 +5823,65 @@
         <v>525</v>
       </c>
       <c r="B319" t="s">
-        <v>526</v>
+        <v>127</v>
       </c>
       <c r="C319">
-        <v>36.36</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
+        <v>526</v>
+      </c>
+      <c r="B320" t="s">
         <v>527</v>
       </c>
-      <c r="B320" t="s">
-        <v>528</v>
-      </c>
       <c r="C320">
-        <v>36.21</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
+        <v>528</v>
+      </c>
+      <c r="B321" t="s">
         <v>529</v>
       </c>
-      <c r="B321" t="s">
-        <v>530</v>
-      </c>
       <c r="C321">
-        <v>33.049999999999997</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B322" t="s">
-        <v>532</v>
+        <v>250</v>
       </c>
       <c r="C322">
-        <v>32.909999999999997</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B323" t="s">
-        <v>258</v>
+        <v>532</v>
       </c>
       <c r="C323">
-        <v>32.64</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
+        <v>533</v>
+      </c>
+      <c r="B324" t="s">
         <v>534</v>
       </c>
-      <c r="B324" t="s">
-        <v>296</v>
-      </c>
       <c r="C324">
-        <v>32.229999999999997</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5876,10 +5889,10 @@
         <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C325">
-        <v>32.14</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5887,10 +5900,10 @@
         <v>536</v>
       </c>
       <c r="B326" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C326">
-        <v>31.82</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5898,10 +5911,10 @@
         <v>537</v>
       </c>
       <c r="B327" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="C327">
-        <v>31.1</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5909,10 +5922,10 @@
         <v>538</v>
       </c>
       <c r="B328" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C328">
-        <v>31.09</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5920,10 +5933,10 @@
         <v>539</v>
       </c>
       <c r="B329" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C329">
-        <v>30.32</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5931,10 +5944,10 @@
         <v>540</v>
       </c>
       <c r="B330" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="C330">
-        <v>29.91</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5942,175 +5955,175 @@
         <v>541</v>
       </c>
       <c r="B331" t="s">
-        <v>542</v>
+        <v>132</v>
       </c>
       <c r="C331">
-        <v>29.29</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B332" t="s">
-        <v>544</v>
+        <v>320</v>
       </c>
       <c r="C332">
-        <v>27.18</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B333" t="s">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="C333">
-        <v>26.25</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>545</v>
+      </c>
+      <c r="B334" t="s">
         <v>546</v>
       </c>
-      <c r="B334" t="s">
-        <v>547</v>
-      </c>
       <c r="C334">
-        <v>25.41</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B335" t="s">
-        <v>530</v>
+        <v>337</v>
       </c>
       <c r="C335">
-        <v>25.08</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B336" t="s">
-        <v>550</v>
+        <v>279</v>
       </c>
       <c r="C336">
-        <v>23.89</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C337">
-        <v>22.3</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B338" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="C338">
-        <v>22.16</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B339" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C339">
-        <v>21.71</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B340" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C340">
-        <v>21.27</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B341" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="C341">
-        <v>20.9</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>45</v>
+        <v>559</v>
       </c>
       <c r="C342">
-        <v>19.600000000000001</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>560</v>
+      </c>
+      <c r="B343" t="s">
         <v>561</v>
       </c>
-      <c r="B343" t="s">
-        <v>562</v>
-      </c>
       <c r="C343">
-        <v>19.38</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B344" t="s">
-        <v>94</v>
+        <v>443</v>
       </c>
       <c r="C344">
-        <v>19.149999999999999</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B345" t="s">
-        <v>465</v>
+        <v>49</v>
       </c>
       <c r="C345">
-        <v>19.079999999999998</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
+        <v>564</v>
+      </c>
+      <c r="B346" t="s">
         <v>565</v>
       </c>
-      <c r="B346" t="s">
-        <v>156</v>
-      </c>
       <c r="C346">
-        <v>18.8</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6118,43 +6131,43 @@
         <v>566</v>
       </c>
       <c r="B347" t="s">
-        <v>567</v>
+        <v>97</v>
       </c>
       <c r="C347">
-        <v>17.86</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>569</v>
+        <v>466</v>
       </c>
       <c r="C348">
-        <v>16.78</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>76</v>
+        <v>569</v>
       </c>
       <c r="C349">
-        <v>16.72</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>570</v>
+      </c>
+      <c r="B350" t="s">
         <v>571</v>
       </c>
-      <c r="B350" t="s">
-        <v>250</v>
-      </c>
       <c r="C350">
-        <v>15.92</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6162,21 +6175,21 @@
         <v>572</v>
       </c>
       <c r="B351" t="s">
-        <v>284</v>
+        <v>573</v>
       </c>
       <c r="C351">
-        <v>15.86</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B352" t="s">
-        <v>574</v>
+        <v>32</v>
       </c>
       <c r="C352">
-        <v>15.42</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6184,87 +6197,87 @@
         <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>576</v>
+        <v>397</v>
       </c>
       <c r="C353">
-        <v>14.67</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>578</v>
+        <v>252</v>
       </c>
       <c r="C354">
-        <v>14.28</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="C355">
-        <v>13.84</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B356" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C356">
-        <v>13.67</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B357" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C357">
-        <v>13.63</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B358" t="s">
-        <v>242</v>
+        <v>583</v>
       </c>
       <c r="C358">
-        <v>13.55</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B359" t="s">
-        <v>569</v>
+        <v>171</v>
       </c>
       <c r="C359">
-        <v>12.88</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>585</v>
+      </c>
+      <c r="B360" t="s">
         <v>586</v>
       </c>
-      <c r="B360" t="s">
-        <v>387</v>
-      </c>
       <c r="C360">
-        <v>12.61</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6275,7 +6288,7 @@
         <v>588</v>
       </c>
       <c r="C361">
-        <v>12.6</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6283,10 +6296,10 @@
         <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="C362">
-        <v>12.5</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6294,32 +6307,32 @@
         <v>590</v>
       </c>
       <c r="B363" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="C363">
-        <v>12.48</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>149</v>
+        <v>387</v>
       </c>
       <c r="C364">
-        <v>11.96</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
+        <v>592</v>
+      </c>
+      <c r="B365" t="s">
         <v>593</v>
       </c>
-      <c r="B365" t="s">
-        <v>244</v>
-      </c>
       <c r="C365">
-        <v>11.63</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6327,10 +6340,10 @@
         <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C366">
-        <v>10.43</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6338,32 +6351,32 @@
         <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>129</v>
+        <v>596</v>
       </c>
       <c r="C367">
-        <v>9.85</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B368" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C368">
-        <v>9.77</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B369" t="s">
-        <v>598</v>
+        <v>246</v>
       </c>
       <c r="C369">
-        <v>9.7200000000000006</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6371,10 +6384,10 @@
         <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="C370">
-        <v>9.49</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6382,32 +6395,32 @@
         <v>600</v>
       </c>
       <c r="B371" t="s">
-        <v>601</v>
+        <v>132</v>
       </c>
       <c r="C371">
-        <v>8.4499999999999993</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B372" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C372">
-        <v>8.44</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
+        <v>602</v>
+      </c>
+      <c r="B373" t="s">
         <v>603</v>
       </c>
-      <c r="B373" t="s">
-        <v>447</v>
-      </c>
       <c r="C373">
-        <v>7.77</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6415,21 +6428,21 @@
         <v>604</v>
       </c>
       <c r="B374" t="s">
-        <v>605</v>
+        <v>197</v>
       </c>
       <c r="C374">
-        <v>7.7</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
+        <v>605</v>
+      </c>
+      <c r="B375" t="s">
         <v>606</v>
       </c>
-      <c r="B375" t="s">
-        <v>90</v>
-      </c>
       <c r="C375">
-        <v>7.6</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6437,10 +6450,10 @@
         <v>607</v>
       </c>
       <c r="B376" t="s">
-        <v>516</v>
+        <v>106</v>
       </c>
       <c r="C376">
-        <v>7.51</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6448,54 +6461,54 @@
         <v>608</v>
       </c>
       <c r="B377" t="s">
-        <v>609</v>
+        <v>448</v>
       </c>
       <c r="C377">
-        <v>7.47</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
+        <v>609</v>
+      </c>
+      <c r="B378" t="s">
         <v>610</v>
       </c>
-      <c r="B378" t="s">
-        <v>611</v>
-      </c>
       <c r="C378">
-        <v>6.58</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B379" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="C379">
-        <v>5.55</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B380" t="s">
-        <v>94</v>
+        <v>517</v>
       </c>
       <c r="C380">
-        <v>5.16</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
+        <v>613</v>
+      </c>
+      <c r="B381" t="s">
         <v>614</v>
       </c>
-      <c r="B381" t="s">
-        <v>294</v>
-      </c>
       <c r="C381">
-        <v>4.3600000000000003</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6503,21 +6516,21 @@
         <v>615</v>
       </c>
       <c r="B382" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="C382">
-        <v>2.41</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B383" t="s">
-        <v>617</v>
+        <v>297</v>
       </c>
       <c r="C383">
-        <v>2.3199999999999998</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6525,10 +6538,10 @@
         <v>618</v>
       </c>
       <c r="B384" t="s">
-        <v>415</v>
+        <v>97</v>
       </c>
       <c r="C384">
-        <v>2.13</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6536,54 +6549,54 @@
         <v>619</v>
       </c>
       <c r="B385" t="s">
-        <v>620</v>
+        <v>295</v>
       </c>
       <c r="C385">
-        <v>1.76</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B386" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="C386">
-        <v>1.4</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B387" t="s">
-        <v>149</v>
+        <v>622</v>
       </c>
       <c r="C387">
-        <v>0.9</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B388" t="s">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="C388">
-        <v>0.69</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
+        <v>624</v>
+      </c>
+      <c r="B389" t="s">
         <v>625</v>
       </c>
-      <c r="B389" t="s">
-        <v>256</v>
-      </c>
       <c r="C389">
-        <v>0.59</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6591,21 +6604,21 @@
         <v>626</v>
       </c>
       <c r="B390" t="s">
-        <v>294</v>
+        <v>627</v>
       </c>
       <c r="C390">
-        <v>0.55000000000000004</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B391" t="s">
-        <v>628</v>
+        <v>152</v>
       </c>
       <c r="C391">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6613,59 +6626,103 @@
         <v>629</v>
       </c>
       <c r="B392" t="s">
-        <v>630</v>
+        <v>152</v>
       </c>
       <c r="C392">
-        <v>0.11</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B393" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="C393">
-        <v>0.03</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B394" t="s">
-        <v>633</v>
+        <v>295</v>
       </c>
       <c r="C394">
-        <v>0.03</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B395" t="s">
-        <v>8</v>
+        <v>633</v>
       </c>
       <c r="C395">
-        <v>0.01</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
+        <v>634</v>
+      </c>
+      <c r="B396" t="s">
         <v>635</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C396">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
         <v>636</v>
       </c>
-      <c r="C396">
-        <v>0.01</v>
+      <c r="B397" t="s">
+        <v>363</v>
+      </c>
+      <c r="C397">
+        <v>0.03</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>637</v>
+      </c>
+      <c r="B398" t="s">
+        <v>638</v>
+      </c>
+      <c r="C398">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>639</v>
+      </c>
+      <c r="B399" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>640</v>
+      </c>
+      <c r="B400" t="s">
+        <v>641</v>
+      </c>
+      <c r="C400">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C46A155-17F6-4FDF-837F-F4DADF9A6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98963551-12BA-4EA7-8EEC-B871DB90F1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="645">
   <si>
     <t>CONTA</t>
   </si>
@@ -31,936 +31,999 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t>004884046</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
     <t>004329441</t>
   </si>
   <si>
     <t>HELENA</t>
   </si>
   <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
     <t>004488571</t>
   </si>
   <si>
     <t>CARLOS</t>
   </si>
   <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004332747</t>
+  </si>
+  <si>
+    <t>LOHRAN</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
     <t>004574428</t>
   </si>
   <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004884046</t>
-  </si>
-  <si>
-    <t>WILSON</t>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
   </si>
   <si>
     <t>005046790</t>
   </si>
   <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
     <t>004165515</t>
   </si>
   <si>
@@ -982,9 +1045,6 @@
     <t>004530494</t>
   </si>
   <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
     <t>004216434</t>
   </si>
   <si>
@@ -1042,9 +1102,6 @@
     <t>004517080</t>
   </si>
   <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
     <t>004212933</t>
   </si>
   <si>
@@ -1135,12 +1192,6 @@
     <t>004752461</t>
   </si>
   <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
     <t>001759765</t>
   </si>
   <si>
@@ -1174,12 +1225,6 @@
     <t>004854514</t>
   </si>
   <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
     <t>004240014</t>
   </si>
   <si>
@@ -1354,9 +1399,6 @@
     <t>ELAINE</t>
   </si>
   <si>
-    <t>004404248</t>
-  </si>
-  <si>
     <t>005173958</t>
   </si>
   <si>
@@ -1516,12 +1558,6 @@
     <t>CAROLINA</t>
   </si>
   <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
     <t>004208447</t>
   </si>
   <si>
@@ -1582,18 +1618,12 @@
     <t>004470679</t>
   </si>
   <si>
-    <t>004515548</t>
-  </si>
-  <si>
     <t>004809902</t>
   </si>
   <si>
     <t>004804036</t>
   </si>
   <si>
-    <t>004202332</t>
-  </si>
-  <si>
     <t>004374943</t>
   </si>
   <si>
@@ -1618,9 +1648,6 @@
     <t>005028018</t>
   </si>
   <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
     <t>004381194</t>
   </si>
   <si>
@@ -1645,12 +1672,6 @@
     <t>005186167</t>
   </si>
   <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
     <t>004383190</t>
   </si>
   <si>
@@ -1675,9 +1696,6 @@
     <t>CEZAR</t>
   </si>
   <si>
-    <t>004520100</t>
-  </si>
-  <si>
     <t>004404724</t>
   </si>
   <si>
@@ -1690,12 +1708,6 @@
     <t>JULIA</t>
   </si>
   <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
     <t>004499920</t>
   </si>
   <si>
@@ -1834,9 +1846,6 @@
     <t>FLORDELIZ</t>
   </si>
   <si>
-    <t>002697806</t>
-  </si>
-  <si>
     <t>004589311</t>
   </si>
   <si>
@@ -1874,9 +1883,6 @@
   </si>
   <si>
     <t>004448501</t>
-  </si>
-  <si>
-    <t>003301389</t>
   </si>
   <si>
     <t>004895776</t>
@@ -2314,9 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2339,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>129164.89</v>
+        <v>384970.38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2350,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>76907.27</v>
+        <v>129164.89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2361,7 +2369,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>67218.09</v>
+        <v>101282.16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2372,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>66090.740000000005</v>
+        <v>86291.73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2383,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>30484.18</v>
+        <v>78633.990000000005</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2394,7 +2402,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>29851.14</v>
+        <v>76907.27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2405,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>25790.959999999999</v>
+        <v>68067.899999999994</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2416,7 +2424,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>21560.32</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2427,7 +2435,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>15027.11</v>
+        <v>58899.06</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2438,7 +2446,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>15000</v>
+        <v>54668.06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2449,7 +2457,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>13566.65</v>
+        <v>51803.44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2460,7 +2468,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>12786.35</v>
+        <v>49677.66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2471,7 +2479,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>10138.73</v>
+        <v>49522.33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2482,7 +2490,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>8102.46</v>
+        <v>38067.43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2493,7 +2501,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>3098.91</v>
+        <v>37400.949999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2504,7 +2512,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>2741.27</v>
+        <v>30484.18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2515,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>2691.13</v>
+        <v>29851.14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2526,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>2300</v>
+        <v>28545.89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2537,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>2026.74</v>
+        <v>26501.439999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2548,7 +2556,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>1239.45</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2559,7 +2567,7 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>991.44</v>
+        <v>25622.99</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2570,7 +2578,7 @@
         <v>46</v>
       </c>
       <c r="C23">
-        <v>988.88</v>
+        <v>23226.62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2578,252 +2586,252 @@
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>953.43</v>
+        <v>15810.59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>944.11</v>
+        <v>15501.52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>938.8</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>932.86</v>
+        <v>14373.23</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>930.54</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>891.04</v>
+        <v>11393.08</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>885.13</v>
+        <v>10138.959999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>884.67</v>
+        <v>9625.2099999999991</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>883.13</v>
+        <v>8102.46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>872.41</v>
+        <v>5570.11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34">
-        <v>867.93</v>
+        <v>4408.24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <v>864.35</v>
+        <v>3098.91</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>849.45</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37">
-        <v>845.19</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>833.03</v>
+        <v>2026.74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>820.67</v>
+        <v>1662.47</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C40">
-        <v>817.72</v>
+        <v>1466.88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C41">
-        <v>811.38</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C42">
-        <v>810.41</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>803.76</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>802.18</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>798.23</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>788.61</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2834,7 +2842,7 @@
         <v>89</v>
       </c>
       <c r="C47">
-        <v>787.45</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2845,7 +2853,7 @@
         <v>91</v>
       </c>
       <c r="C48">
-        <v>768.88</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2856,7 +2864,7 @@
         <v>93</v>
       </c>
       <c r="C49">
-        <v>761.35</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2867,7 +2875,7 @@
         <v>95</v>
       </c>
       <c r="C50">
-        <v>747.96</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2878,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="C51">
-        <v>743.06</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2889,7 +2897,7 @@
         <v>99</v>
       </c>
       <c r="C52">
-        <v>739.38</v>
+        <v>872.41</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2900,7 +2908,7 @@
         <v>101</v>
       </c>
       <c r="C53">
-        <v>732.94</v>
+        <v>867.93</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2911,7 +2919,7 @@
         <v>103</v>
       </c>
       <c r="C54">
-        <v>729.28</v>
+        <v>864.35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2919,32 +2927,32 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C55">
-        <v>723.26</v>
+        <v>849.45</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56">
-        <v>714.42</v>
+        <v>845.19</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>714.2</v>
+        <v>833.03</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2952,43 +2960,43 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C58">
-        <v>710.16</v>
+        <v>820.67</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59">
-        <v>703</v>
+        <v>817.72</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>689.97</v>
+        <v>811.38</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C61">
-        <v>685.96</v>
+        <v>810.41</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2999,7 +3007,7 @@
         <v>117</v>
       </c>
       <c r="C62">
-        <v>670.31</v>
+        <v>803.76</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3007,659 +3015,659 @@
         <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C63">
-        <v>664.2</v>
+        <v>802.18</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64">
-        <v>655.11</v>
+        <v>798.23</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65">
-        <v>651</v>
+        <v>788.61</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66">
-        <v>645.16999999999996</v>
+        <v>787.45</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="C67">
-        <v>640.99</v>
+        <v>768.88</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C68">
-        <v>636.76</v>
+        <v>761.35</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C69">
-        <v>622.63</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>608.94000000000005</v>
+        <v>743.06</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C71">
-        <v>608.66999999999996</v>
+        <v>739.38</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C72">
-        <v>605.79</v>
+        <v>732.94</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C73">
-        <v>602.58000000000004</v>
+        <v>723.26</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C74">
-        <v>596.41999999999996</v>
+        <v>714.42</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C75">
-        <v>579.26</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="C76">
-        <v>579.20000000000005</v>
+        <v>710.16</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C77">
-        <v>570.97</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C78">
-        <v>560.45000000000005</v>
+        <v>689.97</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C79">
-        <v>556.30999999999995</v>
+        <v>685.96</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C80">
-        <v>553.23</v>
+        <v>670.31</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C81">
-        <v>544.76</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C82">
-        <v>542.62</v>
+        <v>655.11</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C83">
-        <v>536.41999999999996</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C84">
-        <v>534.49</v>
+        <v>645.16999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="C85">
-        <v>531.54</v>
+        <v>636.76</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C86">
-        <v>528.38</v>
+        <v>622.63</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C87">
-        <v>520.05999999999995</v>
+        <v>608.94000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="C88">
-        <v>509.7</v>
+        <v>608.66999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C89">
-        <v>481.03</v>
+        <v>605.79</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C90">
-        <v>470.68</v>
+        <v>602.58000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="C91">
-        <v>468.72</v>
+        <v>596.41999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="C92">
-        <v>468.65</v>
+        <v>579.26</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C93">
-        <v>466.1</v>
+        <v>570.97</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C94">
-        <v>465.88</v>
+        <v>560.45000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C95">
-        <v>465.38</v>
+        <v>556.30999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C96">
-        <v>463.52</v>
+        <v>553.23</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C97">
-        <v>462.44</v>
+        <v>544.76</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C98">
-        <v>460.33</v>
+        <v>542.62</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C99">
-        <v>459.98</v>
+        <v>536.41999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C100">
-        <v>453.33</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C101">
-        <v>451.86</v>
+        <v>531.54</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C102">
-        <v>447.24</v>
+        <v>528.38</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C103">
-        <v>446.15</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C104">
-        <v>441.76</v>
+        <v>509.7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="C105">
-        <v>429.52</v>
+        <v>506.38</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C106">
-        <v>416.45</v>
+        <v>481.03</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C107">
-        <v>415.42</v>
+        <v>470.68</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C108">
-        <v>409.89</v>
+        <v>468.72</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="C109">
-        <v>409.12</v>
+        <v>468.65</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C110">
-        <v>407.94</v>
+        <v>466.1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C111">
-        <v>400.5</v>
+        <v>465.88</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C112">
-        <v>400.01</v>
+        <v>465.38</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C113">
-        <v>397.62</v>
+        <v>463.52</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C114">
-        <v>392.89</v>
+        <v>462.44</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C115">
-        <v>392.83</v>
+        <v>460.33</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C116">
-        <v>380.46</v>
+        <v>459.98</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="C117">
-        <v>378.28</v>
+        <v>453.33</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C118">
-        <v>376.72</v>
+        <v>451.86</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C119">
-        <v>374.97</v>
+        <v>447.24</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C120">
-        <v>369.5</v>
+        <v>446.15</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C121">
-        <v>367.11</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>355.91</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3667,109 +3675,109 @@
         <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="C123">
-        <v>347.34</v>
+        <v>409.89</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="C124">
-        <v>346.77</v>
+        <v>409.12</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="C125">
-        <v>345.51</v>
+        <v>407.94</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C126">
-        <v>344.66</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="C127">
-        <v>344.22</v>
+        <v>400.01</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C128">
-        <v>341.85</v>
+        <v>397.62</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C129">
-        <v>338.66</v>
+        <v>392.89</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="C130">
-        <v>336.01</v>
+        <v>392.83</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="C131">
-        <v>333.95</v>
+        <v>380.46</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="C132">
-        <v>331.75</v>
+        <v>378.28</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3780,7 +3788,7 @@
         <v>236</v>
       </c>
       <c r="C133">
-        <v>331.38</v>
+        <v>376.72</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3791,7 +3799,7 @@
         <v>238</v>
       </c>
       <c r="C134">
-        <v>327.87</v>
+        <v>374.97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3802,7 +3810,7 @@
         <v>240</v>
       </c>
       <c r="C135">
-        <v>323.66000000000003</v>
+        <v>369.5</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3813,7 +3821,7 @@
         <v>242</v>
       </c>
       <c r="C136">
-        <v>322.77</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3824,7 +3832,7 @@
         <v>244</v>
       </c>
       <c r="C137">
-        <v>316.35000000000002</v>
+        <v>355.91</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3832,109 +3840,109 @@
         <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="C138">
-        <v>310.17</v>
+        <v>347.34</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>246</v>
+      </c>
+      <c r="B139" t="s">
         <v>247</v>
       </c>
-      <c r="B139" t="s">
-        <v>248</v>
-      </c>
       <c r="C139">
-        <v>304.47000000000003</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" t="s">
         <v>249</v>
       </c>
-      <c r="B140" t="s">
-        <v>250</v>
-      </c>
       <c r="C140">
-        <v>296.88</v>
+        <v>344.66</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="C141">
-        <v>290.32</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="C142">
-        <v>286.94</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" t="s">
         <v>254</v>
       </c>
-      <c r="B143" t="s">
-        <v>255</v>
-      </c>
       <c r="C143">
-        <v>285.49</v>
+        <v>338.66</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="C144">
-        <v>284.19</v>
+        <v>336.01</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C145">
-        <v>283.02999999999997</v>
+        <v>333.95</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="C146">
-        <v>280.26</v>
+        <v>331.75</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" t="s">
         <v>261</v>
       </c>
-      <c r="B147" t="s">
-        <v>46</v>
-      </c>
       <c r="C147">
-        <v>271.19</v>
+        <v>331.38</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3942,65 +3950,65 @@
         <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="C148">
-        <v>271.16000000000003</v>
+        <v>327.87</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
         <v>264</v>
       </c>
-      <c r="B149" t="s">
-        <v>265</v>
-      </c>
       <c r="C149">
-        <v>264.52999999999997</v>
+        <v>323.66000000000003</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" t="s">
         <v>266</v>
       </c>
-      <c r="B150" t="s">
-        <v>267</v>
-      </c>
       <c r="C150">
-        <v>261.82</v>
+        <v>322.77</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" t="s">
         <v>268</v>
       </c>
-      <c r="B151" t="s">
-        <v>269</v>
-      </c>
       <c r="C151">
-        <v>260.54000000000002</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
         <v>270</v>
       </c>
-      <c r="B152" t="s">
-        <v>271</v>
-      </c>
       <c r="C152">
-        <v>259.88</v>
+        <v>310.17</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" t="s">
         <v>272</v>
       </c>
-      <c r="B153" t="s">
-        <v>63</v>
-      </c>
       <c r="C153">
-        <v>257.49</v>
+        <v>304.47000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4011,7 +4019,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>256.77</v>
+        <v>296.88</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4022,7 +4030,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>256.5</v>
+        <v>290.32</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4030,10 +4038,10 @@
         <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="C156">
-        <v>256.26</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4044,7 +4052,7 @@
         <v>279</v>
       </c>
       <c r="C157">
-        <v>248.21</v>
+        <v>285.49</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4055,7 +4063,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>246.75</v>
+        <v>284.2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4066,7 +4074,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>245.07</v>
+        <v>283.02999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4074,65 +4082,65 @@
         <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="C160">
-        <v>244.73</v>
+        <v>280.26</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C161">
-        <v>242.8</v>
+        <v>271.19</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>286</v>
+      </c>
+      <c r="B162" t="s">
         <v>287</v>
       </c>
-      <c r="B162" t="s">
-        <v>288</v>
-      </c>
       <c r="C162">
-        <v>241.52</v>
+        <v>264.52999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" t="s">
         <v>289</v>
       </c>
-      <c r="B163" t="s">
-        <v>290</v>
-      </c>
       <c r="C163">
-        <v>241.07</v>
+        <v>261.82</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>290</v>
+      </c>
+      <c r="B164" t="s">
         <v>291</v>
       </c>
-      <c r="B164" t="s">
-        <v>292</v>
-      </c>
       <c r="C164">
-        <v>240.93</v>
+        <v>260.54000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" t="s">
         <v>293</v>
       </c>
-      <c r="B165" t="s">
-        <v>6</v>
-      </c>
       <c r="C165">
-        <v>236.97</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4140,65 +4148,65 @@
         <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="C166">
-        <v>234.95</v>
+        <v>257.49</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B167" t="s">
         <v>296</v>
       </c>
-      <c r="B167" t="s">
-        <v>297</v>
-      </c>
       <c r="C167">
-        <v>228.33</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="C168">
-        <v>221.55</v>
+        <v>256.26</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B169" t="s">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="C169">
-        <v>219.44</v>
+        <v>248.21</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>300</v>
+      </c>
+      <c r="B170" t="s">
         <v>301</v>
       </c>
-      <c r="B170" t="s">
-        <v>302</v>
-      </c>
       <c r="C170">
-        <v>218.5</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>302</v>
+      </c>
+      <c r="B171" t="s">
         <v>303</v>
       </c>
-      <c r="B171" t="s">
-        <v>6</v>
-      </c>
       <c r="C171">
-        <v>214.1</v>
+        <v>245.07</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4209,7 +4217,7 @@
         <v>305</v>
       </c>
       <c r="C172">
-        <v>205.79</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4217,21 +4225,21 @@
         <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="C173">
-        <v>203.87</v>
+        <v>242.8</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>307</v>
+      </c>
+      <c r="B174" t="s">
         <v>308</v>
       </c>
-      <c r="B174" t="s">
-        <v>206</v>
-      </c>
       <c r="C174">
-        <v>203.61</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4242,7 +4250,7 @@
         <v>310</v>
       </c>
       <c r="C175">
-        <v>199.24</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4250,296 +4258,296 @@
         <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="C176">
-        <v>198.42</v>
+        <v>240.93</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C177">
-        <v>197.42</v>
+        <v>236.97</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C178">
-        <v>192.35</v>
+        <v>234.95</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C179">
-        <v>191.65</v>
+        <v>228.33</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="C180">
-        <v>187.16</v>
+        <v>221.55</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="C181">
-        <v>186.38</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C182">
-        <v>178.9</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="C183">
-        <v>178.22</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C184">
-        <v>178.17</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="C185">
-        <v>169.78</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B186" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="C186">
-        <v>168.19</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B187" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C187">
-        <v>167.87</v>
+        <v>199.24</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="C188">
-        <v>166.94</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C189">
-        <v>164.31</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C190">
-        <v>162.96</v>
+        <v>196.99</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="C191">
-        <v>159.78</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B192" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C192">
-        <v>153.30000000000001</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="C193">
-        <v>152.68</v>
+        <v>187.16</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="C194">
-        <v>150</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B195" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="C195">
-        <v>150</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C196">
-        <v>148.74</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="C197">
-        <v>148.69999999999999</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="C198">
-        <v>147.41</v>
+        <v>169.78</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B199" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="C199">
-        <v>146.58000000000001</v>
+        <v>168.19</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B200" t="s">
-        <v>106</v>
+        <v>348</v>
       </c>
       <c r="C200">
-        <v>139.29</v>
+        <v>167.87</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="C201">
-        <v>134.29</v>
+        <v>166.94</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="C202">
-        <v>131.47</v>
+        <v>164.31</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4547,263 +4555,263 @@
         <v>351</v>
       </c>
       <c r="B203" t="s">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="C203">
-        <v>129.91999999999999</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B204" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C204">
-        <v>129.80000000000001</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>353</v>
+      </c>
+      <c r="B205" t="s">
         <v>354</v>
       </c>
-      <c r="B205" t="s">
-        <v>355</v>
-      </c>
       <c r="C205">
-        <v>128.16999999999999</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="C206">
-        <v>124.93</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="C207">
-        <v>124.24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B208" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C208">
-        <v>120.91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C209">
-        <v>120.82</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B210" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="C210">
-        <v>120.44</v>
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C211">
-        <v>120.01</v>
+        <v>147.41</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C212">
-        <v>119.46</v>
+        <v>146.58000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B213" t="s">
-        <v>369</v>
+        <v>139</v>
       </c>
       <c r="C213">
-        <v>119.05</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="C214">
-        <v>118.62</v>
+        <v>134.29</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B215" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C215">
-        <v>117.74</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B216" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C216">
-        <v>116.42</v>
+        <v>129.91999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B217" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="C217">
-        <v>116.06</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B218" t="s">
-        <v>162</v>
+        <v>374</v>
       </c>
       <c r="C218">
-        <v>107.6</v>
+        <v>128.16999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C219">
-        <v>107.14</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="C220">
-        <v>106.21</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B221" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C221">
-        <v>106.02</v>
+        <v>120.91</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="C222">
-        <v>105.38</v>
+        <v>120.82</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B223" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="C223">
-        <v>102.96</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>383</v>
+      </c>
+      <c r="B224" t="s">
         <v>384</v>
       </c>
-      <c r="B224" t="s">
-        <v>385</v>
-      </c>
       <c r="C224">
-        <v>102.6</v>
+        <v>120.01</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" t="s">
         <v>386</v>
       </c>
-      <c r="B225" t="s">
-        <v>387</v>
-      </c>
       <c r="C225">
-        <v>101.48</v>
+        <v>119.46</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>387</v>
+      </c>
+      <c r="B226" t="s">
         <v>388</v>
       </c>
-      <c r="B226" t="s">
-        <v>22</v>
-      </c>
       <c r="C226">
-        <v>101.15</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4811,21 +4819,21 @@
         <v>389</v>
       </c>
       <c r="B227" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="C227">
-        <v>100</v>
+        <v>118.62</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>390</v>
+      </c>
+      <c r="B228" t="s">
         <v>391</v>
       </c>
-      <c r="B228" t="s">
-        <v>252</v>
-      </c>
       <c r="C228">
-        <v>100</v>
+        <v>116.42</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4833,296 +4841,296 @@
         <v>392</v>
       </c>
       <c r="B229" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="C229">
-        <v>100</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B230" t="s">
-        <v>395</v>
+        <v>65</v>
       </c>
       <c r="C230">
-        <v>100</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B231" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C231">
-        <v>100</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B232" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="C232">
-        <v>100</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B233" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C233">
-        <v>100</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B234" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C234">
-        <v>100</v>
+        <v>105.38</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B235" t="s">
-        <v>404</v>
+        <v>291</v>
       </c>
       <c r="C235">
-        <v>100</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B236" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C236">
-        <v>100</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B237" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="C237">
-        <v>98.02</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B238" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="C238">
-        <v>97.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B239" t="s">
-        <v>411</v>
+        <v>276</v>
       </c>
       <c r="C239">
-        <v>97.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="C240">
-        <v>96.49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B241" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C241">
-        <v>95.43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B242" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C242">
-        <v>95.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B243" t="s">
-        <v>418</v>
+        <v>22</v>
       </c>
       <c r="C243">
-        <v>94.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B244" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C244">
-        <v>94.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B245" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C245">
-        <v>92.85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B246" t="s">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="C246">
-        <v>91.39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B247" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C247">
-        <v>89.77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B248" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C248">
-        <v>89.2</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B249" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="C249">
-        <v>88.17</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B250" t="s">
-        <v>89</v>
+        <v>426</v>
       </c>
       <c r="C250">
-        <v>87.45</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B251" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="C251">
-        <v>87.25</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B252" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C252">
-        <v>86.45</v>
+        <v>95.43</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B253" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="C253">
-        <v>86.38</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B254" t="s">
-        <v>49</v>
+        <v>433</v>
       </c>
       <c r="C254">
-        <v>85.85</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>434</v>
+      </c>
+      <c r="B255" t="s">
         <v>435</v>
       </c>
-      <c r="B255" t="s">
-        <v>152</v>
-      </c>
       <c r="C255">
-        <v>85.71</v>
+        <v>94.23</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5133,7 +5141,7 @@
         <v>437</v>
       </c>
       <c r="C256">
-        <v>85.65</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5141,131 +5149,131 @@
         <v>438</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="C257">
-        <v>84.2</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B258" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C258">
-        <v>83.73</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B259" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C259">
-        <v>83.66</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B260" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="C260">
-        <v>83.36</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B261" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C261">
-        <v>83.26</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="C262">
-        <v>82.37</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>446</v>
+      </c>
+      <c r="B263" t="s">
         <v>447</v>
       </c>
-      <c r="B263" t="s">
-        <v>448</v>
-      </c>
       <c r="C263">
-        <v>81.87</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C264">
-        <v>81.739999999999995</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B265" t="s">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="C265">
-        <v>81.13</v>
+        <v>85.85</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B266" t="s">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="C266">
-        <v>77.87</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B267" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="C267">
-        <v>77.77</v>
+        <v>85.65</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>453</v>
+      </c>
+      <c r="B268" t="s">
         <v>454</v>
       </c>
-      <c r="B268" t="s">
-        <v>381</v>
-      </c>
       <c r="C268">
-        <v>76.319999999999993</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5276,7 +5284,7 @@
         <v>456</v>
       </c>
       <c r="C269">
-        <v>75.86</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5284,21 +5292,21 @@
         <v>457</v>
       </c>
       <c r="B270" t="s">
-        <v>250</v>
+        <v>458</v>
       </c>
       <c r="C270">
-        <v>74.319999999999993</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B271" t="s">
-        <v>459</v>
+        <v>150</v>
       </c>
       <c r="C271">
-        <v>73.239999999999995</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5306,10 +5314,10 @@
         <v>460</v>
       </c>
       <c r="B272" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C272">
-        <v>72.56</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5320,7 +5328,7 @@
         <v>462</v>
       </c>
       <c r="C273">
-        <v>72.2</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5328,142 +5336,142 @@
         <v>463</v>
       </c>
       <c r="B274" t="s">
-        <v>464</v>
+        <v>289</v>
       </c>
       <c r="C274">
-        <v>71.84</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>464</v>
+      </c>
+      <c r="B275" t="s">
         <v>465</v>
       </c>
-      <c r="B275" t="s">
-        <v>466</v>
-      </c>
       <c r="C275">
-        <v>71.569999999999993</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B276" t="s">
-        <v>468</v>
+        <v>362</v>
       </c>
       <c r="C276">
-        <v>71.31</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B277" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="C277">
-        <v>70.88</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B278" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="C278">
-        <v>70.13</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B279" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C279">
-        <v>69.84</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B280" t="s">
-        <v>474</v>
+        <v>274</v>
       </c>
       <c r="C280">
-        <v>69.680000000000007</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B281" t="s">
-        <v>40</v>
+        <v>473</v>
       </c>
       <c r="C281">
-        <v>68.459999999999994</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B282" t="s">
-        <v>477</v>
+        <v>158</v>
       </c>
       <c r="C282">
-        <v>68.39</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B283" t="s">
-        <v>32</v>
+        <v>476</v>
       </c>
       <c r="C283">
-        <v>66.989999999999995</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B284" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C284">
-        <v>65.900000000000006</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B285" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C285">
-        <v>65.83</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>481</v>
+      </c>
+      <c r="B286" t="s">
         <v>482</v>
       </c>
-      <c r="B286" t="s">
-        <v>240</v>
-      </c>
       <c r="C286">
-        <v>61.65</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5471,21 +5479,21 @@
         <v>483</v>
       </c>
       <c r="B287" t="s">
-        <v>484</v>
+        <v>367</v>
       </c>
       <c r="C287">
-        <v>61.56</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>484</v>
+      </c>
+      <c r="B288" t="s">
         <v>485</v>
       </c>
-      <c r="B288" t="s">
-        <v>240</v>
-      </c>
       <c r="C288">
-        <v>61.04</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5493,142 +5501,142 @@
         <v>486</v>
       </c>
       <c r="B289" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="C289">
-        <v>60.95</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
+        <v>487</v>
+      </c>
+      <c r="B290" t="s">
         <v>488</v>
       </c>
-      <c r="B290" t="s">
-        <v>489</v>
-      </c>
       <c r="C290">
-        <v>60.39</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B291" t="s">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="C291">
-        <v>59.42</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B292" t="s">
-        <v>144</v>
+        <v>491</v>
       </c>
       <c r="C292">
-        <v>58.37</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B293" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C293">
-        <v>57.82</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>493</v>
+      </c>
+      <c r="B294" t="s">
         <v>494</v>
       </c>
-      <c r="B294" t="s">
-        <v>495</v>
-      </c>
       <c r="C294">
-        <v>57.41</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B295" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C295">
-        <v>55.66</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B296" t="s">
-        <v>499</v>
+        <v>264</v>
       </c>
       <c r="C296">
-        <v>52.75</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B297" t="s">
-        <v>44</v>
+        <v>498</v>
       </c>
       <c r="C297">
-        <v>50</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>264</v>
       </c>
       <c r="C298">
-        <v>48.53</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B299" t="s">
-        <v>352</v>
+        <v>501</v>
       </c>
       <c r="C299">
-        <v>48.16</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B300" t="s">
-        <v>46</v>
+        <v>503</v>
       </c>
       <c r="C300">
-        <v>47</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>504</v>
+      </c>
+      <c r="B301" t="s">
         <v>505</v>
       </c>
-      <c r="B301" t="s">
-        <v>385</v>
-      </c>
       <c r="C301">
-        <v>46.92</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5636,10 +5644,10 @@
         <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="C302">
-        <v>44.89</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5647,10 +5655,10 @@
         <v>507</v>
       </c>
       <c r="B303" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="C303">
-        <v>44.34</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5658,219 +5666,219 @@
         <v>508</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="C304">
-        <v>43.86</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B305" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="C305">
-        <v>43.07</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B306" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C306">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>514</v>
       </c>
       <c r="C307">
-        <v>42.7</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B308" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="C308">
-        <v>42.57</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B309" t="s">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="C309">
-        <v>42.42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B310" t="s">
-        <v>466</v>
+        <v>8</v>
       </c>
       <c r="C310">
-        <v>41.74</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B311" t="s">
-        <v>517</v>
+        <v>42</v>
       </c>
       <c r="C311">
-        <v>41.63</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B312" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="C312">
-        <v>40.869999999999997</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B313" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="C313">
-        <v>40.799999999999997</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B314" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="C314">
-        <v>39.68</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C315">
-        <v>38.93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B316" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="C316">
-        <v>38.159999999999997</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B317" t="s">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="C317">
-        <v>37.44</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B318" t="s">
-        <v>246</v>
+        <v>526</v>
       </c>
       <c r="C318">
-        <v>36.81</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B319" t="s">
-        <v>127</v>
+        <v>480</v>
       </c>
       <c r="C319">
-        <v>36.590000000000003</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B320" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C320">
-        <v>36.36</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B321" t="s">
-        <v>529</v>
+        <v>99</v>
       </c>
       <c r="C321">
-        <v>36.21</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B322" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C322">
-        <v>34.74</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B323" t="s">
-        <v>532</v>
+        <v>18</v>
       </c>
       <c r="C323">
-        <v>33.049999999999997</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5878,43 +5886,43 @@
         <v>533</v>
       </c>
       <c r="B324" t="s">
-        <v>534</v>
+        <v>325</v>
       </c>
       <c r="C324">
-        <v>32.909999999999997</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B325" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C325">
-        <v>32.64</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B326" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="C326">
-        <v>32.229999999999997</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>536</v>
+      </c>
+      <c r="B327" t="s">
         <v>537</v>
       </c>
-      <c r="B327" t="s">
-        <v>257</v>
-      </c>
       <c r="C327">
-        <v>32.14</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5922,76 +5930,76 @@
         <v>538</v>
       </c>
       <c r="B328" t="s">
-        <v>250</v>
+        <v>539</v>
       </c>
       <c r="C328">
-        <v>31.82</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B329" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="C329">
-        <v>31.1</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B330" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="C330">
-        <v>31.09</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B331" t="s">
-        <v>132</v>
+        <v>543</v>
       </c>
       <c r="C331">
-        <v>30.32</v>
+        <v>32.909999999999997</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B332" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="C332">
-        <v>29.91</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B333" t="s">
-        <v>544</v>
+        <v>317</v>
       </c>
       <c r="C333">
-        <v>29.29</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B334" t="s">
-        <v>546</v>
+        <v>281</v>
       </c>
       <c r="C334">
-        <v>27.18</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5999,10 +6007,10 @@
         <v>547</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C335">
-        <v>26.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6010,10 +6018,10 @@
         <v>548</v>
       </c>
       <c r="B336" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="C336">
-        <v>26.25</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6021,21 +6029,21 @@
         <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>550</v>
+        <v>289</v>
       </c>
       <c r="C337">
-        <v>25.41</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
+        <v>550</v>
+      </c>
+      <c r="B338" t="s">
         <v>551</v>
       </c>
-      <c r="B338" t="s">
-        <v>532</v>
-      </c>
       <c r="C338">
-        <v>25.08</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6046,7 +6054,7 @@
         <v>553</v>
       </c>
       <c r="C339">
-        <v>23.89</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6054,65 +6062,65 @@
         <v>554</v>
       </c>
       <c r="B340" t="s">
-        <v>555</v>
+        <v>357</v>
       </c>
       <c r="C340">
-        <v>22.3</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B341" t="s">
-        <v>557</v>
+        <v>299</v>
       </c>
       <c r="C341">
-        <v>22.16</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B342" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C342">
-        <v>21.71</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B343" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C343">
-        <v>21.27</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B344" t="s">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="C344">
-        <v>20.9</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
+        <v>562</v>
+      </c>
+      <c r="B345" t="s">
         <v>563</v>
       </c>
-      <c r="B345" t="s">
-        <v>49</v>
-      </c>
       <c r="C345">
-        <v>19.600000000000001</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6123,7 +6131,7 @@
         <v>565</v>
       </c>
       <c r="C346">
-        <v>19.38</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6131,10 +6139,10 @@
         <v>566</v>
       </c>
       <c r="B347" t="s">
-        <v>97</v>
+        <v>458</v>
       </c>
       <c r="C347">
-        <v>19.149999999999999</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6142,10 +6150,10 @@
         <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>466</v>
+        <v>46</v>
       </c>
       <c r="C348">
-        <v>19.079999999999998</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6156,7 +6164,7 @@
         <v>569</v>
       </c>
       <c r="C349">
-        <v>17.86</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6164,43 +6172,43 @@
         <v>570</v>
       </c>
       <c r="B350" t="s">
-        <v>571</v>
+        <v>16</v>
       </c>
       <c r="C350">
-        <v>16.93</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B351" t="s">
-        <v>573</v>
+        <v>480</v>
       </c>
       <c r="C351">
-        <v>16.78</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B352" t="s">
-        <v>32</v>
+        <v>573</v>
       </c>
       <c r="C352">
-        <v>16.72</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
+        <v>574</v>
+      </c>
+      <c r="B353" t="s">
         <v>575</v>
       </c>
-      <c r="B353" t="s">
-        <v>397</v>
-      </c>
       <c r="C353">
-        <v>16.54</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6208,32 +6216,32 @@
         <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>252</v>
+        <v>577</v>
       </c>
       <c r="C354">
-        <v>15.92</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B355" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="C355">
-        <v>15.86</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B356" t="s">
-        <v>579</v>
+        <v>412</v>
       </c>
       <c r="C356">
-        <v>15.42</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6241,76 +6249,76 @@
         <v>580</v>
       </c>
       <c r="B357" t="s">
-        <v>581</v>
+        <v>276</v>
       </c>
       <c r="C357">
-        <v>14.67</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>583</v>
+        <v>305</v>
       </c>
       <c r="C358">
-        <v>14.28</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B359" t="s">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="C359">
-        <v>13.84</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>584</v>
+      </c>
+      <c r="B360" t="s">
         <v>585</v>
       </c>
-      <c r="B360" t="s">
-        <v>586</v>
-      </c>
       <c r="C360">
-        <v>13.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
+        <v>586</v>
+      </c>
+      <c r="B361" t="s">
         <v>587</v>
       </c>
-      <c r="B361" t="s">
-        <v>588</v>
-      </c>
       <c r="C361">
-        <v>13.63</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B362" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C362">
-        <v>13.55</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
+        <v>589</v>
+      </c>
+      <c r="B363" t="s">
         <v>590</v>
       </c>
-      <c r="B363" t="s">
-        <v>573</v>
-      </c>
       <c r="C363">
-        <v>12.88</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6318,21 +6326,21 @@
         <v>591</v>
       </c>
       <c r="B364" t="s">
-        <v>387</v>
+        <v>592</v>
       </c>
       <c r="C364">
-        <v>12.61</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B365" t="s">
-        <v>593</v>
+        <v>268</v>
       </c>
       <c r="C365">
-        <v>12.6</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6340,10 +6348,10 @@
         <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>20</v>
+        <v>577</v>
       </c>
       <c r="C366">
-        <v>12.5</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6351,21 +6359,21 @@
         <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="C367">
-        <v>12.48</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
+        <v>596</v>
+      </c>
+      <c r="B368" t="s">
         <v>597</v>
       </c>
-      <c r="B368" t="s">
-        <v>152</v>
-      </c>
       <c r="C368">
-        <v>11.96</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6373,10 +6381,10 @@
         <v>598</v>
       </c>
       <c r="B369" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="C369">
-        <v>11.63</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6384,43 +6392,43 @@
         <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="C370">
-        <v>10.43</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B371" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C371">
-        <v>9.85</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B372" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="C372">
-        <v>9.77</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B373" t="s">
-        <v>603</v>
+        <v>174</v>
       </c>
       <c r="C373">
-        <v>9.7200000000000006</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6428,10 +6436,10 @@
         <v>604</v>
       </c>
       <c r="B374" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="C374">
-        <v>9.49</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6439,21 +6447,21 @@
         <v>605</v>
       </c>
       <c r="B375" t="s">
-        <v>606</v>
+        <v>238</v>
       </c>
       <c r="C375">
-        <v>8.4499999999999993</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
+        <v>606</v>
+      </c>
+      <c r="B376" t="s">
         <v>607</v>
       </c>
-      <c r="B376" t="s">
-        <v>106</v>
-      </c>
       <c r="C376">
-        <v>8.44</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6461,21 +6469,21 @@
         <v>608</v>
       </c>
       <c r="B377" t="s">
-        <v>448</v>
+        <v>609</v>
       </c>
       <c r="C377">
-        <v>7.77</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B378" t="s">
-        <v>610</v>
+        <v>139</v>
       </c>
       <c r="C378">
-        <v>7.7</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6483,10 +6491,10 @@
         <v>611</v>
       </c>
       <c r="B379" t="s">
-        <v>93</v>
+        <v>462</v>
       </c>
       <c r="C379">
-        <v>7.6</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6494,21 +6502,21 @@
         <v>612</v>
       </c>
       <c r="B380" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="C380">
-        <v>7.51</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B381" t="s">
-        <v>614</v>
+        <v>129</v>
       </c>
       <c r="C381">
-        <v>7.47</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6516,21 +6524,21 @@
         <v>615</v>
       </c>
       <c r="B382" t="s">
-        <v>616</v>
+        <v>529</v>
       </c>
       <c r="C382">
-        <v>6.58</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
+        <v>616</v>
+      </c>
+      <c r="B383" t="s">
         <v>617</v>
       </c>
-      <c r="B383" t="s">
-        <v>297</v>
-      </c>
       <c r="C383">
-        <v>5.55</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6538,43 +6546,43 @@
         <v>618</v>
       </c>
       <c r="B384" t="s">
-        <v>97</v>
+        <v>619</v>
       </c>
       <c r="C384">
-        <v>5.16</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B385" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C385">
-        <v>4.3600000000000003</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B386" t="s">
-        <v>532</v>
+        <v>315</v>
       </c>
       <c r="C386">
-        <v>2.41</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B387" t="s">
-        <v>622</v>
+        <v>38</v>
       </c>
       <c r="C387">
-        <v>2.3199999999999998</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6582,21 +6590,21 @@
         <v>623</v>
       </c>
       <c r="B388" t="s">
-        <v>416</v>
+        <v>624</v>
       </c>
       <c r="C388">
-        <v>2.13</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B389" t="s">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="C389">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6607,7 +6615,7 @@
         <v>627</v>
       </c>
       <c r="C390">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6615,51 +6623,51 @@
         <v>628</v>
       </c>
       <c r="B391" t="s">
-        <v>152</v>
+        <v>629</v>
       </c>
       <c r="C391">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B392" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C392">
-        <v>0.69</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B393" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="C393">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B394" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C394">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B395" t="s">
-        <v>633</v>
+        <v>315</v>
       </c>
       <c r="C395">
         <v>0.55000000000000004</v>
@@ -6673,7 +6681,7 @@
         <v>635</v>
       </c>
       <c r="C396">
-        <v>0.11</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6681,18 +6689,18 @@
         <v>636</v>
       </c>
       <c r="B397" t="s">
-        <v>363</v>
+        <v>637</v>
       </c>
       <c r="C397">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B398" t="s">
-        <v>638</v>
+        <v>382</v>
       </c>
       <c r="C398">
         <v>0.03</v>
@@ -6703,26 +6711,37 @@
         <v>639</v>
       </c>
       <c r="B399" t="s">
-        <v>8</v>
+        <v>640</v>
       </c>
       <c r="C399">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B400" t="s">
-        <v>641</v>
+        <v>61</v>
       </c>
       <c r="C400">
         <v>0.01</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
         <v>642</v>
+      </c>
+      <c r="B401" t="s">
+        <v>643</v>
+      </c>
+      <c r="C401">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98963551-12BA-4EA7-8EEC-B871DB90F1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5D4749-C79C-40CF-8274-C4DC59C3B897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="642">
   <si>
     <t>CONTA</t>
   </si>
@@ -37,1651 +37,1642 @@
     <t>WILSON</t>
   </si>
   <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
     <t>004329441</t>
   </si>
   <si>
     <t>HELENA</t>
   </si>
   <si>
-    <t>004224284</t>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004587511</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004332747</t>
+  </si>
+  <si>
+    <t>LOHRAN</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004644524</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004328934</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004334062</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>005081833</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004458624</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004181486</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004497825</t>
   </si>
   <si>
     <t>PRISCILLA</t>
   </si>
   <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004332747</t>
-  </si>
-  <si>
-    <t>LOHRAN</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
   </si>
   <si>
     <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004644524</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004328934</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004334062</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>005081833</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004458624</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004181486</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
   </si>
   <si>
     <t>004586209</t>
@@ -2320,11 +2311,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2347,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>384970.38</v>
+        <v>284699.13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2358,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>129164.89</v>
+        <v>250120.02</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2369,7 +2358,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>101282.16</v>
+        <v>129164.89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2380,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>86291.73</v>
+        <v>66090.740000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2391,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>78633.990000000005</v>
+        <v>52899.06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2402,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>76907.27</v>
+        <v>38641.879999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2413,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>68067.899999999994</v>
+        <v>26501.439999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2424,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>66090.740000000005</v>
+        <v>25790.959999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2435,7 +2424,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>58899.06</v>
+        <v>25622.99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2446,7 +2435,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>54668.06</v>
+        <v>23226.62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2457,7 +2446,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>51803.44</v>
+        <v>19594.27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2468,7 +2457,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>49677.66</v>
+        <v>15810.59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2479,7 +2468,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>49522.33</v>
+        <v>15027.11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2490,7 +2479,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>38067.43</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2501,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>37400.949999999997</v>
+        <v>10992.76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2512,7 +2501,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>30484.18</v>
+        <v>10138.959999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2523,7 +2512,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>29851.14</v>
+        <v>8102.46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2534,7 +2523,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>28545.89</v>
+        <v>5851.14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2545,7 +2534,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>26501.439999999999</v>
+        <v>5570.11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2556,7 +2545,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>25790.959999999999</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2567,7 +2556,7 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>25622.99</v>
+        <v>2677.66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2578,7 +2567,7 @@
         <v>46</v>
       </c>
       <c r="C23">
-        <v>23226.62</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2589,7 +2578,7 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>15810.59</v>
+        <v>2291.73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2600,7 +2589,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>15501.52</v>
+        <v>2067.4299999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2611,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>15027.11</v>
+        <v>1662.47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2619,21 +2608,21 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>14373.23</v>
+        <v>1466.88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>13566.65</v>
+        <v>1373.23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2644,7 +2633,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>11393.08</v>
+        <v>1239.45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2655,7 +2644,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>10138.959999999999</v>
+        <v>991.44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2663,340 +2652,340 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>9625.2099999999991</v>
+        <v>953.43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <v>8102.46</v>
+        <v>944.11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>5570.11</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>4408.24</v>
+        <v>932.86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35">
-        <v>3098.91</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>2691.13</v>
+        <v>907.27</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C37">
-        <v>2300</v>
+        <v>891.04</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C38">
-        <v>2026.74</v>
+        <v>885.13</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C39">
-        <v>1662.47</v>
+        <v>884.67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C40">
-        <v>1466.88</v>
+        <v>883.13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>80</v>
+ 